--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3EF932-77B3-49FD-9555-389C6245F180}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844590A9-C639-4AEF-B2B5-4F5AA3DEA54F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>USD</t>
   </si>
@@ -68,7 +68,10 @@
     <t>hsbc date</t>
   </si>
   <si>
-    <t>icbc date</t>
+    <t>GM psbc</t>
+  </si>
+  <si>
+    <t>USD 提取</t>
   </si>
 </sst>
 </file>
@@ -162,6 +165,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -171,8 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,13 +459,14 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -488,26 +492,34 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>45490</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>72844</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>10000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>45509</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45511</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45511</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -615,11 +627,11 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844590A9-C639-4AEF-B2B5-4F5AA3DEA54F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D18AE-9A22-49F5-806F-BDFC46ACCDD2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>USD</t>
   </si>
@@ -29,18 +29,12 @@
     <t>RMB</t>
   </si>
   <si>
-    <t>From</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>from</t>
   </si>
   <si>
-    <t>withdraw</t>
-  </si>
-  <si>
     <t>where</t>
   </si>
   <si>
@@ -62,16 +56,25 @@
     <t>阜外大街分行</t>
   </si>
   <si>
-    <t>GP icbc</t>
-  </si>
-  <si>
     <t>hsbc date</t>
   </si>
   <si>
-    <t>GM psbc</t>
-  </si>
-  <si>
     <t>USD 提取</t>
+  </si>
+  <si>
+    <t>grandpa</t>
+  </si>
+  <si>
+    <t>grandma</t>
+  </si>
+  <si>
+    <t>hsbc USD</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>LSQ psbc</t>
   </si>
 </sst>
 </file>
@@ -456,153 +459,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3">
         <v>45490</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E4" s="4">
         <v>72844</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F4" s="4">
         <v>10000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="3">
         <v>45509</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
         <v>45511</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4">
+      <c r="E5" s="1"/>
+      <c r="F5" s="4">
         <v>10000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="3">
         <v>45511</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>45512</v>
+      </c>
+      <c r="E6" s="4">
+        <v>71992</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -612,7 +669,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +685,7 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -637,36 +694,36 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D18AE-9A22-49F5-806F-BDFC46ACCDD2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E79CB4-F6AA-4DD6-8F6F-47509B9FAF68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>USD</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>LSQ psbc</t>
+  </si>
+  <si>
+    <t>Channel520</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +476,7 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -504,7 +508,9 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -562,9 +568,16 @@
       <c r="F6" s="4">
         <v>10000</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="4">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45512</v>
+      </c>
+      <c r="I6" s="4">
+        <f>F6-G6</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E79CB4-F6AA-4DD6-8F6F-47509B9FAF68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC5B28-0E7C-411F-AE1B-C8CCBDB54BA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>USD</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Channel520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM's final </t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,14 +482,14 @@
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,7 +515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -534,7 +537,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -553,8 +556,11 @@
         <v>45511</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,7 +585,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -589,7 +595,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -599,7 +605,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -609,7 +615,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -619,7 +625,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -629,7 +635,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -639,7 +645,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -649,7 +655,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -659,7 +665,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC5B28-0E7C-411F-AE1B-C8CCBDB54BA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8124B-7DCC-4DD0-AC46-CB2E98DD64D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>USD</t>
   </si>
@@ -41,9 +41,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>channel520</t>
-  </si>
-  <si>
     <t>TB icbc</t>
   </si>
   <si>
@@ -53,24 +50,12 @@
     <t>source</t>
   </si>
   <si>
-    <t>阜外大街分行</t>
-  </si>
-  <si>
-    <t>hsbc date</t>
-  </si>
-  <si>
-    <t>USD 提取</t>
-  </si>
-  <si>
     <t>grandpa</t>
   </si>
   <si>
     <t>grandma</t>
   </si>
   <si>
-    <t>hsbc USD</t>
-  </si>
-  <si>
     <t>withdrawal</t>
   </si>
   <si>
@@ -80,14 +65,75 @@
     <t>Channel520</t>
   </si>
   <si>
-    <t xml:space="preserve">GM's final </t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>PKX ATM</t>
+  </si>
+  <si>
+    <t>Sgp bank</t>
+  </si>
+  <si>
+    <t>HSBC.sg?</t>
+  </si>
+  <si>
+    <t>存入 HSBC.cn</t>
+  </si>
+  <si>
+    <t>LSQ icbc</t>
+  </si>
+  <si>
+    <t>3300?</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD withdrawal</t>
+  </si>
+  <si>
+    <t>提取日期</t>
+  </si>
+  <si>
+    <t>存入日期</t>
+  </si>
+  <si>
+    <t>late Oct</t>
+  </si>
+  <si>
+    <t>part of 1560k 非赠送</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>BOC?</t>
+  </si>
+  <si>
+    <t>ChannelM</t>
+  </si>
+  <si>
+    <t>within 
+a week</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>^ max out</t>
+  </si>
+  <si>
+    <t>我来之前取现钞</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +141,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,18 +222,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,6 +298,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,127 +612,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45490</v>
+      </c>
+      <c r="E4" s="3">
+        <v>72844</v>
+      </c>
+      <c r="F4" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45509</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <v>45511</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45511</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45512</v>
+      </c>
+      <c r="E6" s="3">
+        <v>71992</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45512</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3">
+        <f>F6-H6</f>
+        <v>6000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45514</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>F9</f>
+        <v>3300?</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45598</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45598</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="3">
+        <f>10000-H6</f>
+        <v>6000</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3">
+        <f>30000-F10-F12</f>
+        <v>12000</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5305DF-8BEA-4490-8F58-D1BC24DFAC17}">
+  <dimension ref="B2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45514</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3">
-        <v>45490</v>
-      </c>
-      <c r="E4" s="4">
-        <v>72844</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>10000</v>
       </c>
-      <c r="G4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45509</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45511</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>45511</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="3">
-        <v>45512</v>
-      </c>
-      <c r="E6" s="4">
-        <v>71992</v>
-      </c>
-      <c r="F6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>4000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>45512</v>
-      </c>
-      <c r="I6" s="4">
-        <f>F6-G6</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -595,7 +1155,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -605,7 +1165,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -615,7 +1175,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -625,7 +1185,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -635,7 +1195,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -645,7 +1205,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -655,7 +1215,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -665,7 +1225,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -675,183 +1235,30 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5305DF-8BEA-4490-8F58-D1BC24DFAC17}">
-  <dimension ref="B2:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8124B-7DCC-4DD0-AC46-CB2E98DD64D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351C354-663B-4425-AD76-A722CD6F56B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,31 +289,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,10 +307,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +615,7 @@
   <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,37 +623,38 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" style="16" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -706,10 +707,10 @@
       <c r="E4" s="3">
         <v>72844</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>10000</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="3">
         <v>10000</v>
       </c>
@@ -734,10 +735,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>10000</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3">
         <v>10000</v>
       </c>
@@ -762,10 +763,10 @@
       <c r="E6" s="3">
         <v>71992</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="24">
         <v>10000</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="3">
         <v>4000</v>
       </c>
@@ -784,8 +785,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="3">
@@ -807,8 +808,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
@@ -852,12 +853,12 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="15">
+      <c r="F10" s="24">
         <v>8000</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="3">
         <v>2000</v>
       </c>
@@ -876,16 +877,16 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="3">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="1"/>
@@ -899,19 +900,19 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>10000</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -925,13 +926,13 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="17" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="11" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3">
@@ -948,11 +949,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="3"/>
@@ -964,28 +965,28 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="1" t="s">
         <v>32</v>
       </c>
@@ -999,11 +1000,11 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1015,11 +1016,11 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1063,16 +1064,16 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351C354-663B-4425-AD76-A722CD6F56B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3EE48-6544-42BA-B7FF-179E58815B9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>USD</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>LSQ icbc</t>
-  </si>
-  <si>
-    <t>3300?</t>
   </si>
   <si>
     <t>NA</t>
@@ -133,6 +130,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$¥-804]#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -292,7 +293,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,15 +323,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +632,7 @@
   <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,37 +641,37 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -664,31 +681,31 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -704,23 +721,23 @@
       <c r="D4" s="2">
         <v>45490</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="33">
         <v>72844</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="24">
         <v>10000</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="3">
+      <c r="H4" s="30">
         <v>10000</v>
       </c>
       <c r="I4" s="2">
         <v>45509</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -732,23 +749,23 @@
       <c r="D5" s="2">
         <v>45511</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="24">
         <v>10000</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="3">
+      <c r="H5" s="30">
         <v>10000</v>
       </c>
       <c r="I5" s="2">
         <v>45511</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -760,23 +777,23 @@
       <c r="D6" s="2">
         <v>45512</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="33">
         <v>71992</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="25">
         <v>10000</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="3">
+      <c r="G6" s="12"/>
+      <c r="H6" s="30">
         <v>4000</v>
       </c>
       <c r="I6" s="2">
         <v>45512</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -784,12 +801,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="3">
+      <c r="J7" s="30">
         <f>F6-H6</f>
         <v>6000</v>
       </c>
@@ -799,7 +816,7 @@
       <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -807,15 +824,15 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -825,48 +842,50 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>20</v>
       </c>
+      <c r="F9" s="24">
+        <v>3300</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="30">
         <f>F9</f>
-        <v>3300?</v>
+        <v>3300</v>
       </c>
       <c r="K9" s="2">
         <v>45598</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="24">
+      <c r="E10" s="33"/>
+      <c r="F10" s="25">
         <v>8000</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="3">
+      <c r="G10" s="12"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="30">
         <v>2000</v>
       </c>
       <c r="K10" s="2">
         <v>45598</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -876,22 +895,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="3">
+      <c r="E11" s="33"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="30">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>33</v>
+      <c r="I11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
@@ -900,22 +919,22 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10">
+      <c r="D12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="24">
         <v>10000</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="3">
+      <c r="H12" s="30">
         <v>10000</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -925,22 +944,22 @@
         <v>7</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="11" t="s">
-        <v>33</v>
+      <c r="E13" s="33"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="3">
+      <c r="M13" s="30">
         <f>30000-F10-F12</f>
         <v>12000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -948,15 +967,15 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -964,34 +983,34 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="30"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -999,15 +1018,15 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -1015,15 +1034,15 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -1047,7 +1066,7 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,16 +1083,16 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="26"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="23"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1119,11 +1138,11 @@
         <v>10000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3EE48-6544-42BA-B7FF-179E58815B9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FE287-E2AD-4EA6-85D0-812A223EC9B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>USD</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>我来之前取现钞</t>
+  </si>
+  <si>
+    <t>early Jan</t>
   </si>
 </sst>
 </file>
@@ -308,32 +311,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +328,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +635,7 @@
   <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,37 +644,37 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="18" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -683,20 +686,20 @@
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -705,7 +708,7 @@
       <c r="L3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -721,23 +724,23 @@
       <c r="D4" s="2">
         <v>45490</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="25">
         <v>72844</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>10000</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="30">
+      <c r="H4" s="22">
         <v>10000</v>
       </c>
       <c r="I4" s="2">
         <v>45509</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="30"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -749,23 +752,23 @@
       <c r="D5" s="2">
         <v>45511</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>10000</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="30">
+      <c r="H5" s="22">
         <v>10000</v>
       </c>
       <c r="I5" s="2">
         <v>45511</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="30"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -777,23 +780,23 @@
       <c r="D6" s="2">
         <v>45512</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="25">
         <v>71992</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="32">
         <v>10000</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="30">
+      <c r="H6" s="22">
         <v>4000</v>
       </c>
       <c r="I6" s="2">
         <v>45512</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -801,12 +804,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="30">
+      <c r="J7" s="22">
         <f>F6-H6</f>
         <v>6000</v>
       </c>
@@ -816,7 +819,7 @@
       <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -824,15 +827,15 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="30"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -844,16 +847,16 @@
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <v>3300</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="30">
+      <c r="J9" s="22">
         <f>F9</f>
         <v>3300</v>
       </c>
@@ -861,7 +864,7 @@
         <v>45598</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="30"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -871,21 +874,21 @@
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="25">
+      <c r="E10" s="25"/>
+      <c r="F10" s="32">
         <v>8000</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="30">
+      <c r="J10" s="22">
         <v>2000</v>
       </c>
       <c r="K10" s="2">
         <v>45598</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="30"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -895,22 +898,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="30">
+      <c r="H11" s="22">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="30"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
@@ -922,19 +925,19 @@
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="24">
+      <c r="E12" s="25"/>
+      <c r="F12" s="18">
         <v>10000</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="30">
+      <c r="H12" s="22">
         <v>10000</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="30"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -944,54 +947,60 @@
         <v>7</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="30">
+      <c r="M13" s="22">
         <f>30000-F10-F12</f>
         <v>12000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="22">
+        <v>40000</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="30"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="Q15" s="11"/>
@@ -1000,17 +1009,17 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -1018,15 +1027,15 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="30"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -1034,15 +1043,15 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="31"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="30"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -1083,16 +1092,16 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FE287-E2AD-4EA6-85D0-812A223EC9B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC1693C-08F8-4EAE-9C5C-EADD85DA4D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>USD</t>
   </si>
@@ -84,12 +93,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USD withdrawal</t>
-  </si>
-  <si>
-    <t>提取日期</t>
   </si>
   <si>
     <t>存入日期</t>
@@ -127,6 +130,15 @@
   </si>
   <si>
     <t>early Jan</t>
+  </si>
+  <si>
+    <t>RMB -&gt; USD</t>
+  </si>
+  <si>
+    <t>reduce TT frequency</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
 </sst>
 </file>
@@ -303,9 +315,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,9 +325,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +356,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +647,7 @@
   <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,37 +656,37 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -684,31 +696,31 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -724,23 +736,23 @@
       <c r="D4" s="2">
         <v>45490</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>72844</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>10000</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>10000</v>
       </c>
       <c r="I4" s="2">
         <v>45509</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -752,23 +764,23 @@
       <c r="D5" s="2">
         <v>45511</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>10000</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>10000</v>
       </c>
       <c r="I5" s="2">
         <v>45511</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -780,23 +792,23 @@
       <c r="D6" s="2">
         <v>45512</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>71992</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <v>10000</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>4000</v>
       </c>
       <c r="I6" s="2">
         <v>45512</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -804,12 +816,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <f>F6-H6</f>
         <v>6000</v>
       </c>
@@ -819,7 +831,7 @@
       <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -827,15 +839,15 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="22"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="22"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -845,18 +857,18 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>3300</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <f>F9</f>
         <v>3300</v>
       </c>
@@ -864,7 +876,7 @@
         <v>45598</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -874,21 +886,21 @@
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="32">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30">
         <v>8000</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="22">
+      <c r="H10" s="20"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="20">
         <v>2000</v>
       </c>
       <c r="K10" s="2">
         <v>45598</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -898,22 +910,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="22">
+      <c r="H11" s="20">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>32</v>
+      <c r="I11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="22"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
@@ -922,22 +934,22 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="18">
+      <c r="D12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
         <v>10000</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>10000</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="22"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -946,45 +958,51 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="23" t="s">
-        <v>32</v>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="33">
+        <v>12000</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="23"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="22">
-        <f>30000-F10-F12</f>
-        <v>12000</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="30">
+        <v>50000</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="23"/>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="33">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="22">
-        <v>40000</v>
-      </c>
+      <c r="M14" s="31"/>
       <c r="N14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1"/>
     </row>
@@ -992,15 +1010,15 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="22"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="Q15" s="11"/>
@@ -1009,17 +1027,17 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -1027,15 +1045,15 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="22"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -1043,20 +1061,21 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="F10:F11"/>
@@ -1092,16 +1111,16 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="34"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="32"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1147,11 +1166,11 @@
         <v>10000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC1693C-08F8-4EAE-9C5C-EADD85DA4D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3949491-DEFF-4F26-BD73-8C39CE94921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>USD</t>
   </si>
@@ -44,9 +44,6 @@
     <t>from</t>
   </si>
   <si>
-    <t>where</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>PKX ATM</t>
-  </si>
-  <si>
     <t>Sgp bank</t>
   </si>
   <si>
@@ -99,15 +93,6 @@
   </si>
   <si>
     <t>late Oct</t>
-  </si>
-  <si>
-    <t>part of 1560k 非赠送</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>BOC?</t>
   </si>
   <si>
     <t>ChannelM</t>
@@ -126,9 +111,6 @@
     <t>^ max out</t>
   </si>
   <si>
-    <t>我来之前取现钞</t>
-  </si>
-  <si>
     <t>early Jan</t>
   </si>
   <si>
@@ -139,15 +121,69 @@
   </si>
   <si>
     <t>日期</t>
+  </si>
+  <si>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>TB hsbc</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>Sgp deposit</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOC.sg </t>
+  </si>
+  <si>
+    <t>取date</t>
+  </si>
+  <si>
+    <t>存date</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>我来之前取现</t>
+  </si>
+  <si>
+    <t>part of 1560k</t>
+  </si>
+  <si>
+    <t>total RMB ex-China</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>ChannelA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel  </t>
+  </si>
+  <si>
+    <t>FX used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$¥-804]#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -242,17 +278,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -284,11 +309,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -299,31 +333,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -334,6 +367,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,26 +388,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,71 +703,71 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="H2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -731,84 +778,84 @@
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>45490</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>72844</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>10000</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="20">
+      <c r="G4" s="9"/>
+      <c r="H4" s="19">
         <v>10000</v>
       </c>
       <c r="I4" s="2">
         <v>45509</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="20"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2">
         <v>45511</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16">
         <v>10000</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="20">
+      <c r="G5" s="9"/>
+      <c r="H5" s="19">
         <v>10000</v>
       </c>
       <c r="I5" s="2">
         <v>45511</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="20"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>45512</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>71992</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <v>10000</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="20">
+      <c r="G6" s="11"/>
+      <c r="H6" s="19">
         <v>4000</v>
       </c>
       <c r="I6" s="2">
         <v>45512</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -816,12 +863,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f>F6-H6</f>
         <v>6000</v>
       </c>
@@ -829,9 +876,9 @@
         <v>45514</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -839,36 +886,36 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="17">
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16">
         <v>3300</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <f>F9</f>
         <v>3300</v>
       </c>
@@ -876,133 +923,133 @@
         <v>45598</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="20"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="30">
+      <c r="E10" s="22"/>
+      <c r="F10" s="26">
         <v>8000</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="20">
+      <c r="G10" s="11"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="19">
         <v>2000</v>
       </c>
       <c r="K10" s="2">
         <v>45598</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="20"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="20">
+      <c r="E11" s="22"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>30</v>
+      <c r="I11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="20"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="16">
         <v>10000</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="20">
+      <c r="G12" s="9"/>
+      <c r="H12" s="19">
         <v>10000</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="33">
+        <v>20</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24">
         <v>12000</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="21" t="s">
-        <v>30</v>
+      <c r="G13" s="25"/>
+      <c r="H13" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="30">
+      <c r="M13" s="26">
         <v>50000</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="33">
+        <v>26</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24">
         <v>40000</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="31"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O14" s="1"/>
     </row>
@@ -1010,34 +1057,34 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="20"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="21"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="20"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -1045,15 +1092,15 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="21"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -1061,15 +1108,15 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="21"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -1091,223 +1138,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5305DF-8BEA-4490-8F58-D1BC24DFAC17}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>45514</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3">
         <v>10000</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="22">
+        <f>F4</f>
+        <v>10000</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45516</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45541</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="35">
+        <f>I6*H6+G6</f>
+        <v>10072.861999999999</v>
+      </c>
+      <c r="G6" s="37">
+        <v>110</v>
+      </c>
+      <c r="H6" s="38">
+        <v>5.4741</v>
+      </c>
+      <c r="I6" s="34">
+        <v>1820</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45541</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="41">
+        <v>20000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3949491-DEFF-4F26-BD73-8C39CE94921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D14EEE-C0A6-4D81-917D-CB2252121D05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>USD</t>
   </si>
@@ -77,9 +68,6 @@
     <t>Sgp bank</t>
   </si>
   <si>
-    <t>HSBC.sg?</t>
-  </si>
-  <si>
     <t>存入 HSBC.cn</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>存入日期</t>
   </si>
   <si>
     <t>late Oct</t>
@@ -102,9 +87,6 @@
 a week</t>
   </si>
   <si>
-    <t>airport</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -126,15 +108,9 @@
     <t>BOC</t>
   </si>
   <si>
-    <t>TB hsbc</t>
-  </si>
-  <si>
     <t>DBS</t>
   </si>
   <si>
-    <t>Sgp deposit</t>
-  </si>
-  <si>
     <t>ATM</t>
   </si>
   <si>
@@ -150,18 +126,12 @@
     <t>存date</t>
   </si>
   <si>
-    <t>fee</t>
-  </si>
-  <si>
     <t>我来之前取现</t>
   </si>
   <si>
     <t>part of 1560k</t>
   </si>
   <si>
-    <t>total RMB ex-China</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -172,6 +142,25 @@
   </si>
   <si>
     <t>FX used</t>
+  </si>
+  <si>
+    <t>total RMB ex-China as of</t>
+  </si>
+  <si>
+    <t>fee 
+included</t>
+  </si>
+  <si>
+    <t>TB HSBC</t>
+  </si>
+  <si>
+    <t>deposit in Sgp</t>
+  </si>
+  <si>
+    <t>HSBC.sg</t>
+  </si>
+  <si>
+    <t>处境date</t>
   </si>
 </sst>
 </file>
@@ -182,8 +171,8 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$¥-804]#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -322,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -373,21 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,17 +373,46 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q18"/>
+  <dimension ref="B2:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,35 +710,39 @@
     <col min="6" max="6" width="7.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33" t="s">
+      <c r="H2" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -743,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>1</v>
@@ -756,26 +763,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -796,14 +805,16 @@
       <c r="I4" s="2">
         <v>45509</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -824,14 +835,16 @@
       <c r="I5" s="2">
         <v>45511</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -842,7 +855,7 @@
       <c r="E6" s="22">
         <v>71992</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="38">
         <v>10000</v>
       </c>
       <c r="G6" s="11"/>
@@ -852,37 +865,41 @@
       <c r="I6" s="2">
         <v>45512</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="12"/>
       <c r="H7" s="19"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="19">
+      <c r="J7" s="1"/>
+      <c r="K7" s="19">
         <f>F6-H6</f>
         <v>6000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>45514</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="19"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -891,23 +908,25 @@
       <c r="G8" s="12"/>
       <c r="H8" s="19"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="19"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="19"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="16">
         <v>3300</v>
@@ -915,74 +934,80 @@
       <c r="G9" s="5"/>
       <c r="H9" s="19"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="19">
+      <c r="J9" s="1"/>
+      <c r="K9" s="19">
         <f>F9</f>
         <v>3300</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>45598</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="19"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="26">
+      <c r="F10" s="38">
         <v>8000</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="19"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="19">
+      <c r="J10" s="14"/>
+      <c r="K10" s="19">
         <v>2000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>45598</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="12"/>
       <c r="H11" s="19">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="16">
@@ -992,21 +1017,23 @@
       <c r="H12" s="19">
         <v>10000</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="24">
@@ -1014,28 +1041,30 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="38">
+        <v>50000</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="26">
-        <v>50000</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="24">
@@ -1044,16 +1073,18 @@
       <c r="G14" s="25"/>
       <c r="H14" s="20"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1062,15 +1093,17 @@
       <c r="G15" s="25"/>
       <c r="H15" s="20"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="19"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O15" s="19"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1079,16 +1112,18 @@
       <c r="G16" s="25"/>
       <c r="H16" s="20"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="19"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="19"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1097,14 +1132,16 @@
       <c r="G17" s="25"/>
       <c r="H17" s="20"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="19"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1113,22 +1150,24 @@
       <c r="G18" s="25"/>
       <c r="H18" s="20"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5305DF-8BEA-4490-8F58-D1BC24DFAC17}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1191,7 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -1163,20 +1202,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="39"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1186,27 +1228,25 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="48" t="s">
         <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>4</v>
@@ -1223,23 +1263,23 @@
         <v>45514</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>10000</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="32">
         <v>0</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>18</v>
+      <c r="H4" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="22">
         <f>F4</f>
         <v>10000</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2">
         <v>45516</v>
@@ -1248,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1257,8 +1297,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1267,38 +1307,38 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>45541</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="35">
+        <v>31</v>
+      </c>
+      <c r="F6" s="30">
         <f>I6*H6+G6</f>
         <v>10072.861999999999</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="32">
         <v>110</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="33">
         <v>5.4741</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="29">
         <v>1820</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2">
         <v>45541</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -1308,8 +1348,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1322,8 +1362,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1336,8 +1376,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1350,8 +1390,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1364,8 +1404,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1378,8 +1418,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1392,8 +1432,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1406,8 +1446,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1420,8 +1460,8 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1434,8 +1474,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1448,8 +1488,8 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1457,24 +1497,28 @@
       <c r="M17" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="41">
+      <c r="F19" s="36">
         <v>20000</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+        <v>36</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47">
+        <v>45541</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="H19:K19"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447F993-3D21-4FDC-A990-A59CAA2280D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2C095-5FF1-416B-B6DC-163B2E970A05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="3735" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
+    <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>RMB -&gt; USD</t>
   </si>
@@ -164,6 +165,151 @@
   </si>
   <si>
     <t>RMB62 fee excluded</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>transaction cost</t>
+  </si>
+  <si>
+    <t>~ 1%</t>
+  </si>
+  <si>
+    <t>offset 1% cost over 3mTD</t>
+  </si>
+  <si>
+    <t>二老quota之外</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>Rmb 20k/trip</t>
+  </si>
+  <si>
+    <t>Rmb 100k/head</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>throughput</t>
+  </si>
+  <si>
+    <t>50k noe-shot</t>
+  </si>
+  <si>
+    <t>ChannelA: I control</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>多次带现金旅行</t>
+  </si>
+  <si>
+    <t>.. Minor</t>
+  </si>
+  <si>
+    <t>misplaced@DJDJ</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>receiving: low</t>
+  </si>
+  <si>
+    <t>surveillance Risk for</t>
+  </si>
+  <si>
+    <t>citizen</t>
+  </si>
+  <si>
+    <t>Rmb</t>
+  </si>
+  <si>
+    <t>best: none</t>
+  </si>
+  <si>
+    <t>me+wife</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>best: free</t>
+  </si>
+  <si>
+    <t>$30k/wk</t>
+  </si>
+  <si>
+    <t>$5k/trip</t>
+  </si>
+  <si>
+    <t>risk @ 丢失</t>
+  </si>
+  <si>
+    <t>for me</t>
+  </si>
+  <si>
+    <t>for citizens</t>
+  </si>
+  <si>
+    <t>二老quota之内</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>overall safety</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>H=HSBC</t>
+  </si>
+  <si>
+    <t>A=ATM</t>
+  </si>
+  <si>
+    <t>M=mob</t>
+  </si>
+  <si>
+    <t>deposit/txfer
+: medium</t>
+  </si>
+  <si>
+    <t>M2: low for  my family</t>
+  </si>
+  <si>
+    <t>USD 取现: medium</t>
+  </si>
+  <si>
+    <t>&gt; 0.6%</t>
   </si>
 </sst>
 </file>
@@ -176,7 +322,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,12 +346,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,7 +543,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,7 +564,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,7 +605,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,28 +955,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="3" t="s">
@@ -864,7 +1091,7 @@
       <c r="E6" s="13">
         <v>71992</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="44">
         <v>10000</v>
       </c>
       <c r="G6" s="23"/>
@@ -888,7 +1115,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="41"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="25"/>
       <c r="H7" s="21"/>
       <c r="I7" s="3"/>
@@ -964,7 +1191,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="40">
+      <c r="F10" s="44">
         <v>8000</v>
       </c>
       <c r="G10" s="23"/>
@@ -990,13 +1217,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="25"/>
       <c r="H11" s="21">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="46" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="32"/>
@@ -1026,7 +1253,7 @@
       <c r="H12" s="21">
         <v>10000</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="33"/>
       <c r="K12" s="29"/>
       <c r="L12" s="3"/>
@@ -1058,7 +1285,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="40">
+      <c r="O13" s="44">
         <v>50000</v>
       </c>
       <c r="P13" s="3"/>
@@ -1087,7 +1314,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -1211,21 +1438,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="53" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1245,7 +1472,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="36" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1630,7 @@
         <f>I8*H8</f>
         <v>9995.8040000000001</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="43">
         <v>0</v>
       </c>
       <c r="H8" s="37">
@@ -1558,12 +1785,12 @@
       <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -1576,4 +1803,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A99A6-4F80-460F-8A81-AF8F5FFCE67C}">
+  <dimension ref="B2:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="55"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="55"/>
+      <c r="C3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="58">
+        <v>520</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="55"/>
+      <c r="C4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="69">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="55"/>
+      <c r="C5" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="55"/>
+      <c r="C6" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="71"/>
+      <c r="C8" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="56"/>
+      <c r="C10" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2C095-5FF1-416B-B6DC-163B2E970A05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B00A7C7-689B-4EB2-A8C5-52119D677A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="0" windowWidth="17205" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,17 @@
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,9 +238,6 @@
     <t>Highest</t>
   </si>
   <si>
-    <t>receiving: low</t>
-  </si>
-  <si>
     <t>surveillance Risk for</t>
   </si>
   <si>
@@ -299,17 +307,20 @@
     <t>M=mob</t>
   </si>
   <si>
-    <t>deposit/txfer
+    <t>M2: low for  my family</t>
+  </si>
+  <si>
+    <t>&gt; 0.6%</t>
+  </si>
+  <si>
+    <t>receiving: low risk</t>
+  </si>
+  <si>
+    <t>deposit/xfer
 : medium</t>
   </si>
   <si>
-    <t>M2: low for  my family</t>
-  </si>
-  <si>
-    <t>USD 取现: medium</t>
-  </si>
-  <si>
-    <t>&gt; 0.6%</t>
+    <t>USD 取现: high</t>
   </si>
 </sst>
 </file>
@@ -322,12 +333,19 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,7 +561,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,7 +582,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,7 +592,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,57 +659,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,28 +980,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="51"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="3" t="s">
@@ -1091,7 +1116,7 @@
       <c r="E6" s="13">
         <v>71992</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="60">
         <v>10000</v>
       </c>
       <c r="G6" s="23"/>
@@ -1115,7 +1140,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="45"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="25"/>
       <c r="H7" s="21"/>
       <c r="I7" s="3"/>
@@ -1191,7 +1216,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="44">
+      <c r="F10" s="60">
         <v>8000</v>
       </c>
       <c r="G10" s="23"/>
@@ -1217,13 +1242,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="45"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="25"/>
       <c r="H11" s="21">
         <f>10000-H6</f>
         <v>6000</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="62" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="32"/>
@@ -1253,7 +1278,7 @@
       <c r="H12" s="21">
         <v>10000</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="33"/>
       <c r="K12" s="29"/>
       <c r="L12" s="3"/>
@@ -1285,7 +1310,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="44">
+      <c r="O13" s="60">
         <v>50000</v>
       </c>
       <c r="P13" s="3"/>
@@ -1314,7 +1339,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="45"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1438,21 +1463,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="53" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="69" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1472,7 +1497,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="36" t="s">
         <v>45</v>
       </c>
@@ -1785,12 +1810,12 @@
       <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -1810,14 +1835,14 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1830,143 +1855,143 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="55"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="42" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="42"/>
-      <c r="H2" s="59" t="s">
-        <v>69</v>
+      <c r="H2" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="45"/>
+      <c r="C3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="55"/>
-      <c r="C3" s="61" t="s">
+      <c r="D3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="72">
+        <v>520</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="72"/>
+      <c r="J3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="45"/>
+      <c r="C4" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="58">
-        <v>520</v>
-      </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="55"/>
-      <c r="C4" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="69">
+      <c r="E4" s="56">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
+      <c r="F4" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="54" t="s">
+      <c r="K4" s="67"/>
+      <c r="L4" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="55"/>
-      <c r="C5" s="65" t="s">
-        <v>77</v>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="H5" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="55"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="51"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
@@ -1977,115 +2002,115 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="71"/>
-      <c r="C8" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="66" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="66"/>
+      <c r="B9" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="59" t="s">
-        <v>92</v>
+      <c r="L9" s="77" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="56"/>
-      <c r="C10" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="50"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="66"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="50"/>
+      <c r="J10" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="66"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="59" t="s">
+      <c r="J11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="47" t="s">
         <v>83</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>84</v>
       </c>
       <c r="L11" s="3"/>
     </row>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B00A7C7-689B-4EB2-A8C5-52119D677A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B369090-C532-4566-A80E-AFF23A58D084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="0" windowWidth="17205" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>RMB -&gt; USD</t>
   </si>
@@ -178,9 +178,6 @@
     <t>RMB62 fee excluded</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>misplaced@DJDJ</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>Highest</t>
   </si>
   <si>
@@ -277,25 +271,10 @@
     <t>二老quota之内</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>overall safety</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C+</t>
   </si>
   <si>
     <t>H=HSBC</t>
@@ -320,7 +299,31 @@
 : medium</t>
   </si>
   <si>
-    <t>USD 取现: high</t>
+    <t>取</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>USD 取现: medium</t>
+  </si>
+  <si>
+    <t>overall family safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
   </si>
 </sst>
 </file>
@@ -333,12 +336,19 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,7 +571,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,7 +592,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,15 +602,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,26 +619,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,26 +673,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -956,54 +970,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S18"/>
+  <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="0.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="0.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="0.5703125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="0.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="0.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
-      <c r="D2" s="64" t="s">
+    <row r="2" spans="2:20">
+      <c r="D2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="64" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="66"/>
-    </row>
-    <row r="3" spans="2:19">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+    </row>
+    <row r="3" spans="2:20">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1013,39 +1029,42 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="2:19">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -1053,29 +1072,32 @@
       <c r="D4" s="4">
         <v>45490</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="13">
         <v>72844</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="20">
         <v>10000</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21">
+      <c r="H4" s="22"/>
+      <c r="I4" s="21">
         <v>10000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>45509</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1083,29 +1105,32 @@
       <c r="D5" s="4">
         <v>45511</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20">
+      <c r="G5" s="20">
         <v>10000</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21">
+      <c r="H5" s="22"/>
+      <c r="I5" s="21">
         <v>10000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>45511</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1113,72 +1138,77 @@
       <c r="D6" s="4">
         <v>45512</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="13">
         <v>71992</v>
       </c>
-      <c r="F6" s="60">
+      <c r="G6" s="62">
         <v>10000</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21">
+      <c r="H6" s="23"/>
+      <c r="I6" s="21">
         <v>4000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>45512</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="21">
-        <f>F6-H6</f>
+      <c r="K7" s="3"/>
+      <c r="L7" s="21">
+        <f>G6-I6</f>
         <v>6000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>45514</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="2:19" ht="4.5" customHeight="1">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" ht="4.5" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:19">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1186,83 +1216,92 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20">
+      <c r="G9" s="20">
         <v>3300</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="21">
-        <f>F9</f>
+      <c r="K9" s="3"/>
+      <c r="L9" s="21">
+        <f>G9</f>
         <v>3300</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>45598</v>
       </c>
-      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:19">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="60">
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="62">
+        <f>I11+L10</f>
         <v>8000</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="31"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="21">
+      <c r="K10" s="31"/>
+      <c r="L10" s="21">
         <v>2000</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>45598</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:19">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="21">
-        <f>10000-H6</f>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="21">
         <v>6000</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="J11" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="2:20" ht="15" customHeight="1">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1270,25 +1309,28 @@
       <c r="D12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="20">
+      <c r="E12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="20">
         <v>10000</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21">
+      <c r="H12" s="22"/>
+      <c r="I12" s="21">
         <v>10000</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:19">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1296,30 +1338,33 @@
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="27">
+      <c r="E13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="27">
         <v>12000</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="60">
+      <c r="O13" s="3"/>
+      <c r="P13" s="62">
         <v>50000</v>
       </c>
-      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:20">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -1327,109 +1372,116 @@
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="27">
+      <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="27">
         <v>40000</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:19">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:20">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="3"/>
-      <c r="S15" s="34"/>
-    </row>
-    <row r="16" spans="2:19">
+      <c r="R15" s="3"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="2:20">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1463,21 +1515,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="69" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="71" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1497,7 +1549,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="36" t="s">
         <v>45</v>
       </c>
@@ -1810,12 +1862,12 @@
       <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -1835,7 +1887,7 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1862,14 +1914,14 @@
         <v>8</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
@@ -1878,105 +1930,105 @@
     <row r="3" spans="2:12">
       <c r="B3" s="45"/>
       <c r="C3" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="72">
+        <v>80</v>
+      </c>
+      <c r="E3" s="74">
         <v>520</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="58"/>
-      <c r="H3" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="72"/>
+      <c r="H3" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="74"/>
       <c r="J3" s="46" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="45"/>
       <c r="C4" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="56">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="47"/>
-      <c r="H4" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="H4" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="69"/>
+      <c r="L4" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="44" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="45"/>
       <c r="C5" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="45"/>
       <c r="C6" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="59"/>
-      <c r="H6" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="70" t="s">
-        <v>58</v>
+      <c r="B7" s="72" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>19</v>
@@ -1985,133 +2037,131 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="67" t="s">
+      <c r="I7" s="69"/>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="47" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="44"/>
       <c r="L8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="74" t="s">
-        <v>67</v>
+      <c r="B9" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="67"/>
+        <v>76</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="69"/>
       <c r="F9" s="53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="77" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="74"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="66"/>
+        <v>75</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="68"/>
       <c r="G10" s="41"/>
       <c r="H10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="66"/>
+        <v>60</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="68"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="52"/>
-      <c r="C11" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>47</v>
+      <c r="C11" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="47" t="s">
-        <v>85</v>
+      <c r="H11" s="79" t="s">
+        <v>92</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="47"/>
       <c r="L11" s="3"/>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B369090-C532-4566-A80E-AFF23A58D084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F7755-26F9-41BE-BA23-E05D13F9058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>RMB -&gt; USD</t>
   </si>
@@ -643,6 +643,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,16 +689,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,29 +995,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" s="3" t="s">
@@ -1144,7 +1144,7 @@
       <c r="F6" s="13">
         <v>71992</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="64">
         <v>10000</v>
       </c>
       <c r="H6" s="23"/>
@@ -1169,7 +1169,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="63"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="25"/>
       <c r="I7" s="21"/>
       <c r="J7" s="3"/>
@@ -1252,7 +1252,7 @@
         <v>88</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="62">
+      <c r="G10" s="64">
         <f>I11+L10</f>
         <v>8000</v>
       </c>
@@ -1282,12 +1282,12 @@
         <v>88</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="63"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="25"/>
       <c r="I11" s="21">
         <v>6000</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="66" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="32"/>
@@ -1320,7 +1320,7 @@
       <c r="I12" s="21">
         <v>10000</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="33"/>
       <c r="L12" s="29"/>
       <c r="M12" s="3"/>
@@ -1355,7 +1355,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="62">
+      <c r="P13" s="64">
         <v>50000</v>
       </c>
       <c r="Q13" s="3"/>
@@ -1387,7 +1387,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="63"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1515,21 +1515,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="73" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="36" t="s">
         <v>45</v>
       </c>
@@ -1704,8 +1704,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="7">
-        <f>I8*H8</f>
-        <v>9995.8040000000001</v>
+        <v>9995.7999999999993</v>
       </c>
       <c r="G8" s="43">
         <v>0</v>
@@ -1730,46 +1729,121 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45567</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7">
+        <v>9971.7800000000007</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <f>F9/I9</f>
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1820</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45567</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45568</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7">
+        <v>9981.18</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <f t="shared" ref="H10:H11" si="0">F10/I10</f>
+        <v>5.4541967213114759</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1830</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45568</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45569</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7">
+        <v>9974.42</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="0"/>
+        <v>5.4505027322404374</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1830</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45569</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="3"/>
@@ -1857,17 +1931,17 @@
     </row>
     <row r="19" spans="2:13">
       <c r="F19" s="8">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -1886,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A99A6-4F80-460F-8A81-AF8F5FFCE67C}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -1935,15 +2009,15 @@
       <c r="D3" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="76">
         <v>520</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="58"/>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="46" t="s">
         <v>82</v>
       </c>
@@ -1969,14 +2043,14 @@
         <v>71</v>
       </c>
       <c r="G4" s="47"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="44" t="s">
         <v>51</v>
       </c>
@@ -1989,17 +2063,17 @@
       <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
@@ -2007,24 +2081,24 @@
       <c r="C6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="53" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="59"/>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="74" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="52" t="s">
@@ -2040,10 +2114,10 @@
         <v>54</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="69"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
@@ -2053,7 +2127,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="73"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="52" t="s">
         <v>77</v>
       </c>
@@ -2082,16 +2156,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="79" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="53" t="s">
         <v>68</v>
       </c>
@@ -2113,17 +2187,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="76"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="52" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="41"/>
       <c r="H10" s="47" t="s">
         <v>19</v>
@@ -2131,34 +2205,34 @@
       <c r="I10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="68"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="52"/>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="63" t="s">
         <v>93</v>
       </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="63" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="63" t="s">
         <v>94</v>
       </c>
       <c r="K11" s="47"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F7755-26F9-41BE-BA23-E05D13F9058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518398A7-B894-4942-99F5-EAAE2D4A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>RMB -&gt; USD</t>
   </si>
@@ -175,9 +175,6 @@
     <t>FX</t>
   </si>
   <si>
-    <t>RMB62 fee excluded</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>SCB</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -518,11 +518,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,7 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -694,6 +704,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,29 +1023,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="71"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" s="3" t="s">
@@ -1030,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>7</v>
@@ -1073,7 +1101,7 @@
         <v>45490</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="13">
         <v>72844</v>
@@ -1106,7 +1134,7 @@
         <v>45511</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>15</v>
@@ -1139,12 +1167,12 @@
         <v>45512</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="13">
         <v>71992</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="63">
         <v>10000</v>
       </c>
       <c r="H6" s="23"/>
@@ -1169,7 +1197,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="65"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="25"/>
       <c r="I7" s="21"/>
       <c r="J7" s="3"/>
@@ -1217,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>19</v>
@@ -1249,10 +1277,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="64">
+      <c r="G10" s="63">
         <f>I11+L10</f>
         <v>8000</v>
       </c>
@@ -1279,15 +1307,15 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="65"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="25"/>
       <c r="I11" s="21">
         <v>6000</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="65" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="32"/>
@@ -1310,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="20">
@@ -1320,7 +1348,7 @@
       <c r="I12" s="21">
         <v>10000</v>
       </c>
-      <c r="J12" s="67"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="33"/>
       <c r="L12" s="29"/>
       <c r="M12" s="3"/>
@@ -1339,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="27">
@@ -1355,7 +1383,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="64">
+      <c r="P13" s="63">
         <v>50000</v>
       </c>
       <c r="Q13" s="3"/>
@@ -1373,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="27">
@@ -1387,7 +1415,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="65"/>
+      <c r="P14" s="64"/>
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1510,26 +1538,26 @@
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="73" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="72" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1549,7 +1577,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="36" t="s">
         <v>45</v>
       </c>
@@ -1663,9 +1691,7 @@
       <c r="D7" s="4">
         <v>45545</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="7">
         <f>I7*H7+G7</f>
         <v>10067.766</v>
@@ -1679,7 +1705,7 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="79" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="4">
@@ -1700,13 +1726,11 @@
       <c r="D8" s="4">
         <v>45549</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="82">
         <v>0</v>
       </c>
       <c r="H8" s="37">
@@ -1715,18 +1739,14 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>37</v>
-      </c>
+      <c r="J8" s="80"/>
       <c r="K8" s="4">
         <v>45549</v>
       </c>
       <c r="L8" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="3" t="s">
@@ -1738,15 +1758,11 @@
       <c r="D9" s="4">
         <v>45567</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G9" s="43">
-        <v>0</v>
-      </c>
+      <c r="G9" s="83"/>
       <c r="H9" s="37">
         <f>F9/I9</f>
         <v>5.4790000000000001</v>
@@ -1754,18 +1770,14 @@
       <c r="I9" s="14">
         <v>1820</v>
       </c>
-      <c r="J9" s="39" t="s">
-        <v>37</v>
-      </c>
+      <c r="J9" s="80"/>
       <c r="K9" s="4">
         <v>45567</v>
       </c>
       <c r="L9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="3" t="s">
@@ -1777,34 +1789,26 @@
       <c r="D10" s="4">
         <v>45568</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G10" s="43">
-        <v>0</v>
-      </c>
+      <c r="G10" s="83"/>
       <c r="H10" s="37">
-        <f t="shared" ref="H10:H11" si="0">F10/I10</f>
+        <f t="shared" ref="H10:H13" si="0">F10/I10</f>
         <v>5.4541967213114759</v>
       </c>
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>37</v>
-      </c>
+      <c r="J10" s="80"/>
       <c r="K10" s="4">
         <v>45568</v>
       </c>
       <c r="L10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="3" t="s">
@@ -1816,15 +1820,11 @@
       <c r="D11" s="4">
         <v>45569</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G11" s="43">
-        <v>0</v>
-      </c>
+      <c r="G11" s="83"/>
       <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1832,45 +1832,79 @@
       <c r="I11" s="14">
         <v>1830</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>37</v>
-      </c>
+      <c r="J11" s="81"/>
       <c r="K11" s="4">
         <v>45569</v>
       </c>
       <c r="L11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45573</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="F12" s="3">
+        <v>9958.67</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="37">
+        <f t="shared" si="0"/>
+        <v>5.4418961748633876</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1830</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45573</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45576</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="F13" s="3">
+        <v>9954.65</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="37">
+        <f t="shared" si="0"/>
+        <v>5.4396994535519125</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1830</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45576</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13">
@@ -1931,25 +1965,27 @@
     </row>
     <row r="19" spans="2:13">
       <c r="F19" s="8">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="G8:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1968,7 +2004,7 @@
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1981,261 +2017,261 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="45"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="42" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="44"/>
+      <c r="C3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="75">
+        <v>520</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="75"/>
+      <c r="J3" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="44"/>
+      <c r="C4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="55">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="44"/>
+      <c r="C5" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="45"/>
-      <c r="C3" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="76">
-        <v>520</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="46" t="s">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="44"/>
+      <c r="C6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="74"/>
+      <c r="C8" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="45"/>
-      <c r="C4" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="56">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="77" t="s">
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="78"/>
+      <c r="C10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="45"/>
-      <c r="C5" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="45"/>
-      <c r="C6" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="75"/>
-      <c r="C8" s="52" t="s">
+      <c r="K10" s="69"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="51"/>
+      <c r="C11" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="79"/>
-      <c r="C10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="52"/>
-      <c r="C11" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="63" t="s">
+      <c r="J11" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="3"/>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518398A7-B894-4942-99F5-EAAE2D4A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF6B8B-4003-445E-BAD2-D88563CF7E45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -102,9 +91,6 @@
     <t>^ max out</t>
   </si>
   <si>
-    <t>我来之前取现</t>
-  </si>
-  <si>
     <t>reduce TT frequency</t>
   </si>
   <si>
@@ -324,6 +310,9 @@
   </si>
   <si>
     <t>SCB</t>
+  </si>
+  <si>
+    <t>early Oct</t>
   </si>
 </sst>
 </file>
@@ -663,12 +652,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,6 +670,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -705,24 +706,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,13 +987,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1023,29 +1010,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="70"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" s="3" t="s">
@@ -1058,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>7</v>
@@ -1101,7 +1088,7 @@
         <v>45490</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="13">
         <v>72844</v>
@@ -1134,7 +1121,7 @@
         <v>45511</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>15</v>
@@ -1167,7 +1154,7 @@
         <v>45512</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="13">
         <v>71992</v>
@@ -1245,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>19</v>
@@ -1270,32 +1257,33 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" ht="15" customHeight="1">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>87</v>
+      <c r="D10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="63">
-        <f>I11+L10</f>
-        <v>8000</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="21">
-        <v>2000</v>
-      </c>
-      <c r="M10" s="4">
-        <v>45598</v>
-      </c>
+      <c r="G10" s="20">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="31"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1305,26 +1293,26 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="63">
+        <f>I11+L12</f>
+        <v>8000</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="21">
         <v>6000</v>
       </c>
-      <c r="J11" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="J11" s="83"/>
+      <c r="K11" s="31"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="32"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1334,26 +1322,22 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>87</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="20">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="3"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="4">
+        <v>45598</v>
+      </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="33"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1367,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="27">
@@ -1379,7 +1363,9 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="29"/>
+      <c r="L13" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1389,7 +1375,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:20">
@@ -1398,10 +1384,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="27">
@@ -1417,7 +1403,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R14" s="3"/>
     </row>
@@ -1454,7 +1440,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="29"/>
       <c r="M16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1502,14 +1488,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1520,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1543,43 +1529,43 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="72" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1587,10 +1573,10 @@
         <v>9</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1598,13 +1584,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>45514</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5">
         <v>10000</v>
@@ -1620,7 +1606,7 @@
         <v>10000</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="4">
         <v>45516</v>
@@ -1649,13 +1635,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4">
         <v>45541</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7">
         <f>I6*H6+G6</f>
@@ -1671,13 +1657,13 @@
         <v>1820</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="4">
         <v>45541</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1686,7 +1672,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4">
         <v>45545</v>
@@ -1705,14 +1691,14 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>37</v>
+      <c r="J7" s="71" t="s">
+        <v>36</v>
       </c>
       <c r="K7" s="4">
         <v>45545</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1721,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4">
         <v>45549</v>
@@ -1730,7 +1716,7 @@
       <c r="F8" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="74">
         <v>0</v>
       </c>
       <c r="H8" s="37">
@@ -1739,12 +1725,12 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="80"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="4">
         <v>45549</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1753,7 +1739,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4">
         <v>45567</v>
@@ -1762,7 +1748,7 @@
       <c r="F9" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G9" s="83"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="37">
         <f>F9/I9</f>
         <v>5.4790000000000001</v>
@@ -1770,12 +1756,12 @@
       <c r="I9" s="14">
         <v>1820</v>
       </c>
-      <c r="J9" s="80"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="4">
         <v>45567</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1784,7 +1770,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4">
         <v>45568</v>
@@ -1793,7 +1779,7 @@
       <c r="F10" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G10" s="83"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="37">
         <f t="shared" ref="H10:H13" si="0">F10/I10</f>
         <v>5.4541967213114759</v>
@@ -1801,12 +1787,12 @@
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="4">
         <v>45568</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -1815,7 +1801,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4">
         <v>45569</v>
@@ -1824,7 +1810,7 @@
       <c r="F11" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1832,12 +1818,12 @@
       <c r="I11" s="14">
         <v>1830</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="4">
         <v>45569</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -1846,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4">
         <v>45573</v>
@@ -1855,7 +1841,7 @@
       <c r="F12" s="3">
         <v>9958.67</v>
       </c>
-      <c r="G12" s="83"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1864,13 +1850,13 @@
         <v>1830</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="4">
         <v>45573</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="3"/>
     </row>
@@ -1879,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4">
         <v>45576</v>
@@ -1888,7 +1874,7 @@
       <c r="F13" s="3">
         <v>9954.65</v>
       </c>
-      <c r="G13" s="84"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1897,13 +1883,13 @@
         <v>1830</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="4">
         <v>45576</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1968,14 +1954,14 @@
         <v>90000</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+        <v>41</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -2024,14 +2010,14 @@
         <v>8</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -2040,105 +2026,105 @@
     <row r="3" spans="2:12">
       <c r="B3" s="44"/>
       <c r="C3" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="79">
+        <v>520</v>
+      </c>
+      <c r="F3" s="79"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="75">
-        <v>520</v>
-      </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="75" t="s">
+      <c r="I3" s="79"/>
+      <c r="J3" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="45" t="s">
-        <v>81</v>
-      </c>
       <c r="K3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="44"/>
       <c r="C4" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="46"/>
-      <c r="H4" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="H4" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="43" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="43" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="44"/>
       <c r="C5" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+      <c r="H5" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="44"/>
       <c r="C6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="58"/>
-      <c r="H6" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="H6" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="73" t="s">
-        <v>56</v>
+      <c r="B7" s="77" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>19</v>
@@ -2147,129 +2133,129 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="70" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="74"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>72</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="78" t="s">
-        <v>64</v>
+      <c r="B9" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="68"/>
       <c r="F9" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="78"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="69"/>
+        <v>84</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="67"/>
       <c r="G10" s="41"/>
       <c r="H10" s="46" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="69"/>
+        <v>58</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="67"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="51"/>
       <c r="C11" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="3"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF6B8B-4003-445E-BAD2-D88563CF7E45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D71D2-AA12-4D34-BCB9-C821964D6AE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,6 +646,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,9 +708,8 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +988,7 @@
   <dimension ref="B2:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1010,29 +1010,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" s="3" t="s">
@@ -1159,7 +1159,7 @@
       <c r="F6" s="13">
         <v>71992</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="64">
         <v>10000</v>
       </c>
       <c r="H6" s="23"/>
@@ -1184,7 +1184,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="25"/>
       <c r="I7" s="21"/>
       <c r="J7" s="3"/>
@@ -1238,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="20">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="21"/>
@@ -1246,7 +1246,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="21">
         <f>G9</f>
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="M9" s="4">
         <v>45598</v>
@@ -1276,11 +1276,11 @@
       <c r="I10" s="21">
         <v>10000</v>
       </c>
-      <c r="J10" s="83" t="s">
-        <v>20</v>
+      <c r="J10" s="4">
+        <v>45593</v>
       </c>
       <c r="K10" s="33"/>
-      <c r="L10" s="84"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="33"/>
@@ -1288,7 +1288,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" ht="30">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1300,7 +1300,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="63">
+      <c r="G11" s="64">
         <f>I11+L12</f>
         <v>8000</v>
       </c>
@@ -1308,7 +1308,9 @@
       <c r="I11" s="21">
         <v>6000</v>
       </c>
-      <c r="J11" s="83"/>
+      <c r="J11" s="84" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="31"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1325,7 +1327,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="25"/>
       <c r="I12" s="21"/>
       <c r="J12" s="3"/>
@@ -1369,7 +1371,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="63">
+      <c r="P13" s="64">
         <v>50000</v>
       </c>
       <c r="Q13" s="3"/>
@@ -1401,7 +1403,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="64"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1489,7 @@
       <c r="R18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="D2:G2"/>
@@ -1495,7 +1497,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1529,21 +1530,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1563,7 +1564,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="36" t="s">
         <v>44</v>
       </c>
@@ -1691,7 +1692,7 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="72" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="4">
@@ -1716,7 +1717,7 @@
       <c r="F8" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="75">
         <v>0</v>
       </c>
       <c r="H8" s="37">
@@ -1725,7 +1726,7 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="4">
         <v>45549</v>
       </c>
@@ -1748,7 +1749,7 @@
       <c r="F9" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="37">
         <f>F9/I9</f>
         <v>5.4790000000000001</v>
@@ -1756,7 +1757,7 @@
       <c r="I9" s="14">
         <v>1820</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="4">
         <v>45567</v>
       </c>
@@ -1779,7 +1780,7 @@
       <c r="F10" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="37">
         <f t="shared" ref="H10:H13" si="0">F10/I10</f>
         <v>5.4541967213114759</v>
@@ -1787,7 +1788,7 @@
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="72"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="4">
         <v>45568</v>
       </c>
@@ -1810,7 +1811,7 @@
       <c r="F11" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G11" s="75"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1818,7 +1819,7 @@
       <c r="I11" s="14">
         <v>1830</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="4">
         <v>45569</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="F12" s="3">
         <v>9958.67</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1874,7 +1875,7 @@
       <c r="F13" s="3">
         <v>9954.65</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1956,12 +1957,12 @@
       <c r="G19" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -2031,15 +2032,15 @@
       <c r="D3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="80">
         <v>520</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="57"/>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="79"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="45" t="s">
         <v>80</v>
       </c>
@@ -2065,14 +2066,14 @@
         <v>69</v>
       </c>
       <c r="G4" s="46"/>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="43" t="s">
         <v>49</v>
       </c>
@@ -2085,17 +2086,17 @@
       <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
@@ -2103,24 +2104,24 @@
       <c r="C6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="52" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="58"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="51" t="s">
@@ -2136,10 +2137,10 @@
         <v>52</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="3" t="s">
         <v>51</v>
       </c>
@@ -2149,7 +2150,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="51" t="s">
         <v>75</v>
       </c>
@@ -2178,16 +2179,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="83" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="52" t="s">
         <v>66</v>
       </c>
@@ -2209,17 +2210,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="82"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="51" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="41"/>
       <c r="H10" s="46" t="s">
         <v>19</v>
@@ -2227,10 +2228,10 @@
       <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D71D2-AA12-4D34-BCB9-C821964D6AE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97134FB-83F7-4108-BD2A-8F919CDE17B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>RMB -&gt; USD</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>SCB</t>
-  </si>
-  <si>
-    <t>early Oct</t>
   </si>
 </sst>
 </file>
@@ -647,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,9 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,14 +985,14 @@
   <dimension ref="B2:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="16" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="17" customWidth="1"/>
@@ -1010,29 +1007,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" s="3" t="s">
@@ -1159,7 +1156,7 @@
       <c r="F6" s="13">
         <v>71992</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="65">
         <v>10000</v>
       </c>
       <c r="H6" s="23"/>
@@ -1184,7 +1181,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="65"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="25"/>
       <c r="I7" s="21"/>
       <c r="J7" s="3"/>
@@ -1262,8 +1259,8 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>95</v>
+      <c r="D10" s="4">
+        <v>45575</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>86</v>
@@ -1300,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="64">
+      <c r="G11" s="65">
         <f>I11+L12</f>
         <v>8000</v>
       </c>
@@ -1308,7 +1305,7 @@
       <c r="I11" s="21">
         <v>6000</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="64" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="31"/>
@@ -1327,7 +1324,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="65"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="25"/>
       <c r="I12" s="21"/>
       <c r="J12" s="3"/>
@@ -1371,7 +1368,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="64">
+      <c r="P13" s="65">
         <v>50000</v>
       </c>
       <c r="Q13" s="3"/>
@@ -1403,7 +1400,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="65"/>
+      <c r="P14" s="66"/>
       <c r="Q14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1530,21 +1527,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="72" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1564,7 +1561,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="36" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1689,7 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="73" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="4">
@@ -1717,7 +1714,7 @@
       <c r="F8" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="76">
         <v>0</v>
       </c>
       <c r="H8" s="37">
@@ -1726,7 +1723,7 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="4">
         <v>45549</v>
       </c>
@@ -1749,7 +1746,7 @@
       <c r="F9" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="37">
         <f>F9/I9</f>
         <v>5.4790000000000001</v>
@@ -1757,7 +1754,7 @@
       <c r="I9" s="14">
         <v>1820</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="4">
         <v>45567</v>
       </c>
@@ -1780,7 +1777,7 @@
       <c r="F10" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="37">
         <f t="shared" ref="H10:H13" si="0">F10/I10</f>
         <v>5.4541967213114759</v>
@@ -1788,7 +1785,7 @@
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="4">
         <v>45568</v>
       </c>
@@ -1811,7 +1808,7 @@
       <c r="F11" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="37">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1819,7 +1816,7 @@
       <c r="I11" s="14">
         <v>1830</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="4">
         <v>45569</v>
       </c>
@@ -1842,7 +1839,7 @@
       <c r="F12" s="3">
         <v>9958.67</v>
       </c>
-      <c r="G12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1875,7 +1872,7 @@
       <c r="F13" s="3">
         <v>9954.65</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="37">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1957,12 +1954,12 @@
       <c r="G19" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="15"/>
     </row>
   </sheetData>
@@ -2032,15 +2029,15 @@
       <c r="D3" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="81">
         <v>520</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="57"/>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="45" t="s">
         <v>80</v>
       </c>
@@ -2066,14 +2063,14 @@
         <v>69</v>
       </c>
       <c r="G4" s="46"/>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="43" t="s">
         <v>49</v>
       </c>
@@ -2086,17 +2083,17 @@
       <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
@@ -2104,24 +2101,24 @@
       <c r="C6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="52" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="58"/>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="51" t="s">
@@ -2137,10 +2134,10 @@
         <v>52</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="69"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="3" t="s">
         <v>51</v>
       </c>
@@ -2150,7 +2147,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="51" t="s">
         <v>75</v>
       </c>
@@ -2179,16 +2176,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="84" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="52" t="s">
         <v>66</v>
       </c>
@@ -2210,17 +2207,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="83"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="51" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="41"/>
       <c r="H10" s="46" t="s">
         <v>19</v>
@@ -2228,10 +2225,10 @@
       <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="68"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97134FB-83F7-4108-BD2A-8F919CDE17B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71064C-675C-4632-9679-D2CA8EACDBA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>RMB -&gt; USD</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>within 
-a week</t>
   </si>
   <si>
     <t>^ max out</t>
@@ -291,15 +287,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>USD 取现: medium</t>
-  </si>
-  <si>
     <t>overall family safety</t>
   </si>
   <si>
-    <t xml:space="preserve">B </t>
-  </si>
-  <si>
     <t>A+</t>
   </si>
   <si>
@@ -310,6 +300,21 @@
   </si>
   <si>
     <t>SCB</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>USD 取现: high</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>unk[1]</t>
+  </si>
+  <si>
+    <t>[1] unknown risk level between med and high, because we have not tried it yet.</t>
   </si>
 </sst>
 </file>
@@ -322,12 +327,19 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,7 +580,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,7 +601,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,12 +613,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,38 +627,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,25 +690,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1042,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>7</v>
@@ -1085,7 +1095,7 @@
         <v>45490</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="13">
         <v>72844</v>
@@ -1118,7 +1128,7 @@
         <v>45511</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>15</v>
@@ -1151,7 +1161,7 @@
         <v>45512</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="13">
         <v>71992</v>
@@ -1220,123 +1230,125 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
+    <row r="9" spans="2:20" ht="15" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45575</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="20">
-        <v>3400</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="21">
-        <f>G9</f>
-        <v>3400</v>
-      </c>
-      <c r="M9" s="4">
-        <v>45598</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45593</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:20" ht="15" customHeight="1">
+    <row r="10" spans="2:20">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4">
-        <v>45575</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>86</v>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="20">
-        <v>10000</v>
-      </c>
-      <c r="H10" s="22"/>
+      <c r="G10" s="65">
+        <f>I10+L11</f>
+        <v>8000</v>
+      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="21">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="J10" s="4">
-        <v>45593</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="63"/>
+        <v>45594</v>
+      </c>
+      <c r="K10" s="31"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="33"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="30">
+    <row r="11" spans="2:20" ht="15" customHeight="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="65">
-        <f>I11+L12</f>
-        <v>8000</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="21">
-        <v>6000</v>
-      </c>
-      <c r="J11" s="64" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="M11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45598</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="31"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:20" ht="15" customHeight="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="21"/>
+    <row r="12" spans="2:20">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="20">
+        <v>3400</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="21">
-        <v>2000</v>
+        <f>G12</f>
+        <v>3400</v>
       </c>
       <c r="M12" s="4">
         <v>45598</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1350,32 +1362,25 @@
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="27">
         <v>12000</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="I13" s="29"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="65">
-        <v>50000</v>
-      </c>
+      <c r="P13" s="21"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="3"/>
@@ -1383,14 +1388,14 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="27">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="29"/>
@@ -1400,19 +1405,25 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="27">
+        <v>50000</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
       <c r="J15" s="3"/>
@@ -1439,13 +1450,16 @@
       <c r="K16" s="3"/>
       <c r="L16" s="29"/>
       <c r="M16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="3"/>
@@ -1486,9 +1500,8 @@
       <c r="R18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="P13:P14"/>
+  <mergeCells count="6">
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:N2"/>
@@ -1528,17 +1541,17 @@
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
       <c r="C2" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
       <c r="F2" s="70"/>
       <c r="G2" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="68"/>
       <c r="K2" s="69"/>
@@ -1547,23 +1560,23 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="70"/>
       <c r="H3" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1571,10 +1584,10 @@
         <v>9</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1582,13 +1595,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4">
         <v>45514</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5">
         <v>10000</v>
@@ -1604,7 +1617,7 @@
         <v>10000</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="4">
         <v>45516</v>
@@ -1633,13 +1646,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
         <v>45541</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7">
         <f>I6*H6+G6</f>
@@ -1655,13 +1668,13 @@
         <v>1820</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="4">
         <v>45541</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1670,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>45545</v>
@@ -1690,13 +1703,13 @@
         <v>1820</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4">
         <v>45545</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1705,7 +1718,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
         <v>45549</v>
@@ -1728,7 +1741,7 @@
         <v>45549</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1737,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>45567</v>
@@ -1759,7 +1772,7 @@
         <v>45567</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1768,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4">
         <v>45568</v>
@@ -1790,7 +1803,7 @@
         <v>45568</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -1799,7 +1812,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4">
         <v>45569</v>
@@ -1821,7 +1834,7 @@
         <v>45569</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -1830,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4">
         <v>45573</v>
@@ -1848,13 +1861,13 @@
         <v>1830</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K12" s="4">
         <v>45573</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="3"/>
     </row>
@@ -1863,7 +1876,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4">
         <v>45576</v>
@@ -1881,13 +1894,13 @@
         <v>1830</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K13" s="4">
         <v>45576</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1952,10 +1965,10 @@
         <v>90000</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
@@ -1978,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A99A6-4F80-460F-8A81-AF8F5FFCE67C}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2008,14 +2021,14 @@
         <v>8</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -2024,10 +2037,10 @@
     <row r="3" spans="2:12">
       <c r="B3" s="44"/>
       <c r="C3" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="81">
         <v>520</v>
@@ -2035,61 +2048,61 @@
       <c r="F3" s="81"/>
       <c r="G3" s="57"/>
       <c r="H3" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="81"/>
       <c r="J3" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>45</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="44"/>
       <c r="C4" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="70"/>
       <c r="J4" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="70"/>
       <c r="L4" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="44"/>
       <c r="C5" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="40"/>
       <c r="H5" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -2099,18 +2112,18 @@
     <row r="6" spans="2:12">
       <c r="B6" s="44"/>
       <c r="C6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>61</v>
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -2119,10 +2132,10 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>19</v>
@@ -2131,91 +2144,91 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="70"/>
       <c r="J7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="80"/>
       <c r="C8" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>71</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="3" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
       <c r="B10" s="84"/>
       <c r="C10" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="41"/>
@@ -2223,10 +2236,10 @@
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="3"/>
@@ -2234,29 +2247,34 @@
     <row r="11" spans="2:12">
       <c r="B11" s="51"/>
       <c r="C11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="62" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>92</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="3"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71064C-675C-4632-9679-D2CA8EACDBA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3AAAB-4921-4186-85B1-B69B92F6D792}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
-  <si>
-    <t>RMB -&gt; USD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -36,15 +33,6 @@
     <t>ChannelM</t>
   </si>
   <si>
-    <t>grandma</t>
-  </si>
-  <si>
-    <t>grandpa</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
     <t>RMB</t>
   </si>
   <si>
@@ -66,9 +54,6 @@
     <t>TJJ icbc</t>
   </si>
   <si>
-    <t>LSQ psbc</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -78,16 +63,7 @@
     <t>LSQ icbc</t>
   </si>
   <si>
-    <t>late Oct</t>
-  </si>
-  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>^ max out</t>
-  </si>
-  <si>
-    <t>reduce TT frequency</t>
   </si>
   <si>
     <t>early Jan</t>
@@ -109,9 +85,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>取date</t>
   </si>
   <si>
@@ -278,15 +251,6 @@
 : medium</t>
   </si>
   <si>
-    <t>取</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>overall family safety</t>
   </si>
   <si>
@@ -314,7 +278,37 @@
     <t>unk[1]</t>
   </si>
   <si>
-    <t>[1] unknown risk level between med and high, because we have not tried it yet.</t>
+    <t>[1] unknown risk level between low and med, because we have not tried it yet. Hopefully low</t>
+  </si>
+  <si>
+    <t>奶USD</t>
+  </si>
+  <si>
+    <t>爷USD</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>^max</t>
+  </si>
+  <si>
+    <t>mid 2025</t>
+  </si>
+  <si>
+    <t>^Rmb200k</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>USD withdrawal</t>
+  </si>
+  <si>
+    <t>early Dec</t>
+  </si>
+  <si>
+    <t>^max for Jan trip</t>
   </si>
 </sst>
 </file>
@@ -327,7 +321,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +373,9 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,19 +386,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -531,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,23 +567,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,7 +580,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,12 +592,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,42 +606,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,33 +663,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,533 +1000,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="0.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="0.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="0.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="0.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
-      <c r="D2" s="67" t="s">
+    <row r="2" spans="2:17">
+      <c r="B2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="F2" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="70" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="P3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="21"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="F4" s="4">
+        <v>45490</v>
+      </c>
+      <c r="G4" s="13">
+        <v>72844</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="20">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="4">
+        <v>45509</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="21"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45511</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45490</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="13">
-        <v>72844</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="H5" s="77">
         <v>10000</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21">
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="77">
         <v>10000</v>
       </c>
-      <c r="J4" s="4">
-        <v>45509</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
+      <c r="L5" s="4">
         <v>45511</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="M5" s="4"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="21"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45512</v>
+      </c>
+      <c r="G6" s="13">
+        <v>71992</v>
+      </c>
+      <c r="H6" s="79"/>
+      <c r="I6" s="82">
         <v>10000</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="4">
-        <v>45511</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="J6" s="83"/>
+      <c r="K6" s="77">
+        <v>4000</v>
+      </c>
+      <c r="L6" s="4">
         <v>45512</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="13">
-        <v>71992</v>
-      </c>
-      <c r="G6" s="65">
-        <v>10000</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="21">
-        <v>4000</v>
-      </c>
-      <c r="J6" s="4">
-        <v>45512</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="21"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="21">
-        <f>G6-I6</f>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="21">
+        <f>I6-K6</f>
         <v>6000</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>45514</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="21"/>
+      <c r="P7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="2:20" ht="4.5" customHeight="1">
-      <c r="B8" s="3"/>
+    </row>
+    <row r="8" spans="2:17" ht="4.5" customHeight="1">
+      <c r="B8" s="21"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="21"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="9" spans="2:17" ht="15" customHeight="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G9" s="13">
+        <v>70265</v>
+      </c>
+      <c r="H9" s="79"/>
+      <c r="I9" s="77">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="K9" s="77">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="4">
+        <v>45593</v>
+      </c>
+      <c r="M9" s="85"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="21"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45594</v>
+      </c>
+      <c r="G10" s="13">
+        <v>71433</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="82">
+        <f>K10+N11</f>
+        <v>8000</v>
+      </c>
+      <c r="J10" s="83"/>
+      <c r="K10" s="77">
+        <v>6000</v>
+      </c>
+      <c r="L10" s="4">
+        <v>45594</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="76">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45594</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="56">
+        <v>2000</v>
+      </c>
+      <c r="O11" s="4">
+        <v>45598</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="21"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45593</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
-        <v>45575</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="20">
+      <c r="H12" s="77">
+        <v>3400</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="56">
+        <f>H12</f>
+        <v>3400</v>
+      </c>
+      <c r="O12" s="4">
+        <v>45598</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="21"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77">
         <v>10000</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21">
+      <c r="J13" s="81"/>
+      <c r="K13" s="77">
         <v>10000</v>
       </c>
-      <c r="J9" s="4">
-        <v>45593</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="65">
-        <f>I10+L11</f>
-        <v>8000</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21">
-        <v>6000</v>
-      </c>
-      <c r="J10" s="4">
-        <v>45594</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="21">
-        <v>2000</v>
-      </c>
-      <c r="M11" s="4">
-        <v>45598</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20">
-        <v>3400</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="21">
-        <f>G12</f>
-        <v>3400</v>
-      </c>
-      <c r="M12" s="4">
-        <v>45598</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="27">
-        <v>12000</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="21"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="21"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="27">
-        <v>50000</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="77">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="77"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="77">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="21"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="21"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="27">
-        <v>50000</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="20"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="21"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="3"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="21"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="21"/>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="77">
+        <v>6000</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="56">
+        <v>6000</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="3"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="21"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="56"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="21"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="S17" s="27"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="21">
+        <v>28000</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="21"/>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="21"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1530,7 +1562,7 @@
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
@@ -1540,68 +1572,68 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="C2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="36" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>45514</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5">
         <v>10000</v>
@@ -1609,299 +1641,299 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="37" t="s">
-        <v>19</v>
+      <c r="H4" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="13">
         <f>F4</f>
         <v>10000</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4">
         <v>45516</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45541</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7">
+        <f>I5*H5+G5</f>
+        <v>10072.861999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>110</v>
+      </c>
+      <c r="H5" s="30">
+        <v>5.4741</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1820</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45541</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>45541</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>45545</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="7">
         <f>I6*H6+G6</f>
-        <v>10072.861999999999</v>
+        <v>10067.766</v>
       </c>
       <c r="G6" s="6">
         <v>110</v>
       </c>
-      <c r="H6" s="37">
-        <v>5.4741</v>
+      <c r="H6" s="30">
+        <v>5.4713000000000003</v>
       </c>
       <c r="I6" s="14">
         <v>1820</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
+      <c r="J6" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="4">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>45545</v>
+        <v>45549</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="7">
-        <f>I7*H7+G7</f>
-        <v>10067.766</v>
-      </c>
-      <c r="G7" s="6">
-        <v>110</v>
-      </c>
-      <c r="H7" s="37">
-        <v>5.4713000000000003</v>
+        <v>9995.7999999999993</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>5.4922000000000004</v>
       </c>
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="73" t="s">
-        <v>35</v>
-      </c>
+      <c r="J7" s="65"/>
       <c r="K7" s="4">
-        <v>45545</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
+        <v>45549</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
-        <v>45549</v>
+        <v>45567</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="7">
-        <v>9995.7999999999993</v>
-      </c>
-      <c r="G8" s="76">
-        <v>0</v>
-      </c>
-      <c r="H8" s="37">
-        <v>5.4922000000000004</v>
+        <v>9971.7800000000007</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="30">
+        <f>F8/I8</f>
+        <v>5.4790000000000001</v>
       </c>
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="74"/>
+      <c r="J8" s="65"/>
       <c r="K8" s="4">
-        <v>45549</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>39</v>
+        <v>45567</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7">
-        <v>9971.7800000000007</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="37">
-        <f>F9/I9</f>
-        <v>5.4790000000000001</v>
+        <v>9981.18</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="30">
+        <f t="shared" ref="H9:H12" si="0">F9/I9</f>
+        <v>5.4541967213114759</v>
       </c>
       <c r="I9" s="14">
-        <v>1820</v>
-      </c>
-      <c r="J9" s="74"/>
+        <v>1830</v>
+      </c>
+      <c r="J9" s="65"/>
       <c r="K9" s="4">
-        <v>45567</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>39</v>
+        <v>45568</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7">
-        <v>9981.18</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="37">
-        <f t="shared" ref="H10:H13" si="0">F10/I10</f>
-        <v>5.4541967213114759</v>
+        <v>9974.42</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="30">
+        <f t="shared" si="0"/>
+        <v>5.4505027322404374</v>
       </c>
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="4">
-        <v>45568</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>39</v>
+        <v>45569</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4">
-        <v>45569</v>
+        <v>45573</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="7">
-        <v>9974.42</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="37">
+      <c r="F11" s="3">
+        <v>9958.67</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="30">
         <f t="shared" si="0"/>
-        <v>5.4505027322404374</v>
+        <v>5.4418961748633876</v>
       </c>
       <c r="I11" s="14">
         <v>1830</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="K11" s="4">
-        <v>45569</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>39</v>
+        <v>45573</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>9958.67</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="37">
+        <v>9954.65</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="30">
         <f t="shared" si="0"/>
-        <v>5.4418961748633876</v>
+        <v>5.4396994535519125</v>
       </c>
       <c r="I12" s="14">
         <v>1830</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K12" s="4">
-        <v>45573</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>39</v>
+        <v>45576</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45576</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>9954.65</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="37">
-        <f t="shared" si="0"/>
-        <v>5.4396994535519125</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1830</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="4">
-        <v>45576</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>39</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13">
@@ -1911,7 +1943,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="37"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1925,7 +1957,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1939,50 +1971,36 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="37"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="F19" s="8">
+    <row r="18" spans="6:12">
+      <c r="F18" s="8">
         <v>90000</v>
       </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="15"/>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="G7:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1993,15 +2011,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A99A6-4F80-460F-8A81-AF8F5FFCE67C}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2014,266 +2032,266 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="44"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="37"/>
+      <c r="C3" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="72">
+        <v>520</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="72"/>
+      <c r="J3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="37"/>
+      <c r="C4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="48">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="37"/>
+      <c r="C5" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="37"/>
+      <c r="C6" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="71"/>
+      <c r="C8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="46" t="s">
+      <c r="D9" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="75"/>
+      <c r="C10" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="60"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="44"/>
+      <c r="C11" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="44"/>
-      <c r="C3" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="J11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="81">
-        <v>520</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="44"/>
-      <c r="C4" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="55">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="44"/>
-      <c r="C5" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="44"/>
-      <c r="C6" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="80"/>
-      <c r="C8" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="84"/>
-      <c r="C10" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="51"/>
-      <c r="C11" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="46"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="3"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3AAAB-4921-4186-85B1-B69B92F6D792}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAE9CF3-E341-4645-A17B-D265BB05D13F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>^max for Jan trip</t>
+  </si>
+  <si>
+    <t>total 2024 channelA::TB</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +639,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,41 +728,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1025,28 +1030,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="F2" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="61"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="2:17">
@@ -1134,12 +1139,12 @@
       <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="59">
         <v>10000</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="77">
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="59">
         <v>10000</v>
       </c>
       <c r="L5" s="4">
@@ -1164,12 +1169,12 @@
       <c r="G6" s="13">
         <v>71992</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="82">
+      <c r="H6" s="61"/>
+      <c r="I6" s="70">
         <v>10000</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="77">
+      <c r="J6" s="64"/>
+      <c r="K6" s="59">
         <v>4000</v>
       </c>
       <c r="L6" s="4">
@@ -1188,10 +1193,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="77"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="21">
@@ -1213,10 +1218,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="77"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="21"/>
@@ -1237,18 +1242,18 @@
       <c r="G9" s="13">
         <v>70265</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="77">
+      <c r="H9" s="61"/>
+      <c r="I9" s="59">
         <v>10000</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="77">
+      <c r="J9" s="60"/>
+      <c r="K9" s="59">
         <v>10000</v>
       </c>
       <c r="L9" s="4">
         <v>45593</v>
       </c>
-      <c r="M9" s="85"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="56"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1267,13 +1272,13 @@
       <c r="G10" s="13">
         <v>71433</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="82">
+      <c r="H10" s="61"/>
+      <c r="I10" s="70">
         <f>K10+N11</f>
         <v>8000</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="77">
+      <c r="J10" s="64"/>
+      <c r="K10" s="59">
         <v>6000</v>
       </c>
       <c r="L10" s="4">
@@ -1289,21 +1294,21 @@
       <c r="B11" s="21"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="76">
+      <c r="E11" s="58">
         <v>10000</v>
       </c>
       <c r="F11" s="4">
         <v>45594</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="77" t="s">
+      <c r="H11" s="61"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="59" t="s">
         <v>88</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="86"/>
+      <c r="M11" s="67"/>
       <c r="N11" s="56">
         <v>2000</v>
       </c>
@@ -1326,14 +1331,14 @@
       <c r="G12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="59">
         <v>3400</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="59" t="s">
         <v>88</v>
       </c>
       <c r="J12" s="42"/>
-      <c r="K12" s="80"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="56">
@@ -1353,16 +1358,16 @@
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="68" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77">
+      <c r="H13" s="59"/>
+      <c r="I13" s="59">
         <v>10000</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="77">
+      <c r="J13" s="63"/>
+      <c r="K13" s="59">
         <v>10000</v>
       </c>
       <c r="L13" s="23" t="s">
@@ -1387,12 +1392,12 @@
         <v>14</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="77">
+      <c r="H14" s="59">
         <v>10000</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="77">
+      <c r="I14" s="59"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="59">
         <v>10000</v>
       </c>
       <c r="L14" s="23"/>
@@ -1408,10 +1413,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="88" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="69" t="s">
         <v>94</v>
       </c>
       <c r="M15" s="23"/>
@@ -1431,12 +1436,12 @@
         <v>14</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="77">
+      <c r="H16" s="61"/>
+      <c r="I16" s="59">
         <v>6000</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="77"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="56">
@@ -1455,10 +1460,10 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="80"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="56"/>
@@ -1480,10 +1485,10 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="80"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="56"/>
@@ -1502,10 +1507,10 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="80"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="56"/>
@@ -1520,10 +1525,10 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="80"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="56"/>
@@ -1547,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1572,21 +1577,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="28"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1606,7 +1611,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="29" t="s">
         <v>34</v>
       </c>
@@ -1720,7 +1725,7 @@
       <c r="I6" s="14">
         <v>1820</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="77" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="4">
@@ -1745,7 +1750,7 @@
       <c r="F7" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="80">
         <v>0</v>
       </c>
       <c r="H7" s="30">
@@ -1754,7 +1759,7 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="4">
         <v>45549</v>
       </c>
@@ -1777,7 +1782,7 @@
       <c r="F8" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="30">
         <f>F8/I8</f>
         <v>5.4790000000000001</v>
@@ -1785,7 +1790,7 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="4">
         <v>45567</v>
       </c>
@@ -1808,7 +1813,7 @@
       <c r="F9" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="30">
         <f t="shared" ref="H9:H12" si="0">F9/I9</f>
         <v>5.4541967213114759</v>
@@ -1816,7 +1821,7 @@
       <c r="I9" s="14">
         <v>1830</v>
       </c>
-      <c r="J9" s="65"/>
+      <c r="J9" s="78"/>
       <c r="K9" s="4">
         <v>45568</v>
       </c>
@@ -1839,7 +1844,7 @@
       <c r="F10" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1847,7 +1852,7 @@
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="66"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="4">
         <v>45569</v>
       </c>
@@ -1870,7 +1875,7 @@
       <c r="F11" s="3">
         <v>9958.67</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="30">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1903,7 +1908,7 @@
       <c r="F12" s="3">
         <v>9954.65</v>
       </c>
-      <c r="G12" s="69"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1979,25 +1984,37 @@
       <c r="M16" s="3"/>
     </row>
     <row r="18" spans="6:12">
-      <c r="F18" s="8">
+      <c r="F18" s="89">
+        <f>SUM(F5:F12)</f>
+        <v>79977.127999999997</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" s="8">
         <v>90000</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H20" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="15"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J6:J10"/>
     <mergeCell ref="G7:G12"/>
@@ -2060,15 +2077,15 @@
       <c r="D3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="85">
         <v>520</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="38" t="s">
         <v>70</v>
       </c>
@@ -2094,14 +2111,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="39"/>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="61"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="36" t="s">
         <v>39</v>
       </c>
@@ -2114,17 +2131,17 @@
       <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
@@ -2132,24 +2149,24 @@
       <c r="C6" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="45" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2165,10 +2182,10 @@
         <v>42</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="3" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2195,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="71"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="44" t="s">
         <v>65</v>
       </c>
@@ -2207,16 +2224,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="88" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="45" t="s">
         <v>56</v>
       </c>
@@ -2238,17 +2255,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="75"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="34"/>
       <c r="H10" s="39" t="s">
         <v>13</v>
@@ -2256,10 +2273,10 @@
       <c r="I10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="60"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAE9CF3-E341-4645-A17B-D265BB05D13F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA8990-0B5A-45CC-9947-321A77464333}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -85,9 +85,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>取date</t>
-  </si>
-  <si>
     <t>ATM</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>TB HSBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOC.sg </t>
   </si>
   <si>
     <t>DBS</t>
@@ -312,6 +306,27 @@
   </si>
   <si>
     <t>total 2024 channelA::TB</t>
+  </si>
+  <si>
+    <t>TJJ 邮储</t>
+  </si>
+  <si>
+    <t>unimp</t>
+  </si>
+  <si>
+    <t>late Oct</t>
+  </si>
+  <si>
+    <t>BOC OTC</t>
+  </si>
+  <si>
+    <t>BOC.sg</t>
+  </si>
+  <si>
+    <t>阜外</t>
+  </si>
+  <si>
+    <t>^ max</t>
   </si>
 </sst>
 </file>
@@ -324,12 +339,19 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,7 +605,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,12 +617,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,36 +631,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -660,20 +682,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,35 +722,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1016,7 +1058,7 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="19" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="16" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="17" customWidth="1"/>
@@ -1030,28 +1072,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="F2" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="F2" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="74"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="2:17">
@@ -1066,16 +1108,16 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="21" t="s">
@@ -1115,6 +1157,7 @@
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="21">
+        <f>I4</f>
         <v>10000</v>
       </c>
       <c r="L4" s="4">
@@ -1145,6 +1188,7 @@
       <c r="I5" s="59"/>
       <c r="J5" s="60"/>
       <c r="K5" s="59">
+        <f>H5</f>
         <v>10000</v>
       </c>
       <c r="L5" s="4">
@@ -1170,7 +1214,8 @@
         <v>71992</v>
       </c>
       <c r="H6" s="61"/>
-      <c r="I6" s="70">
+      <c r="I6" s="71">
+        <f>K6+N7</f>
         <v>10000</v>
       </c>
       <c r="J6" s="64"/>
@@ -1194,13 +1239,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
       <c r="H7" s="61"/>
-      <c r="I7" s="70"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="64"/>
       <c r="K7" s="59"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="21">
-        <f>I6-K6</f>
         <v>6000</v>
       </c>
       <c r="O7" s="4">
@@ -1211,25 +1255,38 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:17" ht="4.5" customHeight="1">
+    <row r="8" spans="2:17" ht="15" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G8" s="13">
+        <v>70265</v>
+      </c>
       <c r="H8" s="61"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="4"/>
+      <c r="I8" s="59">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="59">
+        <f>I8</f>
+        <v>10000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>45593</v>
+      </c>
+      <c r="M8" s="65"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1">
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="21"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1237,117 +1294,109 @@
         <v>9</v>
       </c>
       <c r="F9" s="4">
-        <v>45575</v>
+        <v>45594</v>
       </c>
       <c r="G9" s="13">
-        <v>70265</v>
+        <v>71433</v>
       </c>
       <c r="H9" s="61"/>
-      <c r="I9" s="59">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="60"/>
+      <c r="I9" s="71">
+        <f>K9+N10</f>
+        <v>8000</v>
+      </c>
+      <c r="J9" s="64"/>
       <c r="K9" s="59">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L9" s="4">
-        <v>45593</v>
-      </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="56"/>
+        <v>45594</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="Q9" s="24"/>
+    </row>
+    <row r="10" spans="2:17" ht="15" customHeight="1">
       <c r="B10" s="21"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
+      <c r="E10" s="58">
+        <v>10000</v>
       </c>
       <c r="F10" s="4">
         <v>45594</v>
       </c>
-      <c r="G10" s="13">
-        <v>71433</v>
-      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="61"/>
-      <c r="I10" s="70">
-        <f>K10+N11</f>
-        <v>8000</v>
-      </c>
+      <c r="I10" s="71"/>
       <c r="J10" s="64"/>
-      <c r="K10" s="59">
-        <v>6000</v>
-      </c>
-      <c r="L10" s="4">
-        <v>45594</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1">
+      <c r="K10" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="56">
+        <v>2000</v>
+      </c>
+      <c r="O10" s="4">
+        <v>45598</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="21"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="58">
-        <v>10000</v>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="4">
-        <v>45594</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="59" t="s">
-        <v>88</v>
-      </c>
+        <v>45593</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="59">
+        <v>3400</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="67"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="56">
-        <v>2000</v>
+        <f>H11</f>
+        <v>3400</v>
       </c>
       <c r="O11" s="4">
         <v>45598</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="25"/>
+      <c r="P11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="21"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45593</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="59">
-        <v>3400</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>88</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="42"/>
       <c r="K12" s="62"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="56">
-        <f>H12</f>
-        <v>3400</v>
-      </c>
-      <c r="O12" s="4">
-        <v>45598</v>
-      </c>
+      <c r="N12" s="56"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
@@ -1358,8 +1407,8 @@
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="68" t="s">
-        <v>93</v>
+      <c r="F13" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="59"/>
@@ -1374,9 +1423,7 @@
         <v>14</v>
       </c>
       <c r="M13" s="23"/>
-      <c r="N13" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="N13" s="20"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1416,8 +1463,8 @@
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="69" t="s">
-        <v>94</v>
+      <c r="K15" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="20"/>
@@ -1466,7 +1513,9 @@
       <c r="K17" s="62"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="56"/>
+      <c r="N17" s="98" t="s">
+        <v>100</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1477,7 +1526,7 @@
         <v>28000</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -1500,7 +1549,7 @@
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1538,7 +1587,7 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:P2"/>
@@ -1552,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1577,21 +1626,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="28"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1600,20 +1649,20 @@
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1621,10 +1670,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1632,13 +1681,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>45514</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5">
         <v>10000</v>
@@ -1654,7 +1703,7 @@
         <v>10000</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4">
         <v>45516</v>
@@ -1669,13 +1718,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4">
         <v>45541</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
+      <c r="E5" s="95" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="7">
         <f>I5*H5+G5</f>
@@ -1691,13 +1740,13 @@
         <v>1820</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4">
         <v>45541</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1706,12 +1755,12 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
         <v>45545</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="7">
         <f>I6*H6+G6</f>
         <v>10067.766</v>
@@ -1725,14 +1774,14 @@
       <c r="I6" s="14">
         <v>1820</v>
       </c>
-      <c r="J6" s="77" t="s">
-        <v>26</v>
+      <c r="J6" s="78" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="4">
         <v>45545</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1741,16 +1790,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4">
         <v>45549</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="81">
         <v>0</v>
       </c>
       <c r="H7" s="30">
@@ -1759,12 +1808,12 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="78"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="4">
         <v>45549</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1773,16 +1822,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <v>45567</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="30">
         <f>F8/I8</f>
         <v>5.4790000000000001</v>
@@ -1790,12 +1839,12 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="78"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="4">
         <v>45567</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1804,29 +1853,29 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>45568</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G9" s="81"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="30">
-        <f t="shared" ref="H9:H12" si="0">F9/I9</f>
+        <f t="shared" ref="H9:H14" si="0">F9/I9</f>
         <v>5.4541967213114759</v>
       </c>
       <c r="I9" s="14">
         <v>1830</v>
       </c>
-      <c r="J9" s="78"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="4">
         <v>45568</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1835,16 +1884,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4">
         <v>45569</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1852,12 +1901,12 @@
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="4">
         <v>45569</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -1866,16 +1915,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4">
         <v>45573</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="3">
         <v>9958.67</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="30">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1884,13 +1933,13 @@
         <v>1830</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="4">
         <v>45573</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -1899,16 +1948,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4">
         <v>45576</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="3">
         <v>9954.65</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1917,107 +1966,192 @@
         <v>1830</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" s="4">
         <v>45576</v>
       </c>
       <c r="L12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="4">
+        <v>45598</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="3">
+        <v>9954.2199999999993</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>5.4099021739130428</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1840</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45598</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45598</v>
+      </c>
+      <c r="E14" s="97"/>
+      <c r="F14" s="3">
+        <v>9954.2199999999993</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>5.4099021739130428</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1840</v>
+      </c>
+      <c r="J14" s="91"/>
+      <c r="K14" s="4">
+        <v>45598</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20000</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="H15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="13">
+        <f>F15</f>
+        <v>20000</v>
+      </c>
+      <c r="J15" s="92"/>
+      <c r="K15" s="4">
+        <v>45598</v>
+      </c>
+      <c r="L15" s="90" t="s">
+        <v>1</v>
+      </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="18" spans="6:12">
-      <c r="F18" s="89">
-        <f>SUM(F5:F12)</f>
-        <v>79977.127999999997</v>
-      </c>
-      <c r="G18" s="90" t="s">
+    <row r="17" spans="2:13">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="F20" s="69">
+        <f>SUM(F5:F13)</f>
+        <v>89931.347999999998</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="F22" s="8">
+        <v>130000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="20" spans="6:12">
-      <c r="F20" s="8">
-        <v>90000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J6:J10"/>
     <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="E5:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2056,14 +2190,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -2072,105 +2206,105 @@
     <row r="3" spans="2:12">
       <c r="B3" s="37"/>
       <c r="C3" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="86">
+        <v>520</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="J3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="85">
-        <v>520</v>
-      </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="38" t="s">
-        <v>70</v>
-      </c>
       <c r="K3" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="37"/>
       <c r="C4" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="48">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="39"/>
-      <c r="H4" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="74"/>
+      <c r="H4" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="75"/>
       <c r="L4" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="37"/>
       <c r="C5" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="74"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="75"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="37"/>
       <c r="C6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="74"/>
+        <v>48</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="75"/>
       <c r="F6" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="83" t="s">
-        <v>45</v>
+      <c r="B7" s="84" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>13</v>
@@ -2179,136 +2313,136 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" s="45" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="88" t="s">
-        <v>53</v>
+      <c r="B9" s="89" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="74"/>
+        <v>62</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="75"/>
       <c r="F9" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="88"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="73"/>
+        <v>72</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="74"/>
       <c r="G10" s="34"/>
       <c r="H10" s="39" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="73"/>
+        <v>78</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="74"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="44"/>
       <c r="C11" s="54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="3"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA8990-0B5A-45CC-9947-321A77464333}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F962941-ABD0-4445-9035-4954F57E1572}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="2295" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -317,9 +317,6 @@
     <t>late Oct</t>
   </si>
   <si>
-    <t>BOC OTC</t>
-  </si>
-  <si>
     <t>BOC.sg</t>
   </si>
   <si>
@@ -327,6 +324,10 @@
   </si>
   <si>
     <t>^ max</t>
+  </si>
+  <si>
+    <t>中行
+柜台</t>
   </si>
 </sst>
 </file>
@@ -339,12 +340,19 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,7 +613,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,12 +625,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -631,36 +639,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -688,10 +696,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -707,6 +717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,56 +735,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -1072,28 +1074,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="F2" s="72" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="F2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="75"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="2:17">
@@ -1214,7 +1216,7 @@
         <v>71992</v>
       </c>
       <c r="H6" s="61"/>
-      <c r="I6" s="71">
+      <c r="I6" s="73">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
@@ -1239,7 +1241,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
       <c r="H7" s="61"/>
-      <c r="I7" s="71"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="64"/>
       <c r="K7" s="59"/>
       <c r="L7" s="3"/>
@@ -1300,7 +1302,7 @@
         <v>71433</v>
       </c>
       <c r="H9" s="61"/>
-      <c r="I9" s="71">
+      <c r="I9" s="73">
         <f>K9+N10</f>
         <v>8000</v>
       </c>
@@ -1329,7 +1331,7 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="61"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="64"/>
       <c r="K10" s="59" t="s">
         <v>86</v>
@@ -1513,8 +1515,8 @@
       <c r="K17" s="62"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="98" t="s">
-        <v>100</v>
+      <c r="N17" s="72" t="s">
+        <v>99</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1603,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1618,7 +1620,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1626,21 +1628,21 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="28"/>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
@@ -1660,7 +1662,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="29" t="s">
         <v>32</v>
       </c>
@@ -1723,8 +1725,8 @@
       <c r="D5" s="4">
         <v>45541</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>98</v>
+      <c r="E5" s="87" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="7">
         <f>I5*H5+G5</f>
@@ -1760,7 +1762,7 @@
       <c r="D6" s="4">
         <v>45545</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="7">
         <f>I6*H6+G6</f>
         <v>10067.766</v>
@@ -1774,7 +1776,7 @@
       <c r="I6" s="14">
         <v>1820</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="81" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="4">
@@ -1795,11 +1797,11 @@
       <c r="D7" s="4">
         <v>45549</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="7">
         <v>9995.7999999999993</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="84">
         <v>0</v>
       </c>
       <c r="H7" s="30">
@@ -1808,7 +1810,7 @@
       <c r="I7" s="14">
         <v>1820</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="4">
         <v>45549</v>
       </c>
@@ -1827,11 +1829,11 @@
       <c r="D8" s="4">
         <v>45567</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="7">
         <v>9971.7800000000007</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="30">
         <f>F8/I8</f>
         <v>5.4790000000000001</v>
@@ -1839,7 +1841,7 @@
       <c r="I8" s="14">
         <v>1820</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="4">
         <v>45567</v>
       </c>
@@ -1858,11 +1860,11 @@
       <c r="D9" s="4">
         <v>45568</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="7">
         <v>9981.18</v>
       </c>
-      <c r="G9" s="82"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="30">
         <f t="shared" ref="H9:H14" si="0">F9/I9</f>
         <v>5.4541967213114759</v>
@@ -1870,7 +1872,7 @@
       <c r="I9" s="14">
         <v>1830</v>
       </c>
-      <c r="J9" s="79"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="4">
         <v>45568</v>
       </c>
@@ -1889,11 +1891,11 @@
       <c r="D10" s="4">
         <v>45569</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="7">
         <v>9974.42</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1901,7 +1903,7 @@
       <c r="I10" s="14">
         <v>1830</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="4">
         <v>45569</v>
       </c>
@@ -1920,11 +1922,11 @@
       <c r="D11" s="4">
         <v>45573</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="3">
         <v>9958.67</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="30">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1953,11 +1955,11 @@
       <c r="D12" s="4">
         <v>45576</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="3">
         <v>9954.65</v>
       </c>
-      <c r="G12" s="83"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="30">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1986,7 +1988,7 @@
       <c r="D13" s="4">
         <v>45598</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="3">
         <v>9954.2199999999993</v>
       </c>
@@ -1998,8 +2000,8 @@
       <c r="I13" s="14">
         <v>1840</v>
       </c>
-      <c r="J13" s="94" t="s">
-        <v>97</v>
+      <c r="J13" s="96" t="s">
+        <v>100</v>
       </c>
       <c r="K13" s="4">
         <v>45598</v>
@@ -2019,7 +2021,7 @@
       <c r="D14" s="4">
         <v>45598</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="3">
         <v>9954.2199999999993</v>
       </c>
@@ -2031,7 +2033,7 @@
       <c r="I14" s="14">
         <v>1840</v>
       </c>
-      <c r="J14" s="91"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="4">
         <v>45598</v>
       </c>
@@ -2050,8 +2052,8 @@
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="90" t="s">
-        <v>99</v>
+      <c r="E15" s="71" t="s">
+        <v>98</v>
       </c>
       <c r="F15" s="5">
         <v>20000</v>
@@ -2064,11 +2066,11 @@
         <f>F15</f>
         <v>20000</v>
       </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="4">
         <v>45598</v>
       </c>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="71" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="3"/>
@@ -2135,12 +2137,12 @@
       <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2211,15 +2213,15 @@
       <c r="D3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="92">
         <v>520</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="38" t="s">
         <v>68</v>
       </c>
@@ -2245,14 +2247,14 @@
         <v>57</v>
       </c>
       <c r="G4" s="39"/>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="75"/>
+      <c r="K4" s="77"/>
       <c r="L4" s="36" t="s">
         <v>37</v>
       </c>
@@ -2265,17 +2267,17 @@
       <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12">
@@ -2283,24 +2285,24 @@
       <c r="C6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="45" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="90" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2316,10 +2318,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="75"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
@@ -2329,7 +2331,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="85"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="44" t="s">
         <v>63</v>
       </c>
@@ -2358,16 +2360,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="95" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="45" t="s">
         <v>54</v>
       </c>
@@ -2389,17 +2391,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="89"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="44" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="34"/>
       <c r="H10" s="39" t="s">
         <v>13</v>
@@ -2407,10 +2409,10 @@
       <c r="I10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="74"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F962941-ABD0-4445-9035-4954F57E1572}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A4A09-3922-4C7D-A60F-23142D3D4A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="2295" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -85,9 +96,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>ATM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Channel  </t>
   </si>
   <si>
@@ -95,9 +103,6 @@
   </si>
   <si>
     <t>TB icbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKX </t>
   </si>
   <si>
     <t>BOC</t>
@@ -317,17 +322,17 @@
     <t>late Oct</t>
   </si>
   <si>
-    <t>BOC.sg</t>
-  </si>
-  <si>
-    <t>阜外</t>
-  </si>
-  <si>
     <t>^ max</t>
   </si>
   <si>
     <t>中行
 柜台</t>
+  </si>
+  <si>
+    <t>til 9Nov</t>
+  </si>
+  <si>
+    <t>no FX</t>
   </si>
 </sst>
 </file>
@@ -441,19 +446,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -560,30 +556,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -593,185 +586,185 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1058,17 +1051,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="18" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="18" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="0.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="18" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
@@ -1080,512 +1073,512 @@
       <c r="C2" s="75"/>
       <c r="D2" s="76"/>
       <c r="F2" s="74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="76"/>
-      <c r="J2" s="9"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="77" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="77"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="77" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="21" t="s">
+      <c r="H3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="21"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>45490</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>72844</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="20">
+      <c r="H4" s="12"/>
+      <c r="I4" s="19">
         <v>10000</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21">
+      <c r="J4" s="21"/>
+      <c r="K4" s="20">
         <f>I4</f>
         <v>10000</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>45509</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="21"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>45511</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="58">
         <v>10000</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="58">
         <f>H5</f>
         <v>10000</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>45511</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="21"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>45512</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>71992</v>
       </c>
-      <c r="H6" s="61"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="73">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="59">
+      <c r="J6" s="63"/>
+      <c r="K6" s="58">
         <v>4000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>45512</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="21"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="61"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="73"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="21">
+      <c r="J7" s="63"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="20">
         <v>6000</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>45514</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>45575</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>70265</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="59">
+      <c r="H8" s="60"/>
+      <c r="I8" s="58">
         <v>10000</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="59">
+      <c r="J8" s="59"/>
+      <c r="K8" s="58">
         <f>I8</f>
         <v>10000</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>45593</v>
       </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="26"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="21"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>45594</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>71433</v>
       </c>
-      <c r="H9" s="61"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="73">
         <f>K9+N10</f>
         <v>8000</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="59">
+      <c r="J9" s="63"/>
+      <c r="K9" s="58">
         <v>6000</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>45594</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="24"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="58">
+      <c r="B10" s="20"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="57">
         <v>10000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>45594</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="61"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="56">
+      <c r="J10" s="63"/>
+      <c r="K10" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="55">
         <v>2000</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>45598</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="21"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>45593</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="58">
         <v>3400</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="56">
+      <c r="I11" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="55">
         <f>H11</f>
         <v>3400</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>45598</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="21"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="21"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59">
+      <c r="F13" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58">
         <v>10000</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="59">
+      <c r="J13" s="62"/>
+      <c r="K13" s="58">
         <v>10000</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="21"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="59">
+      <c r="G14" s="12"/>
+      <c r="H14" s="58">
         <v>10000</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="59">
+      <c r="I14" s="58"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="58">
         <v>10000</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="21"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="22"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="21"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="59">
+      <c r="G16" s="12"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="58">
         <v>6000</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="56">
+      <c r="J16" s="62"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="55">
         <v>6000</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="21"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="S17" s="27"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>28000</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="B19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="21"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1603,557 +1596,529 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="1"/>
-      <c r="C2" s="77" t="s">
+    <row r="2" spans="2:11" ht="15" customHeight="1">
+      <c r="B2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="80" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="12" t="s">
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>45514</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="12">
+        <f>D4</f>
+        <v>10000</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4">
-        <v>45514</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3">
+        <v>45516</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="C5" s="3">
+        <v>45541</v>
+      </c>
+      <c r="D5" s="6">
+        <f>G5*F5+E5</f>
+        <v>10072.861999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>110</v>
+      </c>
+      <c r="F5" s="29">
+        <v>5.4741</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1820</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45541</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45545</v>
+      </c>
+      <c r="D6" s="6">
+        <f>G6*F6+E6</f>
+        <v>10067.766</v>
+      </c>
+      <c r="E6" s="5">
+        <v>110</v>
+      </c>
+      <c r="F6" s="29">
+        <v>5.4713000000000003</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1820</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45545</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45549</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9995.7999999999993</v>
+      </c>
+      <c r="E7" s="79">
         <v>0</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="13">
-        <f>F4</f>
-        <v>10000</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="4">
-        <v>45516</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F7" s="29">
+        <v>5.4922000000000004</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1820</v>
+      </c>
+      <c r="H7" s="92"/>
+      <c r="I7" s="3">
+        <v>45549</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4">
-        <v>45541</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7">
-        <f>I5*H5+G5</f>
-        <v>10072.861999999999</v>
-      </c>
-      <c r="G5" s="6">
-        <v>110</v>
-      </c>
-      <c r="H5" s="30">
-        <v>5.4741</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45567</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9971.7800000000007</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="29">
+        <f>D8/G8</f>
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="G8" s="13">
         <v>1820</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="4">
-        <v>45541</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="H8" s="92"/>
+      <c r="I8" s="3">
+        <v>45567</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="3">
+        <v>45568</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9981.18</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="29">
+        <f t="shared" ref="F9:F13" si="0">D9/G9</f>
+        <v>5.4541967213114759</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1830</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="3">
+        <v>45568</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
-        <v>45545</v>
-      </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="7">
-        <f>I6*H6+G6</f>
-        <v>10067.766</v>
-      </c>
-      <c r="G6" s="6">
-        <v>110</v>
-      </c>
-      <c r="H6" s="30">
-        <v>5.4713000000000003</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1820</v>
-      </c>
-      <c r="J6" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="4">
-        <v>45545</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45549</v>
-      </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="7">
-        <v>9995.7999999999993</v>
-      </c>
-      <c r="G7" s="84">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>5.4922000000000004</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1820</v>
-      </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="4">
-        <v>45549</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45567</v>
-      </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="7">
-        <v>9971.7800000000007</v>
-      </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="30">
-        <f>F8/I8</f>
-        <v>5.4790000000000001</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1820</v>
-      </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="4">
-        <v>45567</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45568</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="7">
-        <v>9981.18</v>
-      </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="30">
-        <f t="shared" ref="H9:H14" si="0">F9/I9</f>
-        <v>5.4541967213114759</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1830</v>
-      </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="4">
-        <v>45568</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3">
         <v>45569</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="7">
+      <c r="D10" s="6">
         <v>9974.42</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="30">
+      <c r="E10" s="80"/>
+      <c r="F10" s="29">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
       </c>
-      <c r="I10" s="14">
+      <c r="G10" s="13">
         <v>1830</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="4">
+      <c r="H10" s="92"/>
+      <c r="I10" s="3">
         <v>45569</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="J10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
         <v>45573</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="3">
+      <c r="D11" s="2">
         <v>9958.67</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="30">
+      <c r="E11" s="80"/>
+      <c r="F11" s="29">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
       </c>
-      <c r="I11" s="14">
+      <c r="G11" s="13">
         <v>1830</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="H11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="3">
         <v>45573</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="J11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="3">
         <v>45576</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="3">
+      <c r="D12" s="2">
         <v>9954.65</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="30">
+      <c r="E12" s="81"/>
+      <c r="F12" s="29">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
       </c>
-      <c r="I12" s="14">
+      <c r="G12" s="13">
         <v>1830</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3">
         <v>45576</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="3">
         <v>45598</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="3">
+      <c r="D13" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="30">
+      <c r="E13" s="5"/>
+      <c r="F13" s="29">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="I13" s="14">
+      <c r="G13" s="13">
         <v>1840</v>
       </c>
-      <c r="J13" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="H13" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3">
         <v>45598</v>
       </c>
-      <c r="L13" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="J13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9954.2199999999993</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="29">
+        <f t="shared" ref="F14" si="1">D14/G14</f>
+        <v>5.4099021739130428</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1840</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="3">
+        <v>45598</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="12">
+        <f>D15</f>
+        <v>20000</v>
+      </c>
+      <c r="H15" s="95"/>
+      <c r="I15" s="3">
         <v>45598</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="3">
-        <v>9954.2199999999993</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="30">
-        <f t="shared" si="0"/>
-        <v>5.4099021739130428</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="J15" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45605</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10000.001</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="29">
+        <v>5.43</v>
+      </c>
+      <c r="G16" s="13">
         <v>1840</v>
       </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="4">
-        <v>45598</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="5">
-        <v>20000</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="13">
-        <f>F15</f>
-        <v>20000</v>
-      </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="4">
-        <v>45598</v>
-      </c>
-      <c r="L15" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="3"/>
+      <c r="H16" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45605</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="3"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="F20" s="69">
-        <f>SUM(F5:F13)</f>
+      <c r="J18" s="31"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="E22" s="68">
+        <f>SUM(D5:D13)</f>
         <v>89931.347999999998</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="F22" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="7">
+        <v>140000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="F22" s="8">
-        <v>130000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="E5:E14"/>
+  <mergeCells count="6">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H13:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2172,7 +2137,7 @@
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2185,266 +2150,266 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="37"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="36"/>
+      <c r="C3" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="85">
+        <v>520</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="85"/>
+      <c r="J3" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="36"/>
+      <c r="C4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="37"/>
-      <c r="C3" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="92">
-        <v>520</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="38" t="s">
+      <c r="E4" s="47">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="86" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="37"/>
-      <c r="C4" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="48">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="93" t="s">
-        <v>70</v>
       </c>
       <c r="I4" s="77"/>
       <c r="J4" s="77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" s="77"/>
-      <c r="L4" s="36" t="s">
-        <v>37</v>
+      <c r="L4" s="35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="37"/>
-      <c r="C5" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
+      <c r="B5" s="36"/>
+      <c r="C5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="77"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="75"/>
       <c r="J5" s="75"/>
       <c r="K5" s="76"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="37"/>
-      <c r="C6" s="42" t="s">
-        <v>48</v>
+      <c r="B6" s="36"/>
+      <c r="C6" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="77"/>
-      <c r="F6" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="51"/>
+      <c r="F6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="50"/>
       <c r="H6" s="74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="75"/>
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="84"/>
+      <c r="C8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="49" t="s">
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="88"/>
+      <c r="C10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="91"/>
-      <c r="C8" s="44" t="s">
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="76"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="43"/>
+      <c r="C11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="F11" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="95"/>
-      <c r="C10" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="44"/>
-      <c r="C11" s="54" t="s">
+      <c r="J11" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A4A09-3922-4C7D-A60F-23142D3D4A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA9EFE-AFB5-4B3A-8235-A2F82D7E374F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,6 @@
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -698,6 +687,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -716,6 +711,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -728,6 +732,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -745,27 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,28 +1056,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="77"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17">
@@ -1209,7 +1198,7 @@
         <v>71992</v>
       </c>
       <c r="H6" s="60"/>
-      <c r="I6" s="73">
+      <c r="I6" s="75">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
@@ -1234,7 +1223,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="12"/>
       <c r="H7" s="60"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="63"/>
       <c r="K7" s="58"/>
       <c r="L7" s="2"/>
@@ -1295,7 +1284,7 @@
         <v>71433</v>
       </c>
       <c r="H9" s="60"/>
-      <c r="I9" s="73">
+      <c r="I9" s="75">
         <f>K9+N10</f>
         <v>8000</v>
       </c>
@@ -1324,7 +1313,7 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="60"/>
-      <c r="I10" s="73"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="63"/>
       <c r="K10" s="58" t="s">
         <v>84</v>
@@ -1599,7 +1588,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1619,20 +1608,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="90" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
     </row>
@@ -1646,7 +1635,7 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="91"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="28" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1733,7 @@
       <c r="G6" s="13">
         <v>1820</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="83" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="3">
@@ -1765,7 +1754,7 @@
       <c r="D7" s="6">
         <v>9995.7999999999993</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="84">
         <v>0</v>
       </c>
       <c r="F7" s="29">
@@ -1774,7 +1763,7 @@
       <c r="G7" s="13">
         <v>1820</v>
       </c>
-      <c r="H7" s="92"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="3">
         <v>45549</v>
       </c>
@@ -1793,7 +1782,7 @@
       <c r="D8" s="6">
         <v>9971.7800000000007</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="29">
         <f>D8/G8</f>
         <v>5.4790000000000001</v>
@@ -1801,7 +1790,7 @@
       <c r="G8" s="13">
         <v>1820</v>
       </c>
-      <c r="H8" s="92"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="3">
         <v>45567</v>
       </c>
@@ -1820,7 +1809,7 @@
       <c r="D9" s="6">
         <v>9981.18</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="29">
         <f t="shared" ref="F9:F13" si="0">D9/G9</f>
         <v>5.4541967213114759</v>
@@ -1828,7 +1817,7 @@
       <c r="G9" s="13">
         <v>1830</v>
       </c>
-      <c r="H9" s="92"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="3">
         <v>45568</v>
       </c>
@@ -1847,7 +1836,7 @@
       <c r="D10" s="6">
         <v>9974.42</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="29">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
@@ -1855,7 +1844,7 @@
       <c r="G10" s="13">
         <v>1830</v>
       </c>
-      <c r="H10" s="92"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="3">
         <v>45569</v>
       </c>
@@ -1874,7 +1863,7 @@
       <c r="D11" s="2">
         <v>9958.67</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="29">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
@@ -1903,7 +1892,7 @@
       <c r="D12" s="2">
         <v>9954.65</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="29">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
@@ -1940,7 +1929,7 @@
       <c r="G13" s="13">
         <v>1840</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="87" t="s">
         <v>96</v>
       </c>
       <c r="I13" s="3">
@@ -1969,7 +1958,7 @@
       <c r="G14" s="13">
         <v>1840</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="3">
         <v>45598</v>
       </c>
@@ -1996,7 +1985,7 @@
         <f>D15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="95"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="3">
         <v>45598</v>
       </c>
@@ -2013,16 +2002,17 @@
         <v>45605</v>
       </c>
       <c r="D16" s="2">
-        <v>10000.001</v>
+        <v>9991.01</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="29">
-        <v>5.43</v>
+        <f t="shared" ref="F16" si="2">D16/G16</f>
+        <v>5.4298967391304345</v>
       </c>
       <c r="G16" s="13">
         <v>1840</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="74" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="3">
@@ -2040,7 +2030,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="29"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="93"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="3"/>
       <c r="J17" s="70"/>
       <c r="K17" s="2"/>
@@ -2113,12 +2103,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H13:H15"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H13:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2178,15 +2168,15 @@
       <c r="D3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="92">
         <v>520</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="37" t="s">
         <v>66</v>
       </c>
@@ -2212,14 +2202,14 @@
         <v>55</v>
       </c>
       <c r="G4" s="38"/>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="77"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="35" t="s">
         <v>35</v>
       </c>
@@ -2232,17 +2222,17 @@
       <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="77"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12">
@@ -2250,24 +2240,24 @@
       <c r="C6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="50"/>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="90" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -2283,10 +2273,10 @@
         <v>38</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2296,7 +2286,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="84"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="43" t="s">
         <v>61</v>
       </c>
@@ -2325,16 +2315,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="95" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="44" t="s">
         <v>52</v>
       </c>
@@ -2356,17 +2346,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="88"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="43" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="33"/>
       <c r="H10" s="38" t="s">
         <v>13</v>
@@ -2374,10 +2364,10 @@
       <c r="I10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="76"/>
+      <c r="K10" s="78"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA9EFE-AFB5-4B3A-8235-A2F82D7E374F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57885679-5B7B-4839-BA8E-7DAB1302E4BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>withdrawal</t>
-  </si>
-  <si>
-    <t>fee 
-included</t>
   </si>
   <si>
     <t>deposit in Sgp</t>
@@ -314,14 +310,20 @@
     <t>^ max</t>
   </si>
   <si>
-    <t>中行
+    <t>til 9Nov</t>
+  </si>
+  <si>
+    <t>no FX</t>
+  </si>
+  <si>
+    <t>psbc::gp has 10k+ as of …</t>
+  </si>
+  <si>
+    <t>R110 fee included</t>
+  </si>
+  <si>
+    <t>BOC
 柜台</t>
-  </si>
-  <si>
-    <t>til 9Nov</t>
-  </si>
-  <si>
-    <t>no FX</t>
   </si>
 </sst>
 </file>
@@ -545,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,7 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -608,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -621,140 +622,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,48 +1027,48 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="17" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="17" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="0.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="17" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="79" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="F2" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="79"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1089,41 +1076,41 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1132,15 +1119,15 @@
       <c r="F4" s="3">
         <v>45490</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>72844</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="19">
+      <c r="H4" s="11"/>
+      <c r="I4" s="18">
         <v>10000</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20">
+      <c r="J4" s="20"/>
+      <c r="K4" s="19">
         <f>I4</f>
         <v>10000</v>
       </c>
@@ -1148,13 +1135,13 @@
         <v>45509</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1163,15 +1150,15 @@
       <c r="F5" s="3">
         <v>45511</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="57">
         <v>10000</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="58">
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="57">
         <f>H5</f>
         <v>10000</v>
       </c>
@@ -1179,13 +1166,13 @@
         <v>45511</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="20"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1194,41 +1181,41 @@
       <c r="F6" s="3">
         <v>45512</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>71992</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="75">
+      <c r="H6" s="59"/>
+      <c r="I6" s="74">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="58">
+      <c r="J6" s="62"/>
+      <c r="K6" s="57">
         <v>4000</v>
       </c>
       <c r="L6" s="3">
         <v>45512</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="20"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="58"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>6000</v>
       </c>
       <c r="O7" s="3">
@@ -1240,7 +1227,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="B8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1249,29 +1236,29 @@
       <c r="F8" s="3">
         <v>45575</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>70265</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="58">
+      <c r="H8" s="59"/>
+      <c r="I8" s="57">
         <v>10000</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="58">
+      <c r="J8" s="58"/>
+      <c r="K8" s="57">
         <f>I8</f>
         <v>10000</v>
       </c>
       <c r="L8" s="3">
         <v>45593</v>
       </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1280,47 +1267,47 @@
       <c r="F9" s="3">
         <v>45594</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>71433</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="75">
+      <c r="H9" s="59"/>
+      <c r="I9" s="74">
         <f>K9+N10</f>
         <v>8000</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="58">
+      <c r="J9" s="62"/>
+      <c r="K9" s="57">
         <v>6000</v>
       </c>
       <c r="L9" s="3">
         <v>45594</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="23"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <v>10000</v>
       </c>
       <c r="F10" s="3">
         <v>45594</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="55">
+      <c r="G10" s="11"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="54">
         <v>2000</v>
       </c>
       <c r="O10" s="3">
@@ -1329,10 +1316,10 @@
       <c r="P10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -1341,20 +1328,20 @@
       <c r="F11" s="3">
         <v>45593</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="57">
         <v>3400</v>
       </c>
-      <c r="I11" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="55">
+      <c r="I11" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="54">
         <f>H11</f>
         <v>3400</v>
       </c>
@@ -1367,53 +1354,53 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="55"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="3"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58">
+      <c r="F13" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57">
         <v>10000</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="58">
+      <c r="J13" s="61"/>
+      <c r="K13" s="57">
         <v>10000</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1422,42 +1409,42 @@
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="58">
+      <c r="G14" s="11"/>
+      <c r="H14" s="57">
         <v>10000</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="58">
+      <c r="I14" s="57"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="57">
         <v>10000</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="19"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1466,16 +1453,16 @@
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="58">
+      <c r="G16" s="11"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57">
         <v>6000</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="55">
+      <c r="J16" s="61"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="54">
         <v>6000</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -1485,46 +1472,46 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="71" t="s">
-        <v>95</v>
+      <c r="G17" s="11"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="70" t="s">
+        <v>94</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="S17" s="26"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>28000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="55"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1532,39 +1519,39 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="20" t="s">
-        <v>86</v>
+      <c r="B19" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="55"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="55"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="54"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1585,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1596,64 +1583,60 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="81" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="80" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="76"/>
       <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="2:11">
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="E3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="11" t="s">
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>45514</v>
@@ -1661,201 +1644,188 @@
       <c r="D4" s="4">
         <v>10000</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="E4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="11">
         <f>D4</f>
         <v>10000</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45516</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45516</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>45541</v>
       </c>
-      <c r="D5" s="6">
-        <f>G5*F5+E5</f>
-        <v>10072.861999999999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>110</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="D5">
+        <v>10072.86</v>
+      </c>
+      <c r="E5" s="28">
         <v>5.4741</v>
       </c>
-      <c r="G5" s="13">
+      <c r="F5" s="12">
         <v>1820</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45541</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3">
-        <v>45541</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="J5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>45545</v>
       </c>
-      <c r="D6" s="6">
-        <f>G6*F6+E6</f>
-        <v>10067.766</v>
-      </c>
-      <c r="E6" s="5">
-        <v>110</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="D6">
+        <v>10067.77</v>
+      </c>
+      <c r="E6" s="28">
         <v>5.4713000000000003</v>
       </c>
-      <c r="G6" s="13">
+      <c r="F6" s="12">
         <v>1820</v>
       </c>
-      <c r="H6" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3">
         <v>45545</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <v>45549</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>9995.7999999999993</v>
       </c>
-      <c r="E7" s="84">
-        <v>0</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="E7" s="28">
         <v>5.4922000000000004</v>
       </c>
-      <c r="G7" s="13">
+      <c r="F7" s="12">
         <v>1820</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="3">
+      <c r="G7" s="82"/>
+      <c r="H7" s="3">
         <v>45549</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="I7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>45567</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>9971.7800000000007</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="29">
-        <f>D8/G8</f>
+      <c r="E8" s="28">
+        <f>D8/F8</f>
         <v>5.4790000000000001</v>
       </c>
-      <c r="G8" s="13">
+      <c r="F8" s="12">
         <v>1820</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="3">
+      <c r="G8" s="82"/>
+      <c r="H8" s="3">
         <v>45567</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="I8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>45568</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>9981.18</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="29">
-        <f t="shared" ref="F9:F13" si="0">D9/G9</f>
+      <c r="E9" s="28">
+        <f>D9/F9</f>
         <v>5.4541967213114759</v>
       </c>
-      <c r="G9" s="13">
+      <c r="F9" s="12">
         <v>1830</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="3">
+      <c r="G9" s="82"/>
+      <c r="H9" s="3">
         <v>45568</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="I9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>45569</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>9974.42</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="29">
-        <f t="shared" si="0"/>
+      <c r="E10" s="28">
+        <f>D10/F10</f>
         <v>5.4505027322404374</v>
       </c>
-      <c r="G10" s="13">
+      <c r="F10" s="12">
         <v>1830</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="3">
+      <c r="G10" s="82"/>
+      <c r="H10" s="3">
         <v>45569</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="I10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>45573</v>
@@ -1863,28 +1833,27 @@
       <c r="D11" s="2">
         <v>9958.67</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="29">
-        <f t="shared" si="0"/>
+      <c r="E11" s="28">
+        <f>D11/F11</f>
         <v>5.4418961748633876</v>
       </c>
-      <c r="G11" s="13">
+      <c r="F11" s="12">
         <v>1830</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="3">
         <v>45573</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="I11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3">
         <v>45576</v>
@@ -1892,28 +1861,27 @@
       <c r="D12" s="2">
         <v>9954.65</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="29">
-        <f t="shared" si="0"/>
+      <c r="E12" s="28">
+        <f>D12/F12</f>
         <v>5.4396994535519125</v>
       </c>
-      <c r="G12" s="13">
+      <c r="F12" s="12">
         <v>1830</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3">
         <v>45576</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1">
+      <c r="I12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
         <v>45598</v>
@@ -1921,28 +1889,27 @@
       <c r="D13" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="29">
-        <f t="shared" si="0"/>
+      <c r="E13" s="28">
+        <f>D13/F13</f>
         <v>5.4099021739130428</v>
       </c>
-      <c r="G13" s="13">
+      <c r="F13" s="12">
         <v>1840</v>
       </c>
-      <c r="H13" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="G13" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="3">
         <v>45598</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="I13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3">
         <v>45598</v>
@@ -1950,53 +1917,51 @@
       <c r="D14" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="29">
-        <f t="shared" ref="F14" si="1">D14/G14</f>
+      <c r="E14" s="28">
+        <f>D14/F14</f>
         <v>5.4099021739130428</v>
       </c>
-      <c r="G14" s="13">
+      <c r="F14" s="12">
         <v>1840</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="3">
+      <c r="G14" s="79"/>
+      <c r="H14" s="3">
         <v>45598</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="I14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="4">
         <v>20000</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="E15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="11">
         <f>D15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="3">
+      <c r="G15" s="80"/>
+      <c r="H15" s="3">
         <v>45598</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="I15" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3">
         <v>45605</v>
@@ -2004,111 +1969,111 @@
       <c r="D16" s="2">
         <v>9991.01</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="29">
-        <f t="shared" ref="F16" si="2">D16/G16</f>
+      <c r="E16" s="28">
+        <f>D16/F16</f>
         <v>5.4298967391304345</v>
       </c>
-      <c r="G16" s="13">
+      <c r="F16" s="12">
         <v>1840</v>
       </c>
-      <c r="H16" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="G16" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3">
         <v>45605</v>
       </c>
-      <c r="J16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="I16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="2"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="2"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="E22" s="68">
+      <c r="D22" s="67">
         <f>SUM(D5:D13)</f>
-        <v>89931.347999999998</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="D24" t="s">
+        <v>89931.349999999991</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="6">
+        <v>140000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="7">
-        <v>140000</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
+      <c r="E25" s="89">
+        <v>45606</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="E7:E12"/>
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G6:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2127,7 +2092,7 @@
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2140,266 +2105,266 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="35"/>
+      <c r="C3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="85">
+        <v>520</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="85"/>
+      <c r="J3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="35"/>
+      <c r="C4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="46">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="35"/>
+      <c r="C5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="36"/>
-      <c r="C3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="92">
-        <v>520</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="37" t="s">
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="35"/>
+      <c r="C6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="84"/>
+      <c r="C8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="36"/>
-      <c r="C4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="47">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="93" t="s">
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="88"/>
+      <c r="C10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="36"/>
-      <c r="C5" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="36"/>
-      <c r="C6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="91"/>
-      <c r="C8" s="43" t="s">
+      <c r="K10" s="77"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="42"/>
+      <c r="C11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="95"/>
-      <c r="C10" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="43"/>
-      <c r="C11" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="54" t="s">
+      <c r="J11" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="38"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="2"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57885679-5B7B-4839-BA8E-7DAB1302E4BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4667E2B6-CF26-4ABF-A15F-38488274042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,17 @@
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -694,6 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -709,6 +721,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,10 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,28 +1054,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="F2" s="75" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="78"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17">
@@ -1185,7 +1196,7 @@
         <v>71992</v>
       </c>
       <c r="H6" s="59"/>
-      <c r="I6" s="74">
+      <c r="I6" s="75">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
@@ -1210,7 +1221,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="11"/>
       <c r="H7" s="59"/>
-      <c r="I7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="62"/>
       <c r="K7" s="57"/>
       <c r="L7" s="2"/>
@@ -1271,7 +1282,7 @@
         <v>71433</v>
       </c>
       <c r="H9" s="59"/>
-      <c r="I9" s="74">
+      <c r="I9" s="75">
         <f>K9+N10</f>
         <v>8000</v>
       </c>
@@ -1300,7 +1311,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="59"/>
-      <c r="I10" s="74"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="62"/>
       <c r="K10" s="57" t="s">
         <v>83</v>
@@ -1575,7 +1586,7 @@
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1595,17 +1606,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
     </row>
@@ -1707,7 +1718,7 @@
       <c r="F6" s="12">
         <v>1820</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="84" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="3">
@@ -1736,7 +1747,7 @@
       <c r="F7" s="12">
         <v>1820</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="84"/>
       <c r="H7" s="3">
         <v>45549</v>
       </c>
@@ -1756,13 +1767,13 @@
         <v>9971.7800000000007</v>
       </c>
       <c r="E8" s="28">
-        <f>D8/F8</f>
+        <f t="shared" ref="E8:E14" si="0">D8/F8</f>
         <v>5.4790000000000001</v>
       </c>
       <c r="F8" s="12">
         <v>1820</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="3">
         <v>45567</v>
       </c>
@@ -1782,13 +1793,13 @@
         <v>9981.18</v>
       </c>
       <c r="E9" s="28">
-        <f>D9/F9</f>
+        <f t="shared" si="0"/>
         <v>5.4541967213114759</v>
       </c>
       <c r="F9" s="12">
         <v>1830</v>
       </c>
-      <c r="G9" s="82"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="3">
         <v>45568</v>
       </c>
@@ -1808,13 +1819,13 @@
         <v>9974.42</v>
       </c>
       <c r="E10" s="28">
-        <f>D10/F10</f>
+        <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
       </c>
       <c r="F10" s="12">
         <v>1830</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="3">
         <v>45569</v>
       </c>
@@ -1834,7 +1845,7 @@
         <v>9958.67</v>
       </c>
       <c r="E11" s="28">
-        <f>D11/F11</f>
+        <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
       </c>
       <c r="F11" s="12">
@@ -1862,7 +1873,7 @@
         <v>9954.65</v>
       </c>
       <c r="E12" s="28">
-        <f>D12/F12</f>
+        <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
       </c>
       <c r="F12" s="12">
@@ -1890,13 +1901,13 @@
         <v>9954.2199999999993</v>
       </c>
       <c r="E13" s="28">
-        <f>D13/F13</f>
+        <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
       <c r="F13" s="12">
         <v>1840</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="80" t="s">
         <v>99</v>
       </c>
       <c r="H13" s="3">
@@ -1918,13 +1929,13 @@
         <v>9954.2199999999993</v>
       </c>
       <c r="E14" s="28">
-        <f>D14/F14</f>
+        <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
       <c r="F14" s="12">
         <v>1840</v>
       </c>
-      <c r="G14" s="79"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="3">
         <v>45598</v>
       </c>
@@ -1950,7 +1961,7 @@
         <f>D15</f>
         <v>20000</v>
       </c>
-      <c r="G15" s="80"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="3">
         <v>45598</v>
       </c>
@@ -2039,7 +2050,7 @@
       <c r="E22" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>90</v>
       </c>
       <c r="K22" s="13"/>
@@ -2054,7 +2065,7 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="F23" s="71" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="71"/>
@@ -2064,7 +2075,7 @@
       <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="74">
         <v>45606</v>
       </c>
     </row>
@@ -2133,15 +2144,15 @@
       <c r="D3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="87">
         <v>520</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="48"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="36" t="s">
         <v>65</v>
       </c>
@@ -2167,14 +2178,14 @@
         <v>54</v>
       </c>
       <c r="G4" s="37"/>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="34" t="s">
         <v>34</v>
       </c>
@@ -2187,17 +2198,17 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12">
@@ -2205,24 +2216,24 @@
       <c r="C6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="43" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="49"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="85" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -2238,10 +2249,10 @@
         <v>37</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="78"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2251,7 +2262,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="84"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="42" t="s">
         <v>60</v>
       </c>
@@ -2280,16 +2291,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="90" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="43" t="s">
         <v>51</v>
       </c>
@@ -2311,17 +2322,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="88"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="42" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="77"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="32"/>
       <c r="H10" s="37" t="s">
         <v>13</v>
@@ -2329,10 +2340,10 @@
       <c r="I10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="77"/>
+      <c r="K10" s="78"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4667E2B6-CF26-4ABF-A15F-38488274042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87993F0-1C33-40CB-8828-31651FD614E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -53,9 +42,6 @@
     <t>存date</t>
   </si>
   <si>
-    <t>处境date</t>
-  </si>
-  <si>
     <t>Sgp bank</t>
   </si>
   <si>
@@ -335,6 +321,9 @@
   <si>
     <t>BOC
 柜台</t>
+  </si>
+  <si>
+    <t>出境date</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1060,7 +1049,7 @@
       <c r="C2" s="77"/>
       <c r="D2" s="78"/>
       <c r="F2" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
@@ -1083,23 +1072,23 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="19" t="s">
@@ -1113,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>7</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
@@ -1125,7 +1114,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
         <v>45490</v>
@@ -1156,13 +1145,13 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <v>45511</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="57">
         <v>10000</v>
@@ -1187,7 +1176,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>45512</v>
@@ -1233,7 +1222,7 @@
         <v>45514</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
@@ -1242,7 +1231,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <v>45575</v>
@@ -1273,7 +1262,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>45594</v>
@@ -1314,7 +1303,7 @@
       <c r="I10" s="75"/>
       <c r="J10" s="62"/>
       <c r="K10" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="64"/>
@@ -1325,7 +1314,7 @@
         <v>45598</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="23"/>
     </row>
@@ -1334,19 +1323,19 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
         <v>45593</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="57">
         <v>3400</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="60"/>
@@ -1360,7 +1349,7 @@
         <v>45598</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
@@ -1387,10 +1376,10 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="57"/>
@@ -1402,7 +1391,7 @@
         <v>10000</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="18"/>
@@ -1415,10 +1404,10 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="57">
@@ -1446,7 +1435,7 @@
       <c r="I15" s="57"/>
       <c r="J15" s="61"/>
       <c r="K15" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="18"/>
@@ -1459,10 +1448,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="59"/>
@@ -1477,7 +1466,7 @@
         <v>6000</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1496,7 +1485,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1508,11 +1497,11 @@
         <v>28000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
@@ -1524,14 +1513,14 @@
       <c r="M18" s="21"/>
       <c r="N18" s="54"/>
       <c r="O18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1585,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1607,13 +1596,13 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="78"/>
       <c r="E2" s="26"/>
       <c r="F2" s="83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="77"/>
       <c r="H2" s="78"/>
@@ -1622,16 +1611,16 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1639,15 +1628,15 @@
         <v>5</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>45514</v>
@@ -1656,14 +1645,14 @@
         <v>10000</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="11">
         <f>D4</f>
         <v>10000</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3">
         <v>45516</v>
@@ -1675,7 +1664,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
         <v>45541</v>
@@ -1690,21 +1679,21 @@
         <v>1820</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3">
         <v>45541</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>45545</v>
@@ -1719,21 +1708,21 @@
         <v>1820</v>
       </c>
       <c r="G6" s="84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3">
         <v>45545</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>45549</v>
@@ -1752,13 +1741,13 @@
         <v>45549</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>45567</v>
@@ -1778,13 +1767,13 @@
         <v>45567</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>45568</v>
@@ -1804,13 +1793,13 @@
         <v>45568</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>45569</v>
@@ -1830,13 +1819,13 @@
         <v>45569</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>45573</v>
@@ -1852,19 +1841,19 @@
         <v>1830</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="3">
         <v>45573</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
         <v>45576</v>
@@ -1880,19 +1869,19 @@
         <v>1830</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="3">
         <v>45576</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>45598</v>
@@ -1908,19 +1897,19 @@
         <v>1840</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="3">
         <v>45598</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3">
         <v>45598</v>
@@ -1940,22 +1929,22 @@
         <v>45598</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D15" s="4">
         <v>20000</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="11">
         <f>D15</f>
@@ -1972,7 +1961,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
         <v>45605</v>
@@ -1988,13 +1977,13 @@
         <v>1840</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="3">
         <v>45605</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -2048,32 +2037,32 @@
         <v>89931.349999999991</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11">
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="6">
         <v>140000</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="74">
         <v>45606</v>
@@ -2123,14 +2112,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -2139,10 +2128,10 @@
     <row r="3" spans="2:12">
       <c r="B3" s="35"/>
       <c r="C3" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="87">
         <v>520</v>
@@ -2150,61 +2139,61 @@
       <c r="F3" s="87"/>
       <c r="G3" s="48"/>
       <c r="H3" s="87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="87"/>
       <c r="J3" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="35"/>
       <c r="C4" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="46">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="79"/>
       <c r="J4" s="79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="79"/>
       <c r="L4" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="35"/>
       <c r="C5" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>44</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="31"/>
       <c r="H5" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="77"/>
       <c r="J5" s="77"/>
@@ -2214,18 +2203,18 @@
     <row r="6" spans="2:12">
       <c r="B6" s="35"/>
       <c r="C6" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
@@ -2234,114 +2223,114 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="79"/>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="86"/>
       <c r="C8" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
       <c r="B10" s="90"/>
       <c r="C10" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="78"/>
       <c r="G10" s="32"/>
       <c r="H10" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="78"/>
       <c r="L10" s="2"/>
@@ -2349,33 +2338,33 @@
     <row r="11" spans="2:12">
       <c r="B11" s="42"/>
       <c r="C11" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>71</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="2"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87993F0-1C33-40CB-8828-31651FD614E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30CD013-2B39-4266-8FE4-6AB2FBDD1475}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -307,9 +307,6 @@
     <t>^ max</t>
   </si>
   <si>
-    <t>til 9Nov</t>
-  </si>
-  <si>
     <t>no FX</t>
   </si>
   <si>
@@ -324,6 +321,12 @@
   </si>
   <si>
     <t>出境date</t>
+  </si>
+  <si>
+    <t>psbc::tb has 10k as of ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">til </t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>6</v>
@@ -1572,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1645,7 +1648,7 @@
         <v>10000</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="11">
         <f>D4</f>
@@ -1688,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1717,7 +1720,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -1897,7 +1900,7 @@
         <v>1840</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="3">
         <v>45598</v>
@@ -1944,7 +1947,7 @@
         <v>20000</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="11">
         <f>D15</f>
@@ -1988,36 +1991,53 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="69"/>
+      <c r="B17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45610</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9997.9599999999991</v>
+      </c>
+      <c r="E17" s="28">
+        <f>D17/F17</f>
+        <v>5.4043027027027026</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1850</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45610</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:11">
@@ -2031,41 +2051,60 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="22" spans="2:11">
-      <c r="D22" s="67">
+    <row r="21" spans="2:11">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="D23" s="67">
         <f>SUM(D5:D13)</f>
         <v>89931.349999999991</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E23" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="6">
-        <v>140000</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F24" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="74">
-        <v>45606</v>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="74">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="74">
+        <v>45611</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30CD013-2B39-4266-8FE4-6AB2FBDD1475}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F13C89-C735-4F20-834E-2DE59A128F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -295,9 +306,6 @@
     <t>total 2024 channelA::TB</t>
   </si>
   <si>
-    <t>TJJ 邮储</t>
-  </si>
-  <si>
     <t>unimp</t>
   </si>
   <si>
@@ -323,10 +331,13 @@
     <t>出境date</t>
   </si>
   <si>
-    <t>psbc::tb has 10k as of ..</t>
-  </si>
-  <si>
     <t xml:space="preserve">til </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJJ </t>
+  </si>
+  <si>
+    <t>psbc::tb has below 1k as of ..</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>6</v>
@@ -1488,7 +1499,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1578,7 +1589,7 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1648,7 +1659,7 @@
         <v>10000</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="11">
         <f>D4</f>
@@ -1691,7 +1702,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1720,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -1900,7 +1911,7 @@
         <v>1840</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="3">
         <v>45598</v>
@@ -1912,7 +1923,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3">
         <v>45598</v>
@@ -1938,16 +1949,16 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D15" s="4">
         <v>20000</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="11">
         <f>D15</f>
@@ -1964,7 +1975,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3">
         <v>45605</v>
@@ -1992,7 +2003,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3">
         <v>45610</v>
@@ -2019,14 +2030,31 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="69"/>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45611</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9991.48</v>
+      </c>
+      <c r="E18" s="28">
+        <f>D18/F18</f>
+        <v>5.4007999999999994</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1850</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45611</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:11">
@@ -2064,8 +2092,8 @@
     </row>
     <row r="23" spans="2:11">
       <c r="D23" s="67">
-        <f>SUM(D5:D13)</f>
-        <v>89931.349999999991</v>
+        <f>SUM(D5:D13)+D18</f>
+        <v>99922.829999999987</v>
       </c>
       <c r="E23" s="68" t="s">
         <v>25</v>
@@ -2077,10 +2105,10 @@
     </row>
     <row r="24" spans="2:11">
       <c r="C24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="6">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -2093,7 +2121,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="74">
         <v>45611</v>
@@ -2101,10 +2129,10 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="74">
-        <v>45611</v>
+        <v>45612</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F13C89-C735-4F20-834E-2DE59A128F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51CF059-1880-4E3B-8647-E7424A1FE8BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="2295" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,11 @@
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -338,19 +327,36 @@
   </si>
   <si>
     <t>psbc::tb has below 1k as of ..</t>
+  </si>
+  <si>
+    <t>LSQ icbc
+USD TD</t>
+  </si>
+  <si>
+    <t>icbcUSD bal</t>
+  </si>
+  <si>
+    <t>!withdraw</t>
+  </si>
+  <si>
+    <t>TJJ活期USD</t>
+  </si>
+  <si>
+    <t>no RMB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$¥-804]#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +442,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -557,11 +570,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,9 +596,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,17 +608,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,20 +688,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -712,6 +719,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,8 +767,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1032,57 +1068,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S20"/>
+  <dimension ref="B1:S229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="15" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="0.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="15" customWidth="1"/>
     <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="17" max="17" width="0.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:17">
+      <c r="G1" s="89"/>
+      <c r="J1" s="90"/>
+    </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="76" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="79" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="79"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1092,39 +1133,37 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1133,15 +1172,17 @@
       <c r="F4" s="3">
         <v>45490</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>72844</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="18">
+      <c r="H4" s="10"/>
+      <c r="I4" s="16">
         <v>10000</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="19">
+      <c r="J4" s="87">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
         <f>I4</f>
         <v>10000</v>
       </c>
@@ -1149,13 +1190,13 @@
         <v>45509</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="19"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1164,15 +1205,15 @@
       <c r="F5" s="3">
         <v>45511</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="54">
         <v>10000</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="57">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54">
         <f>H5</f>
         <v>10000</v>
       </c>
@@ -1180,13 +1221,13 @@
         <v>45511</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="19"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1195,41 +1236,43 @@
       <c r="F6" s="3">
         <v>45512</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>71992</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="75">
+      <c r="H6" s="55"/>
+      <c r="I6" s="70">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="57">
+      <c r="J6" s="87">
+        <v>0</v>
+      </c>
+      <c r="K6" s="54">
         <v>4000</v>
       </c>
       <c r="L6" s="3">
         <v>45512</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="19"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="57"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="19">
+      <c r="N7" s="17">
         <v>6000</v>
       </c>
       <c r="O7" s="3">
@@ -1241,7 +1284,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1250,114 +1293,104 @@
       <c r="F8" s="3">
         <v>45575</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>70265</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="57">
+      <c r="H8" s="55"/>
+      <c r="I8" s="54">
         <v>10000</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="57">
+      <c r="J8" s="87">
+        <v>0</v>
+      </c>
+      <c r="K8" s="54">
         <f>I8</f>
         <v>10000</v>
       </c>
       <c r="L8" s="3">
         <v>45593</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="54"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="19"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="2:17" ht="15" customHeight="1">
+      <c r="B9" s="17"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>45594</v>
-      </c>
-      <c r="G9" s="11">
+        <v>45593</v>
+      </c>
+      <c r="G9" s="10">
         <v>71433</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="75">
-        <f>K9+N10</f>
-        <v>8000</v>
-      </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="57">
-        <v>6000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>45594</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="19"/>
+      <c r="H9" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="87">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
+      <c r="Q9" s="88"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="17"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="56">
-        <v>10000</v>
+      <c r="E10" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F10" s="3">
         <v>45594</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="54">
+      <c r="H10" s="55"/>
+      <c r="I10" s="70">
+        <f>K10+N11</f>
+        <v>8000</v>
+      </c>
+      <c r="J10" s="69">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
-        <v>45598</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="19"/>
+      <c r="K10" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45594</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1">
+      <c r="B11" s="17"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45593</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="57">
-        <v>3400</v>
-      </c>
-      <c r="I11" s="57" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="54">
-        <f>H11</f>
-        <v>3400</v>
+      <c r="L11" s="18"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="51">
+        <v>2000</v>
       </c>
       <c r="O11" s="3">
         <v>45598</v>
@@ -1365,219 +1398,905 @@
       <c r="P11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="19"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1">
+      <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="54"/>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45595</v>
+      </c>
+      <c r="G12" s="10">
+        <v>71397</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="69">
+        <v>12000</v>
+      </c>
+      <c r="K12" s="54"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="3"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="19"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="2:17" ht="30">
+      <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="57">
-        <v>10000</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="E13" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45593</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="54">
+        <v>3400</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="51">
+        <f>H13</f>
+        <v>3400</v>
+      </c>
+      <c r="O13" s="3">
+        <v>45598</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="57">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="57">
-        <v>10000</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="O14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="18"/>
+      <c r="E15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="56">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="54">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="57">
-        <v>6000</v>
-      </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="54">
-        <v>6000</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="54">
+        <v>10000</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="70" t="s">
-        <v>92</v>
-      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="S17" s="25"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="19">
-        <v>28000</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="54"/>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="54">
+        <v>6000</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="51">
+        <v>6000</v>
+      </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="54"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="19"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="17">
+        <v>28000</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="17"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="J23" s="92"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="J26" s="92"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="J27" s="92"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="J28" s="92"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="J29" s="92"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="J30" s="92"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="J31" s="92"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="J32" s="92"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="92"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="92"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="92"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="92"/>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="92"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="92"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="92"/>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="92"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="92"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="92"/>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="92"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="92"/>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="92"/>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="92"/>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="92"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="92"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="92"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="92"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="92"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="92"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="92"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="92"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="92"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="92"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="92"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="92"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="92"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="92"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="92"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="92"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="92"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="92"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="92"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="92"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="92"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="92"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="92"/>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" s="92"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" s="92"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="92"/>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="92"/>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" s="92"/>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" s="92"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="92"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="92"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="92"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="92"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="92"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="92"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="92"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="92"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="92"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="92"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="92"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="92"/>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89" s="92"/>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90" s="92"/>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="92"/>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92" s="92"/>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93" s="92"/>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94" s="92"/>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" s="92"/>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96" s="92"/>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97" s="92"/>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98" s="92"/>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99" s="92"/>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100" s="92"/>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101" s="92"/>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102" s="92"/>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103" s="92"/>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104" s="92"/>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105" s="92"/>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106" s="92"/>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" s="92"/>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108" s="92"/>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109" s="92"/>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110" s="92"/>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111" s="92"/>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112" s="92"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="92"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="92"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="92"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="92"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="92"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="92"/>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" s="92"/>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" s="92"/>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" s="92"/>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" s="92"/>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" s="92"/>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" s="92"/>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" s="92"/>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" s="92"/>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" s="92"/>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" s="92"/>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" s="92"/>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" s="92"/>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" s="92"/>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" s="92"/>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" s="92"/>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" s="92"/>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" s="92"/>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" s="92"/>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="92"/>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" s="92"/>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" s="92"/>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" s="92"/>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" s="92"/>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" s="92"/>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" s="92"/>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" s="92"/>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" s="92"/>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" s="92"/>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" s="92"/>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" s="92"/>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" s="92"/>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" s="92"/>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" s="92"/>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" s="92"/>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" s="92"/>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" s="92"/>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="92"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="92"/>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" s="92"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="92"/>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" s="92"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="92"/>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" s="92"/>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" s="92"/>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" s="92"/>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" s="92"/>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" s="92"/>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" s="92"/>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" s="92"/>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" s="92"/>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" s="92"/>
+    </row>
+    <row r="170" spans="10:10">
+      <c r="J170" s="92"/>
+    </row>
+    <row r="171" spans="10:10">
+      <c r="J171" s="92"/>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" s="92"/>
+    </row>
+    <row r="173" spans="10:10">
+      <c r="J173" s="92"/>
+    </row>
+    <row r="174" spans="10:10">
+      <c r="J174" s="92"/>
+    </row>
+    <row r="175" spans="10:10">
+      <c r="J175" s="92"/>
+    </row>
+    <row r="176" spans="10:10">
+      <c r="J176" s="92"/>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="92"/>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="92"/>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" s="92"/>
+    </row>
+    <row r="180" spans="10:10">
+      <c r="J180" s="92"/>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" s="92"/>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" s="92"/>
+    </row>
+    <row r="183" spans="10:10">
+      <c r="J183" s="92"/>
+    </row>
+    <row r="184" spans="10:10">
+      <c r="J184" s="92"/>
+    </row>
+    <row r="185" spans="10:10">
+      <c r="J185" s="92"/>
+    </row>
+    <row r="186" spans="10:10">
+      <c r="J186" s="92"/>
+    </row>
+    <row r="187" spans="10:10">
+      <c r="J187" s="92"/>
+    </row>
+    <row r="188" spans="10:10">
+      <c r="J188" s="92"/>
+    </row>
+    <row r="189" spans="10:10">
+      <c r="J189" s="92"/>
+    </row>
+    <row r="190" spans="10:10">
+      <c r="J190" s="92"/>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" s="92"/>
+    </row>
+    <row r="192" spans="10:10">
+      <c r="J192" s="92"/>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" s="92"/>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" s="92"/>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" s="92"/>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" s="92"/>
+    </row>
+    <row r="197" spans="10:10">
+      <c r="J197" s="92"/>
+    </row>
+    <row r="198" spans="10:10">
+      <c r="J198" s="92"/>
+    </row>
+    <row r="199" spans="10:10">
+      <c r="J199" s="92"/>
+    </row>
+    <row r="200" spans="10:10">
+      <c r="J200" s="92"/>
+    </row>
+    <row r="201" spans="10:10">
+      <c r="J201" s="92"/>
+    </row>
+    <row r="202" spans="10:10">
+      <c r="J202" s="92"/>
+    </row>
+    <row r="203" spans="10:10">
+      <c r="J203" s="92"/>
+    </row>
+    <row r="204" spans="10:10">
+      <c r="J204" s="92"/>
+    </row>
+    <row r="205" spans="10:10">
+      <c r="J205" s="92"/>
+    </row>
+    <row r="206" spans="10:10">
+      <c r="J206" s="92"/>
+    </row>
+    <row r="207" spans="10:10">
+      <c r="J207" s="92"/>
+    </row>
+    <row r="208" spans="10:10">
+      <c r="J208" s="92"/>
+    </row>
+    <row r="209" spans="10:10">
+      <c r="J209" s="92"/>
+    </row>
+    <row r="210" spans="10:10">
+      <c r="J210" s="92"/>
+    </row>
+    <row r="211" spans="10:10">
+      <c r="J211" s="92"/>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" s="92"/>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" s="92"/>
+    </row>
+    <row r="214" spans="10:10">
+      <c r="J214" s="92"/>
+    </row>
+    <row r="215" spans="10:10">
+      <c r="J215" s="92"/>
+    </row>
+    <row r="216" spans="10:10">
+      <c r="J216" s="92"/>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" s="92"/>
+    </row>
+    <row r="218" spans="10:10">
+      <c r="J218" s="92"/>
+    </row>
+    <row r="219" spans="10:10">
+      <c r="J219" s="92"/>
+    </row>
+    <row r="220" spans="10:10">
+      <c r="J220" s="92"/>
+    </row>
+    <row r="221" spans="10:10">
+      <c r="J221" s="92"/>
+    </row>
+    <row r="222" spans="10:10">
+      <c r="J222" s="92"/>
+    </row>
+    <row r="223" spans="10:10">
+      <c r="J223" s="92"/>
+    </row>
+    <row r="224" spans="10:10">
+      <c r="J224" s="92"/>
+    </row>
+    <row r="225" spans="10:10">
+      <c r="J225" s="92"/>
+    </row>
+    <row r="226" spans="10:10">
+      <c r="J226" s="92"/>
+    </row>
+    <row r="227" spans="10:10">
+      <c r="J227" s="92"/>
+    </row>
+    <row r="228" spans="10:10">
+      <c r="J228" s="92"/>
+    </row>
+    <row r="229" spans="10:10">
+      <c r="J229" s="92"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F2:I2"/>
+  <mergeCells count="8">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1588,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1600,7 +2319,7 @@
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -1609,19 +2328,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="83" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
@@ -1633,7 +2352,7 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2"/>
@@ -1641,10 +2360,10 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1658,10 +2377,10 @@
       <c r="D4" s="4">
         <v>10000</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>D4</f>
         <v>10000</v>
       </c>
@@ -1686,10 +2405,10 @@
       <c r="D5">
         <v>10072.86</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>5.4741</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>1820</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1715,13 +2434,13 @@
       <c r="D6">
         <v>10067.77</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>5.4713000000000003</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1820</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="79" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="3">
@@ -1744,17 +2463,17 @@
       <c r="D7" s="5">
         <v>9995.7999999999993</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <v>5.4922000000000004</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1820</v>
       </c>
-      <c r="G7" s="84"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="3">
         <v>45549</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="2"/>
@@ -1769,18 +2488,18 @@
       <c r="D8" s="5">
         <v>9971.7800000000007</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <f t="shared" ref="E8:E14" si="0">D8/F8</f>
         <v>5.4790000000000001</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1820</v>
       </c>
-      <c r="G8" s="84"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="3">
         <v>45567</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="2"/>
@@ -1795,18 +2514,18 @@
       <c r="D9" s="5">
         <v>9981.18</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>5.4541967213114759</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1830</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="3">
         <v>45568</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="2"/>
@@ -1821,18 +2540,18 @@
       <c r="D10" s="5">
         <v>9974.42</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1830</v>
       </c>
-      <c r="G10" s="84"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="3">
         <v>45569</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="2"/>
@@ -1847,11 +2566,11 @@
       <c r="D11" s="2">
         <v>9958.67</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1830</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1860,7 +2579,7 @@
       <c r="H11" s="3">
         <v>45573</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="2"/>
@@ -1875,11 +2594,11 @@
       <c r="D12" s="2">
         <v>9954.65</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>1830</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1888,7 +2607,7 @@
       <c r="H12" s="3">
         <v>45576</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="2"/>
@@ -1903,20 +2622,20 @@
       <c r="D13" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1840</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="75" t="s">
         <v>96</v>
       </c>
       <c r="H13" s="3">
         <v>45598</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2"/>
@@ -1931,18 +2650,18 @@
       <c r="D14" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>1840</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="3">
         <v>45598</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="2"/>
@@ -1957,18 +2676,18 @@
       <c r="D15" s="4">
         <v>20000</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>D15</f>
         <v>20000</v>
       </c>
-      <c r="G15" s="82"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="3">
         <v>45598</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="63" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="2"/>
@@ -1983,20 +2702,20 @@
       <c r="D16" s="2">
         <v>9991.01</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <f>D16/F16</f>
         <v>5.4298967391304345</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>1840</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="67" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="3">
         <v>45605</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="2"/>
@@ -2011,20 +2730,20 @@
       <c r="D17" s="2">
         <v>9997.9599999999991</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="25">
         <f>D17/F17</f>
         <v>5.4043027027027026</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>1850</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3">
         <v>45610</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="2"/>
@@ -2039,20 +2758,20 @@
       <c r="D18" s="2">
         <v>9991.48</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="25">
         <f>D18/F18</f>
         <v>5.4007999999999994</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>1850</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="66" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="3">
         <v>45611</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="2"/>
@@ -2061,18 +2780,18 @@
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2083,7 +2802,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="28"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2091,17 +2810,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="D23" s="67">
+      <c r="D23" s="61">
         <f>SUM(D5:D13)+D18</f>
         <v>99922.829999999987</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11">
       <c r="C24" t="s">
@@ -2113,17 +2832,17 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="68">
         <v>45611</v>
       </c>
     </row>
@@ -2131,7 +2850,7 @@
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="68">
         <v>45612</v>
       </c>
     </row>
@@ -2159,7 +2878,7 @@
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2172,143 +2891,143 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="35"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="34" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="35"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="82">
         <v>520</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="87" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="35"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="43">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="34" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="35"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="76" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="35"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="76" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2318,115 +3037,115 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="86"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="34" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="48" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="90"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="37" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="34" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="78"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="42"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="55" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="2"/>
     </row>
     <row r="13" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51CF059-1880-4E3B-8647-E7424A1FE8BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC07D0B-DE71-4C73-8314-13B570817273}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="2295" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="2295" windowWidth="16185" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>存入 HSBC.cn</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>TB icbc</t>
   </si>
   <si>
     <t>BOC</t>
@@ -280,9 +277,6 @@
     <t>^Rmb200k</t>
   </si>
   <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>USD withdrawal</t>
   </si>
   <si>
@@ -343,6 +337,9 @@
   </si>
   <si>
     <t>no RMB</t>
+  </si>
+  <si>
+    <t>whose ChannelA</t>
   </si>
 </sst>
 </file>
@@ -356,12 +353,19 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,7 +588,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -626,7 +630,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,12 +642,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,36 +656,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -700,17 +704,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,54 +720,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -792,6 +745,55 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1070,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1093,33 +1095,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="G1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="G1" s="72"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="82"/>
+      <c r="J2" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="74"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:17">
@@ -1138,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="17" t="s">
@@ -1155,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>6</v>
@@ -1179,7 +1181,7 @@
       <c r="I4" s="16">
         <v>10000</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="70">
         <v>0</v>
       </c>
       <c r="K4" s="17">
@@ -1240,11 +1242,11 @@
         <v>71992</v>
       </c>
       <c r="H6" s="55"/>
-      <c r="I6" s="70">
+      <c r="I6" s="78">
         <f>K6+N7</f>
         <v>10000</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="70">
         <v>0</v>
       </c>
       <c r="K6" s="54">
@@ -1267,8 +1269,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
       <c r="H7" s="55"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="54"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1300,7 +1302,7 @@
       <c r="I8" s="54">
         <v>10000</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="70">
         <v>0</v>
       </c>
       <c r="K8" s="54">
@@ -1329,11 +1331,11 @@
       <c r="G9" s="10">
         <v>71433</v>
       </c>
-      <c r="H9" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="87">
+      <c r="H9" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="J9" s="70">
         <v>10000</v>
       </c>
       <c r="K9" s="54"/>
@@ -1342,24 +1344,24 @@
       <c r="N9" s="51"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="88"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="17"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="3">
         <v>45594</v>
       </c>
       <c r="H10" s="55"/>
-      <c r="I10" s="70">
+      <c r="I10" s="78">
         <f>K10+N11</f>
         <v>8000</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="68">
         <v>2000</v>
       </c>
       <c r="K10" s="54">
@@ -1382,10 +1384,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="10"/>
       <c r="H11" s="55"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="58"/>
@@ -1413,11 +1415,11 @@
       <c r="G12" s="10">
         <v>71397</v>
       </c>
-      <c r="H12" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="69">
+      <c r="H12" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="68">
         <v>12000</v>
       </c>
       <c r="K12" s="54"/>
@@ -1432,14 +1434,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="86" t="s">
-        <v>101</v>
+      <c r="E13" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="F13" s="3">
         <v>45593</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H13" s="54">
         <v>3400</v>
@@ -1484,10 +1486,10 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="54"/>
@@ -1545,7 +1547,7 @@
       <c r="I17" s="54"/>
       <c r="J17" s="56"/>
       <c r="K17" s="60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="16"/>
@@ -1595,7 +1597,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1607,7 +1609,7 @@
         <v>28000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -1630,7 +1632,7 @@
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1667,625 +1669,625 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="J23" s="92"/>
+      <c r="J23" s="75"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="J24" s="92"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="J25" s="92"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="J26" s="92"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="J27" s="92"/>
+      <c r="J27" s="75"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="J28" s="92"/>
+      <c r="J28" s="75"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="J29" s="92"/>
+      <c r="J29" s="75"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="J30" s="92"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="J31" s="92"/>
+      <c r="J31" s="75"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="J32" s="92"/>
+      <c r="J32" s="75"/>
     </row>
     <row r="33" spans="10:10">
-      <c r="J33" s="92"/>
+      <c r="J33" s="75"/>
     </row>
     <row r="34" spans="10:10">
-      <c r="J34" s="92"/>
+      <c r="J34" s="75"/>
     </row>
     <row r="35" spans="10:10">
-      <c r="J35" s="92"/>
+      <c r="J35" s="75"/>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="92"/>
+      <c r="J36" s="75"/>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="92"/>
+      <c r="J37" s="75"/>
     </row>
     <row r="38" spans="10:10">
-      <c r="J38" s="92"/>
+      <c r="J38" s="75"/>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="92"/>
+      <c r="J39" s="75"/>
     </row>
     <row r="40" spans="10:10">
-      <c r="J40" s="92"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="41" spans="10:10">
-      <c r="J41" s="92"/>
+      <c r="J41" s="75"/>
     </row>
     <row r="42" spans="10:10">
-      <c r="J42" s="92"/>
+      <c r="J42" s="75"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="92"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="92"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="92"/>
+      <c r="J45" s="75"/>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="92"/>
+      <c r="J46" s="75"/>
     </row>
     <row r="47" spans="10:10">
-      <c r="J47" s="92"/>
+      <c r="J47" s="75"/>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="92"/>
+      <c r="J48" s="75"/>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="92"/>
+      <c r="J49" s="75"/>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="92"/>
+      <c r="J50" s="75"/>
     </row>
     <row r="51" spans="10:10">
-      <c r="J51" s="92"/>
+      <c r="J51" s="75"/>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="92"/>
+      <c r="J52" s="75"/>
     </row>
     <row r="53" spans="10:10">
-      <c r="J53" s="92"/>
+      <c r="J53" s="75"/>
     </row>
     <row r="54" spans="10:10">
-      <c r="J54" s="92"/>
+      <c r="J54" s="75"/>
     </row>
     <row r="55" spans="10:10">
-      <c r="J55" s="92"/>
+      <c r="J55" s="75"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="92"/>
+      <c r="J56" s="75"/>
     </row>
     <row r="57" spans="10:10">
-      <c r="J57" s="92"/>
+      <c r="J57" s="75"/>
     </row>
     <row r="58" spans="10:10">
-      <c r="J58" s="92"/>
+      <c r="J58" s="75"/>
     </row>
     <row r="59" spans="10:10">
-      <c r="J59" s="92"/>
+      <c r="J59" s="75"/>
     </row>
     <row r="60" spans="10:10">
-      <c r="J60" s="92"/>
+      <c r="J60" s="75"/>
     </row>
     <row r="61" spans="10:10">
-      <c r="J61" s="92"/>
+      <c r="J61" s="75"/>
     </row>
     <row r="62" spans="10:10">
-      <c r="J62" s="92"/>
+      <c r="J62" s="75"/>
     </row>
     <row r="63" spans="10:10">
-      <c r="J63" s="92"/>
+      <c r="J63" s="75"/>
     </row>
     <row r="64" spans="10:10">
-      <c r="J64" s="92"/>
+      <c r="J64" s="75"/>
     </row>
     <row r="65" spans="10:10">
-      <c r="J65" s="92"/>
+      <c r="J65" s="75"/>
     </row>
     <row r="66" spans="10:10">
-      <c r="J66" s="92"/>
+      <c r="J66" s="75"/>
     </row>
     <row r="67" spans="10:10">
-      <c r="J67" s="92"/>
+      <c r="J67" s="75"/>
     </row>
     <row r="68" spans="10:10">
-      <c r="J68" s="92"/>
+      <c r="J68" s="75"/>
     </row>
     <row r="69" spans="10:10">
-      <c r="J69" s="92"/>
+      <c r="J69" s="75"/>
     </row>
     <row r="70" spans="10:10">
-      <c r="J70" s="92"/>
+      <c r="J70" s="75"/>
     </row>
     <row r="71" spans="10:10">
-      <c r="J71" s="92"/>
+      <c r="J71" s="75"/>
     </row>
     <row r="72" spans="10:10">
-      <c r="J72" s="92"/>
+      <c r="J72" s="75"/>
     </row>
     <row r="73" spans="10:10">
-      <c r="J73" s="92"/>
+      <c r="J73" s="75"/>
     </row>
     <row r="74" spans="10:10">
-      <c r="J74" s="92"/>
+      <c r="J74" s="75"/>
     </row>
     <row r="75" spans="10:10">
-      <c r="J75" s="92"/>
+      <c r="J75" s="75"/>
     </row>
     <row r="76" spans="10:10">
-      <c r="J76" s="92"/>
+      <c r="J76" s="75"/>
     </row>
     <row r="77" spans="10:10">
-      <c r="J77" s="92"/>
+      <c r="J77" s="75"/>
     </row>
     <row r="78" spans="10:10">
-      <c r="J78" s="92"/>
+      <c r="J78" s="75"/>
     </row>
     <row r="79" spans="10:10">
-      <c r="J79" s="92"/>
+      <c r="J79" s="75"/>
     </row>
     <row r="80" spans="10:10">
-      <c r="J80" s="92"/>
+      <c r="J80" s="75"/>
     </row>
     <row r="81" spans="10:10">
-      <c r="J81" s="92"/>
+      <c r="J81" s="75"/>
     </row>
     <row r="82" spans="10:10">
-      <c r="J82" s="92"/>
+      <c r="J82" s="75"/>
     </row>
     <row r="83" spans="10:10">
-      <c r="J83" s="92"/>
+      <c r="J83" s="75"/>
     </row>
     <row r="84" spans="10:10">
-      <c r="J84" s="92"/>
+      <c r="J84" s="75"/>
     </row>
     <row r="85" spans="10:10">
-      <c r="J85" s="92"/>
+      <c r="J85" s="75"/>
     </row>
     <row r="86" spans="10:10">
-      <c r="J86" s="92"/>
+      <c r="J86" s="75"/>
     </row>
     <row r="87" spans="10:10">
-      <c r="J87" s="92"/>
+      <c r="J87" s="75"/>
     </row>
     <row r="88" spans="10:10">
-      <c r="J88" s="92"/>
+      <c r="J88" s="75"/>
     </row>
     <row r="89" spans="10:10">
-      <c r="J89" s="92"/>
+      <c r="J89" s="75"/>
     </row>
     <row r="90" spans="10:10">
-      <c r="J90" s="92"/>
+      <c r="J90" s="75"/>
     </row>
     <row r="91" spans="10:10">
-      <c r="J91" s="92"/>
+      <c r="J91" s="75"/>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="92"/>
+      <c r="J92" s="75"/>
     </row>
     <row r="93" spans="10:10">
-      <c r="J93" s="92"/>
+      <c r="J93" s="75"/>
     </row>
     <row r="94" spans="10:10">
-      <c r="J94" s="92"/>
+      <c r="J94" s="75"/>
     </row>
     <row r="95" spans="10:10">
-      <c r="J95" s="92"/>
+      <c r="J95" s="75"/>
     </row>
     <row r="96" spans="10:10">
-      <c r="J96" s="92"/>
+      <c r="J96" s="75"/>
     </row>
     <row r="97" spans="10:10">
-      <c r="J97" s="92"/>
+      <c r="J97" s="75"/>
     </row>
     <row r="98" spans="10:10">
-      <c r="J98" s="92"/>
+      <c r="J98" s="75"/>
     </row>
     <row r="99" spans="10:10">
-      <c r="J99" s="92"/>
+      <c r="J99" s="75"/>
     </row>
     <row r="100" spans="10:10">
-      <c r="J100" s="92"/>
+      <c r="J100" s="75"/>
     </row>
     <row r="101" spans="10:10">
-      <c r="J101" s="92"/>
+      <c r="J101" s="75"/>
     </row>
     <row r="102" spans="10:10">
-      <c r="J102" s="92"/>
+      <c r="J102" s="75"/>
     </row>
     <row r="103" spans="10:10">
-      <c r="J103" s="92"/>
+      <c r="J103" s="75"/>
     </row>
     <row r="104" spans="10:10">
-      <c r="J104" s="92"/>
+      <c r="J104" s="75"/>
     </row>
     <row r="105" spans="10:10">
-      <c r="J105" s="92"/>
+      <c r="J105" s="75"/>
     </row>
     <row r="106" spans="10:10">
-      <c r="J106" s="92"/>
+      <c r="J106" s="75"/>
     </row>
     <row r="107" spans="10:10">
-      <c r="J107" s="92"/>
+      <c r="J107" s="75"/>
     </row>
     <row r="108" spans="10:10">
-      <c r="J108" s="92"/>
+      <c r="J108" s="75"/>
     </row>
     <row r="109" spans="10:10">
-      <c r="J109" s="92"/>
+      <c r="J109" s="75"/>
     </row>
     <row r="110" spans="10:10">
-      <c r="J110" s="92"/>
+      <c r="J110" s="75"/>
     </row>
     <row r="111" spans="10:10">
-      <c r="J111" s="92"/>
+      <c r="J111" s="75"/>
     </row>
     <row r="112" spans="10:10">
-      <c r="J112" s="92"/>
+      <c r="J112" s="75"/>
     </row>
     <row r="113" spans="10:10">
-      <c r="J113" s="92"/>
+      <c r="J113" s="75"/>
     </row>
     <row r="114" spans="10:10">
-      <c r="J114" s="92"/>
+      <c r="J114" s="75"/>
     </row>
     <row r="115" spans="10:10">
-      <c r="J115" s="92"/>
+      <c r="J115" s="75"/>
     </row>
     <row r="116" spans="10:10">
-      <c r="J116" s="92"/>
+      <c r="J116" s="75"/>
     </row>
     <row r="117" spans="10:10">
-      <c r="J117" s="92"/>
+      <c r="J117" s="75"/>
     </row>
     <row r="118" spans="10:10">
-      <c r="J118" s="92"/>
+      <c r="J118" s="75"/>
     </row>
     <row r="119" spans="10:10">
-      <c r="J119" s="92"/>
+      <c r="J119" s="75"/>
     </row>
     <row r="120" spans="10:10">
-      <c r="J120" s="92"/>
+      <c r="J120" s="75"/>
     </row>
     <row r="121" spans="10:10">
-      <c r="J121" s="92"/>
+      <c r="J121" s="75"/>
     </row>
     <row r="122" spans="10:10">
-      <c r="J122" s="92"/>
+      <c r="J122" s="75"/>
     </row>
     <row r="123" spans="10:10">
-      <c r="J123" s="92"/>
+      <c r="J123" s="75"/>
     </row>
     <row r="124" spans="10:10">
-      <c r="J124" s="92"/>
+      <c r="J124" s="75"/>
     </row>
     <row r="125" spans="10:10">
-      <c r="J125" s="92"/>
+      <c r="J125" s="75"/>
     </row>
     <row r="126" spans="10:10">
-      <c r="J126" s="92"/>
+      <c r="J126" s="75"/>
     </row>
     <row r="127" spans="10:10">
-      <c r="J127" s="92"/>
+      <c r="J127" s="75"/>
     </row>
     <row r="128" spans="10:10">
-      <c r="J128" s="92"/>
+      <c r="J128" s="75"/>
     </row>
     <row r="129" spans="10:10">
-      <c r="J129" s="92"/>
+      <c r="J129" s="75"/>
     </row>
     <row r="130" spans="10:10">
-      <c r="J130" s="92"/>
+      <c r="J130" s="75"/>
     </row>
     <row r="131" spans="10:10">
-      <c r="J131" s="92"/>
+      <c r="J131" s="75"/>
     </row>
     <row r="132" spans="10:10">
-      <c r="J132" s="92"/>
+      <c r="J132" s="75"/>
     </row>
     <row r="133" spans="10:10">
-      <c r="J133" s="92"/>
+      <c r="J133" s="75"/>
     </row>
     <row r="134" spans="10:10">
-      <c r="J134" s="92"/>
+      <c r="J134" s="75"/>
     </row>
     <row r="135" spans="10:10">
-      <c r="J135" s="92"/>
+      <c r="J135" s="75"/>
     </row>
     <row r="136" spans="10:10">
-      <c r="J136" s="92"/>
+      <c r="J136" s="75"/>
     </row>
     <row r="137" spans="10:10">
-      <c r="J137" s="92"/>
+      <c r="J137" s="75"/>
     </row>
     <row r="138" spans="10:10">
-      <c r="J138" s="92"/>
+      <c r="J138" s="75"/>
     </row>
     <row r="139" spans="10:10">
-      <c r="J139" s="92"/>
+      <c r="J139" s="75"/>
     </row>
     <row r="140" spans="10:10">
-      <c r="J140" s="92"/>
+      <c r="J140" s="75"/>
     </row>
     <row r="141" spans="10:10">
-      <c r="J141" s="92"/>
+      <c r="J141" s="75"/>
     </row>
     <row r="142" spans="10:10">
-      <c r="J142" s="92"/>
+      <c r="J142" s="75"/>
     </row>
     <row r="143" spans="10:10">
-      <c r="J143" s="92"/>
+      <c r="J143" s="75"/>
     </row>
     <row r="144" spans="10:10">
-      <c r="J144" s="92"/>
+      <c r="J144" s="75"/>
     </row>
     <row r="145" spans="10:10">
-      <c r="J145" s="92"/>
+      <c r="J145" s="75"/>
     </row>
     <row r="146" spans="10:10">
-      <c r="J146" s="92"/>
+      <c r="J146" s="75"/>
     </row>
     <row r="147" spans="10:10">
-      <c r="J147" s="92"/>
+      <c r="J147" s="75"/>
     </row>
     <row r="148" spans="10:10">
-      <c r="J148" s="92"/>
+      <c r="J148" s="75"/>
     </row>
     <row r="149" spans="10:10">
-      <c r="J149" s="92"/>
+      <c r="J149" s="75"/>
     </row>
     <row r="150" spans="10:10">
-      <c r="J150" s="92"/>
+      <c r="J150" s="75"/>
     </row>
     <row r="151" spans="10:10">
-      <c r="J151" s="92"/>
+      <c r="J151" s="75"/>
     </row>
     <row r="152" spans="10:10">
-      <c r="J152" s="92"/>
+      <c r="J152" s="75"/>
     </row>
     <row r="153" spans="10:10">
-      <c r="J153" s="92"/>
+      <c r="J153" s="75"/>
     </row>
     <row r="154" spans="10:10">
-      <c r="J154" s="92"/>
+      <c r="J154" s="75"/>
     </row>
     <row r="155" spans="10:10">
-      <c r="J155" s="92"/>
+      <c r="J155" s="75"/>
     </row>
     <row r="156" spans="10:10">
-      <c r="J156" s="92"/>
+      <c r="J156" s="75"/>
     </row>
     <row r="157" spans="10:10">
-      <c r="J157" s="92"/>
+      <c r="J157" s="75"/>
     </row>
     <row r="158" spans="10:10">
-      <c r="J158" s="92"/>
+      <c r="J158" s="75"/>
     </row>
     <row r="159" spans="10:10">
-      <c r="J159" s="92"/>
+      <c r="J159" s="75"/>
     </row>
     <row r="160" spans="10:10">
-      <c r="J160" s="92"/>
+      <c r="J160" s="75"/>
     </row>
     <row r="161" spans="10:10">
-      <c r="J161" s="92"/>
+      <c r="J161" s="75"/>
     </row>
     <row r="162" spans="10:10">
-      <c r="J162" s="92"/>
+      <c r="J162" s="75"/>
     </row>
     <row r="163" spans="10:10">
-      <c r="J163" s="92"/>
+      <c r="J163" s="75"/>
     </row>
     <row r="164" spans="10:10">
-      <c r="J164" s="92"/>
+      <c r="J164" s="75"/>
     </row>
     <row r="165" spans="10:10">
-      <c r="J165" s="92"/>
+      <c r="J165" s="75"/>
     </row>
     <row r="166" spans="10:10">
-      <c r="J166" s="92"/>
+      <c r="J166" s="75"/>
     </row>
     <row r="167" spans="10:10">
-      <c r="J167" s="92"/>
+      <c r="J167" s="75"/>
     </row>
     <row r="168" spans="10:10">
-      <c r="J168" s="92"/>
+      <c r="J168" s="75"/>
     </row>
     <row r="169" spans="10:10">
-      <c r="J169" s="92"/>
+      <c r="J169" s="75"/>
     </row>
     <row r="170" spans="10:10">
-      <c r="J170" s="92"/>
+      <c r="J170" s="75"/>
     </row>
     <row r="171" spans="10:10">
-      <c r="J171" s="92"/>
+      <c r="J171" s="75"/>
     </row>
     <row r="172" spans="10:10">
-      <c r="J172" s="92"/>
+      <c r="J172" s="75"/>
     </row>
     <row r="173" spans="10:10">
-      <c r="J173" s="92"/>
+      <c r="J173" s="75"/>
     </row>
     <row r="174" spans="10:10">
-      <c r="J174" s="92"/>
+      <c r="J174" s="75"/>
     </row>
     <row r="175" spans="10:10">
-      <c r="J175" s="92"/>
+      <c r="J175" s="75"/>
     </row>
     <row r="176" spans="10:10">
-      <c r="J176" s="92"/>
+      <c r="J176" s="75"/>
     </row>
     <row r="177" spans="10:10">
-      <c r="J177" s="92"/>
+      <c r="J177" s="75"/>
     </row>
     <row r="178" spans="10:10">
-      <c r="J178" s="92"/>
+      <c r="J178" s="75"/>
     </row>
     <row r="179" spans="10:10">
-      <c r="J179" s="92"/>
+      <c r="J179" s="75"/>
     </row>
     <row r="180" spans="10:10">
-      <c r="J180" s="92"/>
+      <c r="J180" s="75"/>
     </row>
     <row r="181" spans="10:10">
-      <c r="J181" s="92"/>
+      <c r="J181" s="75"/>
     </row>
     <row r="182" spans="10:10">
-      <c r="J182" s="92"/>
+      <c r="J182" s="75"/>
     </row>
     <row r="183" spans="10:10">
-      <c r="J183" s="92"/>
+      <c r="J183" s="75"/>
     </row>
     <row r="184" spans="10:10">
-      <c r="J184" s="92"/>
+      <c r="J184" s="75"/>
     </row>
     <row r="185" spans="10:10">
-      <c r="J185" s="92"/>
+      <c r="J185" s="75"/>
     </row>
     <row r="186" spans="10:10">
-      <c r="J186" s="92"/>
+      <c r="J186" s="75"/>
     </row>
     <row r="187" spans="10:10">
-      <c r="J187" s="92"/>
+      <c r="J187" s="75"/>
     </row>
     <row r="188" spans="10:10">
-      <c r="J188" s="92"/>
+      <c r="J188" s="75"/>
     </row>
     <row r="189" spans="10:10">
-      <c r="J189" s="92"/>
+      <c r="J189" s="75"/>
     </row>
     <row r="190" spans="10:10">
-      <c r="J190" s="92"/>
+      <c r="J190" s="75"/>
     </row>
     <row r="191" spans="10:10">
-      <c r="J191" s="92"/>
+      <c r="J191" s="75"/>
     </row>
     <row r="192" spans="10:10">
-      <c r="J192" s="92"/>
+      <c r="J192" s="75"/>
     </row>
     <row r="193" spans="10:10">
-      <c r="J193" s="92"/>
+      <c r="J193" s="75"/>
     </row>
     <row r="194" spans="10:10">
-      <c r="J194" s="92"/>
+      <c r="J194" s="75"/>
     </row>
     <row r="195" spans="10:10">
-      <c r="J195" s="92"/>
+      <c r="J195" s="75"/>
     </row>
     <row r="196" spans="10:10">
-      <c r="J196" s="92"/>
+      <c r="J196" s="75"/>
     </row>
     <row r="197" spans="10:10">
-      <c r="J197" s="92"/>
+      <c r="J197" s="75"/>
     </row>
     <row r="198" spans="10:10">
-      <c r="J198" s="92"/>
+      <c r="J198" s="75"/>
     </row>
     <row r="199" spans="10:10">
-      <c r="J199" s="92"/>
+      <c r="J199" s="75"/>
     </row>
     <row r="200" spans="10:10">
-      <c r="J200" s="92"/>
+      <c r="J200" s="75"/>
     </row>
     <row r="201" spans="10:10">
-      <c r="J201" s="92"/>
+      <c r="J201" s="75"/>
     </row>
     <row r="202" spans="10:10">
-      <c r="J202" s="92"/>
+      <c r="J202" s="75"/>
     </row>
     <row r="203" spans="10:10">
-      <c r="J203" s="92"/>
+      <c r="J203" s="75"/>
     </row>
     <row r="204" spans="10:10">
-      <c r="J204" s="92"/>
+      <c r="J204" s="75"/>
     </row>
     <row r="205" spans="10:10">
-      <c r="J205" s="92"/>
+      <c r="J205" s="75"/>
     </row>
     <row r="206" spans="10:10">
-      <c r="J206" s="92"/>
+      <c r="J206" s="75"/>
     </row>
     <row r="207" spans="10:10">
-      <c r="J207" s="92"/>
+      <c r="J207" s="75"/>
     </row>
     <row r="208" spans="10:10">
-      <c r="J208" s="92"/>
+      <c r="J208" s="75"/>
     </row>
     <row r="209" spans="10:10">
-      <c r="J209" s="92"/>
+      <c r="J209" s="75"/>
     </row>
     <row r="210" spans="10:10">
-      <c r="J210" s="92"/>
+      <c r="J210" s="75"/>
     </row>
     <row r="211" spans="10:10">
-      <c r="J211" s="92"/>
+      <c r="J211" s="75"/>
     </row>
     <row r="212" spans="10:10">
-      <c r="J212" s="92"/>
+      <c r="J212" s="75"/>
     </row>
     <row r="213" spans="10:10">
-      <c r="J213" s="92"/>
+      <c r="J213" s="75"/>
     </row>
     <row r="214" spans="10:10">
-      <c r="J214" s="92"/>
+      <c r="J214" s="75"/>
     </row>
     <row r="215" spans="10:10">
-      <c r="J215" s="92"/>
+      <c r="J215" s="75"/>
     </row>
     <row r="216" spans="10:10">
-      <c r="J216" s="92"/>
+      <c r="J216" s="75"/>
     </row>
     <row r="217" spans="10:10">
-      <c r="J217" s="92"/>
+      <c r="J217" s="75"/>
     </row>
     <row r="218" spans="10:10">
-      <c r="J218" s="92"/>
+      <c r="J218" s="75"/>
     </row>
     <row r="219" spans="10:10">
-      <c r="J219" s="92"/>
+      <c r="J219" s="75"/>
     </row>
     <row r="220" spans="10:10">
-      <c r="J220" s="92"/>
+      <c r="J220" s="75"/>
     </row>
     <row r="221" spans="10:10">
-      <c r="J221" s="92"/>
+      <c r="J221" s="75"/>
     </row>
     <row r="222" spans="10:10">
-      <c r="J222" s="92"/>
+      <c r="J222" s="75"/>
     </row>
     <row r="223" spans="10:10">
-      <c r="J223" s="92"/>
+      <c r="J223" s="75"/>
     </row>
     <row r="224" spans="10:10">
-      <c r="J224" s="92"/>
+      <c r="J224" s="75"/>
     </row>
     <row r="225" spans="10:10">
-      <c r="J225" s="92"/>
+      <c r="J225" s="75"/>
     </row>
     <row r="226" spans="10:10">
-      <c r="J226" s="92"/>
+      <c r="J226" s="75"/>
     </row>
     <row r="227" spans="10:10">
-      <c r="J227" s="92"/>
+      <c r="J227" s="75"/>
     </row>
     <row r="228" spans="10:10">
-      <c r="J228" s="92"/>
+      <c r="J228" s="75"/>
     </row>
     <row r="229" spans="10:10">
-      <c r="J229" s="92"/>
+      <c r="J229" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2305,561 +2307,602 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="2:11" ht="15" customHeight="1">
+      <c r="B2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="82"/>
       <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>45514</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="10">
+        <f>E4</f>
+        <v>10000</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
-        <v>45514</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="I4" s="3">
+        <v>45516</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45541</v>
+      </c>
+      <c r="E5">
+        <v>10072.86</v>
+      </c>
+      <c r="F5" s="25">
+        <v>5.4741</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1820</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45541</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="10">
-        <f>D4</f>
-        <v>10000</v>
-      </c>
-      <c r="G4" s="4" t="s">
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3">
-        <v>45516</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45541</v>
-      </c>
-      <c r="D5">
-        <v>10072.86</v>
-      </c>
-      <c r="E5" s="25">
-        <v>5.4741</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D6" s="3">
+        <v>45545</v>
+      </c>
+      <c r="E6">
+        <v>10067.77</v>
+      </c>
+      <c r="F6" s="25">
+        <v>5.4713000000000003</v>
+      </c>
+      <c r="G6" s="11">
         <v>1820</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45545</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3">
-        <v>45541</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45545</v>
-      </c>
-      <c r="D6">
-        <v>10067.77</v>
-      </c>
-      <c r="E6" s="25">
-        <v>5.4713000000000003</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="K6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45549</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9995.7999999999993</v>
+      </c>
+      <c r="F7" s="25">
+        <v>5.4922000000000004</v>
+      </c>
+      <c r="G7" s="11">
         <v>1820</v>
       </c>
-      <c r="G6" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3">
-        <v>45545</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="H7" s="87"/>
+      <c r="I7" s="3">
         <v>45549</v>
       </c>
-      <c r="D7" s="5">
-        <v>9995.7999999999993</v>
-      </c>
-      <c r="E7" s="25">
-        <v>5.4922000000000004</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="J7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45567</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9971.7800000000007</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" ref="F8:F14" si="0">E8/G8</f>
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="G8" s="11">
         <v>1820</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="3">
-        <v>45549</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="H8" s="87"/>
+      <c r="I8" s="3">
         <v>45567</v>
       </c>
-      <c r="D8" s="5">
-        <v>9971.7800000000007</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" ref="E8:E14" si="0">D8/F8</f>
-        <v>5.4790000000000001</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1820</v>
-      </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="3">
-        <v>45567</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="J8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
         <v>45568</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>9981.18</v>
       </c>
-      <c r="E9" s="25">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>5.4541967213114759</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="11">
         <v>1830</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="3">
+      <c r="H9" s="87"/>
+      <c r="I9" s="3">
         <v>45568</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="J9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3">
         <v>45569</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>9974.42</v>
       </c>
-      <c r="E10" s="25">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="11">
         <v>1830</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="3">
+      <c r="H10" s="87"/>
+      <c r="I10" s="3">
         <v>45569</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="J10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
         <v>45573</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>9958.67</v>
       </c>
-      <c r="E11" s="25">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
       </c>
-      <c r="F11" s="11">
+      <c r="G11" s="11">
         <v>1830</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="3">
         <v>45573</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="J11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
         <v>45576</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>9954.65</v>
       </c>
-      <c r="E12" s="25">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
       </c>
-      <c r="F12" s="11">
+      <c r="G12" s="11">
         <v>1830</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="3">
         <v>45576</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="J12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3">
         <v>45598</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="E13" s="25">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>1840</v>
       </c>
-      <c r="G13" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="H13" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="3">
         <v>45598</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="J13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="3">
+        <v>97</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <v>45598</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>9954.2199999999993</v>
       </c>
-      <c r="E14" s="25">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="F14" s="11">
+      <c r="G14" s="11">
         <v>1840</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="3">
+      <c r="H14" s="84"/>
+      <c r="I14" s="3">
         <v>45598</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="J14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="10">
+        <f>E15</f>
+        <v>20000</v>
+      </c>
+      <c r="H15" s="85"/>
+      <c r="I15" s="3">
+        <v>45598</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>45605</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9991.01</v>
+      </c>
+      <c r="F16" s="25">
+        <f>E16/G16</f>
+        <v>5.4298967391304345</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1840</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45605</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>45610</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9997.9599999999991</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E17/G17</f>
+        <v>5.4043027027027026</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1850</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45610</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45611</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9991.48</v>
+      </c>
+      <c r="F18" s="25">
+        <f>E18/G18</f>
+        <v>5.4007999999999994</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1850</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45611</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="10">
-        <f>D15</f>
-        <v>20000</v>
-      </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="3">
-        <v>45598</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45605</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9991.01</v>
-      </c>
-      <c r="E16" s="25">
-        <f>D16/F16</f>
-        <v>5.4298967391304345</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="D19" s="3">
+        <v>45627</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9979.9699999999993</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E19/G19</f>
+        <v>5.4238967391304342</v>
+      </c>
+      <c r="G19" s="11">
         <v>1840</v>
       </c>
-      <c r="G16" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="3">
-        <v>45605</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45610</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9997.9599999999991</v>
-      </c>
-      <c r="E17" s="25">
-        <f>D17/F17</f>
-        <v>5.4043027027027026</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1850</v>
-      </c>
-      <c r="G17" s="67" t="s">
+      <c r="H19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45627</v>
+      </c>
+      <c r="J19" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3">
-        <v>45610</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45611</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9991.48</v>
-      </c>
-      <c r="E18" s="25">
-        <f>D18/F18</f>
-        <v>5.4007999999999994</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1850</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45611</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="D23" s="61">
-        <f>SUM(D5:D13)+D18</f>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="E23" s="61">
+        <f>SUM(E5:E13)+E18</f>
         <v>99922.829999999987</v>
       </c>
-      <c r="E23" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="C24" t="s">
+      <c r="F23" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6">
+        <v>170000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="67">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="6">
-        <v>160000</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="68">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="68">
+      <c r="F27" s="67">
         <v>45612</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="G6:G10"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2898,14 +2941,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2914,105 +2957,105 @@
     <row r="3" spans="2:12">
       <c r="B3" s="32"/>
       <c r="C3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="90">
+        <v>520</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="82">
-        <v>520</v>
-      </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="82" t="s">
+      <c r="I3" s="90"/>
+      <c r="J3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="K3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="32"/>
       <c r="C4" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="43">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="H4" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="H4" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="32"/>
       <c r="C5" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="32"/>
       <c r="C6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="74"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="H6" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="80" t="s">
-        <v>39</v>
+      <c r="B7" s="88" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>12</v>
@@ -3021,136 +3064,136 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="74" t="s">
+      <c r="I7" s="79"/>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="81"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="85" t="s">
-        <v>47</v>
+      <c r="B9" s="93" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="74"/>
+        <v>57</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="79"/>
       <c r="F9" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="85"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="73"/>
+        <v>67</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="82"/>
       <c r="G10" s="29"/>
       <c r="H10" s="34" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="73"/>
+        <v>73</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="82"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="39"/>
       <c r="C11" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>70</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="2"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11255" windowHeight="10908" activeTab="1"/>
+    <workbookView windowWidth="22223" windowHeight="10908" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -350,14 +350,7 @@
     <numFmt numFmtId="179" formatCode="[$¥-804]#,##0"/>
     <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,133 +949,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,48 +1091,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1151,7 +1144,7 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1164,13 +1157,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1210,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1240,8 +1233,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2817,7 +2810,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3342,8 +3335,13 @@
       <c r="D20" s="30">
         <v>45648</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="13">
+        <v>9961.69</v>
+      </c>
+      <c r="F20" s="32">
+        <f>E20/G20</f>
+        <v>5.3846972972973</v>
+      </c>
       <c r="G20" s="34">
         <v>1850</v>
       </c>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74C9ED-2C76-49B8-8490-4070625579CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB0C6D7-BF20-41D5-8EF5-37202E1C9E3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,23 +17,12 @@
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>ChannelM</t>
   </si>
@@ -88,9 +77,6 @@
   <si>
     <t>LSQ icbc
 USD TD</t>
-  </si>
-  <si>
-    <t>early Dec</t>
   </si>
   <si>
     <t>early Jan</t>
@@ -381,10 +367,6 @@
     <t>!change</t>
   </si>
   <si>
-    <t>TJJ icbc
-USD bal</t>
-  </si>
-  <si>
     <t>exit channels China -&gt; Sg</t>
   </si>
   <si>
@@ -395,6 +377,16 @@
   </si>
   <si>
     <t>tx date</t>
+  </si>
+  <si>
+    <t>bal=</t>
+  </si>
+  <si>
+    <t>&lt;&lt;取</t>
+  </si>
+  <si>
+    <t>TJJ
+EOD bal</t>
   </si>
 </sst>
 </file>
@@ -404,17 +396,24 @@
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="[$¥-804]#,##0"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="[$¥-804]#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$¥-804]#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -573,12 +572,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -591,11 +612,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,13 +647,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -650,48 +671,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,15 +758,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,61 +779,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1056,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R234"/>
+  <dimension ref="B1:R230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1071,7 +1154,7 @@
     <col min="5" max="5" width="7.5703125" style="40" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="41" customWidth="1"/>
     <col min="7" max="7" width="8" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" style="49" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="39" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="39" customWidth="1"/>
@@ -1084,69 +1167,66 @@
     <row r="1" spans="2:16">
       <c r="D1" s="42"/>
       <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="2:16">
       <c r="D2" s="42"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="G2" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="50"/>
+      <c r="G4" s="72"/>
       <c r="I4" s="43" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1267,7 @@
       <c r="G5" s="52">
         <v>0</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="43">
         <f>F5</f>
         <v>10000</v>
@@ -1209,7 +1289,7 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="60">
         <v>72000.001000000004</v>
       </c>
       <c r="E6" s="44">
@@ -1217,7 +1297,7 @@
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="44">
         <f>E6</f>
         <v>10000</v>
@@ -1238,8 +1318,8 @@
       <c r="D7" s="27"/>
       <c r="E7" s="45"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="44"/>
       <c r="J7" s="12"/>
       <c r="K7" s="43"/>
@@ -1260,1352 +1340,1291 @@
         <v>71992</v>
       </c>
       <c r="E8" s="45"/>
-      <c r="F8" s="64">
-        <f>I8+K9</f>
+      <c r="F8" s="59">
+        <f>I8+K8</f>
         <v>10000</v>
       </c>
       <c r="G8" s="52">
         <v>0</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="44">
         <v>4000</v>
       </c>
       <c r="J8" s="24">
         <v>45512</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="12"/>
+      <c r="K8" s="43">
+        <v>6000</v>
+      </c>
+      <c r="L8" s="24">
+        <v>45514</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="N8" s="43"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="27"/>
+    <row r="9" spans="2:16" ht="15" customHeight="1">
+      <c r="B9" s="24">
+        <v>45575</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="27">
+        <v>70265</v>
+      </c>
       <c r="E9" s="45"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="43">
-        <v>6000</v>
-      </c>
-      <c r="L9" s="24">
-        <v>45514</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="F9" s="44">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="44">
+        <f>F9</f>
+        <v>10000</v>
+      </c>
+      <c r="J9" s="24">
+        <v>45593</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="43"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="2:16" ht="5.25" customHeight="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
+    <row r="10" spans="2:16" ht="15" customHeight="1">
+      <c r="B10" s="24">
+        <v>45593</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="27">
+        <v>71433</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="52">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="94"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="43"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1">
-      <c r="B11" s="24">
-        <v>45575</v>
+    <row r="11" spans="2:16">
+      <c r="B11" s="100">
+        <v>45594</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="27">
-        <v>70265</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="52">
-        <v>0</v>
-      </c>
-      <c r="H11" s="52"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="91">
+        <f>I11+K11</f>
+        <v>8000</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="96"/>
       <c r="I11" s="44">
-        <f>F11</f>
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="J11" s="24">
-        <v>45593</v>
-      </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+        <v>45594</v>
+      </c>
+      <c r="K11" s="54">
+        <v>2000</v>
+      </c>
+      <c r="L11" s="24">
+        <v>45598</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>14</v>
+      </c>
       <c r="N11" s="43"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
-      <c r="B12" s="24">
-        <v>45593</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="27">
-        <v>71433</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="52">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="107">
+        <f>G10-F11</f>
+        <v>2000</v>
+      </c>
+      <c r="H12" s="96"/>
+      <c r="I12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="51"/>
       <c r="N12" s="43"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="2:16" ht="5.25" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+    <row r="13" spans="2:16" ht="15" customHeight="1">
+      <c r="B13" s="24">
+        <v>45595</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="27">
+        <v>71397</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="59">
+        <f>G12+10000</f>
+        <v>12000</v>
+      </c>
+      <c r="H13" s="96"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="24"/>
       <c r="M13" s="12"/>
       <c r="N13" s="43"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" ht="30">
       <c r="B14" s="24">
-        <v>45594</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="64">
-        <f>I14+K15</f>
-        <v>8000</v>
-      </c>
-      <c r="G14" s="53">
-        <f>G12-F14</f>
-        <v>2000</v>
-      </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
-        <v>6000</v>
-      </c>
-      <c r="J14" s="24">
-        <v>45594</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+        <v>45593</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="44">
+        <v>3400</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="95"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="54">
+        <f>E14</f>
+        <v>3400</v>
+      </c>
+      <c r="L14" s="24">
+        <v>45598</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="N14" s="43"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="2:16" ht="15" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="54">
-        <v>2000</v>
-      </c>
-      <c r="L15" s="24">
-        <v>45598</v>
-      </c>
-      <c r="M15" s="88" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="2:16">
+      <c r="B15" s="102">
+        <v>45632</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="110">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="97"/>
+      <c r="I15" s="44">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="43"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="2:16" ht="5.25" customHeight="1">
-      <c r="B16" s="12"/>
+    <row r="16" spans="2:16">
+      <c r="B16" s="103"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="92">
+        <f>G13-F15</f>
+        <v>2000</v>
+      </c>
+      <c r="H16" s="97"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="24"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="43"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="2:18" ht="15" customHeight="1">
-      <c r="B17" s="24">
-        <v>45595</v>
+    <row r="17" spans="2:18">
+      <c r="B17" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="27">
-        <v>71397</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="53">
-        <f>G14+10000</f>
-        <v>12000</v>
-      </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="44">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="97"/>
+      <c r="I17" s="44">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="43"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="2:18" ht="30">
-      <c r="B18" s="24">
-        <v>45593</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="44">
-        <v>3400</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="54">
-        <f>E18</f>
-        <v>3400</v>
-      </c>
-      <c r="L18" s="24">
-        <v>45598</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="18" spans="2:18">
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="48">
+        <f>G16+10001</f>
+        <v>12001</v>
+      </c>
+      <c r="H18" s="97"/>
+      <c r="I18" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="43"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="44"/>
+      <c r="D19" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="45"/>
       <c r="F19" s="44">
-        <v>10000</v>
-      </c>
-      <c r="G19" s="48">
-        <f>G17-F19</f>
-        <v>2000</v>
-      </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="44">
-        <v>10000</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="12"/>
+        <f>K19</f>
+        <v>6000</v>
+      </c>
+      <c r="G19" s="66">
+        <f>G18-F19</f>
+        <v>6001</v>
+      </c>
+      <c r="H19" s="97"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L19" s="24">
+        <v>45666</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="43"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="44">
-        <v>10000</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="44">
-        <v>10000</v>
-      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="51"/>
+      <c r="K20" s="55" t="s">
+        <v>20</v>
+      </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="43"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="27"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="12"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="43">
+        <v>28000</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="48">
-        <f>G19+10001</f>
-        <v>12001</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="50"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="43"/>
+      <c r="N22" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>103</v>
-      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="44">
-        <f>K23</f>
-        <v>6000</v>
-      </c>
-      <c r="G23" s="86">
-        <f>G22-F23</f>
-        <v>6001</v>
-      </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="44"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="51"/>
-      <c r="K23" s="54">
-        <v>6000</v>
-      </c>
-      <c r="L23" s="24">
-        <v>45666</v>
-      </c>
+      <c r="K23" s="54"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="43"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="R24" s="57"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="43">
-        <v>28000</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="12"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="98"/>
+    </row>
+    <row r="25" spans="2:18" ht="17.25">
+      <c r="B25" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="B26" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="98"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="B27" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="2:18">
       <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-    </row>
-    <row r="29" spans="2:18" ht="17.25">
-      <c r="B29" s="82" t="s">
-        <v>102</v>
-      </c>
+      <c r="H28" s="98"/>
+    </row>
+    <row r="29" spans="2:18">
       <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="H29" s="98"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="82" t="s">
-        <v>104</v>
-      </c>
       <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="H30" s="98"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="82" t="s">
-        <v>105</v>
-      </c>
       <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="H31" s="98"/>
     </row>
     <row r="32" spans="2:18">
       <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="H32" s="98"/>
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="H33" s="98"/>
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="H34" s="98"/>
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
+      <c r="H35" s="98"/>
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
+      <c r="H36" s="98"/>
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
+      <c r="H37" s="98"/>
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="H38" s="98"/>
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+      <c r="H39" s="98"/>
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="H40" s="98"/>
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="H42" s="98"/>
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="H43" s="98"/>
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="H44" s="98"/>
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="H45" s="98"/>
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+      <c r="H46" s="98"/>
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
+      <c r="H47" s="98"/>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
+      <c r="H48" s="98"/>
     </row>
     <row r="49" spans="7:8">
       <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
+      <c r="H49" s="98"/>
     </row>
     <row r="50" spans="7:8">
       <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
+      <c r="H50" s="98"/>
     </row>
     <row r="51" spans="7:8">
       <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
+      <c r="H51" s="98"/>
     </row>
     <row r="52" spans="7:8">
       <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
+      <c r="H52" s="98"/>
     </row>
     <row r="53" spans="7:8">
       <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
+      <c r="H53" s="98"/>
     </row>
     <row r="54" spans="7:8">
       <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
+      <c r="H54" s="98"/>
     </row>
     <row r="55" spans="7:8">
       <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
+      <c r="H55" s="98"/>
     </row>
     <row r="56" spans="7:8">
       <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
+      <c r="H56" s="98"/>
     </row>
     <row r="57" spans="7:8">
       <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="H57" s="98"/>
     </row>
     <row r="58" spans="7:8">
       <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
+      <c r="H58" s="98"/>
     </row>
     <row r="59" spans="7:8">
       <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
+      <c r="H59" s="98"/>
     </row>
     <row r="60" spans="7:8">
       <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
+      <c r="H60" s="98"/>
     </row>
     <row r="61" spans="7:8">
       <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
+      <c r="H61" s="98"/>
     </row>
     <row r="62" spans="7:8">
       <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
+      <c r="H62" s="98"/>
     </row>
     <row r="63" spans="7:8">
       <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
+      <c r="H63" s="98"/>
     </row>
     <row r="64" spans="7:8">
       <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
+      <c r="H64" s="98"/>
     </row>
     <row r="65" spans="7:8">
       <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
+      <c r="H65" s="98"/>
     </row>
     <row r="66" spans="7:8">
       <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
+      <c r="H66" s="98"/>
     </row>
     <row r="67" spans="7:8">
       <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
+      <c r="H67" s="98"/>
     </row>
     <row r="68" spans="7:8">
       <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
+      <c r="H68" s="98"/>
     </row>
     <row r="69" spans="7:8">
       <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
+      <c r="H69" s="98"/>
     </row>
     <row r="70" spans="7:8">
       <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
+      <c r="H70" s="98"/>
     </row>
     <row r="71" spans="7:8">
       <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
+      <c r="H71" s="98"/>
     </row>
     <row r="72" spans="7:8">
       <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
+      <c r="H72" s="98"/>
     </row>
     <row r="73" spans="7:8">
       <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
+      <c r="H73" s="98"/>
     </row>
     <row r="74" spans="7:8">
       <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
+      <c r="H74" s="98"/>
     </row>
     <row r="75" spans="7:8">
       <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="98"/>
     </row>
     <row r="76" spans="7:8">
       <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
+      <c r="H76" s="98"/>
     </row>
     <row r="77" spans="7:8">
       <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
+      <c r="H77" s="98"/>
     </row>
     <row r="78" spans="7:8">
       <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
+      <c r="H78" s="98"/>
     </row>
     <row r="79" spans="7:8">
       <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
+      <c r="H79" s="98"/>
     </row>
     <row r="80" spans="7:8">
       <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
+      <c r="H80" s="98"/>
     </row>
     <row r="81" spans="7:8">
       <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
+      <c r="H81" s="98"/>
     </row>
     <row r="82" spans="7:8">
       <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
+      <c r="H82" s="98"/>
     </row>
     <row r="83" spans="7:8">
       <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
+      <c r="H83" s="98"/>
     </row>
     <row r="84" spans="7:8">
       <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
+      <c r="H84" s="98"/>
     </row>
     <row r="85" spans="7:8">
       <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
+      <c r="H85" s="98"/>
     </row>
     <row r="86" spans="7:8">
       <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
+      <c r="H86" s="98"/>
     </row>
     <row r="87" spans="7:8">
       <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
+      <c r="H87" s="98"/>
     </row>
     <row r="88" spans="7:8">
       <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
+      <c r="H88" s="98"/>
     </row>
     <row r="89" spans="7:8">
       <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
+      <c r="H89" s="98"/>
     </row>
     <row r="90" spans="7:8">
       <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
+      <c r="H90" s="98"/>
     </row>
     <row r="91" spans="7:8">
       <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
+      <c r="H91" s="98"/>
     </row>
     <row r="92" spans="7:8">
       <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
+      <c r="H92" s="98"/>
     </row>
     <row r="93" spans="7:8">
       <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
+      <c r="H93" s="98"/>
     </row>
     <row r="94" spans="7:8">
       <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
+      <c r="H94" s="98"/>
     </row>
     <row r="95" spans="7:8">
       <c r="G95" s="56"/>
-      <c r="H95" s="56"/>
+      <c r="H95" s="98"/>
     </row>
     <row r="96" spans="7:8">
       <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
+      <c r="H96" s="98"/>
     </row>
     <row r="97" spans="7:8">
       <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
+      <c r="H97" s="98"/>
     </row>
     <row r="98" spans="7:8">
       <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
+      <c r="H98" s="98"/>
     </row>
     <row r="99" spans="7:8">
       <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
+      <c r="H99" s="98"/>
     </row>
     <row r="100" spans="7:8">
       <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
+      <c r="H100" s="98"/>
     </row>
     <row r="101" spans="7:8">
       <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
+      <c r="H101" s="98"/>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
+      <c r="H102" s="98"/>
     </row>
     <row r="103" spans="7:8">
       <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
+      <c r="H103" s="98"/>
     </row>
     <row r="104" spans="7:8">
       <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
+      <c r="H104" s="98"/>
     </row>
     <row r="105" spans="7:8">
       <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
+      <c r="H105" s="98"/>
     </row>
     <row r="106" spans="7:8">
       <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
+      <c r="H106" s="98"/>
     </row>
     <row r="107" spans="7:8">
       <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
+      <c r="H107" s="98"/>
     </row>
     <row r="108" spans="7:8">
       <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
+      <c r="H108" s="98"/>
     </row>
     <row r="109" spans="7:8">
       <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
+      <c r="H109" s="98"/>
     </row>
     <row r="110" spans="7:8">
       <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
+      <c r="H110" s="98"/>
     </row>
     <row r="111" spans="7:8">
       <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
+      <c r="H111" s="98"/>
     </row>
     <row r="112" spans="7:8">
       <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
+      <c r="H112" s="98"/>
     </row>
     <row r="113" spans="7:8">
       <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
+      <c r="H113" s="98"/>
     </row>
     <row r="114" spans="7:8">
       <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
+      <c r="H114" s="98"/>
     </row>
     <row r="115" spans="7:8">
       <c r="G115" s="56"/>
-      <c r="H115" s="56"/>
+      <c r="H115" s="98"/>
     </row>
     <row r="116" spans="7:8">
       <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
+      <c r="H116" s="98"/>
     </row>
     <row r="117" spans="7:8">
       <c r="G117" s="56"/>
-      <c r="H117" s="56"/>
+      <c r="H117" s="98"/>
     </row>
     <row r="118" spans="7:8">
       <c r="G118" s="56"/>
-      <c r="H118" s="56"/>
+      <c r="H118" s="98"/>
     </row>
     <row r="119" spans="7:8">
       <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
+      <c r="H119" s="98"/>
     </row>
     <row r="120" spans="7:8">
       <c r="G120" s="56"/>
-      <c r="H120" s="56"/>
+      <c r="H120" s="98"/>
     </row>
     <row r="121" spans="7:8">
       <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
+      <c r="H121" s="98"/>
     </row>
     <row r="122" spans="7:8">
       <c r="G122" s="56"/>
-      <c r="H122" s="56"/>
+      <c r="H122" s="98"/>
     </row>
     <row r="123" spans="7:8">
       <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
+      <c r="H123" s="98"/>
     </row>
     <row r="124" spans="7:8">
       <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
+      <c r="H124" s="98"/>
     </row>
     <row r="125" spans="7:8">
       <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
+      <c r="H125" s="98"/>
     </row>
     <row r="126" spans="7:8">
       <c r="G126" s="56"/>
-      <c r="H126" s="56"/>
+      <c r="H126" s="98"/>
     </row>
     <row r="127" spans="7:8">
       <c r="G127" s="56"/>
-      <c r="H127" s="56"/>
+      <c r="H127" s="98"/>
     </row>
     <row r="128" spans="7:8">
       <c r="G128" s="56"/>
-      <c r="H128" s="56"/>
+      <c r="H128" s="98"/>
     </row>
     <row r="129" spans="7:8">
       <c r="G129" s="56"/>
-      <c r="H129" s="56"/>
+      <c r="H129" s="98"/>
     </row>
     <row r="130" spans="7:8">
       <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
+      <c r="H130" s="98"/>
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
+      <c r="H131" s="98"/>
     </row>
     <row r="132" spans="7:8">
       <c r="G132" s="56"/>
-      <c r="H132" s="56"/>
+      <c r="H132" s="98"/>
     </row>
     <row r="133" spans="7:8">
       <c r="G133" s="56"/>
-      <c r="H133" s="56"/>
+      <c r="H133" s="98"/>
     </row>
     <row r="134" spans="7:8">
       <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
+      <c r="H134" s="98"/>
     </row>
     <row r="135" spans="7:8">
       <c r="G135" s="56"/>
-      <c r="H135" s="56"/>
+      <c r="H135" s="98"/>
     </row>
     <row r="136" spans="7:8">
       <c r="G136" s="56"/>
-      <c r="H136" s="56"/>
+      <c r="H136" s="98"/>
     </row>
     <row r="137" spans="7:8">
       <c r="G137" s="56"/>
-      <c r="H137" s="56"/>
+      <c r="H137" s="98"/>
     </row>
     <row r="138" spans="7:8">
       <c r="G138" s="56"/>
-      <c r="H138" s="56"/>
+      <c r="H138" s="98"/>
     </row>
     <row r="139" spans="7:8">
       <c r="G139" s="56"/>
-      <c r="H139" s="56"/>
+      <c r="H139" s="98"/>
     </row>
     <row r="140" spans="7:8">
       <c r="G140" s="56"/>
-      <c r="H140" s="56"/>
+      <c r="H140" s="98"/>
     </row>
     <row r="141" spans="7:8">
       <c r="G141" s="56"/>
-      <c r="H141" s="56"/>
+      <c r="H141" s="98"/>
     </row>
     <row r="142" spans="7:8">
       <c r="G142" s="56"/>
-      <c r="H142" s="56"/>
+      <c r="H142" s="98"/>
     </row>
     <row r="143" spans="7:8">
       <c r="G143" s="56"/>
-      <c r="H143" s="56"/>
+      <c r="H143" s="98"/>
     </row>
     <row r="144" spans="7:8">
       <c r="G144" s="56"/>
-      <c r="H144" s="56"/>
+      <c r="H144" s="98"/>
     </row>
     <row r="145" spans="7:8">
       <c r="G145" s="56"/>
-      <c r="H145" s="56"/>
+      <c r="H145" s="98"/>
     </row>
     <row r="146" spans="7:8">
       <c r="G146" s="56"/>
-      <c r="H146" s="56"/>
+      <c r="H146" s="98"/>
     </row>
     <row r="147" spans="7:8">
       <c r="G147" s="56"/>
-      <c r="H147" s="56"/>
+      <c r="H147" s="98"/>
     </row>
     <row r="148" spans="7:8">
       <c r="G148" s="56"/>
-      <c r="H148" s="56"/>
+      <c r="H148" s="98"/>
     </row>
     <row r="149" spans="7:8">
       <c r="G149" s="56"/>
-      <c r="H149" s="56"/>
+      <c r="H149" s="98"/>
     </row>
     <row r="150" spans="7:8">
       <c r="G150" s="56"/>
-      <c r="H150" s="56"/>
+      <c r="H150" s="98"/>
     </row>
     <row r="151" spans="7:8">
       <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
+      <c r="H151" s="98"/>
     </row>
     <row r="152" spans="7:8">
       <c r="G152" s="56"/>
-      <c r="H152" s="56"/>
+      <c r="H152" s="98"/>
     </row>
     <row r="153" spans="7:8">
       <c r="G153" s="56"/>
-      <c r="H153" s="56"/>
+      <c r="H153" s="98"/>
     </row>
     <row r="154" spans="7:8">
       <c r="G154" s="56"/>
-      <c r="H154" s="56"/>
+      <c r="H154" s="98"/>
     </row>
     <row r="155" spans="7:8">
       <c r="G155" s="56"/>
-      <c r="H155" s="56"/>
+      <c r="H155" s="98"/>
     </row>
     <row r="156" spans="7:8">
       <c r="G156" s="56"/>
-      <c r="H156" s="56"/>
+      <c r="H156" s="98"/>
     </row>
     <row r="157" spans="7:8">
       <c r="G157" s="56"/>
-      <c r="H157" s="56"/>
+      <c r="H157" s="98"/>
     </row>
     <row r="158" spans="7:8">
       <c r="G158" s="56"/>
-      <c r="H158" s="56"/>
+      <c r="H158" s="98"/>
     </row>
     <row r="159" spans="7:8">
       <c r="G159" s="56"/>
-      <c r="H159" s="56"/>
+      <c r="H159" s="98"/>
     </row>
     <row r="160" spans="7:8">
       <c r="G160" s="56"/>
-      <c r="H160" s="56"/>
+      <c r="H160" s="98"/>
     </row>
     <row r="161" spans="7:8">
       <c r="G161" s="56"/>
-      <c r="H161" s="56"/>
+      <c r="H161" s="98"/>
     </row>
     <row r="162" spans="7:8">
       <c r="G162" s="56"/>
-      <c r="H162" s="56"/>
+      <c r="H162" s="98"/>
     </row>
     <row r="163" spans="7:8">
       <c r="G163" s="56"/>
-      <c r="H163" s="56"/>
+      <c r="H163" s="98"/>
     </row>
     <row r="164" spans="7:8">
       <c r="G164" s="56"/>
-      <c r="H164" s="56"/>
+      <c r="H164" s="98"/>
     </row>
     <row r="165" spans="7:8">
       <c r="G165" s="56"/>
-      <c r="H165" s="56"/>
+      <c r="H165" s="98"/>
     </row>
     <row r="166" spans="7:8">
       <c r="G166" s="56"/>
-      <c r="H166" s="56"/>
+      <c r="H166" s="98"/>
     </row>
     <row r="167" spans="7:8">
       <c r="G167" s="56"/>
-      <c r="H167" s="56"/>
+      <c r="H167" s="98"/>
     </row>
     <row r="168" spans="7:8">
       <c r="G168" s="56"/>
-      <c r="H168" s="56"/>
+      <c r="H168" s="98"/>
     </row>
     <row r="169" spans="7:8">
       <c r="G169" s="56"/>
-      <c r="H169" s="56"/>
+      <c r="H169" s="98"/>
     </row>
     <row r="170" spans="7:8">
       <c r="G170" s="56"/>
-      <c r="H170" s="56"/>
+      <c r="H170" s="98"/>
     </row>
     <row r="171" spans="7:8">
       <c r="G171" s="56"/>
-      <c r="H171" s="56"/>
+      <c r="H171" s="98"/>
     </row>
     <row r="172" spans="7:8">
       <c r="G172" s="56"/>
-      <c r="H172" s="56"/>
+      <c r="H172" s="98"/>
     </row>
     <row r="173" spans="7:8">
       <c r="G173" s="56"/>
-      <c r="H173" s="56"/>
+      <c r="H173" s="98"/>
     </row>
     <row r="174" spans="7:8">
       <c r="G174" s="56"/>
-      <c r="H174" s="56"/>
+      <c r="H174" s="98"/>
     </row>
     <row r="175" spans="7:8">
       <c r="G175" s="56"/>
-      <c r="H175" s="56"/>
+      <c r="H175" s="98"/>
     </row>
     <row r="176" spans="7:8">
       <c r="G176" s="56"/>
-      <c r="H176" s="56"/>
+      <c r="H176" s="98"/>
     </row>
     <row r="177" spans="7:8">
       <c r="G177" s="56"/>
-      <c r="H177" s="56"/>
+      <c r="H177" s="98"/>
     </row>
     <row r="178" spans="7:8">
       <c r="G178" s="56"/>
-      <c r="H178" s="56"/>
+      <c r="H178" s="98"/>
     </row>
     <row r="179" spans="7:8">
       <c r="G179" s="56"/>
-      <c r="H179" s="56"/>
+      <c r="H179" s="98"/>
     </row>
     <row r="180" spans="7:8">
       <c r="G180" s="56"/>
-      <c r="H180" s="56"/>
+      <c r="H180" s="98"/>
     </row>
     <row r="181" spans="7:8">
       <c r="G181" s="56"/>
-      <c r="H181" s="56"/>
+      <c r="H181" s="98"/>
     </row>
     <row r="182" spans="7:8">
       <c r="G182" s="56"/>
-      <c r="H182" s="56"/>
+      <c r="H182" s="98"/>
     </row>
     <row r="183" spans="7:8">
       <c r="G183" s="56"/>
-      <c r="H183" s="56"/>
+      <c r="H183" s="98"/>
     </row>
     <row r="184" spans="7:8">
       <c r="G184" s="56"/>
-      <c r="H184" s="56"/>
+      <c r="H184" s="98"/>
     </row>
     <row r="185" spans="7:8">
       <c r="G185" s="56"/>
-      <c r="H185" s="56"/>
+      <c r="H185" s="98"/>
     </row>
     <row r="186" spans="7:8">
       <c r="G186" s="56"/>
-      <c r="H186" s="56"/>
+      <c r="H186" s="98"/>
     </row>
     <row r="187" spans="7:8">
       <c r="G187" s="56"/>
-      <c r="H187" s="56"/>
+      <c r="H187" s="98"/>
     </row>
     <row r="188" spans="7:8">
       <c r="G188" s="56"/>
-      <c r="H188" s="56"/>
+      <c r="H188" s="98"/>
     </row>
     <row r="189" spans="7:8">
       <c r="G189" s="56"/>
-      <c r="H189" s="56"/>
+      <c r="H189" s="98"/>
     </row>
     <row r="190" spans="7:8">
       <c r="G190" s="56"/>
-      <c r="H190" s="56"/>
+      <c r="H190" s="98"/>
     </row>
     <row r="191" spans="7:8">
       <c r="G191" s="56"/>
-      <c r="H191" s="56"/>
+      <c r="H191" s="98"/>
     </row>
     <row r="192" spans="7:8">
       <c r="G192" s="56"/>
-      <c r="H192" s="56"/>
+      <c r="H192" s="98"/>
     </row>
     <row r="193" spans="7:8">
       <c r="G193" s="56"/>
-      <c r="H193" s="56"/>
+      <c r="H193" s="98"/>
     </row>
     <row r="194" spans="7:8">
       <c r="G194" s="56"/>
-      <c r="H194" s="56"/>
+      <c r="H194" s="98"/>
     </row>
     <row r="195" spans="7:8">
       <c r="G195" s="56"/>
-      <c r="H195" s="56"/>
+      <c r="H195" s="98"/>
     </row>
     <row r="196" spans="7:8">
       <c r="G196" s="56"/>
-      <c r="H196" s="56"/>
+      <c r="H196" s="98"/>
     </row>
     <row r="197" spans="7:8">
       <c r="G197" s="56"/>
-      <c r="H197" s="56"/>
+      <c r="H197" s="98"/>
     </row>
     <row r="198" spans="7:8">
       <c r="G198" s="56"/>
-      <c r="H198" s="56"/>
+      <c r="H198" s="98"/>
     </row>
     <row r="199" spans="7:8">
       <c r="G199" s="56"/>
-      <c r="H199" s="56"/>
+      <c r="H199" s="98"/>
     </row>
     <row r="200" spans="7:8">
       <c r="G200" s="56"/>
-      <c r="H200" s="56"/>
+      <c r="H200" s="98"/>
     </row>
     <row r="201" spans="7:8">
       <c r="G201" s="56"/>
-      <c r="H201" s="56"/>
+      <c r="H201" s="98"/>
     </row>
     <row r="202" spans="7:8">
       <c r="G202" s="56"/>
-      <c r="H202" s="56"/>
+      <c r="H202" s="98"/>
     </row>
     <row r="203" spans="7:8">
       <c r="G203" s="56"/>
-      <c r="H203" s="56"/>
+      <c r="H203" s="98"/>
     </row>
     <row r="204" spans="7:8">
       <c r="G204" s="56"/>
-      <c r="H204" s="56"/>
+      <c r="H204" s="98"/>
     </row>
     <row r="205" spans="7:8">
       <c r="G205" s="56"/>
-      <c r="H205" s="56"/>
+      <c r="H205" s="98"/>
     </row>
     <row r="206" spans="7:8">
       <c r="G206" s="56"/>
-      <c r="H206" s="56"/>
+      <c r="H206" s="98"/>
     </row>
     <row r="207" spans="7:8">
       <c r="G207" s="56"/>
-      <c r="H207" s="56"/>
+      <c r="H207" s="98"/>
     </row>
     <row r="208" spans="7:8">
       <c r="G208" s="56"/>
-      <c r="H208" s="56"/>
+      <c r="H208" s="98"/>
     </row>
     <row r="209" spans="7:8">
       <c r="G209" s="56"/>
-      <c r="H209" s="56"/>
+      <c r="H209" s="98"/>
     </row>
     <row r="210" spans="7:8">
       <c r="G210" s="56"/>
-      <c r="H210" s="56"/>
+      <c r="H210" s="98"/>
     </row>
     <row r="211" spans="7:8">
       <c r="G211" s="56"/>
-      <c r="H211" s="56"/>
+      <c r="H211" s="98"/>
     </row>
     <row r="212" spans="7:8">
       <c r="G212" s="56"/>
-      <c r="H212" s="56"/>
+      <c r="H212" s="98"/>
     </row>
     <row r="213" spans="7:8">
       <c r="G213" s="56"/>
-      <c r="H213" s="56"/>
+      <c r="H213" s="98"/>
     </row>
     <row r="214" spans="7:8">
       <c r="G214" s="56"/>
-      <c r="H214" s="56"/>
+      <c r="H214" s="98"/>
     </row>
     <row r="215" spans="7:8">
       <c r="G215" s="56"/>
-      <c r="H215" s="56"/>
+      <c r="H215" s="98"/>
     </row>
     <row r="216" spans="7:8">
       <c r="G216" s="56"/>
-      <c r="H216" s="56"/>
+      <c r="H216" s="98"/>
     </row>
     <row r="217" spans="7:8">
       <c r="G217" s="56"/>
-      <c r="H217" s="56"/>
+      <c r="H217" s="98"/>
     </row>
     <row r="218" spans="7:8">
       <c r="G218" s="56"/>
-      <c r="H218" s="56"/>
+      <c r="H218" s="98"/>
     </row>
     <row r="219" spans="7:8">
       <c r="G219" s="56"/>
-      <c r="H219" s="56"/>
+      <c r="H219" s="98"/>
     </row>
     <row r="220" spans="7:8">
       <c r="G220" s="56"/>
-      <c r="H220" s="56"/>
+      <c r="H220" s="98"/>
     </row>
     <row r="221" spans="7:8">
       <c r="G221" s="56"/>
-      <c r="H221" s="56"/>
+      <c r="H221" s="98"/>
     </row>
     <row r="222" spans="7:8">
       <c r="G222" s="56"/>
-      <c r="H222" s="56"/>
+      <c r="H222" s="98"/>
     </row>
     <row r="223" spans="7:8">
       <c r="G223" s="56"/>
-      <c r="H223" s="56"/>
+      <c r="H223" s="98"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="56"/>
-      <c r="H224" s="56"/>
+      <c r="H224" s="98"/>
     </row>
     <row r="225" spans="7:8">
       <c r="G225" s="56"/>
-      <c r="H225" s="56"/>
+      <c r="H225" s="98"/>
     </row>
     <row r="226" spans="7:8">
       <c r="G226" s="56"/>
-      <c r="H226" s="56"/>
+      <c r="H226" s="98"/>
     </row>
     <row r="227" spans="7:8">
       <c r="G227" s="56"/>
-      <c r="H227" s="56"/>
+      <c r="H227" s="98"/>
     </row>
     <row r="228" spans="7:8">
       <c r="G228" s="56"/>
-      <c r="H228" s="56"/>
+      <c r="H228" s="98"/>
     </row>
     <row r="229" spans="7:8">
       <c r="G229" s="56"/>
-      <c r="H229" s="56"/>
+      <c r="H229" s="98"/>
     </row>
     <row r="230" spans="7:8">
       <c r="G230" s="56"/>
-      <c r="H230" s="56"/>
-    </row>
-    <row r="231" spans="7:8">
-      <c r="G231" s="56"/>
-      <c r="H231" s="56"/>
-    </row>
-    <row r="232" spans="7:8">
-      <c r="G232" s="56"/>
-      <c r="H232" s="56"/>
-    </row>
-    <row r="233" spans="7:8">
-      <c r="G233" s="56"/>
-      <c r="H233" s="56"/>
-    </row>
-    <row r="234" spans="7:8">
-      <c r="G234" s="56"/>
-      <c r="H234" s="56"/>
+      <c r="H230" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2638,34 +2657,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="35"/>
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2673,15 +2692,15 @@
         <v>9</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="24">
@@ -2691,14 +2710,14 @@
         <v>10000</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="27">
         <f>E4</f>
         <v>10000</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="24">
         <v>45516</v>
@@ -2711,7 +2730,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="24">
         <v>45541</v>
@@ -2726,22 +2745,22 @@
         <v>1820</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="24">
         <v>45541</v>
       </c>
       <c r="J5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="24">
         <v>45545</v>
@@ -2755,23 +2774,23 @@
       <c r="G6" s="28">
         <v>1820</v>
       </c>
-      <c r="H6" s="66" t="s">
-        <v>34</v>
+      <c r="H6" s="81" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="24">
         <v>45545</v>
       </c>
       <c r="J6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="24">
         <v>45549</v>
@@ -2785,19 +2804,19 @@
       <c r="G7" s="28">
         <v>1820</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="24">
         <v>45549</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="24">
         <v>45567</v>
@@ -2812,19 +2831,19 @@
       <c r="G8" s="28">
         <v>1820</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="24">
         <v>45567</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="24">
         <v>45568</v>
@@ -2839,19 +2858,19 @@
       <c r="G9" s="28">
         <v>1830</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="24">
         <v>45568</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="24">
         <v>45569</v>
@@ -2866,19 +2885,19 @@
       <c r="G10" s="28">
         <v>1830</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="24">
         <v>45569</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="24">
         <v>45573</v>
@@ -2894,20 +2913,20 @@
         <v>1830</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="24">
         <v>45573</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="24">
         <v>45576</v>
@@ -2923,20 +2942,20 @@
         <v>1830</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="24">
         <v>45576</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="24">
         <v>45598</v>
@@ -2951,20 +2970,20 @@
       <c r="G13" s="28">
         <v>1840</v>
       </c>
-      <c r="H13" s="67" t="s">
-        <v>41</v>
+      <c r="H13" s="82" t="s">
+        <v>40</v>
       </c>
       <c r="I13" s="24">
         <v>45598</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="24">
@@ -2980,34 +2999,34 @@
       <c r="G14" s="28">
         <v>1840</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="24">
         <v>45598</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="25">
         <v>20000</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="27">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="24">
         <v>45598</v>
       </c>
@@ -3018,7 +3037,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="24">
@@ -3035,19 +3054,19 @@
         <v>1840</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="24">
         <v>45605</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="24">
@@ -3064,20 +3083,20 @@
         <v>1850</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="24">
         <v>45610</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="24">
         <v>45611</v>
@@ -3093,22 +3112,22 @@
         <v>1850</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="24">
         <v>45611</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="24">
         <v>45627</v>
@@ -3124,19 +3143,19 @@
         <v>1840</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="24">
         <v>45627</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="24">
@@ -3153,13 +3172,13 @@
         <v>1850</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="24">
         <v>45648</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="12"/>
     </row>
@@ -3181,32 +3200,32 @@
         <v>99922.829999999987</v>
       </c>
       <c r="F23" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="L23" s="38"/>
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="32">
         <v>180000</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="34">
         <v>45648</v>
@@ -3214,7 +3233,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="34">
         <v>45612</v>
@@ -3265,14 +3284,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3281,247 +3300,253 @@
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="89">
+        <v>520</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="70">
-        <v>520</v>
-      </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="70" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="71" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
       <c r="C5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="72" t="s">
+      <c r="C7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="62" t="s">
+      <c r="I7" s="79"/>
+      <c r="J7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="86"/>
+      <c r="C8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="73"/>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="87" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="74" t="s">
+      <c r="C9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="87"/>
+      <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="74"/>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="61"/>
+      <c r="E10" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="77"/>
       <c r="G10" s="19"/>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="61"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="12"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -3530,12 +3555,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB0C6D7-BF20-41D5-8EF5-37202E1C9E3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E205BF34-49F8-49A5-B4A8-DA0F0BAFAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,18 @@
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -370,9 +381,6 @@
     <t>exit channels China -&gt; Sg</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- kept in -&gt;</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -387,6 +395,9 @@
   <si>
     <t>TJJ
 EOD bal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- kept in -&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -401,12 +412,19 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,9 +615,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -612,11 +630,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -724,46 +742,112 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,6 +863,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -788,79 +878,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R230"/>
+  <dimension ref="B1:R232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1170,49 +1201,49 @@
     </row>
     <row r="2" spans="2:16">
       <c r="D2" s="42"/>
-      <c r="G2" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="69" t="s">
+      <c r="G2" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="78" t="s">
+      <c r="F3" s="94"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79" t="s">
+      <c r="J3" s="97"/>
+      <c r="K3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="75" t="s">
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>100</v>
@@ -1226,7 +1257,7 @@
       <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="99"/>
       <c r="I4" s="43" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1298,7 @@
       <c r="G5" s="52">
         <v>0</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="43">
         <f>F5</f>
         <v>10000</v>
@@ -1297,7 +1328,7 @@
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="95"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="44">
         <f>E6</f>
         <v>10000</v>
@@ -1319,7 +1350,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="53"/>
       <c r="G7" s="59"/>
-      <c r="H7" s="96"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="44"/>
       <c r="J7" s="12"/>
       <c r="K7" s="43"/>
@@ -1347,7 +1378,7 @@
       <c r="G8" s="52">
         <v>0</v>
       </c>
-      <c r="H8" s="94"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="44">
         <v>4000</v>
       </c>
@@ -1384,7 +1415,7 @@
       <c r="G9" s="52">
         <v>0</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="44">
         <f>F9</f>
         <v>10000</v>
@@ -1409,14 +1440,14 @@
       <c r="D10" s="27">
         <v>71433</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="71"/>
+      <c r="E10" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="101"/>
       <c r="G10" s="52">
         <v>10000</v>
       </c>
-      <c r="H10" s="94"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="44"/>
       <c r="J10" s="24"/>
       <c r="K10" s="54"/>
@@ -1426,204 +1457,186 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="100">
-        <v>45594</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="91">
-        <f>I11+K11</f>
-        <v>8000</v>
-      </c>
-      <c r="G11" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="44">
-        <v>6000</v>
-      </c>
-      <c r="J11" s="24">
-        <v>45594</v>
-      </c>
-      <c r="K11" s="54">
-        <v>2000</v>
-      </c>
-      <c r="L11" s="24">
-        <v>45598</v>
-      </c>
-      <c r="M11" s="67" t="s">
-        <v>14</v>
-      </c>
+    <row r="11" spans="2:16" ht="4.5" customHeight="1">
+      <c r="B11" s="113"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="43"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="2:16" ht="15" customHeight="1">
-      <c r="B12" s="101"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="91" t="s">
+    <row r="12" spans="2:16">
+      <c r="B12" s="87">
+        <v>45594</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="70">
+        <f>I12+K12</f>
+        <v>8000</v>
+      </c>
+      <c r="G12" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="107">
-        <f>G10-F11</f>
+      <c r="H12" s="75"/>
+      <c r="I12" s="44">
+        <v>6000</v>
+      </c>
+      <c r="J12" s="24">
+        <v>45594</v>
+      </c>
+      <c r="K12" s="54">
         <v>2000</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="51"/>
+      <c r="L12" s="24">
+        <v>45598</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>14</v>
+      </c>
       <c r="N12" s="43"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1">
-      <c r="B13" s="24">
-        <v>45595</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="27">
-        <v>71397</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="59">
-        <f>G12+10000</f>
-        <v>12000</v>
-      </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="44"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="81">
+        <f>G10-F12</f>
+        <v>2000</v>
+      </c>
+      <c r="H13" s="75"/>
+      <c r="I13" s="44" t="s">
+        <v>16</v>
+      </c>
       <c r="J13" s="51"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="12"/>
       <c r="N13" s="43"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="2:16" ht="30">
+    <row r="14" spans="2:16" ht="15" customHeight="1">
       <c r="B14" s="24">
-        <v>45593</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="44">
-        <v>3400</v>
-      </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="48"/>
+        <v>45595</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="27">
+        <v>71397</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="59">
+        <f>G13+10000</f>
+        <v>12000</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="51"/>
-      <c r="K14" s="54">
-        <f>E14</f>
-        <v>3400</v>
-      </c>
-      <c r="L14" s="24">
-        <v>45598</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="43"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="102">
-        <v>45632</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>15</v>
+    <row r="15" spans="2:16" ht="30">
+      <c r="B15" s="24">
+        <v>45593</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="110">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="44">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="E15" s="44">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="54">
+        <f>E15</f>
+        <v>3400</v>
+      </c>
+      <c r="L15" s="24">
+        <v>45598</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="N15" s="43"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="103"/>
-      <c r="C16" s="12"/>
+    <row r="16" spans="2:16" ht="5.25" customHeight="1">
+      <c r="B16" s="113"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="92">
-        <f>G13-F15</f>
-        <v>2000</v>
-      </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="44"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="12"/>
       <c r="N16" s="43"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="12" t="s">
-        <v>18</v>
+      <c r="B17" s="89">
+        <v>45632</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="44">
+        <v>102</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="84">
         <v>10000</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="97"/>
+      <c r="G17" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="76"/>
       <c r="I17" s="44">
         <v>10000</v>
       </c>
       <c r="J17" s="51" t="s">
         <v>18</v>
       </c>
+      <c r="K17" s="50"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="43"/>
@@ -1631,29 +1644,21 @@
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="48">
-        <f>G16+10001</f>
-        <v>12001</v>
-      </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="50"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="71">
+        <f>G14-F17</f>
+        <v>2000</v>
+      </c>
+      <c r="H18" s="76"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="43"/>
@@ -1665,956 +1670,1019 @@
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="44">
-        <f>K19</f>
-        <v>6000</v>
-      </c>
-      <c r="G19" s="66">
-        <f>G18-F19</f>
-        <v>6001</v>
-      </c>
-      <c r="H19" s="97"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="54">
-        <v>6000</v>
-      </c>
-      <c r="L19" s="24">
-        <v>45666</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E19" s="44">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="76"/>
+      <c r="I19" s="44">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="43"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="55" t="s">
-        <v>20</v>
-      </c>
+      <c r="B20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="101"/>
+      <c r="G20" s="48">
+        <f>G18+10001</f>
+        <v>12001</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="43"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>102</v>
+      </c>
       <c r="E21" s="45"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="48"/>
+      <c r="F21" s="44">
+        <f>K21</f>
+        <v>6000</v>
+      </c>
+      <c r="G21" s="66">
+        <f>G20-F21</f>
+        <v>6001</v>
+      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="51"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="12" t="s">
-        <v>22</v>
+      <c r="K21" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L21" s="24">
+        <v>45666</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="43">
-        <v>28000</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="48"/>
-      <c r="H22" s="97"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="48"/>
       <c r="J22" s="51"/>
-      <c r="K22" s="54"/>
+      <c r="K22" s="55" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="43" t="s">
-        <v>23</v>
-      </c>
+      <c r="N22" s="43"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
+      <c r="R22" s="57"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="D23" s="27"/>
       <c r="E23" s="45"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="97"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="48"/>
       <c r="J23" s="51"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="M23" s="12"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="12"/>
+      <c r="N23" s="43">
+        <v>28000</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="G24" s="56"/>
-      <c r="H24" s="98"/>
-    </row>
-    <row r="25" spans="2:18" ht="17.25">
-      <c r="B25" s="64" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="G26" s="56"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="2:18" ht="17.25">
+      <c r="B27" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="98"/>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="64" t="s">
+      <c r="G27" s="56"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="98"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="64" t="s">
+      <c r="G28" s="56"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="98"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="G28" s="56"/>
-      <c r="H28" s="98"/>
-    </row>
-    <row r="29" spans="2:18">
       <c r="G29" s="56"/>
-      <c r="H29" s="98"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="2:18">
       <c r="G30" s="56"/>
-      <c r="H30" s="98"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="2:18">
       <c r="G31" s="56"/>
-      <c r="H31" s="98"/>
+      <c r="H31" s="77"/>
     </row>
     <row r="32" spans="2:18">
       <c r="G32" s="56"/>
-      <c r="H32" s="98"/>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="56"/>
-      <c r="H33" s="98"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="56"/>
-      <c r="H34" s="98"/>
+      <c r="H34" s="77"/>
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="56"/>
-      <c r="H35" s="98"/>
+      <c r="H35" s="77"/>
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="56"/>
-      <c r="H36" s="98"/>
+      <c r="H36" s="77"/>
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="56"/>
-      <c r="H37" s="98"/>
+      <c r="H37" s="77"/>
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="56"/>
-      <c r="H38" s="98"/>
+      <c r="H38" s="77"/>
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="56"/>
-      <c r="H39" s="98"/>
+      <c r="H39" s="77"/>
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="56"/>
-      <c r="H40" s="98"/>
+      <c r="H40" s="77"/>
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="56"/>
-      <c r="H41" s="98"/>
+      <c r="H41" s="77"/>
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="56"/>
-      <c r="H42" s="98"/>
+      <c r="H42" s="77"/>
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="56"/>
-      <c r="H43" s="98"/>
+      <c r="H43" s="77"/>
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="56"/>
-      <c r="H44" s="98"/>
+      <c r="H44" s="77"/>
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="56"/>
-      <c r="H45" s="98"/>
+      <c r="H45" s="77"/>
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="56"/>
-      <c r="H46" s="98"/>
+      <c r="H46" s="77"/>
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="56"/>
-      <c r="H47" s="98"/>
+      <c r="H47" s="77"/>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="56"/>
-      <c r="H48" s="98"/>
+      <c r="H48" s="77"/>
     </row>
     <row r="49" spans="7:8">
       <c r="G49" s="56"/>
-      <c r="H49" s="98"/>
+      <c r="H49" s="77"/>
     </row>
     <row r="50" spans="7:8">
       <c r="G50" s="56"/>
-      <c r="H50" s="98"/>
+      <c r="H50" s="77"/>
     </row>
     <row r="51" spans="7:8">
       <c r="G51" s="56"/>
-      <c r="H51" s="98"/>
+      <c r="H51" s="77"/>
     </row>
     <row r="52" spans="7:8">
       <c r="G52" s="56"/>
-      <c r="H52" s="98"/>
+      <c r="H52" s="77"/>
     </row>
     <row r="53" spans="7:8">
       <c r="G53" s="56"/>
-      <c r="H53" s="98"/>
+      <c r="H53" s="77"/>
     </row>
     <row r="54" spans="7:8">
       <c r="G54" s="56"/>
-      <c r="H54" s="98"/>
+      <c r="H54" s="77"/>
     </row>
     <row r="55" spans="7:8">
       <c r="G55" s="56"/>
-      <c r="H55" s="98"/>
+      <c r="H55" s="77"/>
     </row>
     <row r="56" spans="7:8">
       <c r="G56" s="56"/>
-      <c r="H56" s="98"/>
+      <c r="H56" s="77"/>
     </row>
     <row r="57" spans="7:8">
       <c r="G57" s="56"/>
-      <c r="H57" s="98"/>
+      <c r="H57" s="77"/>
     </row>
     <row r="58" spans="7:8">
       <c r="G58" s="56"/>
-      <c r="H58" s="98"/>
+      <c r="H58" s="77"/>
     </row>
     <row r="59" spans="7:8">
       <c r="G59" s="56"/>
-      <c r="H59" s="98"/>
+      <c r="H59" s="77"/>
     </row>
     <row r="60" spans="7:8">
       <c r="G60" s="56"/>
-      <c r="H60" s="98"/>
+      <c r="H60" s="77"/>
     </row>
     <row r="61" spans="7:8">
       <c r="G61" s="56"/>
-      <c r="H61" s="98"/>
+      <c r="H61" s="77"/>
     </row>
     <row r="62" spans="7:8">
       <c r="G62" s="56"/>
-      <c r="H62" s="98"/>
+      <c r="H62" s="77"/>
     </row>
     <row r="63" spans="7:8">
       <c r="G63" s="56"/>
-      <c r="H63" s="98"/>
+      <c r="H63" s="77"/>
     </row>
     <row r="64" spans="7:8">
       <c r="G64" s="56"/>
-      <c r="H64" s="98"/>
+      <c r="H64" s="77"/>
     </row>
     <row r="65" spans="7:8">
       <c r="G65" s="56"/>
-      <c r="H65" s="98"/>
+      <c r="H65" s="77"/>
     </row>
     <row r="66" spans="7:8">
       <c r="G66" s="56"/>
-      <c r="H66" s="98"/>
+      <c r="H66" s="77"/>
     </row>
     <row r="67" spans="7:8">
       <c r="G67" s="56"/>
-      <c r="H67" s="98"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="7:8">
       <c r="G68" s="56"/>
-      <c r="H68" s="98"/>
+      <c r="H68" s="77"/>
     </row>
     <row r="69" spans="7:8">
       <c r="G69" s="56"/>
-      <c r="H69" s="98"/>
+      <c r="H69" s="77"/>
     </row>
     <row r="70" spans="7:8">
       <c r="G70" s="56"/>
-      <c r="H70" s="98"/>
+      <c r="H70" s="77"/>
     </row>
     <row r="71" spans="7:8">
       <c r="G71" s="56"/>
-      <c r="H71" s="98"/>
+      <c r="H71" s="77"/>
     </row>
     <row r="72" spans="7:8">
       <c r="G72" s="56"/>
-      <c r="H72" s="98"/>
+      <c r="H72" s="77"/>
     </row>
     <row r="73" spans="7:8">
       <c r="G73" s="56"/>
-      <c r="H73" s="98"/>
+      <c r="H73" s="77"/>
     </row>
     <row r="74" spans="7:8">
       <c r="G74" s="56"/>
-      <c r="H74" s="98"/>
+      <c r="H74" s="77"/>
     </row>
     <row r="75" spans="7:8">
       <c r="G75" s="56"/>
-      <c r="H75" s="98"/>
+      <c r="H75" s="77"/>
     </row>
     <row r="76" spans="7:8">
       <c r="G76" s="56"/>
-      <c r="H76" s="98"/>
+      <c r="H76" s="77"/>
     </row>
     <row r="77" spans="7:8">
       <c r="G77" s="56"/>
-      <c r="H77" s="98"/>
+      <c r="H77" s="77"/>
     </row>
     <row r="78" spans="7:8">
       <c r="G78" s="56"/>
-      <c r="H78" s="98"/>
+      <c r="H78" s="77"/>
     </row>
     <row r="79" spans="7:8">
       <c r="G79" s="56"/>
-      <c r="H79" s="98"/>
+      <c r="H79" s="77"/>
     </row>
     <row r="80" spans="7:8">
       <c r="G80" s="56"/>
-      <c r="H80" s="98"/>
+      <c r="H80" s="77"/>
     </row>
     <row r="81" spans="7:8">
       <c r="G81" s="56"/>
-      <c r="H81" s="98"/>
+      <c r="H81" s="77"/>
     </row>
     <row r="82" spans="7:8">
       <c r="G82" s="56"/>
-      <c r="H82" s="98"/>
+      <c r="H82" s="77"/>
     </row>
     <row r="83" spans="7:8">
       <c r="G83" s="56"/>
-      <c r="H83" s="98"/>
+      <c r="H83" s="77"/>
     </row>
     <row r="84" spans="7:8">
       <c r="G84" s="56"/>
-      <c r="H84" s="98"/>
+      <c r="H84" s="77"/>
     </row>
     <row r="85" spans="7:8">
       <c r="G85" s="56"/>
-      <c r="H85" s="98"/>
+      <c r="H85" s="77"/>
     </row>
     <row r="86" spans="7:8">
       <c r="G86" s="56"/>
-      <c r="H86" s="98"/>
+      <c r="H86" s="77"/>
     </row>
     <row r="87" spans="7:8">
       <c r="G87" s="56"/>
-      <c r="H87" s="98"/>
+      <c r="H87" s="77"/>
     </row>
     <row r="88" spans="7:8">
       <c r="G88" s="56"/>
-      <c r="H88" s="98"/>
+      <c r="H88" s="77"/>
     </row>
     <row r="89" spans="7:8">
       <c r="G89" s="56"/>
-      <c r="H89" s="98"/>
+      <c r="H89" s="77"/>
     </row>
     <row r="90" spans="7:8">
       <c r="G90" s="56"/>
-      <c r="H90" s="98"/>
+      <c r="H90" s="77"/>
     </row>
     <row r="91" spans="7:8">
       <c r="G91" s="56"/>
-      <c r="H91" s="98"/>
+      <c r="H91" s="77"/>
     </row>
     <row r="92" spans="7:8">
       <c r="G92" s="56"/>
-      <c r="H92" s="98"/>
+      <c r="H92" s="77"/>
     </row>
     <row r="93" spans="7:8">
       <c r="G93" s="56"/>
-      <c r="H93" s="98"/>
+      <c r="H93" s="77"/>
     </row>
     <row r="94" spans="7:8">
       <c r="G94" s="56"/>
-      <c r="H94" s="98"/>
+      <c r="H94" s="77"/>
     </row>
     <row r="95" spans="7:8">
       <c r="G95" s="56"/>
-      <c r="H95" s="98"/>
+      <c r="H95" s="77"/>
     </row>
     <row r="96" spans="7:8">
       <c r="G96" s="56"/>
-      <c r="H96" s="98"/>
+      <c r="H96" s="77"/>
     </row>
     <row r="97" spans="7:8">
       <c r="G97" s="56"/>
-      <c r="H97" s="98"/>
+      <c r="H97" s="77"/>
     </row>
     <row r="98" spans="7:8">
       <c r="G98" s="56"/>
-      <c r="H98" s="98"/>
+      <c r="H98" s="77"/>
     </row>
     <row r="99" spans="7:8">
       <c r="G99" s="56"/>
-      <c r="H99" s="98"/>
+      <c r="H99" s="77"/>
     </row>
     <row r="100" spans="7:8">
       <c r="G100" s="56"/>
-      <c r="H100" s="98"/>
+      <c r="H100" s="77"/>
     </row>
     <row r="101" spans="7:8">
       <c r="G101" s="56"/>
-      <c r="H101" s="98"/>
+      <c r="H101" s="77"/>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="56"/>
-      <c r="H102" s="98"/>
+      <c r="H102" s="77"/>
     </row>
     <row r="103" spans="7:8">
       <c r="G103" s="56"/>
-      <c r="H103" s="98"/>
+      <c r="H103" s="77"/>
     </row>
     <row r="104" spans="7:8">
       <c r="G104" s="56"/>
-      <c r="H104" s="98"/>
+      <c r="H104" s="77"/>
     </row>
     <row r="105" spans="7:8">
       <c r="G105" s="56"/>
-      <c r="H105" s="98"/>
+      <c r="H105" s="77"/>
     </row>
     <row r="106" spans="7:8">
       <c r="G106" s="56"/>
-      <c r="H106" s="98"/>
+      <c r="H106" s="77"/>
     </row>
     <row r="107" spans="7:8">
       <c r="G107" s="56"/>
-      <c r="H107" s="98"/>
+      <c r="H107" s="77"/>
     </row>
     <row r="108" spans="7:8">
       <c r="G108" s="56"/>
-      <c r="H108" s="98"/>
+      <c r="H108" s="77"/>
     </row>
     <row r="109" spans="7:8">
       <c r="G109" s="56"/>
-      <c r="H109" s="98"/>
+      <c r="H109" s="77"/>
     </row>
     <row r="110" spans="7:8">
       <c r="G110" s="56"/>
-      <c r="H110" s="98"/>
+      <c r="H110" s="77"/>
     </row>
     <row r="111" spans="7:8">
       <c r="G111" s="56"/>
-      <c r="H111" s="98"/>
+      <c r="H111" s="77"/>
     </row>
     <row r="112" spans="7:8">
       <c r="G112" s="56"/>
-      <c r="H112" s="98"/>
+      <c r="H112" s="77"/>
     </row>
     <row r="113" spans="7:8">
       <c r="G113" s="56"/>
-      <c r="H113" s="98"/>
+      <c r="H113" s="77"/>
     </row>
     <row r="114" spans="7:8">
       <c r="G114" s="56"/>
-      <c r="H114" s="98"/>
+      <c r="H114" s="77"/>
     </row>
     <row r="115" spans="7:8">
       <c r="G115" s="56"/>
-      <c r="H115" s="98"/>
+      <c r="H115" s="77"/>
     </row>
     <row r="116" spans="7:8">
       <c r="G116" s="56"/>
-      <c r="H116" s="98"/>
+      <c r="H116" s="77"/>
     </row>
     <row r="117" spans="7:8">
       <c r="G117" s="56"/>
-      <c r="H117" s="98"/>
+      <c r="H117" s="77"/>
     </row>
     <row r="118" spans="7:8">
       <c r="G118" s="56"/>
-      <c r="H118" s="98"/>
+      <c r="H118" s="77"/>
     </row>
     <row r="119" spans="7:8">
       <c r="G119" s="56"/>
-      <c r="H119" s="98"/>
+      <c r="H119" s="77"/>
     </row>
     <row r="120" spans="7:8">
       <c r="G120" s="56"/>
-      <c r="H120" s="98"/>
+      <c r="H120" s="77"/>
     </row>
     <row r="121" spans="7:8">
       <c r="G121" s="56"/>
-      <c r="H121" s="98"/>
+      <c r="H121" s="77"/>
     </row>
     <row r="122" spans="7:8">
       <c r="G122" s="56"/>
-      <c r="H122" s="98"/>
+      <c r="H122" s="77"/>
     </row>
     <row r="123" spans="7:8">
       <c r="G123" s="56"/>
-      <c r="H123" s="98"/>
+      <c r="H123" s="77"/>
     </row>
     <row r="124" spans="7:8">
       <c r="G124" s="56"/>
-      <c r="H124" s="98"/>
+      <c r="H124" s="77"/>
     </row>
     <row r="125" spans="7:8">
       <c r="G125" s="56"/>
-      <c r="H125" s="98"/>
+      <c r="H125" s="77"/>
     </row>
     <row r="126" spans="7:8">
       <c r="G126" s="56"/>
-      <c r="H126" s="98"/>
+      <c r="H126" s="77"/>
     </row>
     <row r="127" spans="7:8">
       <c r="G127" s="56"/>
-      <c r="H127" s="98"/>
+      <c r="H127" s="77"/>
     </row>
     <row r="128" spans="7:8">
       <c r="G128" s="56"/>
-      <c r="H128" s="98"/>
+      <c r="H128" s="77"/>
     </row>
     <row r="129" spans="7:8">
       <c r="G129" s="56"/>
-      <c r="H129" s="98"/>
+      <c r="H129" s="77"/>
     </row>
     <row r="130" spans="7:8">
       <c r="G130" s="56"/>
-      <c r="H130" s="98"/>
+      <c r="H130" s="77"/>
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="56"/>
-      <c r="H131" s="98"/>
+      <c r="H131" s="77"/>
     </row>
     <row r="132" spans="7:8">
       <c r="G132" s="56"/>
-      <c r="H132" s="98"/>
+      <c r="H132" s="77"/>
     </row>
     <row r="133" spans="7:8">
       <c r="G133" s="56"/>
-      <c r="H133" s="98"/>
+      <c r="H133" s="77"/>
     </row>
     <row r="134" spans="7:8">
       <c r="G134" s="56"/>
-      <c r="H134" s="98"/>
+      <c r="H134" s="77"/>
     </row>
     <row r="135" spans="7:8">
       <c r="G135" s="56"/>
-      <c r="H135" s="98"/>
+      <c r="H135" s="77"/>
     </row>
     <row r="136" spans="7:8">
       <c r="G136" s="56"/>
-      <c r="H136" s="98"/>
+      <c r="H136" s="77"/>
     </row>
     <row r="137" spans="7:8">
       <c r="G137" s="56"/>
-      <c r="H137" s="98"/>
+      <c r="H137" s="77"/>
     </row>
     <row r="138" spans="7:8">
       <c r="G138" s="56"/>
-      <c r="H138" s="98"/>
+      <c r="H138" s="77"/>
     </row>
     <row r="139" spans="7:8">
       <c r="G139" s="56"/>
-      <c r="H139" s="98"/>
+      <c r="H139" s="77"/>
     </row>
     <row r="140" spans="7:8">
       <c r="G140" s="56"/>
-      <c r="H140" s="98"/>
+      <c r="H140" s="77"/>
     </row>
     <row r="141" spans="7:8">
       <c r="G141" s="56"/>
-      <c r="H141" s="98"/>
+      <c r="H141" s="77"/>
     </row>
     <row r="142" spans="7:8">
       <c r="G142" s="56"/>
-      <c r="H142" s="98"/>
+      <c r="H142" s="77"/>
     </row>
     <row r="143" spans="7:8">
       <c r="G143" s="56"/>
-      <c r="H143" s="98"/>
+      <c r="H143" s="77"/>
     </row>
     <row r="144" spans="7:8">
       <c r="G144" s="56"/>
-      <c r="H144" s="98"/>
+      <c r="H144" s="77"/>
     </row>
     <row r="145" spans="7:8">
       <c r="G145" s="56"/>
-      <c r="H145" s="98"/>
+      <c r="H145" s="77"/>
     </row>
     <row r="146" spans="7:8">
       <c r="G146" s="56"/>
-      <c r="H146" s="98"/>
+      <c r="H146" s="77"/>
     </row>
     <row r="147" spans="7:8">
       <c r="G147" s="56"/>
-      <c r="H147" s="98"/>
+      <c r="H147" s="77"/>
     </row>
     <row r="148" spans="7:8">
       <c r="G148" s="56"/>
-      <c r="H148" s="98"/>
+      <c r="H148" s="77"/>
     </row>
     <row r="149" spans="7:8">
       <c r="G149" s="56"/>
-      <c r="H149" s="98"/>
+      <c r="H149" s="77"/>
     </row>
     <row r="150" spans="7:8">
       <c r="G150" s="56"/>
-      <c r="H150" s="98"/>
+      <c r="H150" s="77"/>
     </row>
     <row r="151" spans="7:8">
       <c r="G151" s="56"/>
-      <c r="H151" s="98"/>
+      <c r="H151" s="77"/>
     </row>
     <row r="152" spans="7:8">
       <c r="G152" s="56"/>
-      <c r="H152" s="98"/>
+      <c r="H152" s="77"/>
     </row>
     <row r="153" spans="7:8">
       <c r="G153" s="56"/>
-      <c r="H153" s="98"/>
+      <c r="H153" s="77"/>
     </row>
     <row r="154" spans="7:8">
       <c r="G154" s="56"/>
-      <c r="H154" s="98"/>
+      <c r="H154" s="77"/>
     </row>
     <row r="155" spans="7:8">
       <c r="G155" s="56"/>
-      <c r="H155" s="98"/>
+      <c r="H155" s="77"/>
     </row>
     <row r="156" spans="7:8">
       <c r="G156" s="56"/>
-      <c r="H156" s="98"/>
+      <c r="H156" s="77"/>
     </row>
     <row r="157" spans="7:8">
       <c r="G157" s="56"/>
-      <c r="H157" s="98"/>
+      <c r="H157" s="77"/>
     </row>
     <row r="158" spans="7:8">
       <c r="G158" s="56"/>
-      <c r="H158" s="98"/>
+      <c r="H158" s="77"/>
     </row>
     <row r="159" spans="7:8">
       <c r="G159" s="56"/>
-      <c r="H159" s="98"/>
+      <c r="H159" s="77"/>
     </row>
     <row r="160" spans="7:8">
       <c r="G160" s="56"/>
-      <c r="H160" s="98"/>
+      <c r="H160" s="77"/>
     </row>
     <row r="161" spans="7:8">
       <c r="G161" s="56"/>
-      <c r="H161" s="98"/>
+      <c r="H161" s="77"/>
     </row>
     <row r="162" spans="7:8">
       <c r="G162" s="56"/>
-      <c r="H162" s="98"/>
+      <c r="H162" s="77"/>
     </row>
     <row r="163" spans="7:8">
       <c r="G163" s="56"/>
-      <c r="H163" s="98"/>
+      <c r="H163" s="77"/>
     </row>
     <row r="164" spans="7:8">
       <c r="G164" s="56"/>
-      <c r="H164" s="98"/>
+      <c r="H164" s="77"/>
     </row>
     <row r="165" spans="7:8">
       <c r="G165" s="56"/>
-      <c r="H165" s="98"/>
+      <c r="H165" s="77"/>
     </row>
     <row r="166" spans="7:8">
       <c r="G166" s="56"/>
-      <c r="H166" s="98"/>
+      <c r="H166" s="77"/>
     </row>
     <row r="167" spans="7:8">
       <c r="G167" s="56"/>
-      <c r="H167" s="98"/>
+      <c r="H167" s="77"/>
     </row>
     <row r="168" spans="7:8">
       <c r="G168" s="56"/>
-      <c r="H168" s="98"/>
+      <c r="H168" s="77"/>
     </row>
     <row r="169" spans="7:8">
       <c r="G169" s="56"/>
-      <c r="H169" s="98"/>
+      <c r="H169" s="77"/>
     </row>
     <row r="170" spans="7:8">
       <c r="G170" s="56"/>
-      <c r="H170" s="98"/>
+      <c r="H170" s="77"/>
     </row>
     <row r="171" spans="7:8">
       <c r="G171" s="56"/>
-      <c r="H171" s="98"/>
+      <c r="H171" s="77"/>
     </row>
     <row r="172" spans="7:8">
       <c r="G172" s="56"/>
-      <c r="H172" s="98"/>
+      <c r="H172" s="77"/>
     </row>
     <row r="173" spans="7:8">
       <c r="G173" s="56"/>
-      <c r="H173" s="98"/>
+      <c r="H173" s="77"/>
     </row>
     <row r="174" spans="7:8">
       <c r="G174" s="56"/>
-      <c r="H174" s="98"/>
+      <c r="H174" s="77"/>
     </row>
     <row r="175" spans="7:8">
       <c r="G175" s="56"/>
-      <c r="H175" s="98"/>
+      <c r="H175" s="77"/>
     </row>
     <row r="176" spans="7:8">
       <c r="G176" s="56"/>
-      <c r="H176" s="98"/>
+      <c r="H176" s="77"/>
     </row>
     <row r="177" spans="7:8">
       <c r="G177" s="56"/>
-      <c r="H177" s="98"/>
+      <c r="H177" s="77"/>
     </row>
     <row r="178" spans="7:8">
       <c r="G178" s="56"/>
-      <c r="H178" s="98"/>
+      <c r="H178" s="77"/>
     </row>
     <row r="179" spans="7:8">
       <c r="G179" s="56"/>
-      <c r="H179" s="98"/>
+      <c r="H179" s="77"/>
     </row>
     <row r="180" spans="7:8">
       <c r="G180" s="56"/>
-      <c r="H180" s="98"/>
+      <c r="H180" s="77"/>
     </row>
     <row r="181" spans="7:8">
       <c r="G181" s="56"/>
-      <c r="H181" s="98"/>
+      <c r="H181" s="77"/>
     </row>
     <row r="182" spans="7:8">
       <c r="G182" s="56"/>
-      <c r="H182" s="98"/>
+      <c r="H182" s="77"/>
     </row>
     <row r="183" spans="7:8">
       <c r="G183" s="56"/>
-      <c r="H183" s="98"/>
+      <c r="H183" s="77"/>
     </row>
     <row r="184" spans="7:8">
       <c r="G184" s="56"/>
-      <c r="H184" s="98"/>
+      <c r="H184" s="77"/>
     </row>
     <row r="185" spans="7:8">
       <c r="G185" s="56"/>
-      <c r="H185" s="98"/>
+      <c r="H185" s="77"/>
     </row>
     <row r="186" spans="7:8">
       <c r="G186" s="56"/>
-      <c r="H186" s="98"/>
+      <c r="H186" s="77"/>
     </row>
     <row r="187" spans="7:8">
       <c r="G187" s="56"/>
-      <c r="H187" s="98"/>
+      <c r="H187" s="77"/>
     </row>
     <row r="188" spans="7:8">
       <c r="G188" s="56"/>
-      <c r="H188" s="98"/>
+      <c r="H188" s="77"/>
     </row>
     <row r="189" spans="7:8">
       <c r="G189" s="56"/>
-      <c r="H189" s="98"/>
+      <c r="H189" s="77"/>
     </row>
     <row r="190" spans="7:8">
       <c r="G190" s="56"/>
-      <c r="H190" s="98"/>
+      <c r="H190" s="77"/>
     </row>
     <row r="191" spans="7:8">
       <c r="G191" s="56"/>
-      <c r="H191" s="98"/>
+      <c r="H191" s="77"/>
     </row>
     <row r="192" spans="7:8">
       <c r="G192" s="56"/>
-      <c r="H192" s="98"/>
+      <c r="H192" s="77"/>
     </row>
     <row r="193" spans="7:8">
       <c r="G193" s="56"/>
-      <c r="H193" s="98"/>
+      <c r="H193" s="77"/>
     </row>
     <row r="194" spans="7:8">
       <c r="G194" s="56"/>
-      <c r="H194" s="98"/>
+      <c r="H194" s="77"/>
     </row>
     <row r="195" spans="7:8">
       <c r="G195" s="56"/>
-      <c r="H195" s="98"/>
+      <c r="H195" s="77"/>
     </row>
     <row r="196" spans="7:8">
       <c r="G196" s="56"/>
-      <c r="H196" s="98"/>
+      <c r="H196" s="77"/>
     </row>
     <row r="197" spans="7:8">
       <c r="G197" s="56"/>
-      <c r="H197" s="98"/>
+      <c r="H197" s="77"/>
     </row>
     <row r="198" spans="7:8">
       <c r="G198" s="56"/>
-      <c r="H198" s="98"/>
+      <c r="H198" s="77"/>
     </row>
     <row r="199" spans="7:8">
       <c r="G199" s="56"/>
-      <c r="H199" s="98"/>
+      <c r="H199" s="77"/>
     </row>
     <row r="200" spans="7:8">
       <c r="G200" s="56"/>
-      <c r="H200" s="98"/>
+      <c r="H200" s="77"/>
     </row>
     <row r="201" spans="7:8">
       <c r="G201" s="56"/>
-      <c r="H201" s="98"/>
+      <c r="H201" s="77"/>
     </row>
     <row r="202" spans="7:8">
       <c r="G202" s="56"/>
-      <c r="H202" s="98"/>
+      <c r="H202" s="77"/>
     </row>
     <row r="203" spans="7:8">
       <c r="G203" s="56"/>
-      <c r="H203" s="98"/>
+      <c r="H203" s="77"/>
     </row>
     <row r="204" spans="7:8">
       <c r="G204" s="56"/>
-      <c r="H204" s="98"/>
+      <c r="H204" s="77"/>
     </row>
     <row r="205" spans="7:8">
       <c r="G205" s="56"/>
-      <c r="H205" s="98"/>
+      <c r="H205" s="77"/>
     </row>
     <row r="206" spans="7:8">
       <c r="G206" s="56"/>
-      <c r="H206" s="98"/>
+      <c r="H206" s="77"/>
     </row>
     <row r="207" spans="7:8">
       <c r="G207" s="56"/>
-      <c r="H207" s="98"/>
+      <c r="H207" s="77"/>
     </row>
     <row r="208" spans="7:8">
       <c r="G208" s="56"/>
-      <c r="H208" s="98"/>
+      <c r="H208" s="77"/>
     </row>
     <row r="209" spans="7:8">
       <c r="G209" s="56"/>
-      <c r="H209" s="98"/>
+      <c r="H209" s="77"/>
     </row>
     <row r="210" spans="7:8">
       <c r="G210" s="56"/>
-      <c r="H210" s="98"/>
+      <c r="H210" s="77"/>
     </row>
     <row r="211" spans="7:8">
       <c r="G211" s="56"/>
-      <c r="H211" s="98"/>
+      <c r="H211" s="77"/>
     </row>
     <row r="212" spans="7:8">
       <c r="G212" s="56"/>
-      <c r="H212" s="98"/>
+      <c r="H212" s="77"/>
     </row>
     <row r="213" spans="7:8">
       <c r="G213" s="56"/>
-      <c r="H213" s="98"/>
+      <c r="H213" s="77"/>
     </row>
     <row r="214" spans="7:8">
       <c r="G214" s="56"/>
-      <c r="H214" s="98"/>
+      <c r="H214" s="77"/>
     </row>
     <row r="215" spans="7:8">
       <c r="G215" s="56"/>
-      <c r="H215" s="98"/>
+      <c r="H215" s="77"/>
     </row>
     <row r="216" spans="7:8">
       <c r="G216" s="56"/>
-      <c r="H216" s="98"/>
+      <c r="H216" s="77"/>
     </row>
     <row r="217" spans="7:8">
       <c r="G217" s="56"/>
-      <c r="H217" s="98"/>
+      <c r="H217" s="77"/>
     </row>
     <row r="218" spans="7:8">
       <c r="G218" s="56"/>
-      <c r="H218" s="98"/>
+      <c r="H218" s="77"/>
     </row>
     <row r="219" spans="7:8">
       <c r="G219" s="56"/>
-      <c r="H219" s="98"/>
+      <c r="H219" s="77"/>
     </row>
     <row r="220" spans="7:8">
       <c r="G220" s="56"/>
-      <c r="H220" s="98"/>
+      <c r="H220" s="77"/>
     </row>
     <row r="221" spans="7:8">
       <c r="G221" s="56"/>
-      <c r="H221" s="98"/>
+      <c r="H221" s="77"/>
     </row>
     <row r="222" spans="7:8">
       <c r="G222" s="56"/>
-      <c r="H222" s="98"/>
+      <c r="H222" s="77"/>
     </row>
     <row r="223" spans="7:8">
       <c r="G223" s="56"/>
-      <c r="H223" s="98"/>
+      <c r="H223" s="77"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="56"/>
-      <c r="H224" s="98"/>
+      <c r="H224" s="77"/>
     </row>
     <row r="225" spans="7:8">
       <c r="G225" s="56"/>
-      <c r="H225" s="98"/>
+      <c r="H225" s="77"/>
     </row>
     <row r="226" spans="7:8">
       <c r="G226" s="56"/>
-      <c r="H226" s="98"/>
+      <c r="H226" s="77"/>
     </row>
     <row r="227" spans="7:8">
       <c r="G227" s="56"/>
-      <c r="H227" s="98"/>
+      <c r="H227" s="77"/>
     </row>
     <row r="228" spans="7:8">
       <c r="G228" s="56"/>
-      <c r="H228" s="98"/>
+      <c r="H228" s="77"/>
     </row>
     <row r="229" spans="7:8">
       <c r="G229" s="56"/>
-      <c r="H229" s="98"/>
+      <c r="H229" s="77"/>
     </row>
     <row r="230" spans="7:8">
       <c r="G230" s="56"/>
-      <c r="H230" s="98"/>
+      <c r="H230" s="77"/>
+    </row>
+    <row r="231" spans="7:8">
+      <c r="G231" s="56"/>
+      <c r="H231" s="77"/>
+    </row>
+    <row r="232" spans="7:8">
+      <c r="G232" s="56"/>
+      <c r="H232" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="E3:F3"/>
@@ -2622,9 +2690,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="I2:P2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2657,26 +2722,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="35"/>
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="12" t="s">
         <v>27</v>
       </c>
@@ -2774,7 +2839,7 @@
       <c r="G6" s="28">
         <v>1820</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="103" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="24">
@@ -2804,7 +2869,7 @@
       <c r="G7" s="28">
         <v>1820</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="24">
         <v>45549</v>
       </c>
@@ -2831,7 +2896,7 @@
       <c r="G8" s="28">
         <v>1820</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="24">
         <v>45567</v>
       </c>
@@ -2858,7 +2923,7 @@
       <c r="G9" s="28">
         <v>1830</v>
       </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="24">
         <v>45568</v>
       </c>
@@ -2885,7 +2950,7 @@
       <c r="G10" s="28">
         <v>1830</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="24">
         <v>45569</v>
       </c>
@@ -2970,7 +3035,7 @@
       <c r="G13" s="28">
         <v>1840</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="104" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="24">
@@ -2999,7 +3064,7 @@
       <c r="G14" s="28">
         <v>1840</v>
       </c>
-      <c r="H14" s="83"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="24">
         <v>45598</v>
       </c>
@@ -3026,7 +3091,7 @@
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="24">
         <v>45598</v>
       </c>
@@ -3305,15 +3370,15 @@
       <c r="D3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="107">
         <v>520</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="107"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="89"/>
+      <c r="I3" s="107"/>
       <c r="J3" s="7" t="s">
         <v>55</v>
       </c>
@@ -3339,14 +3404,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="79"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="20" t="s">
         <v>62</v>
       </c>
@@ -3359,17 +3424,17 @@
       <c r="D5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="79"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12">
@@ -3377,24 +3442,24 @@
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="14" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="109" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3410,10 +3475,10 @@
         <v>72</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="12" t="s">
         <v>74</v>
       </c>
@@ -3423,7 +3488,7 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="86"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="11" t="s">
         <v>76</v>
       </c>
@@ -3452,16 +3517,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="111" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="14" t="s">
         <v>66</v>
       </c>
@@ -3483,17 +3548,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="87"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="77"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="19"/>
       <c r="H10" s="5" t="s">
         <v>71</v>
@@ -3501,10 +3566,10 @@
       <c r="I10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="77"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12">
@@ -3541,12 +3606,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:K5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -3555,6 +3614,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E205BF34-49F8-49A5-B4A8-DA0F0BAFAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7F083-FCE3-4AEE-9CCA-674E0F2DD843}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,23 +17,12 @@
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
   <si>
     <t>ChannelM</t>
   </si>
@@ -91,9 +80,6 @@
   </si>
   <si>
     <t>early Jan</t>
-  </si>
-  <si>
-    <t>^max for Jan trip</t>
   </si>
   <si>
     <t>^ max</t>
@@ -369,9 +355,6 @@
     <t>!RMB</t>
   </si>
   <si>
-    <t>!RMB means "No RMB involved"</t>
-  </si>
-  <si>
     <t>!withdraw means "No withdrawal"</t>
   </si>
   <si>
@@ -398,6 +381,16 @@
   </si>
   <si>
     <t xml:space="preserve"> -- kept in -&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>paper
+USD @DJDJ</t>
+  </si>
+  <si>
+    <t>!RMB means "No RMB converted"</t>
   </si>
 </sst>
 </file>
@@ -412,12 +405,19 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,6 +469,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -484,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -612,12 +619,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -630,11 +648,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -742,13 +760,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -791,7 +808,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -800,8 +817,35 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,10 +853,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,22 +874,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,37 +904,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1170,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R232"/>
+  <dimension ref="B1:S232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1185,68 +1230,74 @@
     <col min="5" max="5" width="7.5703125" style="40" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="41" customWidth="1"/>
     <col min="7" max="7" width="8" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="39" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:17">
       <c r="D1" s="42"/>
       <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="2:16">
+      <c r="H1" s="73"/>
+    </row>
+    <row r="2" spans="2:17">
       <c r="D2" s="42"/>
-      <c r="G2" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="100" t="s">
+      <c r="G2" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" customHeight="1">
+      <c r="C3" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="104"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="C3" s="91" t="s">
+      <c r="C4" s="62" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>100</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>6</v>
@@ -1257,31 +1308,32 @@
       <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="J4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="L4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="O4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="24">
         <v>45490</v>
       </c>
@@ -1298,22 +1350,25 @@
       <c r="G5" s="52">
         <v>0</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="43">
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="43">
         <f>F5</f>
         <v>10000</v>
       </c>
-      <c r="J5" s="24">
+      <c r="K5" s="24">
         <v>45509</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="24">
         <v>45511</v>
       </c>
@@ -1328,39 +1383,43 @@
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="44">
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="44">
         <f>E6</f>
         <v>10000</v>
       </c>
-      <c r="J6" s="24">
+      <c r="K6" s="24">
         <v>45511</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="43"/>
       <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="2:16" ht="5.25" customHeight="1">
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="2:17" ht="5.25" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="27"/>
       <c r="E7" s="45"/>
       <c r="F7" s="53"/>
       <c r="G7" s="59"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="12"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="43"/>
       <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="24">
         <v>45512</v>
       </c>
@@ -1372,33 +1431,36 @@
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="59">
-        <f>I8+K8</f>
+        <f>J8+L8</f>
         <v>10000</v>
       </c>
       <c r="G8" s="52">
         <v>0</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="44">
+      <c r="H8" s="52">
+        <v>0</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="44">
         <v>4000</v>
       </c>
-      <c r="J8" s="24">
+      <c r="K8" s="24">
         <v>45512</v>
       </c>
-      <c r="K8" s="43">
+      <c r="L8" s="43">
         <v>6000</v>
       </c>
-      <c r="L8" s="24">
+      <c r="M8" s="24">
         <v>45514</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1">
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="2:17" ht="15" customHeight="1">
       <c r="B9" s="24">
         <v>45575</v>
       </c>
@@ -1415,22 +1477,25 @@
       <c r="G9" s="52">
         <v>0</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="44">
+      <c r="H9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="44">
         <f>F9</f>
         <v>10000</v>
       </c>
-      <c r="J9" s="24">
+      <c r="K9" s="24">
         <v>45593</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="43"/>
       <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="2:16" ht="15" customHeight="1">
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="2:17" ht="15" customHeight="1">
       <c r="B10" s="24">
         <v>45593</v>
       </c>
@@ -1440,100 +1505,108 @@
       <c r="D10" s="27">
         <v>71433</v>
       </c>
-      <c r="E10" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="101"/>
+      <c r="E10" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="96"/>
       <c r="G10" s="52">
         <v>10000</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="12"/>
+      <c r="H10" s="52">
+        <v>0</v>
+      </c>
+      <c r="I10" s="72"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="43"/>
       <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="2:16" ht="4.5" customHeight="1">
-      <c r="B11" s="113"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="2:17" ht="4.5" customHeight="1">
+      <c r="B11" s="86"/>
       <c r="C11" s="12"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="12"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="43"/>
       <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="87">
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="97">
         <v>45594</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="70">
-        <f>I12+K12</f>
+        <v>101</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="69">
+        <f>J12+L12</f>
         <v>8000</v>
       </c>
-      <c r="G12" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="44">
+      <c r="G12" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="44">
         <v>6000</v>
       </c>
-      <c r="J12" s="24">
+      <c r="K12" s="24">
         <v>45594</v>
       </c>
-      <c r="K12" s="54">
+      <c r="L12" s="54">
         <v>2000</v>
       </c>
-      <c r="L12" s="24">
+      <c r="M12" s="24">
         <v>45598</v>
       </c>
-      <c r="M12" s="67" t="s">
+      <c r="N12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="43"/>
       <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="2:16" ht="15" customHeight="1">
-      <c r="B13" s="88"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="2:17" ht="15" customHeight="1">
+      <c r="B13" s="98"/>
       <c r="C13" s="46"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="81">
+      <c r="E13" s="77"/>
+      <c r="F13" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="80">
         <f>G10-F12</f>
         <v>2000</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="44" t="s">
+      <c r="H13" s="80">
+        <v>0</v>
+      </c>
+      <c r="I13" s="74"/>
+      <c r="J13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="12"/>
+      <c r="K13" s="51"/>
+      <c r="O13" s="43"/>
       <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="2:16" ht="15" customHeight="1">
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" customHeight="1">
       <c r="B14" s="24">
         <v>45595</v>
       </c>
@@ -1543,25 +1616,28 @@
       <c r="D14" s="27">
         <v>71397</v>
       </c>
-      <c r="E14" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="101"/>
+      <c r="E14" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="96"/>
       <c r="G14" s="59">
         <f>G13+10000</f>
         <v>12000</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="12"/>
+      <c r="H14" s="59">
+        <v>0</v>
+      </c>
+      <c r="I14" s="74"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="43"/>
       <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="2:16" ht="30">
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="2:17" ht="30">
       <c r="B15" s="24">
         <v>45593</v>
       </c>
@@ -1569,216 +1645,235 @@
         <v>17</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="44">
         <v>3400</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="54">
+      <c r="F15" s="81"/>
+      <c r="G15" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="82">
+        <v>0</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="54">
         <f>E15</f>
         <v>3400</v>
       </c>
-      <c r="L15" s="24">
+      <c r="M15" s="24">
         <v>45598</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="43"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="43"/>
       <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="2:16" ht="5.25" customHeight="1">
-      <c r="B16" s="113"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="2:17" ht="5.25" customHeight="1">
+      <c r="B16" s="86"/>
       <c r="C16" s="47"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="12"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="43"/>
       <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="89">
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="99">
         <v>45632</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="84">
+        <v>101</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="83">
         <v>10000</v>
       </c>
-      <c r="G17" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="44">
+      <c r="G17" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="123"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="44">
         <v>10000</v>
       </c>
-      <c r="J17" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="93">
+        <v>45659</v>
+      </c>
+      <c r="L17" s="50"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="43"/>
       <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="90"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="100"/>
       <c r="C18" s="12"/>
       <c r="D18" s="65"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="71">
+      <c r="E18" s="68"/>
+      <c r="F18" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="70">
         <f>G14-F17</f>
         <v>2000</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="12"/>
+      <c r="H18" s="70">
+        <v>0</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="43"/>
       <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="12" t="s">
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="92">
+        <v>45659</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="65">
+        <v>73183</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="91">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="85">
+        <v>0</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="44">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="44">
-        <v>10000</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="44">
-        <v>10000</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="43"/>
       <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="48">
-        <f>G18+10001</f>
-        <v>12001</v>
-      </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="E20" s="44">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="85">
+        <v>0</v>
+      </c>
+      <c r="I20" s="75"/>
+      <c r="J20" s="44">
+        <f>E20-L20</f>
+        <v>4000</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="54">
+        <v>6000</v>
+      </c>
+      <c r="M20" s="24">
+        <v>45666</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="43"/>
       <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="44">
-        <f>K21</f>
-        <v>6000</v>
-      </c>
-      <c r="G21" s="66">
-        <f>G20-F21</f>
-        <v>6001</v>
-      </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="54">
-        <v>6000</v>
-      </c>
-      <c r="L21" s="24">
-        <v>45666</v>
+        <v>10000</v>
+      </c>
+      <c r="G21" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="66">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="55" t="s">
+        <v>19</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="43"/>
       <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="27"/>
       <c r="E22" s="48"/>
       <c r="F22" s="44"/>
       <c r="G22" s="48"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="12"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="43"/>
       <c r="P22" s="12"/>
-      <c r="R22" s="57"/>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="Q22" s="12"/>
+      <c r="S22" s="57"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
         <v>12</v>
@@ -1787,909 +1882,1119 @@
       <c r="E23" s="45"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="43">
+      <c r="H23" s="48"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="43">
         <v>28000</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="P23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="27"/>
       <c r="E24" s="45"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="12"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="27"/>
       <c r="E25" s="45"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="12"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="43"/>
       <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="2:19">
       <c r="G26" s="56"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="2:18" ht="17.25">
+      <c r="H26" s="124"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="2:19" ht="17.25">
       <c r="B27" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="56"/>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="64" t="s">
-        <v>103</v>
+      <c r="H27" s="124"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="128" t="s">
+        <v>113</v>
       </c>
       <c r="G28" s="56"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="H28" s="124"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G29" s="56"/>
-      <c r="H29" s="77"/>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="H29" s="124"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="2:19">
       <c r="G30" s="56"/>
-      <c r="H30" s="77"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="H30" s="124"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="G31" s="56"/>
-      <c r="H31" s="77"/>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="H31" s="124"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="2:19">
       <c r="G32" s="56"/>
-      <c r="H32" s="77"/>
-    </row>
-    <row r="33" spans="7:8">
+      <c r="H32" s="124"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="7:9">
       <c r="G33" s="56"/>
-      <c r="H33" s="77"/>
-    </row>
-    <row r="34" spans="7:8">
+      <c r="H33" s="124"/>
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="7:9">
       <c r="G34" s="56"/>
-      <c r="H34" s="77"/>
-    </row>
-    <row r="35" spans="7:8">
+      <c r="H34" s="124"/>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" spans="7:9">
       <c r="G35" s="56"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="7:8">
+      <c r="H35" s="124"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="7:9">
       <c r="G36" s="56"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="7:8">
+      <c r="H36" s="124"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="7:9">
       <c r="G37" s="56"/>
-      <c r="H37" s="77"/>
-    </row>
-    <row r="38" spans="7:8">
+      <c r="H37" s="124"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="7:9">
       <c r="G38" s="56"/>
-      <c r="H38" s="77"/>
-    </row>
-    <row r="39" spans="7:8">
+      <c r="H38" s="124"/>
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="7:9">
       <c r="G39" s="56"/>
-      <c r="H39" s="77"/>
-    </row>
-    <row r="40" spans="7:8">
+      <c r="H39" s="124"/>
+      <c r="I39" s="76"/>
+    </row>
+    <row r="40" spans="7:9">
       <c r="G40" s="56"/>
-      <c r="H40" s="77"/>
-    </row>
-    <row r="41" spans="7:8">
+      <c r="H40" s="124"/>
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="7:9">
       <c r="G41" s="56"/>
-      <c r="H41" s="77"/>
-    </row>
-    <row r="42" spans="7:8">
+      <c r="H41" s="124"/>
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="7:9">
       <c r="G42" s="56"/>
-      <c r="H42" s="77"/>
-    </row>
-    <row r="43" spans="7:8">
+      <c r="H42" s="124"/>
+      <c r="I42" s="76"/>
+    </row>
+    <row r="43" spans="7:9">
       <c r="G43" s="56"/>
-      <c r="H43" s="77"/>
-    </row>
-    <row r="44" spans="7:8">
+      <c r="H43" s="124"/>
+      <c r="I43" s="76"/>
+    </row>
+    <row r="44" spans="7:9">
       <c r="G44" s="56"/>
-      <c r="H44" s="77"/>
-    </row>
-    <row r="45" spans="7:8">
+      <c r="H44" s="124"/>
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="7:9">
       <c r="G45" s="56"/>
-      <c r="H45" s="77"/>
-    </row>
-    <row r="46" spans="7:8">
+      <c r="H45" s="124"/>
+      <c r="I45" s="76"/>
+    </row>
+    <row r="46" spans="7:9">
       <c r="G46" s="56"/>
-      <c r="H46" s="77"/>
-    </row>
-    <row r="47" spans="7:8">
+      <c r="H46" s="124"/>
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="7:9">
       <c r="G47" s="56"/>
-      <c r="H47" s="77"/>
-    </row>
-    <row r="48" spans="7:8">
+      <c r="H47" s="124"/>
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="7:9">
       <c r="G48" s="56"/>
-      <c r="H48" s="77"/>
-    </row>
-    <row r="49" spans="7:8">
+      <c r="H48" s="124"/>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="7:9">
       <c r="G49" s="56"/>
-      <c r="H49" s="77"/>
-    </row>
-    <row r="50" spans="7:8">
+      <c r="H49" s="124"/>
+      <c r="I49" s="76"/>
+    </row>
+    <row r="50" spans="7:9">
       <c r="G50" s="56"/>
-      <c r="H50" s="77"/>
-    </row>
-    <row r="51" spans="7:8">
+      <c r="H50" s="124"/>
+      <c r="I50" s="76"/>
+    </row>
+    <row r="51" spans="7:9">
       <c r="G51" s="56"/>
-      <c r="H51" s="77"/>
-    </row>
-    <row r="52" spans="7:8">
+      <c r="H51" s="124"/>
+      <c r="I51" s="76"/>
+    </row>
+    <row r="52" spans="7:9">
       <c r="G52" s="56"/>
-      <c r="H52" s="77"/>
-    </row>
-    <row r="53" spans="7:8">
+      <c r="H52" s="124"/>
+      <c r="I52" s="76"/>
+    </row>
+    <row r="53" spans="7:9">
       <c r="G53" s="56"/>
-      <c r="H53" s="77"/>
-    </row>
-    <row r="54" spans="7:8">
+      <c r="H53" s="124"/>
+      <c r="I53" s="76"/>
+    </row>
+    <row r="54" spans="7:9">
       <c r="G54" s="56"/>
-      <c r="H54" s="77"/>
-    </row>
-    <row r="55" spans="7:8">
+      <c r="H54" s="124"/>
+      <c r="I54" s="76"/>
+    </row>
+    <row r="55" spans="7:9">
       <c r="G55" s="56"/>
-      <c r="H55" s="77"/>
-    </row>
-    <row r="56" spans="7:8">
+      <c r="H55" s="124"/>
+      <c r="I55" s="76"/>
+    </row>
+    <row r="56" spans="7:9">
       <c r="G56" s="56"/>
-      <c r="H56" s="77"/>
-    </row>
-    <row r="57" spans="7:8">
+      <c r="H56" s="124"/>
+      <c r="I56" s="76"/>
+    </row>
+    <row r="57" spans="7:9">
       <c r="G57" s="56"/>
-      <c r="H57" s="77"/>
-    </row>
-    <row r="58" spans="7:8">
+      <c r="H57" s="124"/>
+      <c r="I57" s="76"/>
+    </row>
+    <row r="58" spans="7:9">
       <c r="G58" s="56"/>
-      <c r="H58" s="77"/>
-    </row>
-    <row r="59" spans="7:8">
+      <c r="H58" s="124"/>
+      <c r="I58" s="76"/>
+    </row>
+    <row r="59" spans="7:9">
       <c r="G59" s="56"/>
-      <c r="H59" s="77"/>
-    </row>
-    <row r="60" spans="7:8">
+      <c r="H59" s="124"/>
+      <c r="I59" s="76"/>
+    </row>
+    <row r="60" spans="7:9">
       <c r="G60" s="56"/>
-      <c r="H60" s="77"/>
-    </row>
-    <row r="61" spans="7:8">
+      <c r="H60" s="124"/>
+      <c r="I60" s="76"/>
+    </row>
+    <row r="61" spans="7:9">
       <c r="G61" s="56"/>
-      <c r="H61" s="77"/>
-    </row>
-    <row r="62" spans="7:8">
+      <c r="H61" s="124"/>
+      <c r="I61" s="76"/>
+    </row>
+    <row r="62" spans="7:9">
       <c r="G62" s="56"/>
-      <c r="H62" s="77"/>
-    </row>
-    <row r="63" spans="7:8">
+      <c r="H62" s="124"/>
+      <c r="I62" s="76"/>
+    </row>
+    <row r="63" spans="7:9">
       <c r="G63" s="56"/>
-      <c r="H63" s="77"/>
-    </row>
-    <row r="64" spans="7:8">
+      <c r="H63" s="124"/>
+      <c r="I63" s="76"/>
+    </row>
+    <row r="64" spans="7:9">
       <c r="G64" s="56"/>
-      <c r="H64" s="77"/>
-    </row>
-    <row r="65" spans="7:8">
+      <c r="H64" s="124"/>
+      <c r="I64" s="76"/>
+    </row>
+    <row r="65" spans="7:9">
       <c r="G65" s="56"/>
-      <c r="H65" s="77"/>
-    </row>
-    <row r="66" spans="7:8">
+      <c r="H65" s="124"/>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="7:9">
       <c r="G66" s="56"/>
-      <c r="H66" s="77"/>
-    </row>
-    <row r="67" spans="7:8">
+      <c r="H66" s="124"/>
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="7:9">
       <c r="G67" s="56"/>
-      <c r="H67" s="77"/>
-    </row>
-    <row r="68" spans="7:8">
+      <c r="H67" s="124"/>
+      <c r="I67" s="76"/>
+    </row>
+    <row r="68" spans="7:9">
       <c r="G68" s="56"/>
-      <c r="H68" s="77"/>
-    </row>
-    <row r="69" spans="7:8">
+      <c r="H68" s="124"/>
+      <c r="I68" s="76"/>
+    </row>
+    <row r="69" spans="7:9">
       <c r="G69" s="56"/>
-      <c r="H69" s="77"/>
-    </row>
-    <row r="70" spans="7:8">
+      <c r="H69" s="124"/>
+      <c r="I69" s="76"/>
+    </row>
+    <row r="70" spans="7:9">
       <c r="G70" s="56"/>
-      <c r="H70" s="77"/>
-    </row>
-    <row r="71" spans="7:8">
+      <c r="H70" s="124"/>
+      <c r="I70" s="76"/>
+    </row>
+    <row r="71" spans="7:9">
       <c r="G71" s="56"/>
-      <c r="H71" s="77"/>
-    </row>
-    <row r="72" spans="7:8">
+      <c r="H71" s="124"/>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="7:9">
       <c r="G72" s="56"/>
-      <c r="H72" s="77"/>
-    </row>
-    <row r="73" spans="7:8">
+      <c r="H72" s="124"/>
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="7:9">
       <c r="G73" s="56"/>
-      <c r="H73" s="77"/>
-    </row>
-    <row r="74" spans="7:8">
+      <c r="H73" s="124"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="7:9">
       <c r="G74" s="56"/>
-      <c r="H74" s="77"/>
-    </row>
-    <row r="75" spans="7:8">
+      <c r="H74" s="124"/>
+      <c r="I74" s="76"/>
+    </row>
+    <row r="75" spans="7:9">
       <c r="G75" s="56"/>
-      <c r="H75" s="77"/>
-    </row>
-    <row r="76" spans="7:8">
+      <c r="H75" s="124"/>
+      <c r="I75" s="76"/>
+    </row>
+    <row r="76" spans="7:9">
       <c r="G76" s="56"/>
-      <c r="H76" s="77"/>
-    </row>
-    <row r="77" spans="7:8">
+      <c r="H76" s="124"/>
+      <c r="I76" s="76"/>
+    </row>
+    <row r="77" spans="7:9">
       <c r="G77" s="56"/>
-      <c r="H77" s="77"/>
-    </row>
-    <row r="78" spans="7:8">
+      <c r="H77" s="124"/>
+      <c r="I77" s="76"/>
+    </row>
+    <row r="78" spans="7:9">
       <c r="G78" s="56"/>
-      <c r="H78" s="77"/>
-    </row>
-    <row r="79" spans="7:8">
+      <c r="H78" s="124"/>
+      <c r="I78" s="76"/>
+    </row>
+    <row r="79" spans="7:9">
       <c r="G79" s="56"/>
-      <c r="H79" s="77"/>
-    </row>
-    <row r="80" spans="7:8">
+      <c r="H79" s="124"/>
+      <c r="I79" s="76"/>
+    </row>
+    <row r="80" spans="7:9">
       <c r="G80" s="56"/>
-      <c r="H80" s="77"/>
-    </row>
-    <row r="81" spans="7:8">
+      <c r="H80" s="124"/>
+      <c r="I80" s="76"/>
+    </row>
+    <row r="81" spans="7:9">
       <c r="G81" s="56"/>
-      <c r="H81" s="77"/>
-    </row>
-    <row r="82" spans="7:8">
+      <c r="H81" s="124"/>
+      <c r="I81" s="76"/>
+    </row>
+    <row r="82" spans="7:9">
       <c r="G82" s="56"/>
-      <c r="H82" s="77"/>
-    </row>
-    <row r="83" spans="7:8">
+      <c r="H82" s="124"/>
+      <c r="I82" s="76"/>
+    </row>
+    <row r="83" spans="7:9">
       <c r="G83" s="56"/>
-      <c r="H83" s="77"/>
-    </row>
-    <row r="84" spans="7:8">
+      <c r="H83" s="124"/>
+      <c r="I83" s="76"/>
+    </row>
+    <row r="84" spans="7:9">
       <c r="G84" s="56"/>
-      <c r="H84" s="77"/>
-    </row>
-    <row r="85" spans="7:8">
+      <c r="H84" s="124"/>
+      <c r="I84" s="76"/>
+    </row>
+    <row r="85" spans="7:9">
       <c r="G85" s="56"/>
-      <c r="H85" s="77"/>
-    </row>
-    <row r="86" spans="7:8">
+      <c r="H85" s="124"/>
+      <c r="I85" s="76"/>
+    </row>
+    <row r="86" spans="7:9">
       <c r="G86" s="56"/>
-      <c r="H86" s="77"/>
-    </row>
-    <row r="87" spans="7:8">
+      <c r="H86" s="124"/>
+      <c r="I86" s="76"/>
+    </row>
+    <row r="87" spans="7:9">
       <c r="G87" s="56"/>
-      <c r="H87" s="77"/>
-    </row>
-    <row r="88" spans="7:8">
+      <c r="H87" s="124"/>
+      <c r="I87" s="76"/>
+    </row>
+    <row r="88" spans="7:9">
       <c r="G88" s="56"/>
-      <c r="H88" s="77"/>
-    </row>
-    <row r="89" spans="7:8">
+      <c r="H88" s="124"/>
+      <c r="I88" s="76"/>
+    </row>
+    <row r="89" spans="7:9">
       <c r="G89" s="56"/>
-      <c r="H89" s="77"/>
-    </row>
-    <row r="90" spans="7:8">
+      <c r="H89" s="124"/>
+      <c r="I89" s="76"/>
+    </row>
+    <row r="90" spans="7:9">
       <c r="G90" s="56"/>
-      <c r="H90" s="77"/>
-    </row>
-    <row r="91" spans="7:8">
+      <c r="H90" s="124"/>
+      <c r="I90" s="76"/>
+    </row>
+    <row r="91" spans="7:9">
       <c r="G91" s="56"/>
-      <c r="H91" s="77"/>
-    </row>
-    <row r="92" spans="7:8">
+      <c r="H91" s="124"/>
+      <c r="I91" s="76"/>
+    </row>
+    <row r="92" spans="7:9">
       <c r="G92" s="56"/>
-      <c r="H92" s="77"/>
-    </row>
-    <row r="93" spans="7:8">
+      <c r="H92" s="124"/>
+      <c r="I92" s="76"/>
+    </row>
+    <row r="93" spans="7:9">
       <c r="G93" s="56"/>
-      <c r="H93" s="77"/>
-    </row>
-    <row r="94" spans="7:8">
+      <c r="H93" s="124"/>
+      <c r="I93" s="76"/>
+    </row>
+    <row r="94" spans="7:9">
       <c r="G94" s="56"/>
-      <c r="H94" s="77"/>
-    </row>
-    <row r="95" spans="7:8">
+      <c r="H94" s="124"/>
+      <c r="I94" s="76"/>
+    </row>
+    <row r="95" spans="7:9">
       <c r="G95" s="56"/>
-      <c r="H95" s="77"/>
-    </row>
-    <row r="96" spans="7:8">
+      <c r="H95" s="124"/>
+      <c r="I95" s="76"/>
+    </row>
+    <row r="96" spans="7:9">
       <c r="G96" s="56"/>
-      <c r="H96" s="77"/>
-    </row>
-    <row r="97" spans="7:8">
+      <c r="H96" s="124"/>
+      <c r="I96" s="76"/>
+    </row>
+    <row r="97" spans="7:9">
       <c r="G97" s="56"/>
-      <c r="H97" s="77"/>
-    </row>
-    <row r="98" spans="7:8">
+      <c r="H97" s="124"/>
+      <c r="I97" s="76"/>
+    </row>
+    <row r="98" spans="7:9">
       <c r="G98" s="56"/>
-      <c r="H98" s="77"/>
-    </row>
-    <row r="99" spans="7:8">
+      <c r="H98" s="124"/>
+      <c r="I98" s="76"/>
+    </row>
+    <row r="99" spans="7:9">
       <c r="G99" s="56"/>
-      <c r="H99" s="77"/>
-    </row>
-    <row r="100" spans="7:8">
+      <c r="H99" s="124"/>
+      <c r="I99" s="76"/>
+    </row>
+    <row r="100" spans="7:9">
       <c r="G100" s="56"/>
-      <c r="H100" s="77"/>
-    </row>
-    <row r="101" spans="7:8">
+      <c r="H100" s="124"/>
+      <c r="I100" s="76"/>
+    </row>
+    <row r="101" spans="7:9">
       <c r="G101" s="56"/>
-      <c r="H101" s="77"/>
-    </row>
-    <row r="102" spans="7:8">
+      <c r="H101" s="124"/>
+      <c r="I101" s="76"/>
+    </row>
+    <row r="102" spans="7:9">
       <c r="G102" s="56"/>
-      <c r="H102" s="77"/>
-    </row>
-    <row r="103" spans="7:8">
+      <c r="H102" s="124"/>
+      <c r="I102" s="76"/>
+    </row>
+    <row r="103" spans="7:9">
       <c r="G103" s="56"/>
-      <c r="H103" s="77"/>
-    </row>
-    <row r="104" spans="7:8">
+      <c r="H103" s="124"/>
+      <c r="I103" s="76"/>
+    </row>
+    <row r="104" spans="7:9">
       <c r="G104" s="56"/>
-      <c r="H104" s="77"/>
-    </row>
-    <row r="105" spans="7:8">
+      <c r="H104" s="124"/>
+      <c r="I104" s="76"/>
+    </row>
+    <row r="105" spans="7:9">
       <c r="G105" s="56"/>
-      <c r="H105" s="77"/>
-    </row>
-    <row r="106" spans="7:8">
+      <c r="H105" s="124"/>
+      <c r="I105" s="76"/>
+    </row>
+    <row r="106" spans="7:9">
       <c r="G106" s="56"/>
-      <c r="H106" s="77"/>
-    </row>
-    <row r="107" spans="7:8">
+      <c r="H106" s="124"/>
+      <c r="I106" s="76"/>
+    </row>
+    <row r="107" spans="7:9">
       <c r="G107" s="56"/>
-      <c r="H107" s="77"/>
-    </row>
-    <row r="108" spans="7:8">
+      <c r="H107" s="124"/>
+      <c r="I107" s="76"/>
+    </row>
+    <row r="108" spans="7:9">
       <c r="G108" s="56"/>
-      <c r="H108" s="77"/>
-    </row>
-    <row r="109" spans="7:8">
+      <c r="H108" s="124"/>
+      <c r="I108" s="76"/>
+    </row>
+    <row r="109" spans="7:9">
       <c r="G109" s="56"/>
-      <c r="H109" s="77"/>
-    </row>
-    <row r="110" spans="7:8">
+      <c r="H109" s="124"/>
+      <c r="I109" s="76"/>
+    </row>
+    <row r="110" spans="7:9">
       <c r="G110" s="56"/>
-      <c r="H110" s="77"/>
-    </row>
-    <row r="111" spans="7:8">
+      <c r="H110" s="124"/>
+      <c r="I110" s="76"/>
+    </row>
+    <row r="111" spans="7:9">
       <c r="G111" s="56"/>
-      <c r="H111" s="77"/>
-    </row>
-    <row r="112" spans="7:8">
+      <c r="H111" s="124"/>
+      <c r="I111" s="76"/>
+    </row>
+    <row r="112" spans="7:9">
       <c r="G112" s="56"/>
-      <c r="H112" s="77"/>
-    </row>
-    <row r="113" spans="7:8">
+      <c r="H112" s="124"/>
+      <c r="I112" s="76"/>
+    </row>
+    <row r="113" spans="7:9">
       <c r="G113" s="56"/>
-      <c r="H113" s="77"/>
-    </row>
-    <row r="114" spans="7:8">
+      <c r="H113" s="124"/>
+      <c r="I113" s="76"/>
+    </row>
+    <row r="114" spans="7:9">
       <c r="G114" s="56"/>
-      <c r="H114" s="77"/>
-    </row>
-    <row r="115" spans="7:8">
+      <c r="H114" s="124"/>
+      <c r="I114" s="76"/>
+    </row>
+    <row r="115" spans="7:9">
       <c r="G115" s="56"/>
-      <c r="H115" s="77"/>
-    </row>
-    <row r="116" spans="7:8">
+      <c r="H115" s="124"/>
+      <c r="I115" s="76"/>
+    </row>
+    <row r="116" spans="7:9">
       <c r="G116" s="56"/>
-      <c r="H116" s="77"/>
-    </row>
-    <row r="117" spans="7:8">
+      <c r="H116" s="124"/>
+      <c r="I116" s="76"/>
+    </row>
+    <row r="117" spans="7:9">
       <c r="G117" s="56"/>
-      <c r="H117" s="77"/>
-    </row>
-    <row r="118" spans="7:8">
+      <c r="H117" s="124"/>
+      <c r="I117" s="76"/>
+    </row>
+    <row r="118" spans="7:9">
       <c r="G118" s="56"/>
-      <c r="H118" s="77"/>
-    </row>
-    <row r="119" spans="7:8">
+      <c r="H118" s="124"/>
+      <c r="I118" s="76"/>
+    </row>
+    <row r="119" spans="7:9">
       <c r="G119" s="56"/>
-      <c r="H119" s="77"/>
-    </row>
-    <row r="120" spans="7:8">
+      <c r="H119" s="124"/>
+      <c r="I119" s="76"/>
+    </row>
+    <row r="120" spans="7:9">
       <c r="G120" s="56"/>
-      <c r="H120" s="77"/>
-    </row>
-    <row r="121" spans="7:8">
+      <c r="H120" s="124"/>
+      <c r="I120" s="76"/>
+    </row>
+    <row r="121" spans="7:9">
       <c r="G121" s="56"/>
-      <c r="H121" s="77"/>
-    </row>
-    <row r="122" spans="7:8">
+      <c r="H121" s="124"/>
+      <c r="I121" s="76"/>
+    </row>
+    <row r="122" spans="7:9">
       <c r="G122" s="56"/>
-      <c r="H122" s="77"/>
-    </row>
-    <row r="123" spans="7:8">
+      <c r="H122" s="124"/>
+      <c r="I122" s="76"/>
+    </row>
+    <row r="123" spans="7:9">
       <c r="G123" s="56"/>
-      <c r="H123" s="77"/>
-    </row>
-    <row r="124" spans="7:8">
+      <c r="H123" s="124"/>
+      <c r="I123" s="76"/>
+    </row>
+    <row r="124" spans="7:9">
       <c r="G124" s="56"/>
-      <c r="H124" s="77"/>
-    </row>
-    <row r="125" spans="7:8">
+      <c r="H124" s="124"/>
+      <c r="I124" s="76"/>
+    </row>
+    <row r="125" spans="7:9">
       <c r="G125" s="56"/>
-      <c r="H125" s="77"/>
-    </row>
-    <row r="126" spans="7:8">
+      <c r="H125" s="124"/>
+      <c r="I125" s="76"/>
+    </row>
+    <row r="126" spans="7:9">
       <c r="G126" s="56"/>
-      <c r="H126" s="77"/>
-    </row>
-    <row r="127" spans="7:8">
+      <c r="H126" s="124"/>
+      <c r="I126" s="76"/>
+    </row>
+    <row r="127" spans="7:9">
       <c r="G127" s="56"/>
-      <c r="H127" s="77"/>
-    </row>
-    <row r="128" spans="7:8">
+      <c r="H127" s="124"/>
+      <c r="I127" s="76"/>
+    </row>
+    <row r="128" spans="7:9">
       <c r="G128" s="56"/>
-      <c r="H128" s="77"/>
-    </row>
-    <row r="129" spans="7:8">
+      <c r="H128" s="124"/>
+      <c r="I128" s="76"/>
+    </row>
+    <row r="129" spans="7:9">
       <c r="G129" s="56"/>
-      <c r="H129" s="77"/>
-    </row>
-    <row r="130" spans="7:8">
+      <c r="H129" s="124"/>
+      <c r="I129" s="76"/>
+    </row>
+    <row r="130" spans="7:9">
       <c r="G130" s="56"/>
-      <c r="H130" s="77"/>
-    </row>
-    <row r="131" spans="7:8">
+      <c r="H130" s="124"/>
+      <c r="I130" s="76"/>
+    </row>
+    <row r="131" spans="7:9">
       <c r="G131" s="56"/>
-      <c r="H131" s="77"/>
-    </row>
-    <row r="132" spans="7:8">
+      <c r="H131" s="124"/>
+      <c r="I131" s="76"/>
+    </row>
+    <row r="132" spans="7:9">
       <c r="G132" s="56"/>
-      <c r="H132" s="77"/>
-    </row>
-    <row r="133" spans="7:8">
+      <c r="H132" s="124"/>
+      <c r="I132" s="76"/>
+    </row>
+    <row r="133" spans="7:9">
       <c r="G133" s="56"/>
-      <c r="H133" s="77"/>
-    </row>
-    <row r="134" spans="7:8">
+      <c r="H133" s="124"/>
+      <c r="I133" s="76"/>
+    </row>
+    <row r="134" spans="7:9">
       <c r="G134" s="56"/>
-      <c r="H134" s="77"/>
-    </row>
-    <row r="135" spans="7:8">
+      <c r="H134" s="124"/>
+      <c r="I134" s="76"/>
+    </row>
+    <row r="135" spans="7:9">
       <c r="G135" s="56"/>
-      <c r="H135" s="77"/>
-    </row>
-    <row r="136" spans="7:8">
+      <c r="H135" s="124"/>
+      <c r="I135" s="76"/>
+    </row>
+    <row r="136" spans="7:9">
       <c r="G136" s="56"/>
-      <c r="H136" s="77"/>
-    </row>
-    <row r="137" spans="7:8">
+      <c r="H136" s="124"/>
+      <c r="I136" s="76"/>
+    </row>
+    <row r="137" spans="7:9">
       <c r="G137" s="56"/>
-      <c r="H137" s="77"/>
-    </row>
-    <row r="138" spans="7:8">
+      <c r="H137" s="124"/>
+      <c r="I137" s="76"/>
+    </row>
+    <row r="138" spans="7:9">
       <c r="G138" s="56"/>
-      <c r="H138" s="77"/>
-    </row>
-    <row r="139" spans="7:8">
+      <c r="H138" s="124"/>
+      <c r="I138" s="76"/>
+    </row>
+    <row r="139" spans="7:9">
       <c r="G139" s="56"/>
-      <c r="H139" s="77"/>
-    </row>
-    <row r="140" spans="7:8">
+      <c r="H139" s="124"/>
+      <c r="I139" s="76"/>
+    </row>
+    <row r="140" spans="7:9">
       <c r="G140" s="56"/>
-      <c r="H140" s="77"/>
-    </row>
-    <row r="141" spans="7:8">
+      <c r="H140" s="124"/>
+      <c r="I140" s="76"/>
+    </row>
+    <row r="141" spans="7:9">
       <c r="G141" s="56"/>
-      <c r="H141" s="77"/>
-    </row>
-    <row r="142" spans="7:8">
+      <c r="H141" s="124"/>
+      <c r="I141" s="76"/>
+    </row>
+    <row r="142" spans="7:9">
       <c r="G142" s="56"/>
-      <c r="H142" s="77"/>
-    </row>
-    <row r="143" spans="7:8">
+      <c r="H142" s="124"/>
+      <c r="I142" s="76"/>
+    </row>
+    <row r="143" spans="7:9">
       <c r="G143" s="56"/>
-      <c r="H143" s="77"/>
-    </row>
-    <row r="144" spans="7:8">
+      <c r="H143" s="124"/>
+      <c r="I143" s="76"/>
+    </row>
+    <row r="144" spans="7:9">
       <c r="G144" s="56"/>
-      <c r="H144" s="77"/>
-    </row>
-    <row r="145" spans="7:8">
+      <c r="H144" s="124"/>
+      <c r="I144" s="76"/>
+    </row>
+    <row r="145" spans="7:9">
       <c r="G145" s="56"/>
-      <c r="H145" s="77"/>
-    </row>
-    <row r="146" spans="7:8">
+      <c r="H145" s="124"/>
+      <c r="I145" s="76"/>
+    </row>
+    <row r="146" spans="7:9">
       <c r="G146" s="56"/>
-      <c r="H146" s="77"/>
-    </row>
-    <row r="147" spans="7:8">
+      <c r="H146" s="124"/>
+      <c r="I146" s="76"/>
+    </row>
+    <row r="147" spans="7:9">
       <c r="G147" s="56"/>
-      <c r="H147" s="77"/>
-    </row>
-    <row r="148" spans="7:8">
+      <c r="H147" s="124"/>
+      <c r="I147" s="76"/>
+    </row>
+    <row r="148" spans="7:9">
       <c r="G148" s="56"/>
-      <c r="H148" s="77"/>
-    </row>
-    <row r="149" spans="7:8">
+      <c r="H148" s="124"/>
+      <c r="I148" s="76"/>
+    </row>
+    <row r="149" spans="7:9">
       <c r="G149" s="56"/>
-      <c r="H149" s="77"/>
-    </row>
-    <row r="150" spans="7:8">
+      <c r="H149" s="124"/>
+      <c r="I149" s="76"/>
+    </row>
+    <row r="150" spans="7:9">
       <c r="G150" s="56"/>
-      <c r="H150" s="77"/>
-    </row>
-    <row r="151" spans="7:8">
+      <c r="H150" s="124"/>
+      <c r="I150" s="76"/>
+    </row>
+    <row r="151" spans="7:9">
       <c r="G151" s="56"/>
-      <c r="H151" s="77"/>
-    </row>
-    <row r="152" spans="7:8">
+      <c r="H151" s="124"/>
+      <c r="I151" s="76"/>
+    </row>
+    <row r="152" spans="7:9">
       <c r="G152" s="56"/>
-      <c r="H152" s="77"/>
-    </row>
-    <row r="153" spans="7:8">
+      <c r="H152" s="124"/>
+      <c r="I152" s="76"/>
+    </row>
+    <row r="153" spans="7:9">
       <c r="G153" s="56"/>
-      <c r="H153" s="77"/>
-    </row>
-    <row r="154" spans="7:8">
+      <c r="H153" s="124"/>
+      <c r="I153" s="76"/>
+    </row>
+    <row r="154" spans="7:9">
       <c r="G154" s="56"/>
-      <c r="H154" s="77"/>
-    </row>
-    <row r="155" spans="7:8">
+      <c r="H154" s="124"/>
+      <c r="I154" s="76"/>
+    </row>
+    <row r="155" spans="7:9">
       <c r="G155" s="56"/>
-      <c r="H155" s="77"/>
-    </row>
-    <row r="156" spans="7:8">
+      <c r="H155" s="124"/>
+      <c r="I155" s="76"/>
+    </row>
+    <row r="156" spans="7:9">
       <c r="G156" s="56"/>
-      <c r="H156" s="77"/>
-    </row>
-    <row r="157" spans="7:8">
+      <c r="H156" s="124"/>
+      <c r="I156" s="76"/>
+    </row>
+    <row r="157" spans="7:9">
       <c r="G157" s="56"/>
-      <c r="H157" s="77"/>
-    </row>
-    <row r="158" spans="7:8">
+      <c r="H157" s="124"/>
+      <c r="I157" s="76"/>
+    </row>
+    <row r="158" spans="7:9">
       <c r="G158" s="56"/>
-      <c r="H158" s="77"/>
-    </row>
-    <row r="159" spans="7:8">
+      <c r="H158" s="124"/>
+      <c r="I158" s="76"/>
+    </row>
+    <row r="159" spans="7:9">
       <c r="G159" s="56"/>
-      <c r="H159" s="77"/>
-    </row>
-    <row r="160" spans="7:8">
+      <c r="H159" s="124"/>
+      <c r="I159" s="76"/>
+    </row>
+    <row r="160" spans="7:9">
       <c r="G160" s="56"/>
-      <c r="H160" s="77"/>
-    </row>
-    <row r="161" spans="7:8">
+      <c r="H160" s="124"/>
+      <c r="I160" s="76"/>
+    </row>
+    <row r="161" spans="7:9">
       <c r="G161" s="56"/>
-      <c r="H161" s="77"/>
-    </row>
-    <row r="162" spans="7:8">
+      <c r="H161" s="124"/>
+      <c r="I161" s="76"/>
+    </row>
+    <row r="162" spans="7:9">
       <c r="G162" s="56"/>
-      <c r="H162" s="77"/>
-    </row>
-    <row r="163" spans="7:8">
+      <c r="H162" s="124"/>
+      <c r="I162" s="76"/>
+    </row>
+    <row r="163" spans="7:9">
       <c r="G163" s="56"/>
-      <c r="H163" s="77"/>
-    </row>
-    <row r="164" spans="7:8">
+      <c r="H163" s="124"/>
+      <c r="I163" s="76"/>
+    </row>
+    <row r="164" spans="7:9">
       <c r="G164" s="56"/>
-      <c r="H164" s="77"/>
-    </row>
-    <row r="165" spans="7:8">
+      <c r="H164" s="124"/>
+      <c r="I164" s="76"/>
+    </row>
+    <row r="165" spans="7:9">
       <c r="G165" s="56"/>
-      <c r="H165" s="77"/>
-    </row>
-    <row r="166" spans="7:8">
+      <c r="H165" s="124"/>
+      <c r="I165" s="76"/>
+    </row>
+    <row r="166" spans="7:9">
       <c r="G166" s="56"/>
-      <c r="H166" s="77"/>
-    </row>
-    <row r="167" spans="7:8">
+      <c r="H166" s="124"/>
+      <c r="I166" s="76"/>
+    </row>
+    <row r="167" spans="7:9">
       <c r="G167" s="56"/>
-      <c r="H167" s="77"/>
-    </row>
-    <row r="168" spans="7:8">
+      <c r="H167" s="124"/>
+      <c r="I167" s="76"/>
+    </row>
+    <row r="168" spans="7:9">
       <c r="G168" s="56"/>
-      <c r="H168" s="77"/>
-    </row>
-    <row r="169" spans="7:8">
+      <c r="H168" s="124"/>
+      <c r="I168" s="76"/>
+    </row>
+    <row r="169" spans="7:9">
       <c r="G169" s="56"/>
-      <c r="H169" s="77"/>
-    </row>
-    <row r="170" spans="7:8">
+      <c r="H169" s="124"/>
+      <c r="I169" s="76"/>
+    </row>
+    <row r="170" spans="7:9">
       <c r="G170" s="56"/>
-      <c r="H170" s="77"/>
-    </row>
-    <row r="171" spans="7:8">
+      <c r="H170" s="124"/>
+      <c r="I170" s="76"/>
+    </row>
+    <row r="171" spans="7:9">
       <c r="G171" s="56"/>
-      <c r="H171" s="77"/>
-    </row>
-    <row r="172" spans="7:8">
+      <c r="H171" s="124"/>
+      <c r="I171" s="76"/>
+    </row>
+    <row r="172" spans="7:9">
       <c r="G172" s="56"/>
-      <c r="H172" s="77"/>
-    </row>
-    <row r="173" spans="7:8">
+      <c r="H172" s="124"/>
+      <c r="I172" s="76"/>
+    </row>
+    <row r="173" spans="7:9">
       <c r="G173" s="56"/>
-      <c r="H173" s="77"/>
-    </row>
-    <row r="174" spans="7:8">
+      <c r="H173" s="124"/>
+      <c r="I173" s="76"/>
+    </row>
+    <row r="174" spans="7:9">
       <c r="G174" s="56"/>
-      <c r="H174" s="77"/>
-    </row>
-    <row r="175" spans="7:8">
+      <c r="H174" s="124"/>
+      <c r="I174" s="76"/>
+    </row>
+    <row r="175" spans="7:9">
       <c r="G175" s="56"/>
-      <c r="H175" s="77"/>
-    </row>
-    <row r="176" spans="7:8">
+      <c r="H175" s="124"/>
+      <c r="I175" s="76"/>
+    </row>
+    <row r="176" spans="7:9">
       <c r="G176" s="56"/>
-      <c r="H176" s="77"/>
-    </row>
-    <row r="177" spans="7:8">
+      <c r="H176" s="124"/>
+      <c r="I176" s="76"/>
+    </row>
+    <row r="177" spans="7:9">
       <c r="G177" s="56"/>
-      <c r="H177" s="77"/>
-    </row>
-    <row r="178" spans="7:8">
+      <c r="H177" s="124"/>
+      <c r="I177" s="76"/>
+    </row>
+    <row r="178" spans="7:9">
       <c r="G178" s="56"/>
-      <c r="H178" s="77"/>
-    </row>
-    <row r="179" spans="7:8">
+      <c r="H178" s="124"/>
+      <c r="I178" s="76"/>
+    </row>
+    <row r="179" spans="7:9">
       <c r="G179" s="56"/>
-      <c r="H179" s="77"/>
-    </row>
-    <row r="180" spans="7:8">
+      <c r="H179" s="124"/>
+      <c r="I179" s="76"/>
+    </row>
+    <row r="180" spans="7:9">
       <c r="G180" s="56"/>
-      <c r="H180" s="77"/>
-    </row>
-    <row r="181" spans="7:8">
+      <c r="H180" s="124"/>
+      <c r="I180" s="76"/>
+    </row>
+    <row r="181" spans="7:9">
       <c r="G181" s="56"/>
-      <c r="H181" s="77"/>
-    </row>
-    <row r="182" spans="7:8">
+      <c r="H181" s="124"/>
+      <c r="I181" s="76"/>
+    </row>
+    <row r="182" spans="7:9">
       <c r="G182" s="56"/>
-      <c r="H182" s="77"/>
-    </row>
-    <row r="183" spans="7:8">
+      <c r="H182" s="124"/>
+      <c r="I182" s="76"/>
+    </row>
+    <row r="183" spans="7:9">
       <c r="G183" s="56"/>
-      <c r="H183" s="77"/>
-    </row>
-    <row r="184" spans="7:8">
+      <c r="H183" s="124"/>
+      <c r="I183" s="76"/>
+    </row>
+    <row r="184" spans="7:9">
       <c r="G184" s="56"/>
-      <c r="H184" s="77"/>
-    </row>
-    <row r="185" spans="7:8">
+      <c r="H184" s="124"/>
+      <c r="I184" s="76"/>
+    </row>
+    <row r="185" spans="7:9">
       <c r="G185" s="56"/>
-      <c r="H185" s="77"/>
-    </row>
-    <row r="186" spans="7:8">
+      <c r="H185" s="124"/>
+      <c r="I185" s="76"/>
+    </row>
+    <row r="186" spans="7:9">
       <c r="G186" s="56"/>
-      <c r="H186" s="77"/>
-    </row>
-    <row r="187" spans="7:8">
+      <c r="H186" s="124"/>
+      <c r="I186" s="76"/>
+    </row>
+    <row r="187" spans="7:9">
       <c r="G187" s="56"/>
-      <c r="H187" s="77"/>
-    </row>
-    <row r="188" spans="7:8">
+      <c r="H187" s="124"/>
+      <c r="I187" s="76"/>
+    </row>
+    <row r="188" spans="7:9">
       <c r="G188" s="56"/>
-      <c r="H188" s="77"/>
-    </row>
-    <row r="189" spans="7:8">
+      <c r="H188" s="124"/>
+      <c r="I188" s="76"/>
+    </row>
+    <row r="189" spans="7:9">
       <c r="G189" s="56"/>
-      <c r="H189" s="77"/>
-    </row>
-    <row r="190" spans="7:8">
+      <c r="H189" s="124"/>
+      <c r="I189" s="76"/>
+    </row>
+    <row r="190" spans="7:9">
       <c r="G190" s="56"/>
-      <c r="H190" s="77"/>
-    </row>
-    <row r="191" spans="7:8">
+      <c r="H190" s="124"/>
+      <c r="I190" s="76"/>
+    </row>
+    <row r="191" spans="7:9">
       <c r="G191" s="56"/>
-      <c r="H191" s="77"/>
-    </row>
-    <row r="192" spans="7:8">
+      <c r="H191" s="124"/>
+      <c r="I191" s="76"/>
+    </row>
+    <row r="192" spans="7:9">
       <c r="G192" s="56"/>
-      <c r="H192" s="77"/>
-    </row>
-    <row r="193" spans="7:8">
+      <c r="H192" s="124"/>
+      <c r="I192" s="76"/>
+    </row>
+    <row r="193" spans="7:9">
       <c r="G193" s="56"/>
-      <c r="H193" s="77"/>
-    </row>
-    <row r="194" spans="7:8">
+      <c r="H193" s="124"/>
+      <c r="I193" s="76"/>
+    </row>
+    <row r="194" spans="7:9">
       <c r="G194" s="56"/>
-      <c r="H194" s="77"/>
-    </row>
-    <row r="195" spans="7:8">
+      <c r="H194" s="124"/>
+      <c r="I194" s="76"/>
+    </row>
+    <row r="195" spans="7:9">
       <c r="G195" s="56"/>
-      <c r="H195" s="77"/>
-    </row>
-    <row r="196" spans="7:8">
+      <c r="H195" s="124"/>
+      <c r="I195" s="76"/>
+    </row>
+    <row r="196" spans="7:9">
       <c r="G196" s="56"/>
-      <c r="H196" s="77"/>
-    </row>
-    <row r="197" spans="7:8">
+      <c r="H196" s="124"/>
+      <c r="I196" s="76"/>
+    </row>
+    <row r="197" spans="7:9">
       <c r="G197" s="56"/>
-      <c r="H197" s="77"/>
-    </row>
-    <row r="198" spans="7:8">
+      <c r="H197" s="124"/>
+      <c r="I197" s="76"/>
+    </row>
+    <row r="198" spans="7:9">
       <c r="G198" s="56"/>
-      <c r="H198" s="77"/>
-    </row>
-    <row r="199" spans="7:8">
+      <c r="H198" s="124"/>
+      <c r="I198" s="76"/>
+    </row>
+    <row r="199" spans="7:9">
       <c r="G199" s="56"/>
-      <c r="H199" s="77"/>
-    </row>
-    <row r="200" spans="7:8">
+      <c r="H199" s="124"/>
+      <c r="I199" s="76"/>
+    </row>
+    <row r="200" spans="7:9">
       <c r="G200" s="56"/>
-      <c r="H200" s="77"/>
-    </row>
-    <row r="201" spans="7:8">
+      <c r="H200" s="124"/>
+      <c r="I200" s="76"/>
+    </row>
+    <row r="201" spans="7:9">
       <c r="G201" s="56"/>
-      <c r="H201" s="77"/>
-    </row>
-    <row r="202" spans="7:8">
+      <c r="H201" s="124"/>
+      <c r="I201" s="76"/>
+    </row>
+    <row r="202" spans="7:9">
       <c r="G202" s="56"/>
-      <c r="H202" s="77"/>
-    </row>
-    <row r="203" spans="7:8">
+      <c r="H202" s="124"/>
+      <c r="I202" s="76"/>
+    </row>
+    <row r="203" spans="7:9">
       <c r="G203" s="56"/>
-      <c r="H203" s="77"/>
-    </row>
-    <row r="204" spans="7:8">
+      <c r="H203" s="124"/>
+      <c r="I203" s="76"/>
+    </row>
+    <row r="204" spans="7:9">
       <c r="G204" s="56"/>
-      <c r="H204" s="77"/>
-    </row>
-    <row r="205" spans="7:8">
+      <c r="H204" s="124"/>
+      <c r="I204" s="76"/>
+    </row>
+    <row r="205" spans="7:9">
       <c r="G205" s="56"/>
-      <c r="H205" s="77"/>
-    </row>
-    <row r="206" spans="7:8">
+      <c r="H205" s="124"/>
+      <c r="I205" s="76"/>
+    </row>
+    <row r="206" spans="7:9">
       <c r="G206" s="56"/>
-      <c r="H206" s="77"/>
-    </row>
-    <row r="207" spans="7:8">
+      <c r="H206" s="124"/>
+      <c r="I206" s="76"/>
+    </row>
+    <row r="207" spans="7:9">
       <c r="G207" s="56"/>
-      <c r="H207" s="77"/>
-    </row>
-    <row r="208" spans="7:8">
+      <c r="H207" s="124"/>
+      <c r="I207" s="76"/>
+    </row>
+    <row r="208" spans="7:9">
       <c r="G208" s="56"/>
-      <c r="H208" s="77"/>
-    </row>
-    <row r="209" spans="7:8">
+      <c r="H208" s="124"/>
+      <c r="I208" s="76"/>
+    </row>
+    <row r="209" spans="7:9">
       <c r="G209" s="56"/>
-      <c r="H209" s="77"/>
-    </row>
-    <row r="210" spans="7:8">
+      <c r="H209" s="124"/>
+      <c r="I209" s="76"/>
+    </row>
+    <row r="210" spans="7:9">
       <c r="G210" s="56"/>
-      <c r="H210" s="77"/>
-    </row>
-    <row r="211" spans="7:8">
+      <c r="H210" s="124"/>
+      <c r="I210" s="76"/>
+    </row>
+    <row r="211" spans="7:9">
       <c r="G211" s="56"/>
-      <c r="H211" s="77"/>
-    </row>
-    <row r="212" spans="7:8">
+      <c r="H211" s="124"/>
+      <c r="I211" s="76"/>
+    </row>
+    <row r="212" spans="7:9">
       <c r="G212" s="56"/>
-      <c r="H212" s="77"/>
-    </row>
-    <row r="213" spans="7:8">
+      <c r="H212" s="124"/>
+      <c r="I212" s="76"/>
+    </row>
+    <row r="213" spans="7:9">
       <c r="G213" s="56"/>
-      <c r="H213" s="77"/>
-    </row>
-    <row r="214" spans="7:8">
+      <c r="H213" s="124"/>
+      <c r="I213" s="76"/>
+    </row>
+    <row r="214" spans="7:9">
       <c r="G214" s="56"/>
-      <c r="H214" s="77"/>
-    </row>
-    <row r="215" spans="7:8">
+      <c r="H214" s="124"/>
+      <c r="I214" s="76"/>
+    </row>
+    <row r="215" spans="7:9">
       <c r="G215" s="56"/>
-      <c r="H215" s="77"/>
-    </row>
-    <row r="216" spans="7:8">
+      <c r="H215" s="124"/>
+      <c r="I215" s="76"/>
+    </row>
+    <row r="216" spans="7:9">
       <c r="G216" s="56"/>
-      <c r="H216" s="77"/>
-    </row>
-    <row r="217" spans="7:8">
+      <c r="H216" s="124"/>
+      <c r="I216" s="76"/>
+    </row>
+    <row r="217" spans="7:9">
       <c r="G217" s="56"/>
-      <c r="H217" s="77"/>
-    </row>
-    <row r="218" spans="7:8">
+      <c r="H217" s="124"/>
+      <c r="I217" s="76"/>
+    </row>
+    <row r="218" spans="7:9">
       <c r="G218" s="56"/>
-      <c r="H218" s="77"/>
-    </row>
-    <row r="219" spans="7:8">
+      <c r="H218" s="124"/>
+      <c r="I218" s="76"/>
+    </row>
+    <row r="219" spans="7:9">
       <c r="G219" s="56"/>
-      <c r="H219" s="77"/>
-    </row>
-    <row r="220" spans="7:8">
+      <c r="H219" s="124"/>
+      <c r="I219" s="76"/>
+    </row>
+    <row r="220" spans="7:9">
       <c r="G220" s="56"/>
-      <c r="H220" s="77"/>
-    </row>
-    <row r="221" spans="7:8">
+      <c r="H220" s="124"/>
+      <c r="I220" s="76"/>
+    </row>
+    <row r="221" spans="7:9">
       <c r="G221" s="56"/>
-      <c r="H221" s="77"/>
-    </row>
-    <row r="222" spans="7:8">
+      <c r="H221" s="124"/>
+      <c r="I221" s="76"/>
+    </row>
+    <row r="222" spans="7:9">
       <c r="G222" s="56"/>
-      <c r="H222" s="77"/>
-    </row>
-    <row r="223" spans="7:8">
+      <c r="H222" s="124"/>
+      <c r="I222" s="76"/>
+    </row>
+    <row r="223" spans="7:9">
       <c r="G223" s="56"/>
-      <c r="H223" s="77"/>
-    </row>
-    <row r="224" spans="7:8">
+      <c r="H223" s="124"/>
+      <c r="I223" s="76"/>
+    </row>
+    <row r="224" spans="7:9">
       <c r="G224" s="56"/>
-      <c r="H224" s="77"/>
-    </row>
-    <row r="225" spans="7:8">
+      <c r="H224" s="124"/>
+      <c r="I224" s="76"/>
+    </row>
+    <row r="225" spans="7:9">
       <c r="G225" s="56"/>
-      <c r="H225" s="77"/>
-    </row>
-    <row r="226" spans="7:8">
+      <c r="H225" s="124"/>
+      <c r="I225" s="76"/>
+    </row>
+    <row r="226" spans="7:9">
       <c r="G226" s="56"/>
-      <c r="H226" s="77"/>
-    </row>
-    <row r="227" spans="7:8">
+      <c r="H226" s="124"/>
+      <c r="I226" s="76"/>
+    </row>
+    <row r="227" spans="7:9">
       <c r="G227" s="56"/>
-      <c r="H227" s="77"/>
-    </row>
-    <row r="228" spans="7:8">
+      <c r="H227" s="124"/>
+      <c r="I227" s="76"/>
+    </row>
+    <row r="228" spans="7:9">
       <c r="G228" s="56"/>
-      <c r="H228" s="77"/>
-    </row>
-    <row r="229" spans="7:8">
+      <c r="H228" s="124"/>
+      <c r="I228" s="76"/>
+    </row>
+    <row r="229" spans="7:9">
       <c r="G229" s="56"/>
-      <c r="H229" s="77"/>
-    </row>
-    <row r="230" spans="7:8">
+      <c r="H229" s="124"/>
+      <c r="I229" s="76"/>
+    </row>
+    <row r="230" spans="7:9">
       <c r="G230" s="56"/>
-      <c r="H230" s="77"/>
-    </row>
-    <row r="231" spans="7:8">
+      <c r="H230" s="124"/>
+      <c r="I230" s="76"/>
+    </row>
+    <row r="231" spans="7:9">
       <c r="G231" s="56"/>
-      <c r="H231" s="77"/>
-    </row>
-    <row r="232" spans="7:8">
+      <c r="H231" s="124"/>
+      <c r="I231" s="76"/>
+    </row>
+    <row r="232" spans="7:9">
       <c r="G232" s="56"/>
-      <c r="H232" s="77"/>
+      <c r="H232" s="124"/>
+      <c r="I232" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2722,34 +3027,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="35"/>
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2757,15 +3062,15 @@
         <v>9</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="24">
@@ -2775,14 +3080,14 @@
         <v>10000</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="27">
         <f>E4</f>
         <v>10000</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="24">
         <v>45516</v>
@@ -2795,7 +3100,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="24">
         <v>45541</v>
@@ -2810,22 +3115,22 @@
         <v>1820</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="24">
         <v>45541</v>
       </c>
       <c r="J5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="24">
         <v>45545</v>
@@ -2839,23 +3144,23 @@
       <c r="G6" s="28">
         <v>1820</v>
       </c>
-      <c r="H6" s="103" t="s">
-        <v>33</v>
+      <c r="H6" s="112" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="24">
         <v>45545</v>
       </c>
       <c r="J6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="24">
         <v>45549</v>
@@ -2869,19 +3174,19 @@
       <c r="G7" s="28">
         <v>1820</v>
       </c>
-      <c r="H7" s="103"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="24">
         <v>45549</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="24">
         <v>45567</v>
@@ -2896,19 +3201,19 @@
       <c r="G8" s="28">
         <v>1820</v>
       </c>
-      <c r="H8" s="103"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="24">
         <v>45567</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="24">
         <v>45568</v>
@@ -2923,19 +3228,19 @@
       <c r="G9" s="28">
         <v>1830</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="24">
         <v>45568</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="24">
         <v>45569</v>
@@ -2950,19 +3255,19 @@
       <c r="G10" s="28">
         <v>1830</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="24">
         <v>45569</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="24">
         <v>45573</v>
@@ -2978,20 +3283,20 @@
         <v>1830</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="24">
         <v>45573</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="24">
         <v>45576</v>
@@ -3007,20 +3312,20 @@
         <v>1830</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="24">
         <v>45576</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="24">
         <v>45598</v>
@@ -3035,20 +3340,20 @@
       <c r="G13" s="28">
         <v>1840</v>
       </c>
-      <c r="H13" s="104" t="s">
-        <v>40</v>
+      <c r="H13" s="113" t="s">
+        <v>39</v>
       </c>
       <c r="I13" s="24">
         <v>45598</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="24">
@@ -3064,34 +3369,34 @@
       <c r="G14" s="28">
         <v>1840</v>
       </c>
-      <c r="H14" s="105"/>
+      <c r="H14" s="114"/>
       <c r="I14" s="24">
         <v>45598</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="25">
         <v>20000</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="27">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="24">
         <v>45598</v>
       </c>
@@ -3102,7 +3407,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="24">
@@ -3119,19 +3424,19 @@
         <v>1840</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="24">
         <v>45605</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="24">
@@ -3148,20 +3453,20 @@
         <v>1850</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="24">
         <v>45610</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="24">
         <v>45611</v>
@@ -3177,22 +3482,22 @@
         <v>1850</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="24">
         <v>45611</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="24">
         <v>45627</v>
@@ -3208,19 +3513,19 @@
         <v>1840</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="24">
         <v>45627</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="24">
@@ -3237,13 +3542,13 @@
         <v>1850</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="24">
         <v>45648</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="12"/>
     </row>
@@ -3265,32 +3570,32 @@
         <v>99922.829999999987</v>
       </c>
       <c r="F23" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="L23" s="38"/>
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="32">
         <v>180000</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="34">
         <v>45648</v>
@@ -3298,7 +3603,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="34">
         <v>45612</v>
@@ -3349,14 +3654,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3365,247 +3670,253 @@
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="120">
+        <v>520</v>
+      </c>
+      <c r="F3" s="120"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="107">
-        <v>520</v>
-      </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="107" t="s">
+      <c r="I3" s="120"/>
+      <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="108" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="K4" s="107"/>
+      <c r="L4" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
       <c r="C5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="F5" s="107"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="109" t="s">
+      <c r="C7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="97" t="s">
+      <c r="I7" s="107"/>
+      <c r="J7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="117"/>
+      <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="110"/>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="118" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="111" t="s">
+      <c r="C9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="97"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="118"/>
+      <c r="C10" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="111"/>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="95"/>
+      <c r="E10" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="105"/>
       <c r="G10" s="19"/>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="95"/>
+      <c r="K10" s="105"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="12"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -3614,12 +3925,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7F083-FCE3-4AEE-9CCA-674E0F2DD843}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2069817-BD2D-4FD7-80FD-87BA8AFE51C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>ChannelM</t>
   </si>
@@ -392,6 +392,12 @@
   <si>
     <t>!RMB means "No RMB converted"</t>
   </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>^ keep till next trip</t>
+  </si>
 </sst>
 </file>
 
@@ -411,6 +417,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,13 +478,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,9 +639,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -648,11 +654,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,12 +766,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -808,20 +814,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -830,18 +833,37 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -853,11 +875,20 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -874,21 +905,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,29 +950,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1218,7 +1232,7 @@
   <dimension ref="B1:S232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1230,7 +1244,7 @@
     <col min="5" max="5" width="7.5703125" style="40" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="41" customWidth="1"/>
     <col min="7" max="7" width="8" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="96" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.140625" style="49" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="39" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
@@ -1248,49 +1262,49 @@
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="42"/>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1">
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="71"/>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107" t="s">
+      <c r="K3" s="116"/>
+      <c r="L3" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="103" t="s">
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="105"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="114"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="67" t="s">
@@ -1308,8 +1322,8 @@
       <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
       <c r="J4" s="43" t="s">
         <v>4</v>
       </c>
@@ -1505,10 +1519,10 @@
       <c r="D10" s="27">
         <v>71433</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="96"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="52">
         <v>10000</v>
       </c>
@@ -1526,13 +1540,13 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="2:17" ht="4.5" customHeight="1">
-      <c r="B11" s="86"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="12"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="72"/>
       <c r="J11" s="44"/>
       <c r="K11" s="24"/>
@@ -1544,7 +1558,7 @@
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="97">
+      <c r="B12" s="103">
         <v>45594</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1561,7 +1575,7 @@
       <c r="G12" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="74"/>
       <c r="J12" s="44">
         <v>6000</v>
@@ -1583,7 +1597,7 @@
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="B13" s="98"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="46"/>
       <c r="D13" s="27"/>
       <c r="E13" s="77"/>
@@ -1616,10 +1630,10 @@
       <c r="D14" s="27">
         <v>71397</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="96"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="59">
         <f>G13+10000</f>
         <v>12000</v>
@@ -1675,13 +1689,13 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" ht="5.25" customHeight="1">
-      <c r="B16" s="86"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="47"/>
       <c r="D16" s="65"/>
       <c r="E16" s="68"/>
       <c r="F16" s="83"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="73"/>
       <c r="J16" s="48"/>
       <c r="K16" s="51"/>
@@ -1693,7 +1707,7 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="99">
+      <c r="B17" s="105">
         <v>45632</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1709,12 +1723,12 @@
       <c r="G17" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="123"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="75"/>
       <c r="J17" s="44">
         <v>10000</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K17" s="92">
         <v>45659</v>
       </c>
       <c r="L17" s="50"/>
@@ -1725,7 +1739,7 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="100"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="12"/>
       <c r="D18" s="65"/>
       <c r="E18" s="68"/>
@@ -1750,7 +1764,7 @@
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="92">
+      <c r="B19" s="91">
         <v>45659</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1760,24 +1774,23 @@
         <v>73183</v>
       </c>
       <c r="E19" s="68"/>
-      <c r="F19" s="91">
+      <c r="F19" s="90">
         <v>10000</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="85">
-        <v>0</v>
+      <c r="H19" s="84">
+        <f>F19-J19</f>
+        <v>4000</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="44">
-        <v>10000</v>
-      </c>
-      <c r="K19" s="94" t="s">
+        <v>6000</v>
+      </c>
+      <c r="K19" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="43"/>
       <c r="P19" s="12"/>
@@ -1796,26 +1809,17 @@
       <c r="E20" s="44">
         <v>10000</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="85">
-        <v>0</v>
-      </c>
+      <c r="F20" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
       <c r="I20" s="75"/>
       <c r="J20" s="44">
-        <f>E20-L20</f>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="K20" s="51" t="s">
         <v>18</v>
-      </c>
-      <c r="L20" s="54">
-        <v>6000</v>
-      </c>
-      <c r="M20" s="24">
-        <v>45666</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="43"/>
@@ -1829,26 +1833,29 @@
       <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="97" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="44">
         <v>10000</v>
       </c>
-      <c r="G21" s="127" t="s">
+      <c r="G21" s="98" t="s">
         <v>111</v>
       </c>
       <c r="H21" s="66">
-        <v>10000</v>
+        <f>H19+F21-L21</f>
+        <v>8000</v>
       </c>
       <c r="I21" s="75"/>
       <c r="J21" s="44"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="12"/>
+      <c r="L21" s="54">
+        <v>6000</v>
+      </c>
+      <c r="M21" s="24">
+        <v>45666</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="43"/>
       <c r="P21" s="12"/>
@@ -1861,12 +1868,16 @@
       <c r="E22" s="48"/>
       <c r="F22" s="44"/>
       <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="H22" s="100" t="s">
+        <v>115</v>
+      </c>
       <c r="I22" s="75"/>
       <c r="J22" s="48"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="24"/>
       <c r="N22" s="12"/>
       <c r="O22" s="43"/>
       <c r="P22" s="12"/>
@@ -1939,7 +1950,7 @@
     </row>
     <row r="26" spans="2:19">
       <c r="G26" s="56"/>
-      <c r="H26" s="124"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="76"/>
     </row>
     <row r="27" spans="2:19" ht="17.25">
@@ -1947,15 +1958,15 @@
         <v>100</v>
       </c>
       <c r="G27" s="56"/>
-      <c r="H27" s="124"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="76"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="99" t="s">
         <v>113</v>
       </c>
       <c r="G28" s="56"/>
-      <c r="H28" s="124"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="76"/>
     </row>
     <row r="29" spans="2:19">
@@ -1963,1026 +1974,1026 @@
         <v>102</v>
       </c>
       <c r="G29" s="56"/>
-      <c r="H29" s="124"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="76"/>
     </row>
     <row r="30" spans="2:19">
       <c r="G30" s="56"/>
-      <c r="H30" s="124"/>
+      <c r="H30" s="95"/>
       <c r="I30" s="76"/>
     </row>
     <row r="31" spans="2:19">
       <c r="G31" s="56"/>
-      <c r="H31" s="124"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="76"/>
     </row>
     <row r="32" spans="2:19">
       <c r="G32" s="56"/>
-      <c r="H32" s="124"/>
+      <c r="H32" s="95"/>
       <c r="I32" s="76"/>
     </row>
     <row r="33" spans="7:9">
       <c r="G33" s="56"/>
-      <c r="H33" s="124"/>
+      <c r="H33" s="95"/>
       <c r="I33" s="76"/>
     </row>
     <row r="34" spans="7:9">
       <c r="G34" s="56"/>
-      <c r="H34" s="124"/>
+      <c r="H34" s="95"/>
       <c r="I34" s="76"/>
     </row>
     <row r="35" spans="7:9">
       <c r="G35" s="56"/>
-      <c r="H35" s="124"/>
+      <c r="H35" s="95"/>
       <c r="I35" s="76"/>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" s="56"/>
-      <c r="H36" s="124"/>
+      <c r="H36" s="95"/>
       <c r="I36" s="76"/>
     </row>
     <row r="37" spans="7:9">
       <c r="G37" s="56"/>
-      <c r="H37" s="124"/>
+      <c r="H37" s="95"/>
       <c r="I37" s="76"/>
     </row>
     <row r="38" spans="7:9">
       <c r="G38" s="56"/>
-      <c r="H38" s="124"/>
+      <c r="H38" s="95"/>
       <c r="I38" s="76"/>
     </row>
     <row r="39" spans="7:9">
       <c r="G39" s="56"/>
-      <c r="H39" s="124"/>
+      <c r="H39" s="95"/>
       <c r="I39" s="76"/>
     </row>
     <row r="40" spans="7:9">
       <c r="G40" s="56"/>
-      <c r="H40" s="124"/>
+      <c r="H40" s="95"/>
       <c r="I40" s="76"/>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" s="56"/>
-      <c r="H41" s="124"/>
+      <c r="H41" s="95"/>
       <c r="I41" s="76"/>
     </row>
     <row r="42" spans="7:9">
       <c r="G42" s="56"/>
-      <c r="H42" s="124"/>
+      <c r="H42" s="95"/>
       <c r="I42" s="76"/>
     </row>
     <row r="43" spans="7:9">
       <c r="G43" s="56"/>
-      <c r="H43" s="124"/>
+      <c r="H43" s="95"/>
       <c r="I43" s="76"/>
     </row>
     <row r="44" spans="7:9">
       <c r="G44" s="56"/>
-      <c r="H44" s="124"/>
+      <c r="H44" s="95"/>
       <c r="I44" s="76"/>
     </row>
     <row r="45" spans="7:9">
       <c r="G45" s="56"/>
-      <c r="H45" s="124"/>
+      <c r="H45" s="95"/>
       <c r="I45" s="76"/>
     </row>
     <row r="46" spans="7:9">
       <c r="G46" s="56"/>
-      <c r="H46" s="124"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76"/>
     </row>
     <row r="47" spans="7:9">
       <c r="G47" s="56"/>
-      <c r="H47" s="124"/>
+      <c r="H47" s="95"/>
       <c r="I47" s="76"/>
     </row>
     <row r="48" spans="7:9">
       <c r="G48" s="56"/>
-      <c r="H48" s="124"/>
+      <c r="H48" s="95"/>
       <c r="I48" s="76"/>
     </row>
     <row r="49" spans="7:9">
       <c r="G49" s="56"/>
-      <c r="H49" s="124"/>
+      <c r="H49" s="95"/>
       <c r="I49" s="76"/>
     </row>
     <row r="50" spans="7:9">
       <c r="G50" s="56"/>
-      <c r="H50" s="124"/>
+      <c r="H50" s="95"/>
       <c r="I50" s="76"/>
     </row>
     <row r="51" spans="7:9">
       <c r="G51" s="56"/>
-      <c r="H51" s="124"/>
+      <c r="H51" s="95"/>
       <c r="I51" s="76"/>
     </row>
     <row r="52" spans="7:9">
       <c r="G52" s="56"/>
-      <c r="H52" s="124"/>
+      <c r="H52" s="95"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="7:9">
       <c r="G53" s="56"/>
-      <c r="H53" s="124"/>
+      <c r="H53" s="95"/>
       <c r="I53" s="76"/>
     </row>
     <row r="54" spans="7:9">
       <c r="G54" s="56"/>
-      <c r="H54" s="124"/>
+      <c r="H54" s="95"/>
       <c r="I54" s="76"/>
     </row>
     <row r="55" spans="7:9">
       <c r="G55" s="56"/>
-      <c r="H55" s="124"/>
+      <c r="H55" s="95"/>
       <c r="I55" s="76"/>
     </row>
     <row r="56" spans="7:9">
       <c r="G56" s="56"/>
-      <c r="H56" s="124"/>
+      <c r="H56" s="95"/>
       <c r="I56" s="76"/>
     </row>
     <row r="57" spans="7:9">
       <c r="G57" s="56"/>
-      <c r="H57" s="124"/>
+      <c r="H57" s="95"/>
       <c r="I57" s="76"/>
     </row>
     <row r="58" spans="7:9">
       <c r="G58" s="56"/>
-      <c r="H58" s="124"/>
+      <c r="H58" s="95"/>
       <c r="I58" s="76"/>
     </row>
     <row r="59" spans="7:9">
       <c r="G59" s="56"/>
-      <c r="H59" s="124"/>
+      <c r="H59" s="95"/>
       <c r="I59" s="76"/>
     </row>
     <row r="60" spans="7:9">
       <c r="G60" s="56"/>
-      <c r="H60" s="124"/>
+      <c r="H60" s="95"/>
       <c r="I60" s="76"/>
     </row>
     <row r="61" spans="7:9">
       <c r="G61" s="56"/>
-      <c r="H61" s="124"/>
+      <c r="H61" s="95"/>
       <c r="I61" s="76"/>
     </row>
     <row r="62" spans="7:9">
       <c r="G62" s="56"/>
-      <c r="H62" s="124"/>
+      <c r="H62" s="95"/>
       <c r="I62" s="76"/>
     </row>
     <row r="63" spans="7:9">
       <c r="G63" s="56"/>
-      <c r="H63" s="124"/>
+      <c r="H63" s="95"/>
       <c r="I63" s="76"/>
     </row>
     <row r="64" spans="7:9">
       <c r="G64" s="56"/>
-      <c r="H64" s="124"/>
+      <c r="H64" s="95"/>
       <c r="I64" s="76"/>
     </row>
     <row r="65" spans="7:9">
       <c r="G65" s="56"/>
-      <c r="H65" s="124"/>
+      <c r="H65" s="95"/>
       <c r="I65" s="76"/>
     </row>
     <row r="66" spans="7:9">
       <c r="G66" s="56"/>
-      <c r="H66" s="124"/>
+      <c r="H66" s="95"/>
       <c r="I66" s="76"/>
     </row>
     <row r="67" spans="7:9">
       <c r="G67" s="56"/>
-      <c r="H67" s="124"/>
+      <c r="H67" s="95"/>
       <c r="I67" s="76"/>
     </row>
     <row r="68" spans="7:9">
       <c r="G68" s="56"/>
-      <c r="H68" s="124"/>
+      <c r="H68" s="95"/>
       <c r="I68" s="76"/>
     </row>
     <row r="69" spans="7:9">
       <c r="G69" s="56"/>
-      <c r="H69" s="124"/>
+      <c r="H69" s="95"/>
       <c r="I69" s="76"/>
     </row>
     <row r="70" spans="7:9">
       <c r="G70" s="56"/>
-      <c r="H70" s="124"/>
+      <c r="H70" s="95"/>
       <c r="I70" s="76"/>
     </row>
     <row r="71" spans="7:9">
       <c r="G71" s="56"/>
-      <c r="H71" s="124"/>
+      <c r="H71" s="95"/>
       <c r="I71" s="76"/>
     </row>
     <row r="72" spans="7:9">
       <c r="G72" s="56"/>
-      <c r="H72" s="124"/>
+      <c r="H72" s="95"/>
       <c r="I72" s="76"/>
     </row>
     <row r="73" spans="7:9">
       <c r="G73" s="56"/>
-      <c r="H73" s="124"/>
+      <c r="H73" s="95"/>
       <c r="I73" s="76"/>
     </row>
     <row r="74" spans="7:9">
       <c r="G74" s="56"/>
-      <c r="H74" s="124"/>
+      <c r="H74" s="95"/>
       <c r="I74" s="76"/>
     </row>
     <row r="75" spans="7:9">
       <c r="G75" s="56"/>
-      <c r="H75" s="124"/>
+      <c r="H75" s="95"/>
       <c r="I75" s="76"/>
     </row>
     <row r="76" spans="7:9">
       <c r="G76" s="56"/>
-      <c r="H76" s="124"/>
+      <c r="H76" s="95"/>
       <c r="I76" s="76"/>
     </row>
     <row r="77" spans="7:9">
       <c r="G77" s="56"/>
-      <c r="H77" s="124"/>
+      <c r="H77" s="95"/>
       <c r="I77" s="76"/>
     </row>
     <row r="78" spans="7:9">
       <c r="G78" s="56"/>
-      <c r="H78" s="124"/>
+      <c r="H78" s="95"/>
       <c r="I78" s="76"/>
     </row>
     <row r="79" spans="7:9">
       <c r="G79" s="56"/>
-      <c r="H79" s="124"/>
+      <c r="H79" s="95"/>
       <c r="I79" s="76"/>
     </row>
     <row r="80" spans="7:9">
       <c r="G80" s="56"/>
-      <c r="H80" s="124"/>
+      <c r="H80" s="95"/>
       <c r="I80" s="76"/>
     </row>
     <row r="81" spans="7:9">
       <c r="G81" s="56"/>
-      <c r="H81" s="124"/>
+      <c r="H81" s="95"/>
       <c r="I81" s="76"/>
     </row>
     <row r="82" spans="7:9">
       <c r="G82" s="56"/>
-      <c r="H82" s="124"/>
+      <c r="H82" s="95"/>
       <c r="I82" s="76"/>
     </row>
     <row r="83" spans="7:9">
       <c r="G83" s="56"/>
-      <c r="H83" s="124"/>
+      <c r="H83" s="95"/>
       <c r="I83" s="76"/>
     </row>
     <row r="84" spans="7:9">
       <c r="G84" s="56"/>
-      <c r="H84" s="124"/>
+      <c r="H84" s="95"/>
       <c r="I84" s="76"/>
     </row>
     <row r="85" spans="7:9">
       <c r="G85" s="56"/>
-      <c r="H85" s="124"/>
+      <c r="H85" s="95"/>
       <c r="I85" s="76"/>
     </row>
     <row r="86" spans="7:9">
       <c r="G86" s="56"/>
-      <c r="H86" s="124"/>
+      <c r="H86" s="95"/>
       <c r="I86" s="76"/>
     </row>
     <row r="87" spans="7:9">
       <c r="G87" s="56"/>
-      <c r="H87" s="124"/>
+      <c r="H87" s="95"/>
       <c r="I87" s="76"/>
     </row>
     <row r="88" spans="7:9">
       <c r="G88" s="56"/>
-      <c r="H88" s="124"/>
+      <c r="H88" s="95"/>
       <c r="I88" s="76"/>
     </row>
     <row r="89" spans="7:9">
       <c r="G89" s="56"/>
-      <c r="H89" s="124"/>
+      <c r="H89" s="95"/>
       <c r="I89" s="76"/>
     </row>
     <row r="90" spans="7:9">
       <c r="G90" s="56"/>
-      <c r="H90" s="124"/>
+      <c r="H90" s="95"/>
       <c r="I90" s="76"/>
     </row>
     <row r="91" spans="7:9">
       <c r="G91" s="56"/>
-      <c r="H91" s="124"/>
+      <c r="H91" s="95"/>
       <c r="I91" s="76"/>
     </row>
     <row r="92" spans="7:9">
       <c r="G92" s="56"/>
-      <c r="H92" s="124"/>
+      <c r="H92" s="95"/>
       <c r="I92" s="76"/>
     </row>
     <row r="93" spans="7:9">
       <c r="G93" s="56"/>
-      <c r="H93" s="124"/>
+      <c r="H93" s="95"/>
       <c r="I93" s="76"/>
     </row>
     <row r="94" spans="7:9">
       <c r="G94" s="56"/>
-      <c r="H94" s="124"/>
+      <c r="H94" s="95"/>
       <c r="I94" s="76"/>
     </row>
     <row r="95" spans="7:9">
       <c r="G95" s="56"/>
-      <c r="H95" s="124"/>
+      <c r="H95" s="95"/>
       <c r="I95" s="76"/>
     </row>
     <row r="96" spans="7:9">
       <c r="G96" s="56"/>
-      <c r="H96" s="124"/>
+      <c r="H96" s="95"/>
       <c r="I96" s="76"/>
     </row>
     <row r="97" spans="7:9">
       <c r="G97" s="56"/>
-      <c r="H97" s="124"/>
+      <c r="H97" s="95"/>
       <c r="I97" s="76"/>
     </row>
     <row r="98" spans="7:9">
       <c r="G98" s="56"/>
-      <c r="H98" s="124"/>
+      <c r="H98" s="95"/>
       <c r="I98" s="76"/>
     </row>
     <row r="99" spans="7:9">
       <c r="G99" s="56"/>
-      <c r="H99" s="124"/>
+      <c r="H99" s="95"/>
       <c r="I99" s="76"/>
     </row>
     <row r="100" spans="7:9">
       <c r="G100" s="56"/>
-      <c r="H100" s="124"/>
+      <c r="H100" s="95"/>
       <c r="I100" s="76"/>
     </row>
     <row r="101" spans="7:9">
       <c r="G101" s="56"/>
-      <c r="H101" s="124"/>
+      <c r="H101" s="95"/>
       <c r="I101" s="76"/>
     </row>
     <row r="102" spans="7:9">
       <c r="G102" s="56"/>
-      <c r="H102" s="124"/>
+      <c r="H102" s="95"/>
       <c r="I102" s="76"/>
     </row>
     <row r="103" spans="7:9">
       <c r="G103" s="56"/>
-      <c r="H103" s="124"/>
+      <c r="H103" s="95"/>
       <c r="I103" s="76"/>
     </row>
     <row r="104" spans="7:9">
       <c r="G104" s="56"/>
-      <c r="H104" s="124"/>
+      <c r="H104" s="95"/>
       <c r="I104" s="76"/>
     </row>
     <row r="105" spans="7:9">
       <c r="G105" s="56"/>
-      <c r="H105" s="124"/>
+      <c r="H105" s="95"/>
       <c r="I105" s="76"/>
     </row>
     <row r="106" spans="7:9">
       <c r="G106" s="56"/>
-      <c r="H106" s="124"/>
+      <c r="H106" s="95"/>
       <c r="I106" s="76"/>
     </row>
     <row r="107" spans="7:9">
       <c r="G107" s="56"/>
-      <c r="H107" s="124"/>
+      <c r="H107" s="95"/>
       <c r="I107" s="76"/>
     </row>
     <row r="108" spans="7:9">
       <c r="G108" s="56"/>
-      <c r="H108" s="124"/>
+      <c r="H108" s="95"/>
       <c r="I108" s="76"/>
     </row>
     <row r="109" spans="7:9">
       <c r="G109" s="56"/>
-      <c r="H109" s="124"/>
+      <c r="H109" s="95"/>
       <c r="I109" s="76"/>
     </row>
     <row r="110" spans="7:9">
       <c r="G110" s="56"/>
-      <c r="H110" s="124"/>
+      <c r="H110" s="95"/>
       <c r="I110" s="76"/>
     </row>
     <row r="111" spans="7:9">
       <c r="G111" s="56"/>
-      <c r="H111" s="124"/>
+      <c r="H111" s="95"/>
       <c r="I111" s="76"/>
     </row>
     <row r="112" spans="7:9">
       <c r="G112" s="56"/>
-      <c r="H112" s="124"/>
+      <c r="H112" s="95"/>
       <c r="I112" s="76"/>
     </row>
     <row r="113" spans="7:9">
       <c r="G113" s="56"/>
-      <c r="H113" s="124"/>
+      <c r="H113" s="95"/>
       <c r="I113" s="76"/>
     </row>
     <row r="114" spans="7:9">
       <c r="G114" s="56"/>
-      <c r="H114" s="124"/>
+      <c r="H114" s="95"/>
       <c r="I114" s="76"/>
     </row>
     <row r="115" spans="7:9">
       <c r="G115" s="56"/>
-      <c r="H115" s="124"/>
+      <c r="H115" s="95"/>
       <c r="I115" s="76"/>
     </row>
     <row r="116" spans="7:9">
       <c r="G116" s="56"/>
-      <c r="H116" s="124"/>
+      <c r="H116" s="95"/>
       <c r="I116" s="76"/>
     </row>
     <row r="117" spans="7:9">
       <c r="G117" s="56"/>
-      <c r="H117" s="124"/>
+      <c r="H117" s="95"/>
       <c r="I117" s="76"/>
     </row>
     <row r="118" spans="7:9">
       <c r="G118" s="56"/>
-      <c r="H118" s="124"/>
+      <c r="H118" s="95"/>
       <c r="I118" s="76"/>
     </row>
     <row r="119" spans="7:9">
       <c r="G119" s="56"/>
-      <c r="H119" s="124"/>
+      <c r="H119" s="95"/>
       <c r="I119" s="76"/>
     </row>
     <row r="120" spans="7:9">
       <c r="G120" s="56"/>
-      <c r="H120" s="124"/>
+      <c r="H120" s="95"/>
       <c r="I120" s="76"/>
     </row>
     <row r="121" spans="7:9">
       <c r="G121" s="56"/>
-      <c r="H121" s="124"/>
+      <c r="H121" s="95"/>
       <c r="I121" s="76"/>
     </row>
     <row r="122" spans="7:9">
       <c r="G122" s="56"/>
-      <c r="H122" s="124"/>
+      <c r="H122" s="95"/>
       <c r="I122" s="76"/>
     </row>
     <row r="123" spans="7:9">
       <c r="G123" s="56"/>
-      <c r="H123" s="124"/>
+      <c r="H123" s="95"/>
       <c r="I123" s="76"/>
     </row>
     <row r="124" spans="7:9">
       <c r="G124" s="56"/>
-      <c r="H124" s="124"/>
+      <c r="H124" s="95"/>
       <c r="I124" s="76"/>
     </row>
     <row r="125" spans="7:9">
       <c r="G125" s="56"/>
-      <c r="H125" s="124"/>
+      <c r="H125" s="95"/>
       <c r="I125" s="76"/>
     </row>
     <row r="126" spans="7:9">
       <c r="G126" s="56"/>
-      <c r="H126" s="124"/>
+      <c r="H126" s="95"/>
       <c r="I126" s="76"/>
     </row>
     <row r="127" spans="7:9">
       <c r="G127" s="56"/>
-      <c r="H127" s="124"/>
+      <c r="H127" s="95"/>
       <c r="I127" s="76"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="56"/>
-      <c r="H128" s="124"/>
+      <c r="H128" s="95"/>
       <c r="I128" s="76"/>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="56"/>
-      <c r="H129" s="124"/>
+      <c r="H129" s="95"/>
       <c r="I129" s="76"/>
     </row>
     <row r="130" spans="7:9">
       <c r="G130" s="56"/>
-      <c r="H130" s="124"/>
+      <c r="H130" s="95"/>
       <c r="I130" s="76"/>
     </row>
     <row r="131" spans="7:9">
       <c r="G131" s="56"/>
-      <c r="H131" s="124"/>
+      <c r="H131" s="95"/>
       <c r="I131" s="76"/>
     </row>
     <row r="132" spans="7:9">
       <c r="G132" s="56"/>
-      <c r="H132" s="124"/>
+      <c r="H132" s="95"/>
       <c r="I132" s="76"/>
     </row>
     <row r="133" spans="7:9">
       <c r="G133" s="56"/>
-      <c r="H133" s="124"/>
+      <c r="H133" s="95"/>
       <c r="I133" s="76"/>
     </row>
     <row r="134" spans="7:9">
       <c r="G134" s="56"/>
-      <c r="H134" s="124"/>
+      <c r="H134" s="95"/>
       <c r="I134" s="76"/>
     </row>
     <row r="135" spans="7:9">
       <c r="G135" s="56"/>
-      <c r="H135" s="124"/>
+      <c r="H135" s="95"/>
       <c r="I135" s="76"/>
     </row>
     <row r="136" spans="7:9">
       <c r="G136" s="56"/>
-      <c r="H136" s="124"/>
+      <c r="H136" s="95"/>
       <c r="I136" s="76"/>
     </row>
     <row r="137" spans="7:9">
       <c r="G137" s="56"/>
-      <c r="H137" s="124"/>
+      <c r="H137" s="95"/>
       <c r="I137" s="76"/>
     </row>
     <row r="138" spans="7:9">
       <c r="G138" s="56"/>
-      <c r="H138" s="124"/>
+      <c r="H138" s="95"/>
       <c r="I138" s="76"/>
     </row>
     <row r="139" spans="7:9">
       <c r="G139" s="56"/>
-      <c r="H139" s="124"/>
+      <c r="H139" s="95"/>
       <c r="I139" s="76"/>
     </row>
     <row r="140" spans="7:9">
       <c r="G140" s="56"/>
-      <c r="H140" s="124"/>
+      <c r="H140" s="95"/>
       <c r="I140" s="76"/>
     </row>
     <row r="141" spans="7:9">
       <c r="G141" s="56"/>
-      <c r="H141" s="124"/>
+      <c r="H141" s="95"/>
       <c r="I141" s="76"/>
     </row>
     <row r="142" spans="7:9">
       <c r="G142" s="56"/>
-      <c r="H142" s="124"/>
+      <c r="H142" s="95"/>
       <c r="I142" s="76"/>
     </row>
     <row r="143" spans="7:9">
       <c r="G143" s="56"/>
-      <c r="H143" s="124"/>
+      <c r="H143" s="95"/>
       <c r="I143" s="76"/>
     </row>
     <row r="144" spans="7:9">
       <c r="G144" s="56"/>
-      <c r="H144" s="124"/>
+      <c r="H144" s="95"/>
       <c r="I144" s="76"/>
     </row>
     <row r="145" spans="7:9">
       <c r="G145" s="56"/>
-      <c r="H145" s="124"/>
+      <c r="H145" s="95"/>
       <c r="I145" s="76"/>
     </row>
     <row r="146" spans="7:9">
       <c r="G146" s="56"/>
-      <c r="H146" s="124"/>
+      <c r="H146" s="95"/>
       <c r="I146" s="76"/>
     </row>
     <row r="147" spans="7:9">
       <c r="G147" s="56"/>
-      <c r="H147" s="124"/>
+      <c r="H147" s="95"/>
       <c r="I147" s="76"/>
     </row>
     <row r="148" spans="7:9">
       <c r="G148" s="56"/>
-      <c r="H148" s="124"/>
+      <c r="H148" s="95"/>
       <c r="I148" s="76"/>
     </row>
     <row r="149" spans="7:9">
       <c r="G149" s="56"/>
-      <c r="H149" s="124"/>
+      <c r="H149" s="95"/>
       <c r="I149" s="76"/>
     </row>
     <row r="150" spans="7:9">
       <c r="G150" s="56"/>
-      <c r="H150" s="124"/>
+      <c r="H150" s="95"/>
       <c r="I150" s="76"/>
     </row>
     <row r="151" spans="7:9">
       <c r="G151" s="56"/>
-      <c r="H151" s="124"/>
+      <c r="H151" s="95"/>
       <c r="I151" s="76"/>
     </row>
     <row r="152" spans="7:9">
       <c r="G152" s="56"/>
-      <c r="H152" s="124"/>
+      <c r="H152" s="95"/>
       <c r="I152" s="76"/>
     </row>
     <row r="153" spans="7:9">
       <c r="G153" s="56"/>
-      <c r="H153" s="124"/>
+      <c r="H153" s="95"/>
       <c r="I153" s="76"/>
     </row>
     <row r="154" spans="7:9">
       <c r="G154" s="56"/>
-      <c r="H154" s="124"/>
+      <c r="H154" s="95"/>
       <c r="I154" s="76"/>
     </row>
     <row r="155" spans="7:9">
       <c r="G155" s="56"/>
-      <c r="H155" s="124"/>
+      <c r="H155" s="95"/>
       <c r="I155" s="76"/>
     </row>
     <row r="156" spans="7:9">
       <c r="G156" s="56"/>
-      <c r="H156" s="124"/>
+      <c r="H156" s="95"/>
       <c r="I156" s="76"/>
     </row>
     <row r="157" spans="7:9">
       <c r="G157" s="56"/>
-      <c r="H157" s="124"/>
+      <c r="H157" s="95"/>
       <c r="I157" s="76"/>
     </row>
     <row r="158" spans="7:9">
       <c r="G158" s="56"/>
-      <c r="H158" s="124"/>
+      <c r="H158" s="95"/>
       <c r="I158" s="76"/>
     </row>
     <row r="159" spans="7:9">
       <c r="G159" s="56"/>
-      <c r="H159" s="124"/>
+      <c r="H159" s="95"/>
       <c r="I159" s="76"/>
     </row>
     <row r="160" spans="7:9">
       <c r="G160" s="56"/>
-      <c r="H160" s="124"/>
+      <c r="H160" s="95"/>
       <c r="I160" s="76"/>
     </row>
     <row r="161" spans="7:9">
       <c r="G161" s="56"/>
-      <c r="H161" s="124"/>
+      <c r="H161" s="95"/>
       <c r="I161" s="76"/>
     </row>
     <row r="162" spans="7:9">
       <c r="G162" s="56"/>
-      <c r="H162" s="124"/>
+      <c r="H162" s="95"/>
       <c r="I162" s="76"/>
     </row>
     <row r="163" spans="7:9">
       <c r="G163" s="56"/>
-      <c r="H163" s="124"/>
+      <c r="H163" s="95"/>
       <c r="I163" s="76"/>
     </row>
     <row r="164" spans="7:9">
       <c r="G164" s="56"/>
-      <c r="H164" s="124"/>
+      <c r="H164" s="95"/>
       <c r="I164" s="76"/>
     </row>
     <row r="165" spans="7:9">
       <c r="G165" s="56"/>
-      <c r="H165" s="124"/>
+      <c r="H165" s="95"/>
       <c r="I165" s="76"/>
     </row>
     <row r="166" spans="7:9">
       <c r="G166" s="56"/>
-      <c r="H166" s="124"/>
+      <c r="H166" s="95"/>
       <c r="I166" s="76"/>
     </row>
     <row r="167" spans="7:9">
       <c r="G167" s="56"/>
-      <c r="H167" s="124"/>
+      <c r="H167" s="95"/>
       <c r="I167" s="76"/>
     </row>
     <row r="168" spans="7:9">
       <c r="G168" s="56"/>
-      <c r="H168" s="124"/>
+      <c r="H168" s="95"/>
       <c r="I168" s="76"/>
     </row>
     <row r="169" spans="7:9">
       <c r="G169" s="56"/>
-      <c r="H169" s="124"/>
+      <c r="H169" s="95"/>
       <c r="I169" s="76"/>
     </row>
     <row r="170" spans="7:9">
       <c r="G170" s="56"/>
-      <c r="H170" s="124"/>
+      <c r="H170" s="95"/>
       <c r="I170" s="76"/>
     </row>
     <row r="171" spans="7:9">
       <c r="G171" s="56"/>
-      <c r="H171" s="124"/>
+      <c r="H171" s="95"/>
       <c r="I171" s="76"/>
     </row>
     <row r="172" spans="7:9">
       <c r="G172" s="56"/>
-      <c r="H172" s="124"/>
+      <c r="H172" s="95"/>
       <c r="I172" s="76"/>
     </row>
     <row r="173" spans="7:9">
       <c r="G173" s="56"/>
-      <c r="H173" s="124"/>
+      <c r="H173" s="95"/>
       <c r="I173" s="76"/>
     </row>
     <row r="174" spans="7:9">
       <c r="G174" s="56"/>
-      <c r="H174" s="124"/>
+      <c r="H174" s="95"/>
       <c r="I174" s="76"/>
     </row>
     <row r="175" spans="7:9">
       <c r="G175" s="56"/>
-      <c r="H175" s="124"/>
+      <c r="H175" s="95"/>
       <c r="I175" s="76"/>
     </row>
     <row r="176" spans="7:9">
       <c r="G176" s="56"/>
-      <c r="H176" s="124"/>
+      <c r="H176" s="95"/>
       <c r="I176" s="76"/>
     </row>
     <row r="177" spans="7:9">
       <c r="G177" s="56"/>
-      <c r="H177" s="124"/>
+      <c r="H177" s="95"/>
       <c r="I177" s="76"/>
     </row>
     <row r="178" spans="7:9">
       <c r="G178" s="56"/>
-      <c r="H178" s="124"/>
+      <c r="H178" s="95"/>
       <c r="I178" s="76"/>
     </row>
     <row r="179" spans="7:9">
       <c r="G179" s="56"/>
-      <c r="H179" s="124"/>
+      <c r="H179" s="95"/>
       <c r="I179" s="76"/>
     </row>
     <row r="180" spans="7:9">
       <c r="G180" s="56"/>
-      <c r="H180" s="124"/>
+      <c r="H180" s="95"/>
       <c r="I180" s="76"/>
     </row>
     <row r="181" spans="7:9">
       <c r="G181" s="56"/>
-      <c r="H181" s="124"/>
+      <c r="H181" s="95"/>
       <c r="I181" s="76"/>
     </row>
     <row r="182" spans="7:9">
       <c r="G182" s="56"/>
-      <c r="H182" s="124"/>
+      <c r="H182" s="95"/>
       <c r="I182" s="76"/>
     </row>
     <row r="183" spans="7:9">
       <c r="G183" s="56"/>
-      <c r="H183" s="124"/>
+      <c r="H183" s="95"/>
       <c r="I183" s="76"/>
     </row>
     <row r="184" spans="7:9">
       <c r="G184" s="56"/>
-      <c r="H184" s="124"/>
+      <c r="H184" s="95"/>
       <c r="I184" s="76"/>
     </row>
     <row r="185" spans="7:9">
       <c r="G185" s="56"/>
-      <c r="H185" s="124"/>
+      <c r="H185" s="95"/>
       <c r="I185" s="76"/>
     </row>
     <row r="186" spans="7:9">
       <c r="G186" s="56"/>
-      <c r="H186" s="124"/>
+      <c r="H186" s="95"/>
       <c r="I186" s="76"/>
     </row>
     <row r="187" spans="7:9">
       <c r="G187" s="56"/>
-      <c r="H187" s="124"/>
+      <c r="H187" s="95"/>
       <c r="I187" s="76"/>
     </row>
     <row r="188" spans="7:9">
       <c r="G188" s="56"/>
-      <c r="H188" s="124"/>
+      <c r="H188" s="95"/>
       <c r="I188" s="76"/>
     </row>
     <row r="189" spans="7:9">
       <c r="G189" s="56"/>
-      <c r="H189" s="124"/>
+      <c r="H189" s="95"/>
       <c r="I189" s="76"/>
     </row>
     <row r="190" spans="7:9">
       <c r="G190" s="56"/>
-      <c r="H190" s="124"/>
+      <c r="H190" s="95"/>
       <c r="I190" s="76"/>
     </row>
     <row r="191" spans="7:9">
       <c r="G191" s="56"/>
-      <c r="H191" s="124"/>
+      <c r="H191" s="95"/>
       <c r="I191" s="76"/>
     </row>
     <row r="192" spans="7:9">
       <c r="G192" s="56"/>
-      <c r="H192" s="124"/>
+      <c r="H192" s="95"/>
       <c r="I192" s="76"/>
     </row>
     <row r="193" spans="7:9">
       <c r="G193" s="56"/>
-      <c r="H193" s="124"/>
+      <c r="H193" s="95"/>
       <c r="I193" s="76"/>
     </row>
     <row r="194" spans="7:9">
       <c r="G194" s="56"/>
-      <c r="H194" s="124"/>
+      <c r="H194" s="95"/>
       <c r="I194" s="76"/>
     </row>
     <row r="195" spans="7:9">
       <c r="G195" s="56"/>
-      <c r="H195" s="124"/>
+      <c r="H195" s="95"/>
       <c r="I195" s="76"/>
     </row>
     <row r="196" spans="7:9">
       <c r="G196" s="56"/>
-      <c r="H196" s="124"/>
+      <c r="H196" s="95"/>
       <c r="I196" s="76"/>
     </row>
     <row r="197" spans="7:9">
       <c r="G197" s="56"/>
-      <c r="H197" s="124"/>
+      <c r="H197" s="95"/>
       <c r="I197" s="76"/>
     </row>
     <row r="198" spans="7:9">
       <c r="G198" s="56"/>
-      <c r="H198" s="124"/>
+      <c r="H198" s="95"/>
       <c r="I198" s="76"/>
     </row>
     <row r="199" spans="7:9">
       <c r="G199" s="56"/>
-      <c r="H199" s="124"/>
+      <c r="H199" s="95"/>
       <c r="I199" s="76"/>
     </row>
     <row r="200" spans="7:9">
       <c r="G200" s="56"/>
-      <c r="H200" s="124"/>
+      <c r="H200" s="95"/>
       <c r="I200" s="76"/>
     </row>
     <row r="201" spans="7:9">
       <c r="G201" s="56"/>
-      <c r="H201" s="124"/>
+      <c r="H201" s="95"/>
       <c r="I201" s="76"/>
     </row>
     <row r="202" spans="7:9">
       <c r="G202" s="56"/>
-      <c r="H202" s="124"/>
+      <c r="H202" s="95"/>
       <c r="I202" s="76"/>
     </row>
     <row r="203" spans="7:9">
       <c r="G203" s="56"/>
-      <c r="H203" s="124"/>
+      <c r="H203" s="95"/>
       <c r="I203" s="76"/>
     </row>
     <row r="204" spans="7:9">
       <c r="G204" s="56"/>
-      <c r="H204" s="124"/>
+      <c r="H204" s="95"/>
       <c r="I204" s="76"/>
     </row>
     <row r="205" spans="7:9">
       <c r="G205" s="56"/>
-      <c r="H205" s="124"/>
+      <c r="H205" s="95"/>
       <c r="I205" s="76"/>
     </row>
     <row r="206" spans="7:9">
       <c r="G206" s="56"/>
-      <c r="H206" s="124"/>
+      <c r="H206" s="95"/>
       <c r="I206" s="76"/>
     </row>
     <row r="207" spans="7:9">
       <c r="G207" s="56"/>
-      <c r="H207" s="124"/>
+      <c r="H207" s="95"/>
       <c r="I207" s="76"/>
     </row>
     <row r="208" spans="7:9">
       <c r="G208" s="56"/>
-      <c r="H208" s="124"/>
+      <c r="H208" s="95"/>
       <c r="I208" s="76"/>
     </row>
     <row r="209" spans="7:9">
       <c r="G209" s="56"/>
-      <c r="H209" s="124"/>
+      <c r="H209" s="95"/>
       <c r="I209" s="76"/>
     </row>
     <row r="210" spans="7:9">
       <c r="G210" s="56"/>
-      <c r="H210" s="124"/>
+      <c r="H210" s="95"/>
       <c r="I210" s="76"/>
     </row>
     <row r="211" spans="7:9">
       <c r="G211" s="56"/>
-      <c r="H211" s="124"/>
+      <c r="H211" s="95"/>
       <c r="I211" s="76"/>
     </row>
     <row r="212" spans="7:9">
       <c r="G212" s="56"/>
-      <c r="H212" s="124"/>
+      <c r="H212" s="95"/>
       <c r="I212" s="76"/>
     </row>
     <row r="213" spans="7:9">
       <c r="G213" s="56"/>
-      <c r="H213" s="124"/>
+      <c r="H213" s="95"/>
       <c r="I213" s="76"/>
     </row>
     <row r="214" spans="7:9">
       <c r="G214" s="56"/>
-      <c r="H214" s="124"/>
+      <c r="H214" s="95"/>
       <c r="I214" s="76"/>
     </row>
     <row r="215" spans="7:9">
       <c r="G215" s="56"/>
-      <c r="H215" s="124"/>
+      <c r="H215" s="95"/>
       <c r="I215" s="76"/>
     </row>
     <row r="216" spans="7:9">
       <c r="G216" s="56"/>
-      <c r="H216" s="124"/>
+      <c r="H216" s="95"/>
       <c r="I216" s="76"/>
     </row>
     <row r="217" spans="7:9">
       <c r="G217" s="56"/>
-      <c r="H217" s="124"/>
+      <c r="H217" s="95"/>
       <c r="I217" s="76"/>
     </row>
     <row r="218" spans="7:9">
       <c r="G218" s="56"/>
-      <c r="H218" s="124"/>
+      <c r="H218" s="95"/>
       <c r="I218" s="76"/>
     </row>
     <row r="219" spans="7:9">
       <c r="G219" s="56"/>
-      <c r="H219" s="124"/>
+      <c r="H219" s="95"/>
       <c r="I219" s="76"/>
     </row>
     <row r="220" spans="7:9">
       <c r="G220" s="56"/>
-      <c r="H220" s="124"/>
+      <c r="H220" s="95"/>
       <c r="I220" s="76"/>
     </row>
     <row r="221" spans="7:9">
       <c r="G221" s="56"/>
-      <c r="H221" s="124"/>
+      <c r="H221" s="95"/>
       <c r="I221" s="76"/>
     </row>
     <row r="222" spans="7:9">
       <c r="G222" s="56"/>
-      <c r="H222" s="124"/>
+      <c r="H222" s="95"/>
       <c r="I222" s="76"/>
     </row>
     <row r="223" spans="7:9">
       <c r="G223" s="56"/>
-      <c r="H223" s="124"/>
+      <c r="H223" s="95"/>
       <c r="I223" s="76"/>
     </row>
     <row r="224" spans="7:9">
       <c r="G224" s="56"/>
-      <c r="H224" s="124"/>
+      <c r="H224" s="95"/>
       <c r="I224" s="76"/>
     </row>
     <row r="225" spans="7:9">
       <c r="G225" s="56"/>
-      <c r="H225" s="124"/>
+      <c r="H225" s="95"/>
       <c r="I225" s="76"/>
     </row>
     <row r="226" spans="7:9">
       <c r="G226" s="56"/>
-      <c r="H226" s="124"/>
+      <c r="H226" s="95"/>
       <c r="I226" s="76"/>
     </row>
     <row r="227" spans="7:9">
       <c r="G227" s="56"/>
-      <c r="H227" s="124"/>
+      <c r="H227" s="95"/>
       <c r="I227" s="76"/>
     </row>
     <row r="228" spans="7:9">
       <c r="G228" s="56"/>
-      <c r="H228" s="124"/>
+      <c r="H228" s="95"/>
       <c r="I228" s="76"/>
     </row>
     <row r="229" spans="7:9">
       <c r="G229" s="56"/>
-      <c r="H229" s="124"/>
+      <c r="H229" s="95"/>
       <c r="I229" s="76"/>
     </row>
     <row r="230" spans="7:9">
       <c r="G230" s="56"/>
-      <c r="H230" s="124"/>
+      <c r="H230" s="95"/>
       <c r="I230" s="76"/>
     </row>
     <row r="231" spans="7:9">
       <c r="G231" s="56"/>
-      <c r="H231" s="124"/>
+      <c r="H231" s="95"/>
       <c r="I231" s="76"/>
     </row>
     <row r="232" spans="7:9">
       <c r="G232" s="56"/>
-      <c r="H232" s="124"/>
+      <c r="H232" s="95"/>
       <c r="I232" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="E3:F3"/>
@@ -2995,6 +3006,7 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3027,26 +3039,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="35"/>
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="105"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
@@ -3144,7 +3156,7 @@
       <c r="G6" s="28">
         <v>1820</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="122" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="24">
@@ -3174,7 +3186,7 @@
       <c r="G7" s="28">
         <v>1820</v>
       </c>
-      <c r="H7" s="112"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="24">
         <v>45549</v>
       </c>
@@ -3201,7 +3213,7 @@
       <c r="G8" s="28">
         <v>1820</v>
       </c>
-      <c r="H8" s="112"/>
+      <c r="H8" s="122"/>
       <c r="I8" s="24">
         <v>45567</v>
       </c>
@@ -3228,7 +3240,7 @@
       <c r="G9" s="28">
         <v>1830</v>
       </c>
-      <c r="H9" s="112"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="24">
         <v>45568</v>
       </c>
@@ -3255,7 +3267,7 @@
       <c r="G10" s="28">
         <v>1830</v>
       </c>
-      <c r="H10" s="112"/>
+      <c r="H10" s="122"/>
       <c r="I10" s="24">
         <v>45569</v>
       </c>
@@ -3340,7 +3352,7 @@
       <c r="G13" s="28">
         <v>1840</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="H13" s="123" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="24">
@@ -3369,7 +3381,7 @@
       <c r="G14" s="28">
         <v>1840</v>
       </c>
-      <c r="H14" s="114"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="24">
         <v>45598</v>
       </c>
@@ -3396,7 +3408,7 @@
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="115"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="24">
         <v>45598</v>
       </c>
@@ -3675,15 +3687,15 @@
       <c r="D3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="120">
+      <c r="E3" s="130">
         <v>520</v>
       </c>
-      <c r="F3" s="120"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="120"/>
+      <c r="I3" s="130"/>
       <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
@@ -3709,14 +3721,14 @@
         <v>58</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107" t="s">
+      <c r="I4" s="116"/>
+      <c r="J4" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="107"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="20" t="s">
         <v>61</v>
       </c>
@@ -3729,17 +3741,17 @@
       <c r="D5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="114"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12">
@@ -3747,24 +3759,24 @@
       <c r="C6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="107"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3780,10 +3792,10 @@
         <v>71</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="107"/>
+      <c r="I7" s="116"/>
       <c r="J7" s="12" t="s">
         <v>73</v>
       </c>
@@ -3793,7 +3805,7 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="117"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
@@ -3822,16 +3834,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="128" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3853,17 +3865,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="118"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="19"/>
       <c r="H10" s="5" t="s">
         <v>70</v>
@@ -3871,10 +3883,10 @@
       <c r="I10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="105"/>
+      <c r="K10" s="114"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12">

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2069817-BD2D-4FD7-80FD-87BA8AFE51C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9527EDD2-E204-45BA-89F1-4E64BFCD32EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
   <si>
     <t>ChannelM</t>
   </si>
@@ -170,9 +170,6 @@
     <t>psbc::tb has below 1k as of ..</t>
   </si>
   <si>
-    <t>Rmb</t>
-  </si>
-  <si>
     <t>citizen</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>A=ATM</t>
   </si>
   <si>
-    <t>M=mob</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>offset 1% cost over 3mTD</t>
   </si>
   <si>
-    <t>risk @ 丢失</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -242,12 +233,6 @@
     <t>Rmb 20k/trip</t>
   </si>
   <si>
-    <t>Rmb 100k/head</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -275,13 +260,7 @@
     <t>USD 取现: high</t>
   </si>
   <si>
-    <t>unk[1]</t>
-  </si>
-  <si>
     <t>Highest</t>
-  </si>
-  <si>
-    <t>M2: low for  my family</t>
   </si>
   <si>
     <t>for me</t>
@@ -297,9 +276,6 @@
     <t>receiving: low risk</t>
   </si>
   <si>
-    <t>overall family safety</t>
-  </si>
-  <si>
     <t xml:space="preserve">D </t>
   </si>
   <si>
@@ -309,16 +285,10 @@
     <t>A+</t>
   </si>
   <si>
-    <t>B-</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>[1] unknown risk level between low and med, because we have not tried it yet. Hopefully low</t>
   </si>
   <si>
     <t>RMB deduction</t>
@@ -398,6 +368,33 @@
   <si>
     <t>^ keep till next trip</t>
   </si>
+  <si>
+    <t>M=mobank</t>
+  </si>
+  <si>
+    <t>带USD</t>
+  </si>
+  <si>
+    <t>带Rmb</t>
+  </si>
+  <si>
+    <t>risk @ 丢</t>
+  </si>
+  <si>
+    <t>H|A: low</t>
+  </si>
+  <si>
+    <t>Rmb 100k/Y/head</t>
+  </si>
+  <si>
+    <t>M2: low risk for  my family</t>
+  </si>
+  <si>
+    <t>overall family-safety</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
@@ -411,12 +408,19 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,8 +486,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,9 +664,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -654,11 +679,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,12 +788,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -814,17 +836,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -833,13 +855,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -855,15 +877,48 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -875,52 +930,19 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,6 +960,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -947,12 +975,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1231,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1240,1760 +1285,1769 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="8" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="38" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="38" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="38" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="D1" s="42"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="73"/>
+      <c r="D1" s="41"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="D2" s="42"/>
-      <c r="G2" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
+      <c r="D2" s="41"/>
+      <c r="G2" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1">
-      <c r="C3" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112" t="s">
+      <c r="C3" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="115" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="112" t="s">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="114"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="J4" s="43" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>45490</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>72844</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="50">
+      <c r="E5" s="26"/>
+      <c r="F5" s="49">
         <v>10000</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="51">
         <v>0</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>0</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="43">
+      <c r="I5" s="71"/>
+      <c r="J5" s="42">
         <f>F5</f>
         <v>10000</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>45509</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>45511</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="59">
         <v>72000.001000000004</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>10000</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43">
         <v>0</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="44">
+      <c r="I6" s="72"/>
+      <c r="J6" s="43">
         <f>E6</f>
         <v>10000</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>45511</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="2:17" ht="5.25" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>45512</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>71992</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="59">
+      <c r="E8" s="44"/>
+      <c r="F8" s="58">
         <f>J8+L8</f>
         <v>10000</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>0</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <v>0</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="44">
+      <c r="I8" s="71"/>
+      <c r="J8" s="43">
         <v>4000</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>45512</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="42">
         <v>6000</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="23">
         <v>45514</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1">
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>45575</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>70265</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44">
+      <c r="E9" s="44"/>
+      <c r="F9" s="43">
         <v>10000</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <v>0</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <v>0</v>
       </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="44">
+      <c r="I9" s="71"/>
+      <c r="J9" s="43">
         <f>F9</f>
         <v>10000</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <v>45593</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>45593</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>71433</v>
       </c>
-      <c r="E10" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="52">
+      <c r="E10" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="51">
         <v>10000</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="51">
         <v>0</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="2:17" ht="4.5" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="103">
+      <c r="B12" s="113">
         <v>45594</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="69">
+      <c r="D12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="68">
         <f>J12+L12</f>
         <v>8000</v>
       </c>
-      <c r="G12" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="44">
+      <c r="G12" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="43">
         <v>6000</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="23">
         <v>45594</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="53">
         <v>2000</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <v>45598</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="B13" s="104"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="80">
+      <c r="B13" s="114"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="79">
         <f>G10-F12</f>
         <v>2000</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="79">
         <v>0</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="44" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="K13" s="50"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>45595</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>71397</v>
       </c>
-      <c r="E14" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="59">
+      <c r="E14" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="112"/>
+      <c r="G14" s="58">
         <f>G13+10000</f>
         <v>12000</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="58">
         <v>0</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="2:17" ht="30">
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>45593</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="44">
+      <c r="D15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="43">
         <v>3400</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="82">
+      <c r="F15" s="80"/>
+      <c r="G15" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="81">
         <v>0</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="54">
+      <c r="I15" s="72"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="53">
         <f>E15</f>
         <v>3400</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <v>45598</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="2:17" ht="5.25" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="105">
+      <c r="B17" s="115">
         <v>45632</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="83">
+      <c r="D17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="82">
         <v>10000</v>
       </c>
-      <c r="G17" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="44">
+      <c r="G17" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="43">
         <v>10000</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="91">
         <v>45659</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="106"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="70">
+      <c r="B18" s="116"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="69">
         <f>G14-F17</f>
         <v>2000</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="69">
         <v>0</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="49"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="91">
+      <c r="B19" s="90">
         <v>45659</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="64">
         <v>73183</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="90">
+      <c r="E19" s="67"/>
+      <c r="F19" s="89">
         <v>10000</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="84">
+      <c r="G19" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="83">
         <f>F19-J19</f>
         <v>4000</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="44">
+      <c r="I19" s="74"/>
+      <c r="J19" s="43">
         <v>6000</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="44">
+      <c r="D20" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="43">
         <v>10000</v>
       </c>
-      <c r="F20" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="44">
+      <c r="F20" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="118"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="43">
         <v>10000</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="44">
+      <c r="D21" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="43">
         <v>10000</v>
       </c>
-      <c r="G21" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="66">
+      <c r="G21" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="65">
         <f>H19+F21-L21</f>
         <v>8000</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="54">
+      <c r="I21" s="74"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="53">
         <v>6000</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="23">
         <v>45666</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="55" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="74"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="S22" s="57"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="12" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="43">
+      <c r="N23" s="11"/>
+      <c r="O23" s="42">
         <v>28000</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="43" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="G26" s="56"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="76"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="2:19" ht="17.25">
-      <c r="B27" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="76"/>
+      <c r="B28" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="76"/>
+      <c r="B29" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="G30" s="56"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="76"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="G31" s="56"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="76"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="G32" s="56"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="76"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="75"/>
     </row>
     <row r="33" spans="7:9">
-      <c r="G33" s="56"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="76"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="7:9">
-      <c r="G34" s="56"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="76"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="7:9">
-      <c r="G35" s="56"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="76"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="75"/>
     </row>
     <row r="36" spans="7:9">
-      <c r="G36" s="56"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="76"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="75"/>
     </row>
     <row r="37" spans="7:9">
-      <c r="G37" s="56"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="76"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="75"/>
     </row>
     <row r="38" spans="7:9">
-      <c r="G38" s="56"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="76"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="7:9">
-      <c r="G39" s="56"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="76"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="7:9">
-      <c r="G40" s="56"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="76"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="7:9">
-      <c r="G41" s="56"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="76"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="75"/>
     </row>
     <row r="42" spans="7:9">
-      <c r="G42" s="56"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="76"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="75"/>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="56"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="76"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="75"/>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="56"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="76"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="75"/>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="56"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="76"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="75"/>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="56"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="76"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="75"/>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="56"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="76"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="75"/>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="56"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="76"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="75"/>
     </row>
     <row r="49" spans="7:9">
-      <c r="G49" s="56"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="76"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="75"/>
     </row>
     <row r="50" spans="7:9">
-      <c r="G50" s="56"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="76"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="75"/>
     </row>
     <row r="51" spans="7:9">
-      <c r="G51" s="56"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="76"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="75"/>
     </row>
     <row r="52" spans="7:9">
-      <c r="G52" s="56"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="76"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="75"/>
     </row>
     <row r="53" spans="7:9">
-      <c r="G53" s="56"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="76"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="75"/>
     </row>
     <row r="54" spans="7:9">
-      <c r="G54" s="56"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="76"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="75"/>
     </row>
     <row r="55" spans="7:9">
-      <c r="G55" s="56"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="76"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="75"/>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="56"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="76"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="75"/>
     </row>
     <row r="57" spans="7:9">
-      <c r="G57" s="56"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="76"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="75"/>
     </row>
     <row r="58" spans="7:9">
-      <c r="G58" s="56"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="76"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="75"/>
     </row>
     <row r="59" spans="7:9">
-      <c r="G59" s="56"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="76"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="75"/>
     </row>
     <row r="60" spans="7:9">
-      <c r="G60" s="56"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="76"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="75"/>
     </row>
     <row r="61" spans="7:9">
-      <c r="G61" s="56"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="76"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="7:9">
-      <c r="G62" s="56"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="76"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="75"/>
     </row>
     <row r="63" spans="7:9">
-      <c r="G63" s="56"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="76"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="75"/>
     </row>
     <row r="64" spans="7:9">
-      <c r="G64" s="56"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="76"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="75"/>
     </row>
     <row r="65" spans="7:9">
-      <c r="G65" s="56"/>
-      <c r="H65" s="95"/>
-      <c r="I65" s="76"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="75"/>
     </row>
     <row r="66" spans="7:9">
-      <c r="G66" s="56"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="76"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="75"/>
     </row>
     <row r="67" spans="7:9">
-      <c r="G67" s="56"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="76"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="75"/>
     </row>
     <row r="68" spans="7:9">
-      <c r="G68" s="56"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="76"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="75"/>
     </row>
     <row r="69" spans="7:9">
-      <c r="G69" s="56"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="76"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="75"/>
     </row>
     <row r="70" spans="7:9">
-      <c r="G70" s="56"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="76"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="75"/>
     </row>
     <row r="71" spans="7:9">
-      <c r="G71" s="56"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="76"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="75"/>
     </row>
     <row r="72" spans="7:9">
-      <c r="G72" s="56"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="76"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="75"/>
     </row>
     <row r="73" spans="7:9">
-      <c r="G73" s="56"/>
-      <c r="H73" s="95"/>
-      <c r="I73" s="76"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="75"/>
     </row>
     <row r="74" spans="7:9">
-      <c r="G74" s="56"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="76"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="75"/>
     </row>
     <row r="75" spans="7:9">
-      <c r="G75" s="56"/>
-      <c r="H75" s="95"/>
-      <c r="I75" s="76"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="75"/>
     </row>
     <row r="76" spans="7:9">
-      <c r="G76" s="56"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="76"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="75"/>
     </row>
     <row r="77" spans="7:9">
-      <c r="G77" s="56"/>
-      <c r="H77" s="95"/>
-      <c r="I77" s="76"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="75"/>
     </row>
     <row r="78" spans="7:9">
-      <c r="G78" s="56"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="76"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="75"/>
     </row>
     <row r="79" spans="7:9">
-      <c r="G79" s="56"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="76"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="75"/>
     </row>
     <row r="80" spans="7:9">
-      <c r="G80" s="56"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="76"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="75"/>
     </row>
     <row r="81" spans="7:9">
-      <c r="G81" s="56"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="76"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="75"/>
     </row>
     <row r="82" spans="7:9">
-      <c r="G82" s="56"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="76"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="75"/>
     </row>
     <row r="83" spans="7:9">
-      <c r="G83" s="56"/>
-      <c r="H83" s="95"/>
-      <c r="I83" s="76"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="75"/>
     </row>
     <row r="84" spans="7:9">
-      <c r="G84" s="56"/>
-      <c r="H84" s="95"/>
-      <c r="I84" s="76"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="75"/>
     </row>
     <row r="85" spans="7:9">
-      <c r="G85" s="56"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="76"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="75"/>
     </row>
     <row r="86" spans="7:9">
-      <c r="G86" s="56"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="76"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="75"/>
     </row>
     <row r="87" spans="7:9">
-      <c r="G87" s="56"/>
-      <c r="H87" s="95"/>
-      <c r="I87" s="76"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="75"/>
     </row>
     <row r="88" spans="7:9">
-      <c r="G88" s="56"/>
-      <c r="H88" s="95"/>
-      <c r="I88" s="76"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="94"/>
+      <c r="I88" s="75"/>
     </row>
     <row r="89" spans="7:9">
-      <c r="G89" s="56"/>
-      <c r="H89" s="95"/>
-      <c r="I89" s="76"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="75"/>
     </row>
     <row r="90" spans="7:9">
-      <c r="G90" s="56"/>
-      <c r="H90" s="95"/>
-      <c r="I90" s="76"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="75"/>
     </row>
     <row r="91" spans="7:9">
-      <c r="G91" s="56"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="76"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="94"/>
+      <c r="I91" s="75"/>
     </row>
     <row r="92" spans="7:9">
-      <c r="G92" s="56"/>
-      <c r="H92" s="95"/>
-      <c r="I92" s="76"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="75"/>
     </row>
     <row r="93" spans="7:9">
-      <c r="G93" s="56"/>
-      <c r="H93" s="95"/>
-      <c r="I93" s="76"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="75"/>
     </row>
     <row r="94" spans="7:9">
-      <c r="G94" s="56"/>
-      <c r="H94" s="95"/>
-      <c r="I94" s="76"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="75"/>
     </row>
     <row r="95" spans="7:9">
-      <c r="G95" s="56"/>
-      <c r="H95" s="95"/>
-      <c r="I95" s="76"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="94"/>
+      <c r="I95" s="75"/>
     </row>
     <row r="96" spans="7:9">
-      <c r="G96" s="56"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="76"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="94"/>
+      <c r="I96" s="75"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="56"/>
-      <c r="H97" s="95"/>
-      <c r="I97" s="76"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="94"/>
+      <c r="I97" s="75"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="56"/>
-      <c r="H98" s="95"/>
-      <c r="I98" s="76"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="94"/>
+      <c r="I98" s="75"/>
     </row>
     <row r="99" spans="7:9">
-      <c r="G99" s="56"/>
-      <c r="H99" s="95"/>
-      <c r="I99" s="76"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="75"/>
     </row>
     <row r="100" spans="7:9">
-      <c r="G100" s="56"/>
-      <c r="H100" s="95"/>
-      <c r="I100" s="76"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="94"/>
+      <c r="I100" s="75"/>
     </row>
     <row r="101" spans="7:9">
-      <c r="G101" s="56"/>
-      <c r="H101" s="95"/>
-      <c r="I101" s="76"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="94"/>
+      <c r="I101" s="75"/>
     </row>
     <row r="102" spans="7:9">
-      <c r="G102" s="56"/>
-      <c r="H102" s="95"/>
-      <c r="I102" s="76"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="75"/>
     </row>
     <row r="103" spans="7:9">
-      <c r="G103" s="56"/>
-      <c r="H103" s="95"/>
-      <c r="I103" s="76"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="75"/>
     </row>
     <row r="104" spans="7:9">
-      <c r="G104" s="56"/>
-      <c r="H104" s="95"/>
-      <c r="I104" s="76"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="94"/>
+      <c r="I104" s="75"/>
     </row>
     <row r="105" spans="7:9">
-      <c r="G105" s="56"/>
-      <c r="H105" s="95"/>
-      <c r="I105" s="76"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="94"/>
+      <c r="I105" s="75"/>
     </row>
     <row r="106" spans="7:9">
-      <c r="G106" s="56"/>
-      <c r="H106" s="95"/>
-      <c r="I106" s="76"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="94"/>
+      <c r="I106" s="75"/>
     </row>
     <row r="107" spans="7:9">
-      <c r="G107" s="56"/>
-      <c r="H107" s="95"/>
-      <c r="I107" s="76"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="75"/>
     </row>
     <row r="108" spans="7:9">
-      <c r="G108" s="56"/>
-      <c r="H108" s="95"/>
-      <c r="I108" s="76"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="94"/>
+      <c r="I108" s="75"/>
     </row>
     <row r="109" spans="7:9">
-      <c r="G109" s="56"/>
-      <c r="H109" s="95"/>
-      <c r="I109" s="76"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="75"/>
     </row>
     <row r="110" spans="7:9">
-      <c r="G110" s="56"/>
-      <c r="H110" s="95"/>
-      <c r="I110" s="76"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="94"/>
+      <c r="I110" s="75"/>
     </row>
     <row r="111" spans="7:9">
-      <c r="G111" s="56"/>
-      <c r="H111" s="95"/>
-      <c r="I111" s="76"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="94"/>
+      <c r="I111" s="75"/>
     </row>
     <row r="112" spans="7:9">
-      <c r="G112" s="56"/>
-      <c r="H112" s="95"/>
-      <c r="I112" s="76"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="75"/>
     </row>
     <row r="113" spans="7:9">
-      <c r="G113" s="56"/>
-      <c r="H113" s="95"/>
-      <c r="I113" s="76"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="75"/>
     </row>
     <row r="114" spans="7:9">
-      <c r="G114" s="56"/>
-      <c r="H114" s="95"/>
-      <c r="I114" s="76"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="75"/>
     </row>
     <row r="115" spans="7:9">
-      <c r="G115" s="56"/>
-      <c r="H115" s="95"/>
-      <c r="I115" s="76"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="75"/>
     </row>
     <row r="116" spans="7:9">
-      <c r="G116" s="56"/>
-      <c r="H116" s="95"/>
-      <c r="I116" s="76"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="94"/>
+      <c r="I116" s="75"/>
     </row>
     <row r="117" spans="7:9">
-      <c r="G117" s="56"/>
-      <c r="H117" s="95"/>
-      <c r="I117" s="76"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="94"/>
+      <c r="I117" s="75"/>
     </row>
     <row r="118" spans="7:9">
-      <c r="G118" s="56"/>
-      <c r="H118" s="95"/>
-      <c r="I118" s="76"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="94"/>
+      <c r="I118" s="75"/>
     </row>
     <row r="119" spans="7:9">
-      <c r="G119" s="56"/>
-      <c r="H119" s="95"/>
-      <c r="I119" s="76"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="75"/>
     </row>
     <row r="120" spans="7:9">
-      <c r="G120" s="56"/>
-      <c r="H120" s="95"/>
-      <c r="I120" s="76"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="75"/>
     </row>
     <row r="121" spans="7:9">
-      <c r="G121" s="56"/>
-      <c r="H121" s="95"/>
-      <c r="I121" s="76"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="75"/>
     </row>
     <row r="122" spans="7:9">
-      <c r="G122" s="56"/>
-      <c r="H122" s="95"/>
-      <c r="I122" s="76"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="75"/>
     </row>
     <row r="123" spans="7:9">
-      <c r="G123" s="56"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="76"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="94"/>
+      <c r="I123" s="75"/>
     </row>
     <row r="124" spans="7:9">
-      <c r="G124" s="56"/>
-      <c r="H124" s="95"/>
-      <c r="I124" s="76"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="94"/>
+      <c r="I124" s="75"/>
     </row>
     <row r="125" spans="7:9">
-      <c r="G125" s="56"/>
-      <c r="H125" s="95"/>
-      <c r="I125" s="76"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="75"/>
     </row>
     <row r="126" spans="7:9">
-      <c r="G126" s="56"/>
-      <c r="H126" s="95"/>
-      <c r="I126" s="76"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="94"/>
+      <c r="I126" s="75"/>
     </row>
     <row r="127" spans="7:9">
-      <c r="G127" s="56"/>
-      <c r="H127" s="95"/>
-      <c r="I127" s="76"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="94"/>
+      <c r="I127" s="75"/>
     </row>
     <row r="128" spans="7:9">
-      <c r="G128" s="56"/>
-      <c r="H128" s="95"/>
-      <c r="I128" s="76"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="75"/>
     </row>
     <row r="129" spans="7:9">
-      <c r="G129" s="56"/>
-      <c r="H129" s="95"/>
-      <c r="I129" s="76"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="94"/>
+      <c r="I129" s="75"/>
     </row>
     <row r="130" spans="7:9">
-      <c r="G130" s="56"/>
-      <c r="H130" s="95"/>
-      <c r="I130" s="76"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="94"/>
+      <c r="I130" s="75"/>
     </row>
     <row r="131" spans="7:9">
-      <c r="G131" s="56"/>
-      <c r="H131" s="95"/>
-      <c r="I131" s="76"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="94"/>
+      <c r="I131" s="75"/>
     </row>
     <row r="132" spans="7:9">
-      <c r="G132" s="56"/>
-      <c r="H132" s="95"/>
-      <c r="I132" s="76"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="94"/>
+      <c r="I132" s="75"/>
     </row>
     <row r="133" spans="7:9">
-      <c r="G133" s="56"/>
-      <c r="H133" s="95"/>
-      <c r="I133" s="76"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="94"/>
+      <c r="I133" s="75"/>
     </row>
     <row r="134" spans="7:9">
-      <c r="G134" s="56"/>
-      <c r="H134" s="95"/>
-      <c r="I134" s="76"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="94"/>
+      <c r="I134" s="75"/>
     </row>
     <row r="135" spans="7:9">
-      <c r="G135" s="56"/>
-      <c r="H135" s="95"/>
-      <c r="I135" s="76"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="94"/>
+      <c r="I135" s="75"/>
     </row>
     <row r="136" spans="7:9">
-      <c r="G136" s="56"/>
-      <c r="H136" s="95"/>
-      <c r="I136" s="76"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="94"/>
+      <c r="I136" s="75"/>
     </row>
     <row r="137" spans="7:9">
-      <c r="G137" s="56"/>
-      <c r="H137" s="95"/>
-      <c r="I137" s="76"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="75"/>
     </row>
     <row r="138" spans="7:9">
-      <c r="G138" s="56"/>
-      <c r="H138" s="95"/>
-      <c r="I138" s="76"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="94"/>
+      <c r="I138" s="75"/>
     </row>
     <row r="139" spans="7:9">
-      <c r="G139" s="56"/>
-      <c r="H139" s="95"/>
-      <c r="I139" s="76"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="75"/>
     </row>
     <row r="140" spans="7:9">
-      <c r="G140" s="56"/>
-      <c r="H140" s="95"/>
-      <c r="I140" s="76"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="94"/>
+      <c r="I140" s="75"/>
     </row>
     <row r="141" spans="7:9">
-      <c r="G141" s="56"/>
-      <c r="H141" s="95"/>
-      <c r="I141" s="76"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="94"/>
+      <c r="I141" s="75"/>
     </row>
     <row r="142" spans="7:9">
-      <c r="G142" s="56"/>
-      <c r="H142" s="95"/>
-      <c r="I142" s="76"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="94"/>
+      <c r="I142" s="75"/>
     </row>
     <row r="143" spans="7:9">
-      <c r="G143" s="56"/>
-      <c r="H143" s="95"/>
-      <c r="I143" s="76"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="94"/>
+      <c r="I143" s="75"/>
     </row>
     <row r="144" spans="7:9">
-      <c r="G144" s="56"/>
-      <c r="H144" s="95"/>
-      <c r="I144" s="76"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="94"/>
+      <c r="I144" s="75"/>
     </row>
     <row r="145" spans="7:9">
-      <c r="G145" s="56"/>
-      <c r="H145" s="95"/>
-      <c r="I145" s="76"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="94"/>
+      <c r="I145" s="75"/>
     </row>
     <row r="146" spans="7:9">
-      <c r="G146" s="56"/>
-      <c r="H146" s="95"/>
-      <c r="I146" s="76"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="94"/>
+      <c r="I146" s="75"/>
     </row>
     <row r="147" spans="7:9">
-      <c r="G147" s="56"/>
-      <c r="H147" s="95"/>
-      <c r="I147" s="76"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="94"/>
+      <c r="I147" s="75"/>
     </row>
     <row r="148" spans="7:9">
-      <c r="G148" s="56"/>
-      <c r="H148" s="95"/>
-      <c r="I148" s="76"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="94"/>
+      <c r="I148" s="75"/>
     </row>
     <row r="149" spans="7:9">
-      <c r="G149" s="56"/>
-      <c r="H149" s="95"/>
-      <c r="I149" s="76"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="94"/>
+      <c r="I149" s="75"/>
     </row>
     <row r="150" spans="7:9">
-      <c r="G150" s="56"/>
-      <c r="H150" s="95"/>
-      <c r="I150" s="76"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="94"/>
+      <c r="I150" s="75"/>
     </row>
     <row r="151" spans="7:9">
-      <c r="G151" s="56"/>
-      <c r="H151" s="95"/>
-      <c r="I151" s="76"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="94"/>
+      <c r="I151" s="75"/>
     </row>
     <row r="152" spans="7:9">
-      <c r="G152" s="56"/>
-      <c r="H152" s="95"/>
-      <c r="I152" s="76"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="94"/>
+      <c r="I152" s="75"/>
     </row>
     <row r="153" spans="7:9">
-      <c r="G153" s="56"/>
-      <c r="H153" s="95"/>
-      <c r="I153" s="76"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="94"/>
+      <c r="I153" s="75"/>
     </row>
     <row r="154" spans="7:9">
-      <c r="G154" s="56"/>
-      <c r="H154" s="95"/>
-      <c r="I154" s="76"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="94"/>
+      <c r="I154" s="75"/>
     </row>
     <row r="155" spans="7:9">
-      <c r="G155" s="56"/>
-      <c r="H155" s="95"/>
-      <c r="I155" s="76"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="75"/>
     </row>
     <row r="156" spans="7:9">
-      <c r="G156" s="56"/>
-      <c r="H156" s="95"/>
-      <c r="I156" s="76"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="94"/>
+      <c r="I156" s="75"/>
     </row>
     <row r="157" spans="7:9">
-      <c r="G157" s="56"/>
-      <c r="H157" s="95"/>
-      <c r="I157" s="76"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="94"/>
+      <c r="I157" s="75"/>
     </row>
     <row r="158" spans="7:9">
-      <c r="G158" s="56"/>
-      <c r="H158" s="95"/>
-      <c r="I158" s="76"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="94"/>
+      <c r="I158" s="75"/>
     </row>
     <row r="159" spans="7:9">
-      <c r="G159" s="56"/>
-      <c r="H159" s="95"/>
-      <c r="I159" s="76"/>
+      <c r="G159" s="55"/>
+      <c r="H159" s="94"/>
+      <c r="I159" s="75"/>
     </row>
     <row r="160" spans="7:9">
-      <c r="G160" s="56"/>
-      <c r="H160" s="95"/>
-      <c r="I160" s="76"/>
+      <c r="G160" s="55"/>
+      <c r="H160" s="94"/>
+      <c r="I160" s="75"/>
     </row>
     <row r="161" spans="7:9">
-      <c r="G161" s="56"/>
-      <c r="H161" s="95"/>
-      <c r="I161" s="76"/>
+      <c r="G161" s="55"/>
+      <c r="H161" s="94"/>
+      <c r="I161" s="75"/>
     </row>
     <row r="162" spans="7:9">
-      <c r="G162" s="56"/>
-      <c r="H162" s="95"/>
-      <c r="I162" s="76"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="94"/>
+      <c r="I162" s="75"/>
     </row>
     <row r="163" spans="7:9">
-      <c r="G163" s="56"/>
-      <c r="H163" s="95"/>
-      <c r="I163" s="76"/>
+      <c r="G163" s="55"/>
+      <c r="H163" s="94"/>
+      <c r="I163" s="75"/>
     </row>
     <row r="164" spans="7:9">
-      <c r="G164" s="56"/>
-      <c r="H164" s="95"/>
-      <c r="I164" s="76"/>
+      <c r="G164" s="55"/>
+      <c r="H164" s="94"/>
+      <c r="I164" s="75"/>
     </row>
     <row r="165" spans="7:9">
-      <c r="G165" s="56"/>
-      <c r="H165" s="95"/>
-      <c r="I165" s="76"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="94"/>
+      <c r="I165" s="75"/>
     </row>
     <row r="166" spans="7:9">
-      <c r="G166" s="56"/>
-      <c r="H166" s="95"/>
-      <c r="I166" s="76"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="94"/>
+      <c r="I166" s="75"/>
     </row>
     <row r="167" spans="7:9">
-      <c r="G167" s="56"/>
-      <c r="H167" s="95"/>
-      <c r="I167" s="76"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="94"/>
+      <c r="I167" s="75"/>
     </row>
     <row r="168" spans="7:9">
-      <c r="G168" s="56"/>
-      <c r="H168" s="95"/>
-      <c r="I168" s="76"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="94"/>
+      <c r="I168" s="75"/>
     </row>
     <row r="169" spans="7:9">
-      <c r="G169" s="56"/>
-      <c r="H169" s="95"/>
-      <c r="I169" s="76"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="94"/>
+      <c r="I169" s="75"/>
     </row>
     <row r="170" spans="7:9">
-      <c r="G170" s="56"/>
-      <c r="H170" s="95"/>
-      <c r="I170" s="76"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="94"/>
+      <c r="I170" s="75"/>
     </row>
     <row r="171" spans="7:9">
-      <c r="G171" s="56"/>
-      <c r="H171" s="95"/>
-      <c r="I171" s="76"/>
+      <c r="G171" s="55"/>
+      <c r="H171" s="94"/>
+      <c r="I171" s="75"/>
     </row>
     <row r="172" spans="7:9">
-      <c r="G172" s="56"/>
-      <c r="H172" s="95"/>
-      <c r="I172" s="76"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="94"/>
+      <c r="I172" s="75"/>
     </row>
     <row r="173" spans="7:9">
-      <c r="G173" s="56"/>
-      <c r="H173" s="95"/>
-      <c r="I173" s="76"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="94"/>
+      <c r="I173" s="75"/>
     </row>
     <row r="174" spans="7:9">
-      <c r="G174" s="56"/>
-      <c r="H174" s="95"/>
-      <c r="I174" s="76"/>
+      <c r="G174" s="55"/>
+      <c r="H174" s="94"/>
+      <c r="I174" s="75"/>
     </row>
     <row r="175" spans="7:9">
-      <c r="G175" s="56"/>
-      <c r="H175" s="95"/>
-      <c r="I175" s="76"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="94"/>
+      <c r="I175" s="75"/>
     </row>
     <row r="176" spans="7:9">
-      <c r="G176" s="56"/>
-      <c r="H176" s="95"/>
-      <c r="I176" s="76"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="94"/>
+      <c r="I176" s="75"/>
     </row>
     <row r="177" spans="7:9">
-      <c r="G177" s="56"/>
-      <c r="H177" s="95"/>
-      <c r="I177" s="76"/>
+      <c r="G177" s="55"/>
+      <c r="H177" s="94"/>
+      <c r="I177" s="75"/>
     </row>
     <row r="178" spans="7:9">
-      <c r="G178" s="56"/>
-      <c r="H178" s="95"/>
-      <c r="I178" s="76"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="94"/>
+      <c r="I178" s="75"/>
     </row>
     <row r="179" spans="7:9">
-      <c r="G179" s="56"/>
-      <c r="H179" s="95"/>
-      <c r="I179" s="76"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="94"/>
+      <c r="I179" s="75"/>
     </row>
     <row r="180" spans="7:9">
-      <c r="G180" s="56"/>
-      <c r="H180" s="95"/>
-      <c r="I180" s="76"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="94"/>
+      <c r="I180" s="75"/>
     </row>
     <row r="181" spans="7:9">
-      <c r="G181" s="56"/>
-      <c r="H181" s="95"/>
-      <c r="I181" s="76"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="94"/>
+      <c r="I181" s="75"/>
     </row>
     <row r="182" spans="7:9">
-      <c r="G182" s="56"/>
-      <c r="H182" s="95"/>
-      <c r="I182" s="76"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="94"/>
+      <c r="I182" s="75"/>
     </row>
     <row r="183" spans="7:9">
-      <c r="G183" s="56"/>
-      <c r="H183" s="95"/>
-      <c r="I183" s="76"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="94"/>
+      <c r="I183" s="75"/>
     </row>
     <row r="184" spans="7:9">
-      <c r="G184" s="56"/>
-      <c r="H184" s="95"/>
-      <c r="I184" s="76"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="94"/>
+      <c r="I184" s="75"/>
     </row>
     <row r="185" spans="7:9">
-      <c r="G185" s="56"/>
-      <c r="H185" s="95"/>
-      <c r="I185" s="76"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="94"/>
+      <c r="I185" s="75"/>
     </row>
     <row r="186" spans="7:9">
-      <c r="G186" s="56"/>
-      <c r="H186" s="95"/>
-      <c r="I186" s="76"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="94"/>
+      <c r="I186" s="75"/>
     </row>
     <row r="187" spans="7:9">
-      <c r="G187" s="56"/>
-      <c r="H187" s="95"/>
-      <c r="I187" s="76"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="94"/>
+      <c r="I187" s="75"/>
     </row>
     <row r="188" spans="7:9">
-      <c r="G188" s="56"/>
-      <c r="H188" s="95"/>
-      <c r="I188" s="76"/>
+      <c r="G188" s="55"/>
+      <c r="H188" s="94"/>
+      <c r="I188" s="75"/>
     </row>
     <row r="189" spans="7:9">
-      <c r="G189" s="56"/>
-      <c r="H189" s="95"/>
-      <c r="I189" s="76"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="94"/>
+      <c r="I189" s="75"/>
     </row>
     <row r="190" spans="7:9">
-      <c r="G190" s="56"/>
-      <c r="H190" s="95"/>
-      <c r="I190" s="76"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="94"/>
+      <c r="I190" s="75"/>
     </row>
     <row r="191" spans="7:9">
-      <c r="G191" s="56"/>
-      <c r="H191" s="95"/>
-      <c r="I191" s="76"/>
+      <c r="G191" s="55"/>
+      <c r="H191" s="94"/>
+      <c r="I191" s="75"/>
     </row>
     <row r="192" spans="7:9">
-      <c r="G192" s="56"/>
-      <c r="H192" s="95"/>
-      <c r="I192" s="76"/>
+      <c r="G192" s="55"/>
+      <c r="H192" s="94"/>
+      <c r="I192" s="75"/>
     </row>
     <row r="193" spans="7:9">
-      <c r="G193" s="56"/>
-      <c r="H193" s="95"/>
-      <c r="I193" s="76"/>
+      <c r="G193" s="55"/>
+      <c r="H193" s="94"/>
+      <c r="I193" s="75"/>
     </row>
     <row r="194" spans="7:9">
-      <c r="G194" s="56"/>
-      <c r="H194" s="95"/>
-      <c r="I194" s="76"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="94"/>
+      <c r="I194" s="75"/>
     </row>
     <row r="195" spans="7:9">
-      <c r="G195" s="56"/>
-      <c r="H195" s="95"/>
-      <c r="I195" s="76"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="94"/>
+      <c r="I195" s="75"/>
     </row>
     <row r="196" spans="7:9">
-      <c r="G196" s="56"/>
-      <c r="H196" s="95"/>
-      <c r="I196" s="76"/>
+      <c r="G196" s="55"/>
+      <c r="H196" s="94"/>
+      <c r="I196" s="75"/>
     </row>
     <row r="197" spans="7:9">
-      <c r="G197" s="56"/>
-      <c r="H197" s="95"/>
-      <c r="I197" s="76"/>
+      <c r="G197" s="55"/>
+      <c r="H197" s="94"/>
+      <c r="I197" s="75"/>
     </row>
     <row r="198" spans="7:9">
-      <c r="G198" s="56"/>
-      <c r="H198" s="95"/>
-      <c r="I198" s="76"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="94"/>
+      <c r="I198" s="75"/>
     </row>
     <row r="199" spans="7:9">
-      <c r="G199" s="56"/>
-      <c r="H199" s="95"/>
-      <c r="I199" s="76"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="94"/>
+      <c r="I199" s="75"/>
     </row>
     <row r="200" spans="7:9">
-      <c r="G200" s="56"/>
-      <c r="H200" s="95"/>
-      <c r="I200" s="76"/>
+      <c r="G200" s="55"/>
+      <c r="H200" s="94"/>
+      <c r="I200" s="75"/>
     </row>
     <row r="201" spans="7:9">
-      <c r="G201" s="56"/>
-      <c r="H201" s="95"/>
-      <c r="I201" s="76"/>
+      <c r="G201" s="55"/>
+      <c r="H201" s="94"/>
+      <c r="I201" s="75"/>
     </row>
     <row r="202" spans="7:9">
-      <c r="G202" s="56"/>
-      <c r="H202" s="95"/>
-      <c r="I202" s="76"/>
+      <c r="G202" s="55"/>
+      <c r="H202" s="94"/>
+      <c r="I202" s="75"/>
     </row>
     <row r="203" spans="7:9">
-      <c r="G203" s="56"/>
-      <c r="H203" s="95"/>
-      <c r="I203" s="76"/>
+      <c r="G203" s="55"/>
+      <c r="H203" s="94"/>
+      <c r="I203" s="75"/>
     </row>
     <row r="204" spans="7:9">
-      <c r="G204" s="56"/>
-      <c r="H204" s="95"/>
-      <c r="I204" s="76"/>
+      <c r="G204" s="55"/>
+      <c r="H204" s="94"/>
+      <c r="I204" s="75"/>
     </row>
     <row r="205" spans="7:9">
-      <c r="G205" s="56"/>
-      <c r="H205" s="95"/>
-      <c r="I205" s="76"/>
+      <c r="G205" s="55"/>
+      <c r="H205" s="94"/>
+      <c r="I205" s="75"/>
     </row>
     <row r="206" spans="7:9">
-      <c r="G206" s="56"/>
-      <c r="H206" s="95"/>
-      <c r="I206" s="76"/>
+      <c r="G206" s="55"/>
+      <c r="H206" s="94"/>
+      <c r="I206" s="75"/>
     </row>
     <row r="207" spans="7:9">
-      <c r="G207" s="56"/>
-      <c r="H207" s="95"/>
-      <c r="I207" s="76"/>
+      <c r="G207" s="55"/>
+      <c r="H207" s="94"/>
+      <c r="I207" s="75"/>
     </row>
     <row r="208" spans="7:9">
-      <c r="G208" s="56"/>
-      <c r="H208" s="95"/>
-      <c r="I208" s="76"/>
+      <c r="G208" s="55"/>
+      <c r="H208" s="94"/>
+      <c r="I208" s="75"/>
     </row>
     <row r="209" spans="7:9">
-      <c r="G209" s="56"/>
-      <c r="H209" s="95"/>
-      <c r="I209" s="76"/>
+      <c r="G209" s="55"/>
+      <c r="H209" s="94"/>
+      <c r="I209" s="75"/>
     </row>
     <row r="210" spans="7:9">
-      <c r="G210" s="56"/>
-      <c r="H210" s="95"/>
-      <c r="I210" s="76"/>
+      <c r="G210" s="55"/>
+      <c r="H210" s="94"/>
+      <c r="I210" s="75"/>
     </row>
     <row r="211" spans="7:9">
-      <c r="G211" s="56"/>
-      <c r="H211" s="95"/>
-      <c r="I211" s="76"/>
+      <c r="G211" s="55"/>
+      <c r="H211" s="94"/>
+      <c r="I211" s="75"/>
     </row>
     <row r="212" spans="7:9">
-      <c r="G212" s="56"/>
-      <c r="H212" s="95"/>
-      <c r="I212" s="76"/>
+      <c r="G212" s="55"/>
+      <c r="H212" s="94"/>
+      <c r="I212" s="75"/>
     </row>
     <row r="213" spans="7:9">
-      <c r="G213" s="56"/>
-      <c r="H213" s="95"/>
-      <c r="I213" s="76"/>
+      <c r="G213" s="55"/>
+      <c r="H213" s="94"/>
+      <c r="I213" s="75"/>
     </row>
     <row r="214" spans="7:9">
-      <c r="G214" s="56"/>
-      <c r="H214" s="95"/>
-      <c r="I214" s="76"/>
+      <c r="G214" s="55"/>
+      <c r="H214" s="94"/>
+      <c r="I214" s="75"/>
     </row>
     <row r="215" spans="7:9">
-      <c r="G215" s="56"/>
-      <c r="H215" s="95"/>
-      <c r="I215" s="76"/>
+      <c r="G215" s="55"/>
+      <c r="H215" s="94"/>
+      <c r="I215" s="75"/>
     </row>
     <row r="216" spans="7:9">
-      <c r="G216" s="56"/>
-      <c r="H216" s="95"/>
-      <c r="I216" s="76"/>
+      <c r="G216" s="55"/>
+      <c r="H216" s="94"/>
+      <c r="I216" s="75"/>
     </row>
     <row r="217" spans="7:9">
-      <c r="G217" s="56"/>
-      <c r="H217" s="95"/>
-      <c r="I217" s="76"/>
+      <c r="G217" s="55"/>
+      <c r="H217" s="94"/>
+      <c r="I217" s="75"/>
     </row>
     <row r="218" spans="7:9">
-      <c r="G218" s="56"/>
-      <c r="H218" s="95"/>
-      <c r="I218" s="76"/>
+      <c r="G218" s="55"/>
+      <c r="H218" s="94"/>
+      <c r="I218" s="75"/>
     </row>
     <row r="219" spans="7:9">
-      <c r="G219" s="56"/>
-      <c r="H219" s="95"/>
-      <c r="I219" s="76"/>
+      <c r="G219" s="55"/>
+      <c r="H219" s="94"/>
+      <c r="I219" s="75"/>
     </row>
     <row r="220" spans="7:9">
-      <c r="G220" s="56"/>
-      <c r="H220" s="95"/>
-      <c r="I220" s="76"/>
+      <c r="G220" s="55"/>
+      <c r="H220" s="94"/>
+      <c r="I220" s="75"/>
     </row>
     <row r="221" spans="7:9">
-      <c r="G221" s="56"/>
-      <c r="H221" s="95"/>
-      <c r="I221" s="76"/>
+      <c r="G221" s="55"/>
+      <c r="H221" s="94"/>
+      <c r="I221" s="75"/>
     </row>
     <row r="222" spans="7:9">
-      <c r="G222" s="56"/>
-      <c r="H222" s="95"/>
-      <c r="I222" s="76"/>
+      <c r="G222" s="55"/>
+      <c r="H222" s="94"/>
+      <c r="I222" s="75"/>
     </row>
     <row r="223" spans="7:9">
-      <c r="G223" s="56"/>
-      <c r="H223" s="95"/>
-      <c r="I223" s="76"/>
+      <c r="G223" s="55"/>
+      <c r="H223" s="94"/>
+      <c r="I223" s="75"/>
     </row>
     <row r="224" spans="7:9">
-      <c r="G224" s="56"/>
-      <c r="H224" s="95"/>
-      <c r="I224" s="76"/>
+      <c r="G224" s="55"/>
+      <c r="H224" s="94"/>
+      <c r="I224" s="75"/>
     </row>
     <row r="225" spans="7:9">
-      <c r="G225" s="56"/>
-      <c r="H225" s="95"/>
-      <c r="I225" s="76"/>
+      <c r="G225" s="55"/>
+      <c r="H225" s="94"/>
+      <c r="I225" s="75"/>
     </row>
     <row r="226" spans="7:9">
-      <c r="G226" s="56"/>
-      <c r="H226" s="95"/>
-      <c r="I226" s="76"/>
+      <c r="G226" s="55"/>
+      <c r="H226" s="94"/>
+      <c r="I226" s="75"/>
     </row>
     <row r="227" spans="7:9">
-      <c r="G227" s="56"/>
-      <c r="H227" s="95"/>
-      <c r="I227" s="76"/>
+      <c r="G227" s="55"/>
+      <c r="H227" s="94"/>
+      <c r="I227" s="75"/>
     </row>
     <row r="228" spans="7:9">
-      <c r="G228" s="56"/>
-      <c r="H228" s="95"/>
-      <c r="I228" s="76"/>
+      <c r="G228" s="55"/>
+      <c r="H228" s="94"/>
+      <c r="I228" s="75"/>
     </row>
     <row r="229" spans="7:9">
-      <c r="G229" s="56"/>
-      <c r="H229" s="95"/>
-      <c r="I229" s="76"/>
+      <c r="G229" s="55"/>
+      <c r="H229" s="94"/>
+      <c r="I229" s="75"/>
     </row>
     <row r="230" spans="7:9">
-      <c r="G230" s="56"/>
-      <c r="H230" s="95"/>
-      <c r="I230" s="76"/>
+      <c r="G230" s="55"/>
+      <c r="H230" s="94"/>
+      <c r="I230" s="75"/>
     </row>
     <row r="231" spans="7:9">
-      <c r="G231" s="56"/>
-      <c r="H231" s="95"/>
-      <c r="I231" s="76"/>
+      <c r="G231" s="55"/>
+      <c r="H231" s="94"/>
+      <c r="I231" s="75"/>
     </row>
     <row r="232" spans="7:9">
-      <c r="G232" s="56"/>
-      <c r="H232" s="95"/>
-      <c r="I232" s="76"/>
+      <c r="G232" s="55"/>
+      <c r="H232" s="94"/>
+      <c r="I232" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="E3:F3"/>
@@ -3002,11 +3056,6 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3030,7 +3079,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="20" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
@@ -3039,577 +3088,577 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="121" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="24">
+      <c r="C4" s="11"/>
+      <c r="D4" s="23">
         <v>45514</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>10000</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <f>E4</f>
         <v>10000</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>45516</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>45541</v>
       </c>
       <c r="E5">
         <v>10072.86</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>5.4741</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>1820</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>45541</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>45545</v>
       </c>
       <c r="E6">
         <v>10067.77</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>5.4713000000000003</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>1820</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>45545</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>45549</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>9995.7999999999993</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>5.4922000000000004</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>1820</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="24">
+      <c r="H7" s="121"/>
+      <c r="I7" s="23">
         <v>45549</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>45567</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>9971.7800000000007</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f t="shared" ref="F8:F14" si="0">E8/G8</f>
         <v>5.4790000000000001</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>1820</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="24">
+      <c r="H8" s="121"/>
+      <c r="I8" s="23">
         <v>45567</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>45568</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>9981.18</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>5.4541967213114759</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>1830</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="24">
+      <c r="H9" s="121"/>
+      <c r="I9" s="23">
         <v>45568</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>45569</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>9974.42</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>1830</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="24">
+      <c r="H10" s="121"/>
+      <c r="I10" s="23">
         <v>45569</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>45573</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>9958.67</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>1830</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>45573</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>45576</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>9954.65</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>1830</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>45576</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>45598</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>9954.2199999999993</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>1840</v>
       </c>
-      <c r="H13" s="123" t="s">
+      <c r="H13" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>45598</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="24">
+      <c r="C14" s="11"/>
+      <c r="D14" s="23">
         <v>45598</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>9954.2199999999993</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>1840</v>
       </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="24">
+      <c r="H14" s="123"/>
+      <c r="I14" s="23">
         <v>45598</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>20000</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="24">
+      <c r="H15" s="124"/>
+      <c r="I15" s="23">
         <v>45598</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="24">
+      <c r="C16" s="11"/>
+      <c r="D16" s="23">
         <v>45605</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>9991.01</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <f>E16/G16</f>
         <v>5.4298967391304345</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>1840</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>45605</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="24">
+      <c r="C17" s="11"/>
+      <c r="D17" s="23">
         <v>45610</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>9997.9599999999991</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <f>E17/G17</f>
         <v>5.4043027027027026</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>1850</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>45610</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>45611</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>9991.48</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <f>E18/G18</f>
         <v>5.4007999999999994</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>1850</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <v>45611</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>45627</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>9979.9699999999993</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <f>E19/G19</f>
         <v>5.4238967391304342</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>1840</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <v>45627</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="24">
+      <c r="C20" s="11"/>
+      <c r="D20" s="23">
         <v>45648</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>9961.69</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <f>E20/G20</f>
         <v>5.384697297297298</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>1850</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <v>45648</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <f>SUM(E5:E13)+E18</f>
         <v>99922.829999999987</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>180000</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="33">
         <v>45648</v>
       </c>
     </row>
@@ -3617,7 +3666,7 @@
       <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <v>45612</v>
       </c>
     </row>
@@ -3636,10 +3685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3653,27 +3702,27 @@
     <col min="7" max="7" width="0.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
+      <c r="E2" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="134" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3681,254 +3730,243 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="125">
+        <v>520</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="130">
-        <v>520</v>
-      </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="130" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="132" t="s">
         <v>54</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="9">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="10">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="129" t="s">
+      <c r="K4" s="106"/>
+      <c r="L4" s="131" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="116"/>
-      <c r="L4" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="106"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="137"/>
+      <c r="J5" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="126" t="s">
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="106"/>
+      <c r="J7" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="128"/>
+      <c r="C8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="116" t="s">
+      <c r="E8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="116"/>
-      <c r="J7" s="12" t="s">
+      <c r="F8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="106"/>
+      <c r="J8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="127"/>
-      <c r="C8" s="11" t="s">
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D9" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="E9" s="106"/>
+      <c r="F9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="12" t="s">
+      <c r="K9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="129"/>
+      <c r="C10" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="128" t="s">
+      <c r="D10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="E10" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="J10" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12" t="s">
+      <c r="K10" s="104"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="10"/>
+      <c r="C11" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="E11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="128"/>
-      <c r="C10" s="11" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="J11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="112" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="114"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
+      <c r="L11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:K5"/>
+  <mergeCells count="16">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -3937,6 +3975,14 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9527EDD2-E204-45BA-89F1-4E64BFCD32EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3B0B0-CA84-48D3-8E3A-B268BFA183C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
   <si>
     <t>ChannelM</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>^max</t>
-  </si>
-  <si>
-    <t>LSQ icbc
-USD TD</t>
   </si>
   <si>
     <t>early Jan</t>
@@ -350,12 +346,6 @@
 EOD bal</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- kept in -&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>paper
 USD @DJDJ</t>
   </si>
@@ -363,12 +353,6 @@
     <t>!RMB means "No RMB converted"</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>^ keep till next trip</t>
-  </si>
-  <si>
     <t>M=mobank</t>
   </si>
   <si>
@@ -394,6 +378,30 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>6Jan proposed</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Channel 520 &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;&gt; kept in -&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Channel H &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>LSQ USD TD</t>
+  </si>
+  <si>
+    <t>^ max=6k</t>
+  </si>
+  <si>
+    <t>^ keep 8k till next trip</t>
+  </si>
+  <si>
+    <t>could derail</t>
   </si>
 </sst>
 </file>
@@ -408,7 +416,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +509,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -522,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -661,12 +676,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -833,12 +866,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -878,13 +905,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -918,7 +956,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -936,7 +974,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +983,15 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,6 +1013,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -975,29 +1028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1277,19 +1311,19 @@
   <dimension ref="B1:S232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="39" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="39" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="40" customWidth="1"/>
     <col min="7" max="7" width="8" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="93" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.140625" style="48" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="38" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
@@ -1307,56 +1341,56 @@
     </row>
     <row r="2" spans="2:17">
       <c r="D2" s="41"/>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
+      <c r="J2" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1">
-      <c r="C3" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102" t="s">
+      <c r="C3" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="70"/>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="102" t="s">
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="62" t="s">
         <v>6</v>
@@ -1367,8 +1401,8 @@
       <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
       <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
@@ -1564,10 +1598,10 @@
       <c r="D10" s="26">
         <v>71433</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="112"/>
+      <c r="E10" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="117"/>
       <c r="G10" s="51">
         <v>10000</v>
       </c>
@@ -1585,13 +1619,13 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="2:17" ht="4.5" customHeight="1">
-      <c r="B11" s="84"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="11"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="71"/>
       <c r="J11" s="43"/>
       <c r="K11" s="23"/>
@@ -1603,14 +1637,14 @@
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="113">
+      <c r="B12" s="118">
         <v>45594</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="68">
@@ -1618,9 +1652,9 @@
         <v>8000</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="92"/>
+        <v>97</v>
+      </c>
+      <c r="H12" s="90"/>
       <c r="I12" s="73"/>
       <c r="J12" s="43">
         <v>6000</v>
@@ -1642,12 +1676,12 @@
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="B13" s="114"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="45"/>
       <c r="D13" s="26"/>
       <c r="E13" s="76"/>
       <c r="F13" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="79">
         <f>G10-F12</f>
@@ -1675,10 +1709,10 @@
       <c r="D14" s="26">
         <v>71397</v>
       </c>
-      <c r="E14" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="112"/>
+      <c r="E14" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="117"/>
       <c r="G14" s="58">
         <f>G13+10000</f>
         <v>12000</v>
@@ -1696,29 +1730,27 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="2:17" ht="30">
+    <row r="15" spans="2:17">
       <c r="B15" s="23">
         <v>45593</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="43">
         <v>3400</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="81">
-        <v>0</v>
-      </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="50"/>
+      <c r="F15" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="53">
         <f>E15</f>
         <v>3400</v>
@@ -1734,13 +1766,13 @@
       <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="2:17" ht="5.25" customHeight="1">
-      <c r="B16" s="84"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="46"/>
       <c r="D16" s="64"/>
       <c r="E16" s="67"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="72"/>
       <c r="J16" s="47"/>
       <c r="K16" s="50"/>
@@ -1752,28 +1784,30 @@
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="115">
+      <c r="B17" s="120">
         <v>45632</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="67"/>
-      <c r="F17" s="82">
+      <c r="F17" s="80">
         <v>10000</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="93"/>
+        <v>97</v>
+      </c>
+      <c r="H17" s="91">
+        <v>0</v>
+      </c>
       <c r="I17" s="74"/>
       <c r="J17" s="43">
         <v>10000</v>
       </c>
-      <c r="K17" s="91">
+      <c r="K17" s="89">
         <v>45659</v>
       </c>
       <c r="L17" s="49"/>
@@ -1784,12 +1818,12 @@
       <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="116"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="11"/>
       <c r="D18" s="64"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="69">
         <f>G14-F17</f>
@@ -1809,7 +1843,7 @@
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="90">
+      <c r="B19" s="88">
         <v>45659</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1819,54 +1853,58 @@
         <v>73183</v>
       </c>
       <c r="E19" s="67"/>
-      <c r="F19" s="89">
+      <c r="F19" s="87">
         <v>10000</v>
       </c>
-      <c r="G19" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="83">
-        <f>F19-J19</f>
-        <v>4000</v>
+      <c r="G19" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="81">
+        <v>0</v>
       </c>
       <c r="I19" s="74"/>
       <c r="J19" s="43">
         <v>6000</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="11"/>
+      <c r="K19" s="89">
+        <v>45660</v>
+      </c>
+      <c r="L19" s="42">
+        <f>F19-J19</f>
+        <v>4000</v>
+      </c>
+      <c r="M19" s="23">
+        <v>45666</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="42"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="11" t="s">
-        <v>18</v>
+    <row r="20" spans="2:19" ht="15" customHeight="1">
+      <c r="B20" s="141" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="43">
         <v>10000</v>
       </c>
-      <c r="F20" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="119"/>
+      <c r="F20" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
       <c r="I20" s="74"/>
       <c r="J20" s="43">
         <v>10000</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="11"/>
@@ -1877,30 +1915,31 @@
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="96" t="s">
-        <v>95</v>
+      <c r="D21" s="94" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="43">
         <v>10000</v>
       </c>
-      <c r="G21" s="97" t="s">
-        <v>101</v>
+      <c r="G21" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="H21" s="65">
-        <f>H19+F21-L21</f>
+        <f>F21-L21</f>
         <v>8000</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="43"/>
       <c r="K21" s="50"/>
       <c r="L21" s="53">
-        <v>6000</v>
+        <f>6000-L19</f>
+        <v>2000</v>
       </c>
       <c r="M21" s="23">
         <v>45666</v>
@@ -1917,14 +1956,14 @@
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="99" t="s">
-        <v>105</v>
+      <c r="H22" s="96" t="s">
+        <v>116</v>
       </c>
       <c r="I22" s="74"/>
       <c r="J22" s="47"/>
       <c r="K22" s="50"/>
       <c r="L22" s="54" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="11"/>
@@ -1948,14 +1987,14 @@
       <c r="K23" s="50"/>
       <c r="L23" s="53"/>
       <c r="M23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="42">
         <v>28000</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="11"/>
     </row>
@@ -1974,7 +2013,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -1999,1055 +2038,1056 @@
     </row>
     <row r="26" spans="2:19">
       <c r="G26" s="55"/>
-      <c r="H26" s="94"/>
+      <c r="H26" s="92"/>
       <c r="I26" s="75"/>
     </row>
     <row r="27" spans="2:19" ht="17.25">
       <c r="B27" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="55"/>
-      <c r="H27" s="94"/>
+      <c r="H27" s="92"/>
       <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="98" t="s">
-        <v>103</v>
+      <c r="B28" s="95" t="s">
+        <v>100</v>
       </c>
       <c r="G28" s="55"/>
-      <c r="H28" s="94"/>
+      <c r="H28" s="92"/>
       <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="55"/>
-      <c r="H29" s="94"/>
+      <c r="H29" s="92"/>
       <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:19">
       <c r="G30" s="55"/>
-      <c r="H30" s="94"/>
+      <c r="H30" s="92"/>
       <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:19">
       <c r="G31" s="55"/>
-      <c r="H31" s="94"/>
+      <c r="H31" s="92"/>
       <c r="I31" s="75"/>
     </row>
     <row r="32" spans="2:19">
       <c r="G32" s="55"/>
-      <c r="H32" s="94"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="75"/>
     </row>
     <row r="33" spans="7:9">
       <c r="G33" s="55"/>
-      <c r="H33" s="94"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="75"/>
     </row>
     <row r="34" spans="7:9">
       <c r="G34" s="55"/>
-      <c r="H34" s="94"/>
+      <c r="H34" s="92"/>
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="7:9">
       <c r="G35" s="55"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="75"/>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" s="55"/>
-      <c r="H36" s="94"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="75"/>
     </row>
     <row r="37" spans="7:9">
       <c r="G37" s="55"/>
-      <c r="H37" s="94"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="75"/>
     </row>
     <row r="38" spans="7:9">
       <c r="G38" s="55"/>
-      <c r="H38" s="94"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="75"/>
     </row>
     <row r="39" spans="7:9">
       <c r="G39" s="55"/>
-      <c r="H39" s="94"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="75"/>
     </row>
     <row r="40" spans="7:9">
       <c r="G40" s="55"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="75"/>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" s="55"/>
-      <c r="H41" s="94"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="75"/>
     </row>
     <row r="42" spans="7:9">
       <c r="G42" s="55"/>
-      <c r="H42" s="94"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="75"/>
     </row>
     <row r="43" spans="7:9">
       <c r="G43" s="55"/>
-      <c r="H43" s="94"/>
+      <c r="H43" s="92"/>
       <c r="I43" s="75"/>
     </row>
     <row r="44" spans="7:9">
       <c r="G44" s="55"/>
-      <c r="H44" s="94"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="75"/>
     </row>
     <row r="45" spans="7:9">
       <c r="G45" s="55"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="75"/>
     </row>
     <row r="46" spans="7:9">
       <c r="G46" s="55"/>
-      <c r="H46" s="94"/>
+      <c r="H46" s="92"/>
       <c r="I46" s="75"/>
     </row>
     <row r="47" spans="7:9">
       <c r="G47" s="55"/>
-      <c r="H47" s="94"/>
+      <c r="H47" s="92"/>
       <c r="I47" s="75"/>
     </row>
     <row r="48" spans="7:9">
       <c r="G48" s="55"/>
-      <c r="H48" s="94"/>
+      <c r="H48" s="92"/>
       <c r="I48" s="75"/>
     </row>
     <row r="49" spans="7:9">
       <c r="G49" s="55"/>
-      <c r="H49" s="94"/>
+      <c r="H49" s="92"/>
       <c r="I49" s="75"/>
     </row>
     <row r="50" spans="7:9">
       <c r="G50" s="55"/>
-      <c r="H50" s="94"/>
+      <c r="H50" s="92"/>
       <c r="I50" s="75"/>
     </row>
     <row r="51" spans="7:9">
       <c r="G51" s="55"/>
-      <c r="H51" s="94"/>
+      <c r="H51" s="92"/>
       <c r="I51" s="75"/>
     </row>
     <row r="52" spans="7:9">
       <c r="G52" s="55"/>
-      <c r="H52" s="94"/>
+      <c r="H52" s="92"/>
       <c r="I52" s="75"/>
     </row>
     <row r="53" spans="7:9">
       <c r="G53" s="55"/>
-      <c r="H53" s="94"/>
+      <c r="H53" s="92"/>
       <c r="I53" s="75"/>
     </row>
     <row r="54" spans="7:9">
       <c r="G54" s="55"/>
-      <c r="H54" s="94"/>
+      <c r="H54" s="92"/>
       <c r="I54" s="75"/>
     </row>
     <row r="55" spans="7:9">
       <c r="G55" s="55"/>
-      <c r="H55" s="94"/>
+      <c r="H55" s="92"/>
       <c r="I55" s="75"/>
     </row>
     <row r="56" spans="7:9">
       <c r="G56" s="55"/>
-      <c r="H56" s="94"/>
+      <c r="H56" s="92"/>
       <c r="I56" s="75"/>
     </row>
     <row r="57" spans="7:9">
       <c r="G57" s="55"/>
-      <c r="H57" s="94"/>
+      <c r="H57" s="92"/>
       <c r="I57" s="75"/>
     </row>
     <row r="58" spans="7:9">
       <c r="G58" s="55"/>
-      <c r="H58" s="94"/>
+      <c r="H58" s="92"/>
       <c r="I58" s="75"/>
     </row>
     <row r="59" spans="7:9">
       <c r="G59" s="55"/>
-      <c r="H59" s="94"/>
+      <c r="H59" s="92"/>
       <c r="I59" s="75"/>
     </row>
     <row r="60" spans="7:9">
       <c r="G60" s="55"/>
-      <c r="H60" s="94"/>
+      <c r="H60" s="92"/>
       <c r="I60" s="75"/>
     </row>
     <row r="61" spans="7:9">
       <c r="G61" s="55"/>
-      <c r="H61" s="94"/>
+      <c r="H61" s="92"/>
       <c r="I61" s="75"/>
     </row>
     <row r="62" spans="7:9">
       <c r="G62" s="55"/>
-      <c r="H62" s="94"/>
+      <c r="H62" s="92"/>
       <c r="I62" s="75"/>
     </row>
     <row r="63" spans="7:9">
       <c r="G63" s="55"/>
-      <c r="H63" s="94"/>
+      <c r="H63" s="92"/>
       <c r="I63" s="75"/>
     </row>
     <row r="64" spans="7:9">
       <c r="G64" s="55"/>
-      <c r="H64" s="94"/>
+      <c r="H64" s="92"/>
       <c r="I64" s="75"/>
     </row>
     <row r="65" spans="7:9">
       <c r="G65" s="55"/>
-      <c r="H65" s="94"/>
+      <c r="H65" s="92"/>
       <c r="I65" s="75"/>
     </row>
     <row r="66" spans="7:9">
       <c r="G66" s="55"/>
-      <c r="H66" s="94"/>
+      <c r="H66" s="92"/>
       <c r="I66" s="75"/>
     </row>
     <row r="67" spans="7:9">
       <c r="G67" s="55"/>
-      <c r="H67" s="94"/>
+      <c r="H67" s="92"/>
       <c r="I67" s="75"/>
     </row>
     <row r="68" spans="7:9">
       <c r="G68" s="55"/>
-      <c r="H68" s="94"/>
+      <c r="H68" s="92"/>
       <c r="I68" s="75"/>
     </row>
     <row r="69" spans="7:9">
       <c r="G69" s="55"/>
-      <c r="H69" s="94"/>
+      <c r="H69" s="92"/>
       <c r="I69" s="75"/>
     </row>
     <row r="70" spans="7:9">
       <c r="G70" s="55"/>
-      <c r="H70" s="94"/>
+      <c r="H70" s="92"/>
       <c r="I70" s="75"/>
     </row>
     <row r="71" spans="7:9">
       <c r="G71" s="55"/>
-      <c r="H71" s="94"/>
+      <c r="H71" s="92"/>
       <c r="I71" s="75"/>
     </row>
     <row r="72" spans="7:9">
       <c r="G72" s="55"/>
-      <c r="H72" s="94"/>
+      <c r="H72" s="92"/>
       <c r="I72" s="75"/>
     </row>
     <row r="73" spans="7:9">
       <c r="G73" s="55"/>
-      <c r="H73" s="94"/>
+      <c r="H73" s="92"/>
       <c r="I73" s="75"/>
     </row>
     <row r="74" spans="7:9">
       <c r="G74" s="55"/>
-      <c r="H74" s="94"/>
+      <c r="H74" s="92"/>
       <c r="I74" s="75"/>
     </row>
     <row r="75" spans="7:9">
       <c r="G75" s="55"/>
-      <c r="H75" s="94"/>
+      <c r="H75" s="92"/>
       <c r="I75" s="75"/>
     </row>
     <row r="76" spans="7:9">
       <c r="G76" s="55"/>
-      <c r="H76" s="94"/>
+      <c r="H76" s="92"/>
       <c r="I76" s="75"/>
     </row>
     <row r="77" spans="7:9">
       <c r="G77" s="55"/>
-      <c r="H77" s="94"/>
+      <c r="H77" s="92"/>
       <c r="I77" s="75"/>
     </row>
     <row r="78" spans="7:9">
       <c r="G78" s="55"/>
-      <c r="H78" s="94"/>
+      <c r="H78" s="92"/>
       <c r="I78" s="75"/>
     </row>
     <row r="79" spans="7:9">
       <c r="G79" s="55"/>
-      <c r="H79" s="94"/>
+      <c r="H79" s="92"/>
       <c r="I79" s="75"/>
     </row>
     <row r="80" spans="7:9">
       <c r="G80" s="55"/>
-      <c r="H80" s="94"/>
+      <c r="H80" s="92"/>
       <c r="I80" s="75"/>
     </row>
     <row r="81" spans="7:9">
       <c r="G81" s="55"/>
-      <c r="H81" s="94"/>
+      <c r="H81" s="92"/>
       <c r="I81" s="75"/>
     </row>
     <row r="82" spans="7:9">
       <c r="G82" s="55"/>
-      <c r="H82" s="94"/>
+      <c r="H82" s="92"/>
       <c r="I82" s="75"/>
     </row>
     <row r="83" spans="7:9">
       <c r="G83" s="55"/>
-      <c r="H83" s="94"/>
+      <c r="H83" s="92"/>
       <c r="I83" s="75"/>
     </row>
     <row r="84" spans="7:9">
       <c r="G84" s="55"/>
-      <c r="H84" s="94"/>
+      <c r="H84" s="92"/>
       <c r="I84" s="75"/>
     </row>
     <row r="85" spans="7:9">
       <c r="G85" s="55"/>
-      <c r="H85" s="94"/>
+      <c r="H85" s="92"/>
       <c r="I85" s="75"/>
     </row>
     <row r="86" spans="7:9">
       <c r="G86" s="55"/>
-      <c r="H86" s="94"/>
+      <c r="H86" s="92"/>
       <c r="I86" s="75"/>
     </row>
     <row r="87" spans="7:9">
       <c r="G87" s="55"/>
-      <c r="H87" s="94"/>
+      <c r="H87" s="92"/>
       <c r="I87" s="75"/>
     </row>
     <row r="88" spans="7:9">
       <c r="G88" s="55"/>
-      <c r="H88" s="94"/>
+      <c r="H88" s="92"/>
       <c r="I88" s="75"/>
     </row>
     <row r="89" spans="7:9">
       <c r="G89" s="55"/>
-      <c r="H89" s="94"/>
+      <c r="H89" s="92"/>
       <c r="I89" s="75"/>
     </row>
     <row r="90" spans="7:9">
       <c r="G90" s="55"/>
-      <c r="H90" s="94"/>
+      <c r="H90" s="92"/>
       <c r="I90" s="75"/>
     </row>
     <row r="91" spans="7:9">
       <c r="G91" s="55"/>
-      <c r="H91" s="94"/>
+      <c r="H91" s="92"/>
       <c r="I91" s="75"/>
     </row>
     <row r="92" spans="7:9">
       <c r="G92" s="55"/>
-      <c r="H92" s="94"/>
+      <c r="H92" s="92"/>
       <c r="I92" s="75"/>
     </row>
     <row r="93" spans="7:9">
       <c r="G93" s="55"/>
-      <c r="H93" s="94"/>
+      <c r="H93" s="92"/>
       <c r="I93" s="75"/>
     </row>
     <row r="94" spans="7:9">
       <c r="G94" s="55"/>
-      <c r="H94" s="94"/>
+      <c r="H94" s="92"/>
       <c r="I94" s="75"/>
     </row>
     <row r="95" spans="7:9">
       <c r="G95" s="55"/>
-      <c r="H95" s="94"/>
+      <c r="H95" s="92"/>
       <c r="I95" s="75"/>
     </row>
     <row r="96" spans="7:9">
       <c r="G96" s="55"/>
-      <c r="H96" s="94"/>
+      <c r="H96" s="92"/>
       <c r="I96" s="75"/>
     </row>
     <row r="97" spans="7:9">
       <c r="G97" s="55"/>
-      <c r="H97" s="94"/>
+      <c r="H97" s="92"/>
       <c r="I97" s="75"/>
     </row>
     <row r="98" spans="7:9">
       <c r="G98" s="55"/>
-      <c r="H98" s="94"/>
+      <c r="H98" s="92"/>
       <c r="I98" s="75"/>
     </row>
     <row r="99" spans="7:9">
       <c r="G99" s="55"/>
-      <c r="H99" s="94"/>
+      <c r="H99" s="92"/>
       <c r="I99" s="75"/>
     </row>
     <row r="100" spans="7:9">
       <c r="G100" s="55"/>
-      <c r="H100" s="94"/>
+      <c r="H100" s="92"/>
       <c r="I100" s="75"/>
     </row>
     <row r="101" spans="7:9">
       <c r="G101" s="55"/>
-      <c r="H101" s="94"/>
+      <c r="H101" s="92"/>
       <c r="I101" s="75"/>
     </row>
     <row r="102" spans="7:9">
       <c r="G102" s="55"/>
-      <c r="H102" s="94"/>
+      <c r="H102" s="92"/>
       <c r="I102" s="75"/>
     </row>
     <row r="103" spans="7:9">
       <c r="G103" s="55"/>
-      <c r="H103" s="94"/>
+      <c r="H103" s="92"/>
       <c r="I103" s="75"/>
     </row>
     <row r="104" spans="7:9">
       <c r="G104" s="55"/>
-      <c r="H104" s="94"/>
+      <c r="H104" s="92"/>
       <c r="I104" s="75"/>
     </row>
     <row r="105" spans="7:9">
       <c r="G105" s="55"/>
-      <c r="H105" s="94"/>
+      <c r="H105" s="92"/>
       <c r="I105" s="75"/>
     </row>
     <row r="106" spans="7:9">
       <c r="G106" s="55"/>
-      <c r="H106" s="94"/>
+      <c r="H106" s="92"/>
       <c r="I106" s="75"/>
     </row>
     <row r="107" spans="7:9">
       <c r="G107" s="55"/>
-      <c r="H107" s="94"/>
+      <c r="H107" s="92"/>
       <c r="I107" s="75"/>
     </row>
     <row r="108" spans="7:9">
       <c r="G108" s="55"/>
-      <c r="H108" s="94"/>
+      <c r="H108" s="92"/>
       <c r="I108" s="75"/>
     </row>
     <row r="109" spans="7:9">
       <c r="G109" s="55"/>
-      <c r="H109" s="94"/>
+      <c r="H109" s="92"/>
       <c r="I109" s="75"/>
     </row>
     <row r="110" spans="7:9">
       <c r="G110" s="55"/>
-      <c r="H110" s="94"/>
+      <c r="H110" s="92"/>
       <c r="I110" s="75"/>
     </row>
     <row r="111" spans="7:9">
       <c r="G111" s="55"/>
-      <c r="H111" s="94"/>
+      <c r="H111" s="92"/>
       <c r="I111" s="75"/>
     </row>
     <row r="112" spans="7:9">
       <c r="G112" s="55"/>
-      <c r="H112" s="94"/>
+      <c r="H112" s="92"/>
       <c r="I112" s="75"/>
     </row>
     <row r="113" spans="7:9">
       <c r="G113" s="55"/>
-      <c r="H113" s="94"/>
+      <c r="H113" s="92"/>
       <c r="I113" s="75"/>
     </row>
     <row r="114" spans="7:9">
       <c r="G114" s="55"/>
-      <c r="H114" s="94"/>
+      <c r="H114" s="92"/>
       <c r="I114" s="75"/>
     </row>
     <row r="115" spans="7:9">
       <c r="G115" s="55"/>
-      <c r="H115" s="94"/>
+      <c r="H115" s="92"/>
       <c r="I115" s="75"/>
     </row>
     <row r="116" spans="7:9">
       <c r="G116" s="55"/>
-      <c r="H116" s="94"/>
+      <c r="H116" s="92"/>
       <c r="I116" s="75"/>
     </row>
     <row r="117" spans="7:9">
       <c r="G117" s="55"/>
-      <c r="H117" s="94"/>
+      <c r="H117" s="92"/>
       <c r="I117" s="75"/>
     </row>
     <row r="118" spans="7:9">
       <c r="G118" s="55"/>
-      <c r="H118" s="94"/>
+      <c r="H118" s="92"/>
       <c r="I118" s="75"/>
     </row>
     <row r="119" spans="7:9">
       <c r="G119" s="55"/>
-      <c r="H119" s="94"/>
+      <c r="H119" s="92"/>
       <c r="I119" s="75"/>
     </row>
     <row r="120" spans="7:9">
       <c r="G120" s="55"/>
-      <c r="H120" s="94"/>
+      <c r="H120" s="92"/>
       <c r="I120" s="75"/>
     </row>
     <row r="121" spans="7:9">
       <c r="G121" s="55"/>
-      <c r="H121" s="94"/>
+      <c r="H121" s="92"/>
       <c r="I121" s="75"/>
     </row>
     <row r="122" spans="7:9">
       <c r="G122" s="55"/>
-      <c r="H122" s="94"/>
+      <c r="H122" s="92"/>
       <c r="I122" s="75"/>
     </row>
     <row r="123" spans="7:9">
       <c r="G123" s="55"/>
-      <c r="H123" s="94"/>
+      <c r="H123" s="92"/>
       <c r="I123" s="75"/>
     </row>
     <row r="124" spans="7:9">
       <c r="G124" s="55"/>
-      <c r="H124" s="94"/>
+      <c r="H124" s="92"/>
       <c r="I124" s="75"/>
     </row>
     <row r="125" spans="7:9">
       <c r="G125" s="55"/>
-      <c r="H125" s="94"/>
+      <c r="H125" s="92"/>
       <c r="I125" s="75"/>
     </row>
     <row r="126" spans="7:9">
       <c r="G126" s="55"/>
-      <c r="H126" s="94"/>
+      <c r="H126" s="92"/>
       <c r="I126" s="75"/>
     </row>
     <row r="127" spans="7:9">
       <c r="G127" s="55"/>
-      <c r="H127" s="94"/>
+      <c r="H127" s="92"/>
       <c r="I127" s="75"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="55"/>
-      <c r="H128" s="94"/>
+      <c r="H128" s="92"/>
       <c r="I128" s="75"/>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="55"/>
-      <c r="H129" s="94"/>
+      <c r="H129" s="92"/>
       <c r="I129" s="75"/>
     </row>
     <row r="130" spans="7:9">
       <c r="G130" s="55"/>
-      <c r="H130" s="94"/>
+      <c r="H130" s="92"/>
       <c r="I130" s="75"/>
     </row>
     <row r="131" spans="7:9">
       <c r="G131" s="55"/>
-      <c r="H131" s="94"/>
+      <c r="H131" s="92"/>
       <c r="I131" s="75"/>
     </row>
     <row r="132" spans="7:9">
       <c r="G132" s="55"/>
-      <c r="H132" s="94"/>
+      <c r="H132" s="92"/>
       <c r="I132" s="75"/>
     </row>
     <row r="133" spans="7:9">
       <c r="G133" s="55"/>
-      <c r="H133" s="94"/>
+      <c r="H133" s="92"/>
       <c r="I133" s="75"/>
     </row>
     <row r="134" spans="7:9">
       <c r="G134" s="55"/>
-      <c r="H134" s="94"/>
+      <c r="H134" s="92"/>
       <c r="I134" s="75"/>
     </row>
     <row r="135" spans="7:9">
       <c r="G135" s="55"/>
-      <c r="H135" s="94"/>
+      <c r="H135" s="92"/>
       <c r="I135" s="75"/>
     </row>
     <row r="136" spans="7:9">
       <c r="G136" s="55"/>
-      <c r="H136" s="94"/>
+      <c r="H136" s="92"/>
       <c r="I136" s="75"/>
     </row>
     <row r="137" spans="7:9">
       <c r="G137" s="55"/>
-      <c r="H137" s="94"/>
+      <c r="H137" s="92"/>
       <c r="I137" s="75"/>
     </row>
     <row r="138" spans="7:9">
       <c r="G138" s="55"/>
-      <c r="H138" s="94"/>
+      <c r="H138" s="92"/>
       <c r="I138" s="75"/>
     </row>
     <row r="139" spans="7:9">
       <c r="G139" s="55"/>
-      <c r="H139" s="94"/>
+      <c r="H139" s="92"/>
       <c r="I139" s="75"/>
     </row>
     <row r="140" spans="7:9">
       <c r="G140" s="55"/>
-      <c r="H140" s="94"/>
+      <c r="H140" s="92"/>
       <c r="I140" s="75"/>
     </row>
     <row r="141" spans="7:9">
       <c r="G141" s="55"/>
-      <c r="H141" s="94"/>
+      <c r="H141" s="92"/>
       <c r="I141" s="75"/>
     </row>
     <row r="142" spans="7:9">
       <c r="G142" s="55"/>
-      <c r="H142" s="94"/>
+      <c r="H142" s="92"/>
       <c r="I142" s="75"/>
     </row>
     <row r="143" spans="7:9">
       <c r="G143" s="55"/>
-      <c r="H143" s="94"/>
+      <c r="H143" s="92"/>
       <c r="I143" s="75"/>
     </row>
     <row r="144" spans="7:9">
       <c r="G144" s="55"/>
-      <c r="H144" s="94"/>
+      <c r="H144" s="92"/>
       <c r="I144" s="75"/>
     </row>
     <row r="145" spans="7:9">
       <c r="G145" s="55"/>
-      <c r="H145" s="94"/>
+      <c r="H145" s="92"/>
       <c r="I145" s="75"/>
     </row>
     <row r="146" spans="7:9">
       <c r="G146" s="55"/>
-      <c r="H146" s="94"/>
+      <c r="H146" s="92"/>
       <c r="I146" s="75"/>
     </row>
     <row r="147" spans="7:9">
       <c r="G147" s="55"/>
-      <c r="H147" s="94"/>
+      <c r="H147" s="92"/>
       <c r="I147" s="75"/>
     </row>
     <row r="148" spans="7:9">
       <c r="G148" s="55"/>
-      <c r="H148" s="94"/>
+      <c r="H148" s="92"/>
       <c r="I148" s="75"/>
     </row>
     <row r="149" spans="7:9">
       <c r="G149" s="55"/>
-      <c r="H149" s="94"/>
+      <c r="H149" s="92"/>
       <c r="I149" s="75"/>
     </row>
     <row r="150" spans="7:9">
       <c r="G150" s="55"/>
-      <c r="H150" s="94"/>
+      <c r="H150" s="92"/>
       <c r="I150" s="75"/>
     </row>
     <row r="151" spans="7:9">
       <c r="G151" s="55"/>
-      <c r="H151" s="94"/>
+      <c r="H151" s="92"/>
       <c r="I151" s="75"/>
     </row>
     <row r="152" spans="7:9">
       <c r="G152" s="55"/>
-      <c r="H152" s="94"/>
+      <c r="H152" s="92"/>
       <c r="I152" s="75"/>
     </row>
     <row r="153" spans="7:9">
       <c r="G153" s="55"/>
-      <c r="H153" s="94"/>
+      <c r="H153" s="92"/>
       <c r="I153" s="75"/>
     </row>
     <row r="154" spans="7:9">
       <c r="G154" s="55"/>
-      <c r="H154" s="94"/>
+      <c r="H154" s="92"/>
       <c r="I154" s="75"/>
     </row>
     <row r="155" spans="7:9">
       <c r="G155" s="55"/>
-      <c r="H155" s="94"/>
+      <c r="H155" s="92"/>
       <c r="I155" s="75"/>
     </row>
     <row r="156" spans="7:9">
       <c r="G156" s="55"/>
-      <c r="H156" s="94"/>
+      <c r="H156" s="92"/>
       <c r="I156" s="75"/>
     </row>
     <row r="157" spans="7:9">
       <c r="G157" s="55"/>
-      <c r="H157" s="94"/>
+      <c r="H157" s="92"/>
       <c r="I157" s="75"/>
     </row>
     <row r="158" spans="7:9">
       <c r="G158" s="55"/>
-      <c r="H158" s="94"/>
+      <c r="H158" s="92"/>
       <c r="I158" s="75"/>
     </row>
     <row r="159" spans="7:9">
       <c r="G159" s="55"/>
-      <c r="H159" s="94"/>
+      <c r="H159" s="92"/>
       <c r="I159" s="75"/>
     </row>
     <row r="160" spans="7:9">
       <c r="G160" s="55"/>
-      <c r="H160" s="94"/>
+      <c r="H160" s="92"/>
       <c r="I160" s="75"/>
     </row>
     <row r="161" spans="7:9">
       <c r="G161" s="55"/>
-      <c r="H161" s="94"/>
+      <c r="H161" s="92"/>
       <c r="I161" s="75"/>
     </row>
     <row r="162" spans="7:9">
       <c r="G162" s="55"/>
-      <c r="H162" s="94"/>
+      <c r="H162" s="92"/>
       <c r="I162" s="75"/>
     </row>
     <row r="163" spans="7:9">
       <c r="G163" s="55"/>
-      <c r="H163" s="94"/>
+      <c r="H163" s="92"/>
       <c r="I163" s="75"/>
     </row>
     <row r="164" spans="7:9">
       <c r="G164" s="55"/>
-      <c r="H164" s="94"/>
+      <c r="H164" s="92"/>
       <c r="I164" s="75"/>
     </row>
     <row r="165" spans="7:9">
       <c r="G165" s="55"/>
-      <c r="H165" s="94"/>
+      <c r="H165" s="92"/>
       <c r="I165" s="75"/>
     </row>
     <row r="166" spans="7:9">
       <c r="G166" s="55"/>
-      <c r="H166" s="94"/>
+      <c r="H166" s="92"/>
       <c r="I166" s="75"/>
     </row>
     <row r="167" spans="7:9">
       <c r="G167" s="55"/>
-      <c r="H167" s="94"/>
+      <c r="H167" s="92"/>
       <c r="I167" s="75"/>
     </row>
     <row r="168" spans="7:9">
       <c r="G168" s="55"/>
-      <c r="H168" s="94"/>
+      <c r="H168" s="92"/>
       <c r="I168" s="75"/>
     </row>
     <row r="169" spans="7:9">
       <c r="G169" s="55"/>
-      <c r="H169" s="94"/>
+      <c r="H169" s="92"/>
       <c r="I169" s="75"/>
     </row>
     <row r="170" spans="7:9">
       <c r="G170" s="55"/>
-      <c r="H170" s="94"/>
+      <c r="H170" s="92"/>
       <c r="I170" s="75"/>
     </row>
     <row r="171" spans="7:9">
       <c r="G171" s="55"/>
-      <c r="H171" s="94"/>
+      <c r="H171" s="92"/>
       <c r="I171" s="75"/>
     </row>
     <row r="172" spans="7:9">
       <c r="G172" s="55"/>
-      <c r="H172" s="94"/>
+      <c r="H172" s="92"/>
       <c r="I172" s="75"/>
     </row>
     <row r="173" spans="7:9">
       <c r="G173" s="55"/>
-      <c r="H173" s="94"/>
+      <c r="H173" s="92"/>
       <c r="I173" s="75"/>
     </row>
     <row r="174" spans="7:9">
       <c r="G174" s="55"/>
-      <c r="H174" s="94"/>
+      <c r="H174" s="92"/>
       <c r="I174" s="75"/>
     </row>
     <row r="175" spans="7:9">
       <c r="G175" s="55"/>
-      <c r="H175" s="94"/>
+      <c r="H175" s="92"/>
       <c r="I175" s="75"/>
     </row>
     <row r="176" spans="7:9">
       <c r="G176" s="55"/>
-      <c r="H176" s="94"/>
+      <c r="H176" s="92"/>
       <c r="I176" s="75"/>
     </row>
     <row r="177" spans="7:9">
       <c r="G177" s="55"/>
-      <c r="H177" s="94"/>
+      <c r="H177" s="92"/>
       <c r="I177" s="75"/>
     </row>
     <row r="178" spans="7:9">
       <c r="G178" s="55"/>
-      <c r="H178" s="94"/>
+      <c r="H178" s="92"/>
       <c r="I178" s="75"/>
     </row>
     <row r="179" spans="7:9">
       <c r="G179" s="55"/>
-      <c r="H179" s="94"/>
+      <c r="H179" s="92"/>
       <c r="I179" s="75"/>
     </row>
     <row r="180" spans="7:9">
       <c r="G180" s="55"/>
-      <c r="H180" s="94"/>
+      <c r="H180" s="92"/>
       <c r="I180" s="75"/>
     </row>
     <row r="181" spans="7:9">
       <c r="G181" s="55"/>
-      <c r="H181" s="94"/>
+      <c r="H181" s="92"/>
       <c r="I181" s="75"/>
     </row>
     <row r="182" spans="7:9">
       <c r="G182" s="55"/>
-      <c r="H182" s="94"/>
+      <c r="H182" s="92"/>
       <c r="I182" s="75"/>
     </row>
     <row r="183" spans="7:9">
       <c r="G183" s="55"/>
-      <c r="H183" s="94"/>
+      <c r="H183" s="92"/>
       <c r="I183" s="75"/>
     </row>
     <row r="184" spans="7:9">
       <c r="G184" s="55"/>
-      <c r="H184" s="94"/>
+      <c r="H184" s="92"/>
       <c r="I184" s="75"/>
     </row>
     <row r="185" spans="7:9">
       <c r="G185" s="55"/>
-      <c r="H185" s="94"/>
+      <c r="H185" s="92"/>
       <c r="I185" s="75"/>
     </row>
     <row r="186" spans="7:9">
       <c r="G186" s="55"/>
-      <c r="H186" s="94"/>
+      <c r="H186" s="92"/>
       <c r="I186" s="75"/>
     </row>
     <row r="187" spans="7:9">
       <c r="G187" s="55"/>
-      <c r="H187" s="94"/>
+      <c r="H187" s="92"/>
       <c r="I187" s="75"/>
     </row>
     <row r="188" spans="7:9">
       <c r="G188" s="55"/>
-      <c r="H188" s="94"/>
+      <c r="H188" s="92"/>
       <c r="I188" s="75"/>
     </row>
     <row r="189" spans="7:9">
       <c r="G189" s="55"/>
-      <c r="H189" s="94"/>
+      <c r="H189" s="92"/>
       <c r="I189" s="75"/>
     </row>
     <row r="190" spans="7:9">
       <c r="G190" s="55"/>
-      <c r="H190" s="94"/>
+      <c r="H190" s="92"/>
       <c r="I190" s="75"/>
     </row>
     <row r="191" spans="7:9">
       <c r="G191" s="55"/>
-      <c r="H191" s="94"/>
+      <c r="H191" s="92"/>
       <c r="I191" s="75"/>
     </row>
     <row r="192" spans="7:9">
       <c r="G192" s="55"/>
-      <c r="H192" s="94"/>
+      <c r="H192" s="92"/>
       <c r="I192" s="75"/>
     </row>
     <row r="193" spans="7:9">
       <c r="G193" s="55"/>
-      <c r="H193" s="94"/>
+      <c r="H193" s="92"/>
       <c r="I193" s="75"/>
     </row>
     <row r="194" spans="7:9">
       <c r="G194" s="55"/>
-      <c r="H194" s="94"/>
+      <c r="H194" s="92"/>
       <c r="I194" s="75"/>
     </row>
     <row r="195" spans="7:9">
       <c r="G195" s="55"/>
-      <c r="H195" s="94"/>
+      <c r="H195" s="92"/>
       <c r="I195" s="75"/>
     </row>
     <row r="196" spans="7:9">
       <c r="G196" s="55"/>
-      <c r="H196" s="94"/>
+      <c r="H196" s="92"/>
       <c r="I196" s="75"/>
     </row>
     <row r="197" spans="7:9">
       <c r="G197" s="55"/>
-      <c r="H197" s="94"/>
+      <c r="H197" s="92"/>
       <c r="I197" s="75"/>
     </row>
     <row r="198" spans="7:9">
       <c r="G198" s="55"/>
-      <c r="H198" s="94"/>
+      <c r="H198" s="92"/>
       <c r="I198" s="75"/>
     </row>
     <row r="199" spans="7:9">
       <c r="G199" s="55"/>
-      <c r="H199" s="94"/>
+      <c r="H199" s="92"/>
       <c r="I199" s="75"/>
     </row>
     <row r="200" spans="7:9">
       <c r="G200" s="55"/>
-      <c r="H200" s="94"/>
+      <c r="H200" s="92"/>
       <c r="I200" s="75"/>
     </row>
     <row r="201" spans="7:9">
       <c r="G201" s="55"/>
-      <c r="H201" s="94"/>
+      <c r="H201" s="92"/>
       <c r="I201" s="75"/>
     </row>
     <row r="202" spans="7:9">
       <c r="G202" s="55"/>
-      <c r="H202" s="94"/>
+      <c r="H202" s="92"/>
       <c r="I202" s="75"/>
     </row>
     <row r="203" spans="7:9">
       <c r="G203" s="55"/>
-      <c r="H203" s="94"/>
+      <c r="H203" s="92"/>
       <c r="I203" s="75"/>
     </row>
     <row r="204" spans="7:9">
       <c r="G204" s="55"/>
-      <c r="H204" s="94"/>
+      <c r="H204" s="92"/>
       <c r="I204" s="75"/>
     </row>
     <row r="205" spans="7:9">
       <c r="G205" s="55"/>
-      <c r="H205" s="94"/>
+      <c r="H205" s="92"/>
       <c r="I205" s="75"/>
     </row>
     <row r="206" spans="7:9">
       <c r="G206" s="55"/>
-      <c r="H206" s="94"/>
+      <c r="H206" s="92"/>
       <c r="I206" s="75"/>
     </row>
     <row r="207" spans="7:9">
       <c r="G207" s="55"/>
-      <c r="H207" s="94"/>
+      <c r="H207" s="92"/>
       <c r="I207" s="75"/>
     </row>
     <row r="208" spans="7:9">
       <c r="G208" s="55"/>
-      <c r="H208" s="94"/>
+      <c r="H208" s="92"/>
       <c r="I208" s="75"/>
     </row>
     <row r="209" spans="7:9">
       <c r="G209" s="55"/>
-      <c r="H209" s="94"/>
+      <c r="H209" s="92"/>
       <c r="I209" s="75"/>
     </row>
     <row r="210" spans="7:9">
       <c r="G210" s="55"/>
-      <c r="H210" s="94"/>
+      <c r="H210" s="92"/>
       <c r="I210" s="75"/>
     </row>
     <row r="211" spans="7:9">
       <c r="G211" s="55"/>
-      <c r="H211" s="94"/>
+      <c r="H211" s="92"/>
       <c r="I211" s="75"/>
     </row>
     <row r="212" spans="7:9">
       <c r="G212" s="55"/>
-      <c r="H212" s="94"/>
+      <c r="H212" s="92"/>
       <c r="I212" s="75"/>
     </row>
     <row r="213" spans="7:9">
       <c r="G213" s="55"/>
-      <c r="H213" s="94"/>
+      <c r="H213" s="92"/>
       <c r="I213" s="75"/>
     </row>
     <row r="214" spans="7:9">
       <c r="G214" s="55"/>
-      <c r="H214" s="94"/>
+      <c r="H214" s="92"/>
       <c r="I214" s="75"/>
     </row>
     <row r="215" spans="7:9">
       <c r="G215" s="55"/>
-      <c r="H215" s="94"/>
+      <c r="H215" s="92"/>
       <c r="I215" s="75"/>
     </row>
     <row r="216" spans="7:9">
       <c r="G216" s="55"/>
-      <c r="H216" s="94"/>
+      <c r="H216" s="92"/>
       <c r="I216" s="75"/>
     </row>
     <row r="217" spans="7:9">
       <c r="G217" s="55"/>
-      <c r="H217" s="94"/>
+      <c r="H217" s="92"/>
       <c r="I217" s="75"/>
     </row>
     <row r="218" spans="7:9">
       <c r="G218" s="55"/>
-      <c r="H218" s="94"/>
+      <c r="H218" s="92"/>
       <c r="I218" s="75"/>
     </row>
     <row r="219" spans="7:9">
       <c r="G219" s="55"/>
-      <c r="H219" s="94"/>
+      <c r="H219" s="92"/>
       <c r="I219" s="75"/>
     </row>
     <row r="220" spans="7:9">
       <c r="G220" s="55"/>
-      <c r="H220" s="94"/>
+      <c r="H220" s="92"/>
       <c r="I220" s="75"/>
     </row>
     <row r="221" spans="7:9">
       <c r="G221" s="55"/>
-      <c r="H221" s="94"/>
+      <c r="H221" s="92"/>
       <c r="I221" s="75"/>
     </row>
     <row r="222" spans="7:9">
       <c r="G222" s="55"/>
-      <c r="H222" s="94"/>
+      <c r="H222" s="92"/>
       <c r="I222" s="75"/>
     </row>
     <row r="223" spans="7:9">
       <c r="G223" s="55"/>
-      <c r="H223" s="94"/>
+      <c r="H223" s="92"/>
       <c r="I223" s="75"/>
     </row>
     <row r="224" spans="7:9">
       <c r="G224" s="55"/>
-      <c r="H224" s="94"/>
+      <c r="H224" s="92"/>
       <c r="I224" s="75"/>
     </row>
     <row r="225" spans="7:9">
       <c r="G225" s="55"/>
-      <c r="H225" s="94"/>
+      <c r="H225" s="92"/>
       <c r="I225" s="75"/>
     </row>
     <row r="226" spans="7:9">
       <c r="G226" s="55"/>
-      <c r="H226" s="94"/>
+      <c r="H226" s="92"/>
       <c r="I226" s="75"/>
     </row>
     <row r="227" spans="7:9">
       <c r="G227" s="55"/>
-      <c r="H227" s="94"/>
+      <c r="H227" s="92"/>
       <c r="I227" s="75"/>
     </row>
     <row r="228" spans="7:9">
       <c r="G228" s="55"/>
-      <c r="H228" s="94"/>
+      <c r="H228" s="92"/>
       <c r="I228" s="75"/>
     </row>
     <row r="229" spans="7:9">
       <c r="G229" s="55"/>
-      <c r="H229" s="94"/>
+      <c r="H229" s="92"/>
       <c r="I229" s="75"/>
     </row>
     <row r="230" spans="7:9">
       <c r="G230" s="55"/>
-      <c r="H230" s="94"/>
+      <c r="H230" s="92"/>
       <c r="I230" s="75"/>
     </row>
     <row r="231" spans="7:9">
       <c r="G231" s="55"/>
-      <c r="H231" s="94"/>
+      <c r="H231" s="92"/>
       <c r="I231" s="75"/>
     </row>
     <row r="232" spans="7:9">
       <c r="G232" s="55"/>
-      <c r="H232" s="94"/>
+      <c r="H232" s="92"/>
       <c r="I232" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F15:K15"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="E3:F3"/>
@@ -3088,34 +3128,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3123,15 +3163,15 @@
         <v>9</v>
       </c>
       <c r="J3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="23">
@@ -3141,14 +3181,14 @@
         <v>10000</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="26">
         <f>E4</f>
         <v>10000</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="23">
         <v>45516</v>
@@ -3161,7 +3201,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="23">
         <v>45541</v>
@@ -3176,22 +3216,22 @@
         <v>1820</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="23">
         <v>45541</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="23">
         <v>45545</v>
@@ -3205,23 +3245,23 @@
       <c r="G6" s="27">
         <v>1820</v>
       </c>
-      <c r="H6" s="121" t="s">
-        <v>32</v>
+      <c r="H6" s="129" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="23">
         <v>45545</v>
       </c>
       <c r="J6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="23">
         <v>45549</v>
@@ -3235,19 +3275,19 @@
       <c r="G7" s="27">
         <v>1820</v>
       </c>
-      <c r="H7" s="121"/>
+      <c r="H7" s="129"/>
       <c r="I7" s="23">
         <v>45549</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="23">
         <v>45567</v>
@@ -3262,19 +3302,19 @@
       <c r="G8" s="27">
         <v>1820</v>
       </c>
-      <c r="H8" s="121"/>
+      <c r="H8" s="129"/>
       <c r="I8" s="23">
         <v>45567</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="23">
         <v>45568</v>
@@ -3289,19 +3329,19 @@
       <c r="G9" s="27">
         <v>1830</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="129"/>
       <c r="I9" s="23">
         <v>45568</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="23">
         <v>45569</v>
@@ -3316,19 +3356,19 @@
       <c r="G10" s="27">
         <v>1830</v>
       </c>
-      <c r="H10" s="121"/>
+      <c r="H10" s="129"/>
       <c r="I10" s="23">
         <v>45569</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="23">
         <v>45573</v>
@@ -3344,20 +3384,20 @@
         <v>1830</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="23">
         <v>45573</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="23">
         <v>45576</v>
@@ -3373,20 +3413,20 @@
         <v>1830</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="23">
         <v>45576</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="23">
         <v>45598</v>
@@ -3401,20 +3441,20 @@
       <c r="G13" s="27">
         <v>1840</v>
       </c>
-      <c r="H13" s="122" t="s">
-        <v>39</v>
+      <c r="H13" s="130" t="s">
+        <v>38</v>
       </c>
       <c r="I13" s="23">
         <v>45598</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23">
@@ -3430,34 +3470,34 @@
       <c r="G14" s="27">
         <v>1840</v>
       </c>
-      <c r="H14" s="123"/>
+      <c r="H14" s="131"/>
       <c r="I14" s="23">
         <v>45598</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="24">
         <v>20000</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="26">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="124"/>
+      <c r="H15" s="132"/>
       <c r="I15" s="23">
         <v>45598</v>
       </c>
@@ -3468,7 +3508,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="23">
@@ -3485,19 +3525,19 @@
         <v>1840</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="23">
         <v>45605</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="23">
@@ -3514,20 +3554,20 @@
         <v>1850</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="23">
         <v>45610</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="23">
         <v>45611</v>
@@ -3543,22 +3583,22 @@
         <v>1850</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="23">
         <v>45611</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="23">
         <v>45627</v>
@@ -3574,19 +3614,19 @@
         <v>1840</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="23">
         <v>45627</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="23">
@@ -3603,13 +3643,13 @@
         <v>1850</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="23">
         <v>45648</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="11"/>
     </row>
@@ -3631,32 +3671,32 @@
         <v>99922.829999999987</v>
       </c>
       <c r="F23" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="31">
         <v>180000</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="33">
         <v>45648</v>
@@ -3664,7 +3704,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="33">
         <v>45612</v>
@@ -3711,18 +3751,18 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="134" t="s">
-        <v>108</v>
+      <c r="E2" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>103</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3730,237 +3770,237 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="133">
+        <v>520</v>
+      </c>
+      <c r="F3" s="133"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="125">
-        <v>520</v>
-      </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="125" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="99" t="s">
         <v>53</v>
-      </c>
-      <c r="L3" s="132" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="126" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="K4" s="111"/>
+      <c r="L4" s="98" t="s">
         <v>58</v>
-      </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="131" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
-      <c r="C5" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="106" t="s">
+      <c r="C5" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="136"/>
+      <c r="J5" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="136" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="E6" s="111"/>
+      <c r="F6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="127" t="s">
+      <c r="C7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="111"/>
+      <c r="J7" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="106"/>
-      <c r="J7" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="138"/>
+      <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="128"/>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="J8" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="139" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="139" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="129" t="s">
+      <c r="C9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="E9" s="111"/>
+      <c r="F9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="139"/>
+      <c r="C10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="138" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="129"/>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="104"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10"/>
-      <c r="C11" s="135" t="s">
-        <v>113</v>
+      <c r="C11" s="102" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="11"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3B0B0-CA84-48D3-8E3A-B268BFA183C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12C6B0-8EAD-4FCC-8D46-86A6C6A0FB5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
   <si>
     <t>ChannelM</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>出境date</t>
-  </si>
-  <si>
-    <t>Sgp bank</t>
   </si>
   <si>
     <t>TJJ icbc</t>
@@ -293,8 +290,88 @@
     <t>..from</t>
   </si>
   <si>
+    <t>!RMB</t>
+  </si>
+  <si>
+    <t>!withdraw means "No withdrawal"</t>
+  </si>
+  <si>
+    <t>!change</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>bal=</t>
+  </si>
+  <si>
+    <t>&lt;&lt;取</t>
+  </si>
+  <si>
+    <t>TJJ
+EOD bal</t>
+  </si>
+  <si>
+    <t>paper
+USD @DJDJ</t>
+  </si>
+  <si>
+    <t>!RMB means "No RMB converted"</t>
+  </si>
+  <si>
+    <t>M=mobank</t>
+  </si>
+  <si>
+    <t>带USD</t>
+  </si>
+  <si>
+    <t>带Rmb</t>
+  </si>
+  <si>
+    <t>risk @ 丢</t>
+  </si>
+  <si>
+    <t>H|A: low</t>
+  </si>
+  <si>
+    <t>Rmb 100k/Y/head</t>
+  </si>
+  <si>
+    <t>M2: low risk for  my family</t>
+  </si>
+  <si>
+    <t>overall family-safety</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Channel 520 &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;&gt; kept in -&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Channel H &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>LSQ USD TD</t>
+  </si>
+  <si>
+    <t>^ max=6k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China-Sgp exit channels </t>
+  </si>
+  <si>
+    <t>存bank</t>
+  </si>
+  <si>
+    <t>cash carry出境</t>
+  </si>
+  <si>
     <r>
-      <t>Convention: any amount ending in xxxx.</t>
+      <t>Convention: any ccy amt ending in xxxx.</t>
     </r>
     <r>
       <rPr>
@@ -318,90 +395,11 @@
     </r>
   </si>
   <si>
-    <t>!RMB</t>
-  </si>
-  <si>
-    <t>!withdraw means "No withdrawal"</t>
-  </si>
-  <si>
-    <t>!change</t>
-  </si>
-  <si>
-    <t>exit channels China -&gt; Sg</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>tx date</t>
-  </si>
-  <si>
-    <t>bal=</t>
-  </si>
-  <si>
-    <t>&lt;&lt;取</t>
-  </si>
-  <si>
-    <t>TJJ
-EOD bal</t>
-  </si>
-  <si>
-    <t>paper
-USD @DJDJ</t>
-  </si>
-  <si>
-    <t>!RMB means "No RMB converted"</t>
-  </si>
-  <si>
-    <t>M=mobank</t>
-  </si>
-  <si>
-    <t>带USD</t>
-  </si>
-  <si>
-    <t>带Rmb</t>
-  </si>
-  <si>
-    <t>risk @ 丢</t>
-  </si>
-  <si>
-    <t>H|A: low</t>
-  </si>
-  <si>
-    <t>Rmb 100k/Y/head</t>
-  </si>
-  <si>
-    <t>M2: low risk for  my family</t>
-  </si>
-  <si>
-    <t>overall family-safety</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>6Jan proposed</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; Channel 520 &gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &gt;&gt; kept in -&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; Channel H &gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>LSQ USD TD</t>
-  </si>
-  <si>
-    <t>^ max=6k</t>
-  </si>
-  <si>
-    <t>^ keep 8k till next trip</t>
-  </si>
-  <si>
-    <t>could derail</t>
+    <t>icbc
+tx date</t>
+  </si>
+  <si>
+    <t>51k to date</t>
   </si>
 </sst>
 </file>
@@ -416,12 +414,26 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,15 +521,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,9 +708,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -712,8 +723,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -804,7 +815,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,12 +831,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -869,11 +878,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -882,13 +891,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -904,92 +913,100 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,16 +1024,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,10 +1045,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1308,130 +1349,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S232"/>
+  <dimension ref="B1:T232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="39" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="40" customWidth="1"/>
     <col min="7" max="7" width="8" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="91" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.140625" style="48" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="38" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
+    <col min="12" max="12" width="0.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="38" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:18">
       <c r="D1" s="41"/>
       <c r="G1" s="48"/>
-      <c r="H1" s="72"/>
-    </row>
-    <row r="2" spans="2:17">
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="2:18">
       <c r="D2" s="41"/>
-      <c r="G2" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" customHeight="1">
-      <c r="C3" s="105" t="s">
+      <c r="G2" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="110"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="113"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="155"/>
+      <c r="C4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="109"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" s="23">
         <v>45490</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="26">
         <v>72844</v>
@@ -1446,7 +1493,7 @@
       <c r="H5" s="51">
         <v>0</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="42">
         <f>F5</f>
         <v>10000</v>
@@ -1454,21 +1501,22 @@
       <c r="K5" s="23">
         <v>45509</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="23">
         <v>45511</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="59">
+        <v>12</v>
+      </c>
+      <c r="D6" s="58">
         <v>72000.001000000004</v>
       </c>
       <c r="E6" s="43">
@@ -1479,7 +1527,7 @@
       <c r="H6" s="43">
         <v>0</v>
       </c>
-      <c r="I6" s="72"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="43">
         <f>E6</f>
         <v>10000</v>
@@ -1487,44 +1535,46 @@
       <c r="K6" s="23">
         <v>45511</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="2:17" ht="5.25" customHeight="1">
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="2:18" ht="5.25" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="26"/>
       <c r="E7" s="44"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="73"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="43"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="2:18">
       <c r="B8" s="23">
         <v>45512</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="26">
         <v>71992</v>
       </c>
       <c r="E8" s="44"/>
-      <c r="F8" s="58">
-        <f>J8+L8</f>
+      <c r="F8" s="57">
+        <f>J8+M8</f>
         <v>10000</v>
       </c>
       <c r="G8" s="51">
@@ -1533,32 +1583,33 @@
       <c r="H8" s="51">
         <v>0</v>
       </c>
-      <c r="I8" s="71"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="43">
         <v>4000</v>
       </c>
       <c r="K8" s="23">
         <v>45512</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="23"/>
+      <c r="M8" s="42">
         <v>6000</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <v>45514</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="42"/>
       <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1">
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1">
       <c r="B9" s="23">
         <v>45575</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="26">
         <v>70265</v>
@@ -1573,7 +1624,7 @@
       <c r="H9" s="51">
         <v>0</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="69"/>
       <c r="J9" s="43">
         <f>F9</f>
         <v>10000</v>
@@ -1581,424 +1632,437 @@
       <c r="K9" s="23">
         <v>45593</v>
       </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="42"/>
       <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1">
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1">
       <c r="B10" s="23">
         <v>45593</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="26">
         <v>71433</v>
       </c>
-      <c r="E10" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="117"/>
+      <c r="E10" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="121"/>
       <c r="G10" s="51">
         <v>10000</v>
       </c>
       <c r="H10" s="51">
         <v>0</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="43"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="42"/>
       <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="2:17" ht="4.5" customHeight="1">
-      <c r="B11" s="82"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="2:18" ht="4.5" customHeight="1">
+      <c r="B11" s="80"/>
       <c r="C11" s="11"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="71"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="43"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="118">
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="143">
         <v>45594</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="68">
-        <f>J12+L12</f>
+        <v>14</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="74"/>
+      <c r="F12" s="66">
+        <f>J12+M12</f>
         <v>8000</v>
       </c>
-      <c r="G12" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="73"/>
+      <c r="G12" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="88"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="43">
         <v>6000</v>
       </c>
       <c r="K12" s="23">
         <v>45594</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="23"/>
+      <c r="M12" s="53">
         <v>2000</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="23">
         <v>45598</v>
       </c>
-      <c r="N12" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="11"/>
+      <c r="O12" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="42"/>
       <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="B13" s="119"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" customHeight="1">
+      <c r="B13" s="144"/>
       <c r="C13" s="45"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="79">
+      <c r="E13" s="74"/>
+      <c r="F13" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="77">
         <f>G10-F12</f>
         <v>2000</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="77">
         <v>0</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="50"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="11"/>
+      <c r="L13" s="105"/>
+      <c r="P13" s="42"/>
       <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="2:17" ht="15" customHeight="1">
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" customHeight="1">
       <c r="B14" s="23">
         <v>45595</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="26">
         <v>71397</v>
       </c>
-      <c r="E14" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="58">
+      <c r="E14" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="121"/>
+      <c r="G14" s="57">
         <f>G13+10000</f>
         <v>12000</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="57">
         <v>0</v>
       </c>
-      <c r="I14" s="73"/>
+      <c r="I14" s="71"/>
       <c r="J14" s="43"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="11"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="23">
         <v>45593</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="E15" s="43">
         <v>3400</v>
       </c>
-      <c r="F15" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="53">
+      <c r="F15" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="53">
         <f>E15</f>
         <v>3400</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="23">
         <v>45598</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="11"/>
+      <c r="O15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="157" t="s">
+        <v>116</v>
+      </c>
       <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="2:17" ht="5.25" customHeight="1">
-      <c r="B16" s="82"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="2:18" ht="5.25" customHeight="1">
+      <c r="B16" s="80"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="72"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="47"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="11"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="120">
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="122">
         <v>45632</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="80">
+        <v>14</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="78">
         <v>10000</v>
       </c>
-      <c r="G17" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="91">
+      <c r="G17" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="89">
         <v>0</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="43">
         <v>10000</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K17" s="87">
         <v>45659</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="121"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="123"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="69">
+      <c r="D18" s="62"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="67">
         <f>G14-F17</f>
         <v>2000</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="67">
         <v>0</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="43"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="11"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="49"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="88">
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="86">
         <v>45659</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="64">
+        <v>11</v>
+      </c>
+      <c r="D19" s="62">
         <v>73183</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="87">
+      <c r="E19" s="65"/>
+      <c r="F19" s="85">
         <v>10000</v>
       </c>
-      <c r="G19" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="81">
+      <c r="G19" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="79">
         <v>0</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="43">
         <v>6000</v>
       </c>
-      <c r="K19" s="89">
+      <c r="K19" s="87">
         <v>45660</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="147"/>
+      <c r="M19" s="153">
         <f>F19-J19</f>
         <v>4000</v>
       </c>
-      <c r="M19" s="23">
+      <c r="N19" s="154">
         <v>45666</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="11"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="2:19" ht="15" customHeight="1">
-      <c r="B20" s="141" t="s">
-        <v>117</v>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="104">
+        <v>45663</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="58">
+        <v>73400.001000000004</v>
       </c>
       <c r="E20" s="43">
         <v>10000</v>
       </c>
-      <c r="F20" s="122" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="74"/>
+      <c r="F20" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="43">
         <v>10000</v>
       </c>
-      <c r="K20" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="11"/>
+      <c r="K20" s="87">
+        <v>45663</v>
+      </c>
+      <c r="L20" s="147"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>94</v>
+        <v>11</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="43">
         <v>10000</v>
       </c>
-      <c r="G21" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="65">
-        <f>F21-L21</f>
+      <c r="G21" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="63">
+        <f>F21-M21</f>
         <v>8000</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="43"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="53">
-        <f>6000-L19</f>
+      <c r="L21" s="148"/>
+      <c r="M21" s="153">
+        <f>6000-M19</f>
         <v>2000</v>
       </c>
-      <c r="M21" s="23">
-        <v>45666</v>
-      </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="11"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="26"/>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="74"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="47"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="11"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" s="151"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="11"/>
-      <c r="S22" s="56"/>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="R22" s="11"/>
+      <c r="T22" s="55"/>
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="44"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
-      <c r="I23" s="74"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="47"/>
       <c r="K23" s="50"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="42">
+      <c r="L23" s="50"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="42">
         <v>28000</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="Q23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="26"/>
@@ -2006,19 +2070,20 @@
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="47"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="11"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="26"/>
@@ -2026,1075 +2091,1093 @@
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="47"/>
       <c r="K25" s="50"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="11"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="42"/>
       <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="G26" s="55"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="75"/>
-    </row>
-    <row r="27" spans="2:19" ht="17.25">
-      <c r="B27" s="63" t="s">
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="G26" s="54"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="73"/>
+    </row>
+    <row r="27" spans="2:20" ht="17.25">
+      <c r="B27" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="73"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="75"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="75"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="G30" s="55"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="G31" s="55"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="G32" s="55"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="75"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="73"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="G30" s="54"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="73"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="G31" s="54"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="G32" s="54"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="7:9">
-      <c r="G33" s="55"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="75"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="7:9">
-      <c r="G34" s="55"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="75"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="7:9">
-      <c r="G35" s="55"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="75"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="7:9">
-      <c r="G36" s="55"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="75"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="7:9">
-      <c r="G37" s="55"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="75"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="7:9">
-      <c r="G38" s="55"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="75"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="7:9">
-      <c r="G39" s="55"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="75"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="7:9">
-      <c r="G40" s="55"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="75"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="7:9">
-      <c r="G41" s="55"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="75"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="7:9">
-      <c r="G42" s="55"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="75"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="55"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="75"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="55"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="75"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="55"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="75"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="55"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="75"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="55"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="75"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="73"/>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="55"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="75"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="7:9">
-      <c r="G49" s="55"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="75"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="73"/>
     </row>
     <row r="50" spans="7:9">
-      <c r="G50" s="55"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="75"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="73"/>
     </row>
     <row r="51" spans="7:9">
-      <c r="G51" s="55"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="75"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="73"/>
     </row>
     <row r="52" spans="7:9">
-      <c r="G52" s="55"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="75"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="73"/>
     </row>
     <row r="53" spans="7:9">
-      <c r="G53" s="55"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="75"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="73"/>
     </row>
     <row r="54" spans="7:9">
-      <c r="G54" s="55"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="75"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="73"/>
     </row>
     <row r="55" spans="7:9">
-      <c r="G55" s="55"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="75"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="73"/>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="55"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="75"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="73"/>
     </row>
     <row r="57" spans="7:9">
-      <c r="G57" s="55"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="75"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="73"/>
     </row>
     <row r="58" spans="7:9">
-      <c r="G58" s="55"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="75"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="73"/>
     </row>
     <row r="59" spans="7:9">
-      <c r="G59" s="55"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="75"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="73"/>
     </row>
     <row r="60" spans="7:9">
-      <c r="G60" s="55"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="75"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="73"/>
     </row>
     <row r="61" spans="7:9">
-      <c r="G61" s="55"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="75"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="73"/>
     </row>
     <row r="62" spans="7:9">
-      <c r="G62" s="55"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="75"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="63" spans="7:9">
-      <c r="G63" s="55"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="75"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="73"/>
     </row>
     <row r="64" spans="7:9">
-      <c r="G64" s="55"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="75"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="73"/>
     </row>
     <row r="65" spans="7:9">
-      <c r="G65" s="55"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="75"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="73"/>
     </row>
     <row r="66" spans="7:9">
-      <c r="G66" s="55"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="75"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="73"/>
     </row>
     <row r="67" spans="7:9">
-      <c r="G67" s="55"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="75"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="73"/>
     </row>
     <row r="68" spans="7:9">
-      <c r="G68" s="55"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="75"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="73"/>
     </row>
     <row r="69" spans="7:9">
-      <c r="G69" s="55"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="75"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="73"/>
     </row>
     <row r="70" spans="7:9">
-      <c r="G70" s="55"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="75"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="73"/>
     </row>
     <row r="71" spans="7:9">
-      <c r="G71" s="55"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="75"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="73"/>
     </row>
     <row r="72" spans="7:9">
-      <c r="G72" s="55"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="75"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="7:9">
-      <c r="G73" s="55"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="75"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="73"/>
     </row>
     <row r="74" spans="7:9">
-      <c r="G74" s="55"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="75"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="73"/>
     </row>
     <row r="75" spans="7:9">
-      <c r="G75" s="55"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="75"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="73"/>
     </row>
     <row r="76" spans="7:9">
-      <c r="G76" s="55"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="75"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="73"/>
     </row>
     <row r="77" spans="7:9">
-      <c r="G77" s="55"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="75"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="73"/>
     </row>
     <row r="78" spans="7:9">
-      <c r="G78" s="55"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="75"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="73"/>
     </row>
     <row r="79" spans="7:9">
-      <c r="G79" s="55"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="75"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="73"/>
     </row>
     <row r="80" spans="7:9">
-      <c r="G80" s="55"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="75"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="73"/>
     </row>
     <row r="81" spans="7:9">
-      <c r="G81" s="55"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="75"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="73"/>
     </row>
     <row r="82" spans="7:9">
-      <c r="G82" s="55"/>
-      <c r="H82" s="92"/>
-      <c r="I82" s="75"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="73"/>
     </row>
     <row r="83" spans="7:9">
-      <c r="G83" s="55"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="75"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="73"/>
     </row>
     <row r="84" spans="7:9">
-      <c r="G84" s="55"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="75"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="90"/>
+      <c r="I84" s="73"/>
     </row>
     <row r="85" spans="7:9">
-      <c r="G85" s="55"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="75"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="73"/>
     </row>
     <row r="86" spans="7:9">
-      <c r="G86" s="55"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="75"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="73"/>
     </row>
     <row r="87" spans="7:9">
-      <c r="G87" s="55"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="75"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="73"/>
     </row>
     <row r="88" spans="7:9">
-      <c r="G88" s="55"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="75"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="73"/>
     </row>
     <row r="89" spans="7:9">
-      <c r="G89" s="55"/>
-      <c r="H89" s="92"/>
-      <c r="I89" s="75"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="73"/>
     </row>
     <row r="90" spans="7:9">
-      <c r="G90" s="55"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="75"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="73"/>
     </row>
     <row r="91" spans="7:9">
-      <c r="G91" s="55"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="75"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="73"/>
     </row>
     <row r="92" spans="7:9">
-      <c r="G92" s="55"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="75"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="90"/>
+      <c r="I92" s="73"/>
     </row>
     <row r="93" spans="7:9">
-      <c r="G93" s="55"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="75"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="73"/>
     </row>
     <row r="94" spans="7:9">
-      <c r="G94" s="55"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="75"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="73"/>
     </row>
     <row r="95" spans="7:9">
-      <c r="G95" s="55"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="75"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="90"/>
+      <c r="I95" s="73"/>
     </row>
     <row r="96" spans="7:9">
-      <c r="G96" s="55"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="75"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="73"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="55"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="75"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="73"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="55"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="75"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="90"/>
+      <c r="I98" s="73"/>
     </row>
     <row r="99" spans="7:9">
-      <c r="G99" s="55"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="75"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="73"/>
     </row>
     <row r="100" spans="7:9">
-      <c r="G100" s="55"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="75"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="90"/>
+      <c r="I100" s="73"/>
     </row>
     <row r="101" spans="7:9">
-      <c r="G101" s="55"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="75"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="73"/>
     </row>
     <row r="102" spans="7:9">
-      <c r="G102" s="55"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="75"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="73"/>
     </row>
     <row r="103" spans="7:9">
-      <c r="G103" s="55"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="75"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="90"/>
+      <c r="I103" s="73"/>
     </row>
     <row r="104" spans="7:9">
-      <c r="G104" s="55"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="75"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="90"/>
+      <c r="I104" s="73"/>
     </row>
     <row r="105" spans="7:9">
-      <c r="G105" s="55"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="75"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="73"/>
     </row>
     <row r="106" spans="7:9">
-      <c r="G106" s="55"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="75"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="73"/>
     </row>
     <row r="107" spans="7:9">
-      <c r="G107" s="55"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="75"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="90"/>
+      <c r="I107" s="73"/>
     </row>
     <row r="108" spans="7:9">
-      <c r="G108" s="55"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="75"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="90"/>
+      <c r="I108" s="73"/>
     </row>
     <row r="109" spans="7:9">
-      <c r="G109" s="55"/>
-      <c r="H109" s="92"/>
-      <c r="I109" s="75"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="90"/>
+      <c r="I109" s="73"/>
     </row>
     <row r="110" spans="7:9">
-      <c r="G110" s="55"/>
-      <c r="H110" s="92"/>
-      <c r="I110" s="75"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="73"/>
     </row>
     <row r="111" spans="7:9">
-      <c r="G111" s="55"/>
-      <c r="H111" s="92"/>
-      <c r="I111" s="75"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="90"/>
+      <c r="I111" s="73"/>
     </row>
     <row r="112" spans="7:9">
-      <c r="G112" s="55"/>
-      <c r="H112" s="92"/>
-      <c r="I112" s="75"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="90"/>
+      <c r="I112" s="73"/>
     </row>
     <row r="113" spans="7:9">
-      <c r="G113" s="55"/>
-      <c r="H113" s="92"/>
-      <c r="I113" s="75"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="90"/>
+      <c r="I113" s="73"/>
     </row>
     <row r="114" spans="7:9">
-      <c r="G114" s="55"/>
-      <c r="H114" s="92"/>
-      <c r="I114" s="75"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="73"/>
     </row>
     <row r="115" spans="7:9">
-      <c r="G115" s="55"/>
-      <c r="H115" s="92"/>
-      <c r="I115" s="75"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="90"/>
+      <c r="I115" s="73"/>
     </row>
     <row r="116" spans="7:9">
-      <c r="G116" s="55"/>
-      <c r="H116" s="92"/>
-      <c r="I116" s="75"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="90"/>
+      <c r="I116" s="73"/>
     </row>
     <row r="117" spans="7:9">
-      <c r="G117" s="55"/>
-      <c r="H117" s="92"/>
-      <c r="I117" s="75"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="73"/>
     </row>
     <row r="118" spans="7:9">
-      <c r="G118" s="55"/>
-      <c r="H118" s="92"/>
-      <c r="I118" s="75"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="90"/>
+      <c r="I118" s="73"/>
     </row>
     <row r="119" spans="7:9">
-      <c r="G119" s="55"/>
-      <c r="H119" s="92"/>
-      <c r="I119" s="75"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="73"/>
     </row>
     <row r="120" spans="7:9">
-      <c r="G120" s="55"/>
-      <c r="H120" s="92"/>
-      <c r="I120" s="75"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="90"/>
+      <c r="I120" s="73"/>
     </row>
     <row r="121" spans="7:9">
-      <c r="G121" s="55"/>
-      <c r="H121" s="92"/>
-      <c r="I121" s="75"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="90"/>
+      <c r="I121" s="73"/>
     </row>
     <row r="122" spans="7:9">
-      <c r="G122" s="55"/>
-      <c r="H122" s="92"/>
-      <c r="I122" s="75"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="90"/>
+      <c r="I122" s="73"/>
     </row>
     <row r="123" spans="7:9">
-      <c r="G123" s="55"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="75"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="73"/>
     </row>
     <row r="124" spans="7:9">
-      <c r="G124" s="55"/>
-      <c r="H124" s="92"/>
-      <c r="I124" s="75"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="90"/>
+      <c r="I124" s="73"/>
     </row>
     <row r="125" spans="7:9">
-      <c r="G125" s="55"/>
-      <c r="H125" s="92"/>
-      <c r="I125" s="75"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="90"/>
+      <c r="I125" s="73"/>
     </row>
     <row r="126" spans="7:9">
-      <c r="G126" s="55"/>
-      <c r="H126" s="92"/>
-      <c r="I126" s="75"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="90"/>
+      <c r="I126" s="73"/>
     </row>
     <row r="127" spans="7:9">
-      <c r="G127" s="55"/>
-      <c r="H127" s="92"/>
-      <c r="I127" s="75"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="90"/>
+      <c r="I127" s="73"/>
     </row>
     <row r="128" spans="7:9">
-      <c r="G128" s="55"/>
-      <c r="H128" s="92"/>
-      <c r="I128" s="75"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="90"/>
+      <c r="I128" s="73"/>
     </row>
     <row r="129" spans="7:9">
-      <c r="G129" s="55"/>
-      <c r="H129" s="92"/>
-      <c r="I129" s="75"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="90"/>
+      <c r="I129" s="73"/>
     </row>
     <row r="130" spans="7:9">
-      <c r="G130" s="55"/>
-      <c r="H130" s="92"/>
-      <c r="I130" s="75"/>
+      <c r="G130" s="54"/>
+      <c r="H130" s="90"/>
+      <c r="I130" s="73"/>
     </row>
     <row r="131" spans="7:9">
-      <c r="G131" s="55"/>
-      <c r="H131" s="92"/>
-      <c r="I131" s="75"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="90"/>
+      <c r="I131" s="73"/>
     </row>
     <row r="132" spans="7:9">
-      <c r="G132" s="55"/>
-      <c r="H132" s="92"/>
-      <c r="I132" s="75"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="73"/>
     </row>
     <row r="133" spans="7:9">
-      <c r="G133" s="55"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="75"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="90"/>
+      <c r="I133" s="73"/>
     </row>
     <row r="134" spans="7:9">
-      <c r="G134" s="55"/>
-      <c r="H134" s="92"/>
-      <c r="I134" s="75"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="90"/>
+      <c r="I134" s="73"/>
     </row>
     <row r="135" spans="7:9">
-      <c r="G135" s="55"/>
-      <c r="H135" s="92"/>
-      <c r="I135" s="75"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="90"/>
+      <c r="I135" s="73"/>
     </row>
     <row r="136" spans="7:9">
-      <c r="G136" s="55"/>
-      <c r="H136" s="92"/>
-      <c r="I136" s="75"/>
+      <c r="G136" s="54"/>
+      <c r="H136" s="90"/>
+      <c r="I136" s="73"/>
     </row>
     <row r="137" spans="7:9">
-      <c r="G137" s="55"/>
-      <c r="H137" s="92"/>
-      <c r="I137" s="75"/>
+      <c r="G137" s="54"/>
+      <c r="H137" s="90"/>
+      <c r="I137" s="73"/>
     </row>
     <row r="138" spans="7:9">
-      <c r="G138" s="55"/>
-      <c r="H138" s="92"/>
-      <c r="I138" s="75"/>
+      <c r="G138" s="54"/>
+      <c r="H138" s="90"/>
+      <c r="I138" s="73"/>
     </row>
     <row r="139" spans="7:9">
-      <c r="G139" s="55"/>
-      <c r="H139" s="92"/>
-      <c r="I139" s="75"/>
+      <c r="G139" s="54"/>
+      <c r="H139" s="90"/>
+      <c r="I139" s="73"/>
     </row>
     <row r="140" spans="7:9">
-      <c r="G140" s="55"/>
-      <c r="H140" s="92"/>
-      <c r="I140" s="75"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="90"/>
+      <c r="I140" s="73"/>
     </row>
     <row r="141" spans="7:9">
-      <c r="G141" s="55"/>
-      <c r="H141" s="92"/>
-      <c r="I141" s="75"/>
+      <c r="G141" s="54"/>
+      <c r="H141" s="90"/>
+      <c r="I141" s="73"/>
     </row>
     <row r="142" spans="7:9">
-      <c r="G142" s="55"/>
-      <c r="H142" s="92"/>
-      <c r="I142" s="75"/>
+      <c r="G142" s="54"/>
+      <c r="H142" s="90"/>
+      <c r="I142" s="73"/>
     </row>
     <row r="143" spans="7:9">
-      <c r="G143" s="55"/>
-      <c r="H143" s="92"/>
-      <c r="I143" s="75"/>
+      <c r="G143" s="54"/>
+      <c r="H143" s="90"/>
+      <c r="I143" s="73"/>
     </row>
     <row r="144" spans="7:9">
-      <c r="G144" s="55"/>
-      <c r="H144" s="92"/>
-      <c r="I144" s="75"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="90"/>
+      <c r="I144" s="73"/>
     </row>
     <row r="145" spans="7:9">
-      <c r="G145" s="55"/>
-      <c r="H145" s="92"/>
-      <c r="I145" s="75"/>
+      <c r="G145" s="54"/>
+      <c r="H145" s="90"/>
+      <c r="I145" s="73"/>
     </row>
     <row r="146" spans="7:9">
-      <c r="G146" s="55"/>
-      <c r="H146" s="92"/>
-      <c r="I146" s="75"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="90"/>
+      <c r="I146" s="73"/>
     </row>
     <row r="147" spans="7:9">
-      <c r="G147" s="55"/>
-      <c r="H147" s="92"/>
-      <c r="I147" s="75"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="90"/>
+      <c r="I147" s="73"/>
     </row>
     <row r="148" spans="7:9">
-      <c r="G148" s="55"/>
-      <c r="H148" s="92"/>
-      <c r="I148" s="75"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="90"/>
+      <c r="I148" s="73"/>
     </row>
     <row r="149" spans="7:9">
-      <c r="G149" s="55"/>
-      <c r="H149" s="92"/>
-      <c r="I149" s="75"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="90"/>
+      <c r="I149" s="73"/>
     </row>
     <row r="150" spans="7:9">
-      <c r="G150" s="55"/>
-      <c r="H150" s="92"/>
-      <c r="I150" s="75"/>
+      <c r="G150" s="54"/>
+      <c r="H150" s="90"/>
+      <c r="I150" s="73"/>
     </row>
     <row r="151" spans="7:9">
-      <c r="G151" s="55"/>
-      <c r="H151" s="92"/>
-      <c r="I151" s="75"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="90"/>
+      <c r="I151" s="73"/>
     </row>
     <row r="152" spans="7:9">
-      <c r="G152" s="55"/>
-      <c r="H152" s="92"/>
-      <c r="I152" s="75"/>
+      <c r="G152" s="54"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="73"/>
     </row>
     <row r="153" spans="7:9">
-      <c r="G153" s="55"/>
-      <c r="H153" s="92"/>
-      <c r="I153" s="75"/>
+      <c r="G153" s="54"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="73"/>
     </row>
     <row r="154" spans="7:9">
-      <c r="G154" s="55"/>
-      <c r="H154" s="92"/>
-      <c r="I154" s="75"/>
+      <c r="G154" s="54"/>
+      <c r="H154" s="90"/>
+      <c r="I154" s="73"/>
     </row>
     <row r="155" spans="7:9">
-      <c r="G155" s="55"/>
-      <c r="H155" s="92"/>
-      <c r="I155" s="75"/>
+      <c r="G155" s="54"/>
+      <c r="H155" s="90"/>
+      <c r="I155" s="73"/>
     </row>
     <row r="156" spans="7:9">
-      <c r="G156" s="55"/>
-      <c r="H156" s="92"/>
-      <c r="I156" s="75"/>
+      <c r="G156" s="54"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="73"/>
     </row>
     <row r="157" spans="7:9">
-      <c r="G157" s="55"/>
-      <c r="H157" s="92"/>
-      <c r="I157" s="75"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="73"/>
     </row>
     <row r="158" spans="7:9">
-      <c r="G158" s="55"/>
-      <c r="H158" s="92"/>
-      <c r="I158" s="75"/>
+      <c r="G158" s="54"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="73"/>
     </row>
     <row r="159" spans="7:9">
-      <c r="G159" s="55"/>
-      <c r="H159" s="92"/>
-      <c r="I159" s="75"/>
+      <c r="G159" s="54"/>
+      <c r="H159" s="90"/>
+      <c r="I159" s="73"/>
     </row>
     <row r="160" spans="7:9">
-      <c r="G160" s="55"/>
-      <c r="H160" s="92"/>
-      <c r="I160" s="75"/>
+      <c r="G160" s="54"/>
+      <c r="H160" s="90"/>
+      <c r="I160" s="73"/>
     </row>
     <row r="161" spans="7:9">
-      <c r="G161" s="55"/>
-      <c r="H161" s="92"/>
-      <c r="I161" s="75"/>
+      <c r="G161" s="54"/>
+      <c r="H161" s="90"/>
+      <c r="I161" s="73"/>
     </row>
     <row r="162" spans="7:9">
-      <c r="G162" s="55"/>
-      <c r="H162" s="92"/>
-      <c r="I162" s="75"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="90"/>
+      <c r="I162" s="73"/>
     </row>
     <row r="163" spans="7:9">
-      <c r="G163" s="55"/>
-      <c r="H163" s="92"/>
-      <c r="I163" s="75"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="90"/>
+      <c r="I163" s="73"/>
     </row>
     <row r="164" spans="7:9">
-      <c r="G164" s="55"/>
-      <c r="H164" s="92"/>
-      <c r="I164" s="75"/>
+      <c r="G164" s="54"/>
+      <c r="H164" s="90"/>
+      <c r="I164" s="73"/>
     </row>
     <row r="165" spans="7:9">
-      <c r="G165" s="55"/>
-      <c r="H165" s="92"/>
-      <c r="I165" s="75"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="90"/>
+      <c r="I165" s="73"/>
     </row>
     <row r="166" spans="7:9">
-      <c r="G166" s="55"/>
-      <c r="H166" s="92"/>
-      <c r="I166" s="75"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="90"/>
+      <c r="I166" s="73"/>
     </row>
     <row r="167" spans="7:9">
-      <c r="G167" s="55"/>
-      <c r="H167" s="92"/>
-      <c r="I167" s="75"/>
+      <c r="G167" s="54"/>
+      <c r="H167" s="90"/>
+      <c r="I167" s="73"/>
     </row>
     <row r="168" spans="7:9">
-      <c r="G168" s="55"/>
-      <c r="H168" s="92"/>
-      <c r="I168" s="75"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="90"/>
+      <c r="I168" s="73"/>
     </row>
     <row r="169" spans="7:9">
-      <c r="G169" s="55"/>
-      <c r="H169" s="92"/>
-      <c r="I169" s="75"/>
+      <c r="G169" s="54"/>
+      <c r="H169" s="90"/>
+      <c r="I169" s="73"/>
     </row>
     <row r="170" spans="7:9">
-      <c r="G170" s="55"/>
-      <c r="H170" s="92"/>
-      <c r="I170" s="75"/>
+      <c r="G170" s="54"/>
+      <c r="H170" s="90"/>
+      <c r="I170" s="73"/>
     </row>
     <row r="171" spans="7:9">
-      <c r="G171" s="55"/>
-      <c r="H171" s="92"/>
-      <c r="I171" s="75"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="90"/>
+      <c r="I171" s="73"/>
     </row>
     <row r="172" spans="7:9">
-      <c r="G172" s="55"/>
-      <c r="H172" s="92"/>
-      <c r="I172" s="75"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="90"/>
+      <c r="I172" s="73"/>
     </row>
     <row r="173" spans="7:9">
-      <c r="G173" s="55"/>
-      <c r="H173" s="92"/>
-      <c r="I173" s="75"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="90"/>
+      <c r="I173" s="73"/>
     </row>
     <row r="174" spans="7:9">
-      <c r="G174" s="55"/>
-      <c r="H174" s="92"/>
-      <c r="I174" s="75"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="90"/>
+      <c r="I174" s="73"/>
     </row>
     <row r="175" spans="7:9">
-      <c r="G175" s="55"/>
-      <c r="H175" s="92"/>
-      <c r="I175" s="75"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="90"/>
+      <c r="I175" s="73"/>
     </row>
     <row r="176" spans="7:9">
-      <c r="G176" s="55"/>
-      <c r="H176" s="92"/>
-      <c r="I176" s="75"/>
+      <c r="G176" s="54"/>
+      <c r="H176" s="90"/>
+      <c r="I176" s="73"/>
     </row>
     <row r="177" spans="7:9">
-      <c r="G177" s="55"/>
-      <c r="H177" s="92"/>
-      <c r="I177" s="75"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="90"/>
+      <c r="I177" s="73"/>
     </row>
     <row r="178" spans="7:9">
-      <c r="G178" s="55"/>
-      <c r="H178" s="92"/>
-      <c r="I178" s="75"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="90"/>
+      <c r="I178" s="73"/>
     </row>
     <row r="179" spans="7:9">
-      <c r="G179" s="55"/>
-      <c r="H179" s="92"/>
-      <c r="I179" s="75"/>
+      <c r="G179" s="54"/>
+      <c r="H179" s="90"/>
+      <c r="I179" s="73"/>
     </row>
     <row r="180" spans="7:9">
-      <c r="G180" s="55"/>
-      <c r="H180" s="92"/>
-      <c r="I180" s="75"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="90"/>
+      <c r="I180" s="73"/>
     </row>
     <row r="181" spans="7:9">
-      <c r="G181" s="55"/>
-      <c r="H181" s="92"/>
-      <c r="I181" s="75"/>
+      <c r="G181" s="54"/>
+      <c r="H181" s="90"/>
+      <c r="I181" s="73"/>
     </row>
     <row r="182" spans="7:9">
-      <c r="G182" s="55"/>
-      <c r="H182" s="92"/>
-      <c r="I182" s="75"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="90"/>
+      <c r="I182" s="73"/>
     </row>
     <row r="183" spans="7:9">
-      <c r="G183" s="55"/>
-      <c r="H183" s="92"/>
-      <c r="I183" s="75"/>
+      <c r="G183" s="54"/>
+      <c r="H183" s="90"/>
+      <c r="I183" s="73"/>
     </row>
     <row r="184" spans="7:9">
-      <c r="G184" s="55"/>
-      <c r="H184" s="92"/>
-      <c r="I184" s="75"/>
+      <c r="G184" s="54"/>
+      <c r="H184" s="90"/>
+      <c r="I184" s="73"/>
     </row>
     <row r="185" spans="7:9">
-      <c r="G185" s="55"/>
-      <c r="H185" s="92"/>
-      <c r="I185" s="75"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="90"/>
+      <c r="I185" s="73"/>
     </row>
     <row r="186" spans="7:9">
-      <c r="G186" s="55"/>
-      <c r="H186" s="92"/>
-      <c r="I186" s="75"/>
+      <c r="G186" s="54"/>
+      <c r="H186" s="90"/>
+      <c r="I186" s="73"/>
     </row>
     <row r="187" spans="7:9">
-      <c r="G187" s="55"/>
-      <c r="H187" s="92"/>
-      <c r="I187" s="75"/>
+      <c r="G187" s="54"/>
+      <c r="H187" s="90"/>
+      <c r="I187" s="73"/>
     </row>
     <row r="188" spans="7:9">
-      <c r="G188" s="55"/>
-      <c r="H188" s="92"/>
-      <c r="I188" s="75"/>
+      <c r="G188" s="54"/>
+      <c r="H188" s="90"/>
+      <c r="I188" s="73"/>
     </row>
     <row r="189" spans="7:9">
-      <c r="G189" s="55"/>
-      <c r="H189" s="92"/>
-      <c r="I189" s="75"/>
+      <c r="G189" s="54"/>
+      <c r="H189" s="90"/>
+      <c r="I189" s="73"/>
     </row>
     <row r="190" spans="7:9">
-      <c r="G190" s="55"/>
-      <c r="H190" s="92"/>
-      <c r="I190" s="75"/>
+      <c r="G190" s="54"/>
+      <c r="H190" s="90"/>
+      <c r="I190" s="73"/>
     </row>
     <row r="191" spans="7:9">
-      <c r="G191" s="55"/>
-      <c r="H191" s="92"/>
-      <c r="I191" s="75"/>
+      <c r="G191" s="54"/>
+      <c r="H191" s="90"/>
+      <c r="I191" s="73"/>
     </row>
     <row r="192" spans="7:9">
-      <c r="G192" s="55"/>
-      <c r="H192" s="92"/>
-      <c r="I192" s="75"/>
+      <c r="G192" s="54"/>
+      <c r="H192" s="90"/>
+      <c r="I192" s="73"/>
     </row>
     <row r="193" spans="7:9">
-      <c r="G193" s="55"/>
-      <c r="H193" s="92"/>
-      <c r="I193" s="75"/>
+      <c r="G193" s="54"/>
+      <c r="H193" s="90"/>
+      <c r="I193" s="73"/>
     </row>
     <row r="194" spans="7:9">
-      <c r="G194" s="55"/>
-      <c r="H194" s="92"/>
-      <c r="I194" s="75"/>
+      <c r="G194" s="54"/>
+      <c r="H194" s="90"/>
+      <c r="I194" s="73"/>
     </row>
     <row r="195" spans="7:9">
-      <c r="G195" s="55"/>
-      <c r="H195" s="92"/>
-      <c r="I195" s="75"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="90"/>
+      <c r="I195" s="73"/>
     </row>
     <row r="196" spans="7:9">
-      <c r="G196" s="55"/>
-      <c r="H196" s="92"/>
-      <c r="I196" s="75"/>
+      <c r="G196" s="54"/>
+      <c r="H196" s="90"/>
+      <c r="I196" s="73"/>
     </row>
     <row r="197" spans="7:9">
-      <c r="G197" s="55"/>
-      <c r="H197" s="92"/>
-      <c r="I197" s="75"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="90"/>
+      <c r="I197" s="73"/>
     </row>
     <row r="198" spans="7:9">
-      <c r="G198" s="55"/>
-      <c r="H198" s="92"/>
-      <c r="I198" s="75"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="90"/>
+      <c r="I198" s="73"/>
     </row>
     <row r="199" spans="7:9">
-      <c r="G199" s="55"/>
-      <c r="H199" s="92"/>
-      <c r="I199" s="75"/>
+      <c r="G199" s="54"/>
+      <c r="H199" s="90"/>
+      <c r="I199" s="73"/>
     </row>
     <row r="200" spans="7:9">
-      <c r="G200" s="55"/>
-      <c r="H200" s="92"/>
-      <c r="I200" s="75"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="90"/>
+      <c r="I200" s="73"/>
     </row>
     <row r="201" spans="7:9">
-      <c r="G201" s="55"/>
-      <c r="H201" s="92"/>
-      <c r="I201" s="75"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="90"/>
+      <c r="I201" s="73"/>
     </row>
     <row r="202" spans="7:9">
-      <c r="G202" s="55"/>
-      <c r="H202" s="92"/>
-      <c r="I202" s="75"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="90"/>
+      <c r="I202" s="73"/>
     </row>
     <row r="203" spans="7:9">
-      <c r="G203" s="55"/>
-      <c r="H203" s="92"/>
-      <c r="I203" s="75"/>
+      <c r="G203" s="54"/>
+      <c r="H203" s="90"/>
+      <c r="I203" s="73"/>
     </row>
     <row r="204" spans="7:9">
-      <c r="G204" s="55"/>
-      <c r="H204" s="92"/>
-      <c r="I204" s="75"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="90"/>
+      <c r="I204" s="73"/>
     </row>
     <row r="205" spans="7:9">
-      <c r="G205" s="55"/>
-      <c r="H205" s="92"/>
-      <c r="I205" s="75"/>
+      <c r="G205" s="54"/>
+      <c r="H205" s="90"/>
+      <c r="I205" s="73"/>
     </row>
     <row r="206" spans="7:9">
-      <c r="G206" s="55"/>
-      <c r="H206" s="92"/>
-      <c r="I206" s="75"/>
+      <c r="G206" s="54"/>
+      <c r="H206" s="90"/>
+      <c r="I206" s="73"/>
     </row>
     <row r="207" spans="7:9">
-      <c r="G207" s="55"/>
-      <c r="H207" s="92"/>
-      <c r="I207" s="75"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="90"/>
+      <c r="I207" s="73"/>
     </row>
     <row r="208" spans="7:9">
-      <c r="G208" s="55"/>
-      <c r="H208" s="92"/>
-      <c r="I208" s="75"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="90"/>
+      <c r="I208" s="73"/>
     </row>
     <row r="209" spans="7:9">
-      <c r="G209" s="55"/>
-      <c r="H209" s="92"/>
-      <c r="I209" s="75"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="90"/>
+      <c r="I209" s="73"/>
     </row>
     <row r="210" spans="7:9">
-      <c r="G210" s="55"/>
-      <c r="H210" s="92"/>
-      <c r="I210" s="75"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="90"/>
+      <c r="I210" s="73"/>
     </row>
     <row r="211" spans="7:9">
-      <c r="G211" s="55"/>
-      <c r="H211" s="92"/>
-      <c r="I211" s="75"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="90"/>
+      <c r="I211" s="73"/>
     </row>
     <row r="212" spans="7:9">
-      <c r="G212" s="55"/>
-      <c r="H212" s="92"/>
-      <c r="I212" s="75"/>
+      <c r="G212" s="54"/>
+      <c r="H212" s="90"/>
+      <c r="I212" s="73"/>
     </row>
     <row r="213" spans="7:9">
-      <c r="G213" s="55"/>
-      <c r="H213" s="92"/>
-      <c r="I213" s="75"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="90"/>
+      <c r="I213" s="73"/>
     </row>
     <row r="214" spans="7:9">
-      <c r="G214" s="55"/>
-      <c r="H214" s="92"/>
-      <c r="I214" s="75"/>
+      <c r="G214" s="54"/>
+      <c r="H214" s="90"/>
+      <c r="I214" s="73"/>
     </row>
     <row r="215" spans="7:9">
-      <c r="G215" s="55"/>
-      <c r="H215" s="92"/>
-      <c r="I215" s="75"/>
+      <c r="G215" s="54"/>
+      <c r="H215" s="90"/>
+      <c r="I215" s="73"/>
     </row>
     <row r="216" spans="7:9">
-      <c r="G216" s="55"/>
-      <c r="H216" s="92"/>
-      <c r="I216" s="75"/>
+      <c r="G216" s="54"/>
+      <c r="H216" s="90"/>
+      <c r="I216" s="73"/>
     </row>
     <row r="217" spans="7:9">
-      <c r="G217" s="55"/>
-      <c r="H217" s="92"/>
-      <c r="I217" s="75"/>
+      <c r="G217" s="54"/>
+      <c r="H217" s="90"/>
+      <c r="I217" s="73"/>
     </row>
     <row r="218" spans="7:9">
-      <c r="G218" s="55"/>
-      <c r="H218" s="92"/>
-      <c r="I218" s="75"/>
+      <c r="G218" s="54"/>
+      <c r="H218" s="90"/>
+      <c r="I218" s="73"/>
     </row>
     <row r="219" spans="7:9">
-      <c r="G219" s="55"/>
-      <c r="H219" s="92"/>
-      <c r="I219" s="75"/>
+      <c r="G219" s="54"/>
+      <c r="H219" s="90"/>
+      <c r="I219" s="73"/>
     </row>
     <row r="220" spans="7:9">
-      <c r="G220" s="55"/>
-      <c r="H220" s="92"/>
-      <c r="I220" s="75"/>
+      <c r="G220" s="54"/>
+      <c r="H220" s="90"/>
+      <c r="I220" s="73"/>
     </row>
     <row r="221" spans="7:9">
-      <c r="G221" s="55"/>
-      <c r="H221" s="92"/>
-      <c r="I221" s="75"/>
+      <c r="G221" s="54"/>
+      <c r="H221" s="90"/>
+      <c r="I221" s="73"/>
     </row>
     <row r="222" spans="7:9">
-      <c r="G222" s="55"/>
-      <c r="H222" s="92"/>
-      <c r="I222" s="75"/>
+      <c r="G222" s="54"/>
+      <c r="H222" s="90"/>
+      <c r="I222" s="73"/>
     </row>
     <row r="223" spans="7:9">
-      <c r="G223" s="55"/>
-      <c r="H223" s="92"/>
-      <c r="I223" s="75"/>
+      <c r="G223" s="54"/>
+      <c r="H223" s="90"/>
+      <c r="I223" s="73"/>
     </row>
     <row r="224" spans="7:9">
-      <c r="G224" s="55"/>
-      <c r="H224" s="92"/>
-      <c r="I224" s="75"/>
+      <c r="G224" s="54"/>
+      <c r="H224" s="90"/>
+      <c r="I224" s="73"/>
     </row>
     <row r="225" spans="7:9">
-      <c r="G225" s="55"/>
-      <c r="H225" s="92"/>
-      <c r="I225" s="75"/>
+      <c r="G225" s="54"/>
+      <c r="H225" s="90"/>
+      <c r="I225" s="73"/>
     </row>
     <row r="226" spans="7:9">
-      <c r="G226" s="55"/>
-      <c r="H226" s="92"/>
-      <c r="I226" s="75"/>
+      <c r="G226" s="54"/>
+      <c r="H226" s="90"/>
+      <c r="I226" s="73"/>
     </row>
     <row r="227" spans="7:9">
-      <c r="G227" s="55"/>
-      <c r="H227" s="92"/>
-      <c r="I227" s="75"/>
+      <c r="G227" s="54"/>
+      <c r="H227" s="90"/>
+      <c r="I227" s="73"/>
     </row>
     <row r="228" spans="7:9">
-      <c r="G228" s="55"/>
-      <c r="H228" s="92"/>
-      <c r="I228" s="75"/>
+      <c r="G228" s="54"/>
+      <c r="H228" s="90"/>
+      <c r="I228" s="73"/>
     </row>
     <row r="229" spans="7:9">
-      <c r="G229" s="55"/>
-      <c r="H229" s="92"/>
-      <c r="I229" s="75"/>
+      <c r="G229" s="54"/>
+      <c r="H229" s="90"/>
+      <c r="I229" s="73"/>
     </row>
     <row r="230" spans="7:9">
-      <c r="G230" s="55"/>
-      <c r="H230" s="92"/>
-      <c r="I230" s="75"/>
+      <c r="G230" s="54"/>
+      <c r="H230" s="90"/>
+      <c r="I230" s="73"/>
     </row>
     <row r="231" spans="7:9">
-      <c r="G231" s="55"/>
-      <c r="H231" s="92"/>
-      <c r="I231" s="75"/>
+      <c r="G231" s="54"/>
+      <c r="H231" s="90"/>
+      <c r="I231" s="73"/>
     </row>
     <row r="232" spans="7:9">
-      <c r="G232" s="55"/>
-      <c r="H232" s="92"/>
-      <c r="I232" s="75"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="90"/>
+      <c r="I232" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J2:R2"/>
     <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,34 +3211,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3163,15 +3246,15 @@
         <v>9</v>
       </c>
       <c r="J3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="23">
@@ -3181,14 +3264,14 @@
         <v>10000</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="26">
         <f>E4</f>
         <v>10000</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="23">
         <v>45516</v>
@@ -3201,7 +3284,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="23">
         <v>45541</v>
@@ -3216,22 +3299,22 @@
         <v>1820</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="23">
         <v>45541</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="23">
         <v>45545</v>
@@ -3245,23 +3328,23 @@
       <c r="G6" s="27">
         <v>1820</v>
       </c>
-      <c r="H6" s="129" t="s">
-        <v>31</v>
+      <c r="H6" s="131" t="s">
+        <v>30</v>
       </c>
       <c r="I6" s="23">
         <v>45545</v>
       </c>
       <c r="J6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="23">
         <v>45549</v>
@@ -3275,19 +3358,19 @@
       <c r="G7" s="27">
         <v>1820</v>
       </c>
-      <c r="H7" s="129"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="23">
         <v>45549</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="23">
         <v>45567</v>
@@ -3302,19 +3385,19 @@
       <c r="G8" s="27">
         <v>1820</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="23">
         <v>45567</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="23">
         <v>45568</v>
@@ -3329,19 +3412,19 @@
       <c r="G9" s="27">
         <v>1830</v>
       </c>
-      <c r="H9" s="129"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="23">
         <v>45568</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="23">
         <v>45569</v>
@@ -3356,19 +3439,19 @@
       <c r="G10" s="27">
         <v>1830</v>
       </c>
-      <c r="H10" s="129"/>
+      <c r="H10" s="131"/>
       <c r="I10" s="23">
         <v>45569</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="23">
         <v>45573</v>
@@ -3384,20 +3467,20 @@
         <v>1830</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="23">
         <v>45573</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="23">
         <v>45576</v>
@@ -3413,20 +3496,20 @@
         <v>1830</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="23">
         <v>45576</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="23">
         <v>45598</v>
@@ -3441,20 +3524,20 @@
       <c r="G13" s="27">
         <v>1840</v>
       </c>
-      <c r="H13" s="130" t="s">
-        <v>38</v>
+      <c r="H13" s="132" t="s">
+        <v>37</v>
       </c>
       <c r="I13" s="23">
         <v>45598</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23">
@@ -3470,34 +3553,34 @@
       <c r="G14" s="27">
         <v>1840</v>
       </c>
-      <c r="H14" s="131"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="23">
         <v>45598</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="24">
         <v>20000</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="26">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="132"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="23">
         <v>45598</v>
       </c>
@@ -3508,7 +3591,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="23">
@@ -3525,19 +3608,19 @@
         <v>1840</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="23">
         <v>45605</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="23">
@@ -3554,20 +3637,20 @@
         <v>1850</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="23">
         <v>45610</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="23">
         <v>45611</v>
@@ -3583,22 +3666,22 @@
         <v>1850</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="23">
         <v>45611</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="23">
         <v>45627</v>
@@ -3614,19 +3697,19 @@
         <v>1840</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="23">
         <v>45627</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="23">
@@ -3643,13 +3726,13 @@
         <v>1850</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="23">
         <v>45648</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="11"/>
     </row>
@@ -3670,33 +3753,33 @@
         <f>SUM(E5:E13)+E18</f>
         <v>99922.829999999987</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="31">
         <v>180000</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="33">
         <v>45648</v>
@@ -3704,7 +3787,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="33">
         <v>45612</v>
@@ -3751,18 +3834,18 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="101" t="s">
-        <v>103</v>
+      <c r="E2" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>99</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3770,237 +3853,237 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="135">
+        <v>520</v>
+      </c>
+      <c r="F3" s="135"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="133">
-        <v>520</v>
-      </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="133" t="s">
+      <c r="I3" s="135"/>
+      <c r="J3" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="96" t="s">
         <v>52</v>
-      </c>
-      <c r="L3" s="99" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="134" t="s">
+      <c r="I4" s="113"/>
+      <c r="J4" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111" t="s">
+      <c r="K4" s="113"/>
+      <c r="L4" s="95" t="s">
         <v>57</v>
-      </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="98" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
-      <c r="C5" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="111" t="s">
+      <c r="C5" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="113"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="138"/>
+      <c r="J5" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="E6" s="113"/>
+      <c r="F6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="137" t="s">
+      <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="113"/>
+      <c r="J7" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="140"/>
+      <c r="C8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="138"/>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="113"/>
+      <c r="J8" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="141" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="139" t="s">
+      <c r="C9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="141"/>
+      <c r="C10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="139"/>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="111"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="109"/>
+      <c r="K10" s="111"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10"/>
-      <c r="C11" s="102" t="s">
-        <v>108</v>
+      <c r="C11" s="99" t="s">
+        <v>104</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="103" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="11"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12C6B0-8EAD-4FCC-8D46-86A6C6A0FB5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D6AD99-B32C-43DA-AD4B-EDCE662B4CA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,13 +361,7 @@
     <t>^ max=6k</t>
   </si>
   <si>
-    <t xml:space="preserve">China-Sgp exit channels </t>
-  </si>
-  <si>
     <t>存bank</t>
-  </si>
-  <si>
-    <t>cash carry出境</t>
   </si>
   <si>
     <r>
@@ -399,7 +393,14 @@
 tx date</t>
   </si>
   <si>
-    <t>51k to date</t>
+    <t>cumm USD
+带出中国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China-Sgp expatriation channels </t>
+  </si>
+  <si>
+    <t>physical carry出境</t>
   </si>
 </sst>
 </file>
@@ -414,12 +415,19 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,9 +716,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -723,8 +731,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -811,9 +819,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,11 +836,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -878,11 +882,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -891,13 +895,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -913,166 +917,173 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1349,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T232"/>
+  <dimension ref="B1:T231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1364,7 +1375,7 @@
     <col min="5" max="5" width="7.5703125" style="39" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="40" customWidth="1"/>
     <col min="7" max="7" width="8" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="89" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.140625" style="48" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="38" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
@@ -1372,83 +1383,88 @@
     <col min="13" max="13" width="6.5703125" style="38" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="38" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" style="38" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="2.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:19">
       <c r="D1" s="41"/>
       <c r="G1" s="48"/>
-      <c r="H1" s="70"/>
-    </row>
-    <row r="2" spans="2:18">
+      <c r="H1" s="68"/>
+    </row>
+    <row r="2" spans="2:19">
       <c r="D2" s="41"/>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="156" t="s">
+      <c r="J2" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="153" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1">
+      <c r="B3" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="112" t="s">
+      <c r="F3" s="132"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="113"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="109" t="s">
+      <c r="K3" s="135"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="155"/>
-      <c r="C4" s="60" t="s">
+      <c r="Q3" s="132"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="153"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="116"/>
+      <c r="C4" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
       <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
@@ -1462,8 +1478,8 @@
       <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
-        <v>112</v>
+      <c r="O4" s="104" t="s">
+        <v>111</v>
       </c>
       <c r="P4" s="42" t="s">
         <v>4</v>
@@ -1472,8 +1488,9 @@
         <v>5</v>
       </c>
       <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="23">
         <v>45490</v>
       </c>
@@ -1493,7 +1510,7 @@
       <c r="H5" s="51">
         <v>0</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="42">
         <f>F5</f>
         <v>10000</v>
@@ -1508,15 +1525,16 @@
       <c r="P5" s="42"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="23">
         <v>45511</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>72000.001000000004</v>
       </c>
       <c r="E6" s="43">
@@ -1527,7 +1545,7 @@
       <c r="H6" s="43">
         <v>0</v>
       </c>
-      <c r="I6" s="70"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="43">
         <f>E6</f>
         <v>10000</v>
@@ -1542,39 +1560,66 @@
       <c r="P6" s="42"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="2:18" ht="5.25" customHeight="1">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="23">
+        <v>45512</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="26">
+        <v>71992</v>
+      </c>
       <c r="E7" s="44"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="11"/>
+      <c r="F7" s="56">
+        <f>J7+M7</f>
+        <v>10000</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="43">
+        <v>4000</v>
+      </c>
+      <c r="K7" s="23">
+        <v>45512</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="42">
+        <v>6000</v>
+      </c>
+      <c r="N7" s="23">
+        <v>45514</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="42"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="S7" s="42">
+        <f>SUM(J5:J7)+M7</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15" customHeight="1">
       <c r="B8" s="23">
-        <v>45512</v>
+        <v>45575</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="26">
-        <v>71992</v>
+        <v>70265</v>
       </c>
       <c r="E8" s="44"/>
-      <c r="F8" s="57">
-        <f>J8+M8</f>
+      <c r="F8" s="43">
         <v>10000</v>
       </c>
       <c r="G8" s="51">
@@ -1583,484 +1628,484 @@
       <c r="H8" s="51">
         <v>0</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="43">
-        <v>4000</v>
+        <f>F8</f>
+        <v>10000</v>
       </c>
       <c r="K8" s="23">
-        <v>45512</v>
+        <v>45593</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="42">
-        <v>6000</v>
-      </c>
-      <c r="N8" s="23">
-        <v>45514</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="M8" s="52"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="2:18" ht="15" customHeight="1">
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="2:19" ht="15" customHeight="1">
       <c r="B9" s="23">
-        <v>45575</v>
+        <v>45593</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="26">
-        <v>70265</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43">
+        <v>71433</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="121"/>
+      <c r="G9" s="51">
         <v>10000</v>
-      </c>
-      <c r="G9" s="51">
-        <v>0</v>
       </c>
       <c r="H9" s="51">
         <v>0</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="43">
-        <f>F9</f>
-        <v>10000</v>
-      </c>
-      <c r="K9" s="23">
-        <v>45593</v>
-      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="2:18" ht="15" customHeight="1">
-      <c r="B10" s="23">
-        <v>45593</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="26">
-        <v>71433</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="51">
-        <v>10000</v>
-      </c>
-      <c r="H10" s="51">
-        <v>0</v>
-      </c>
-      <c r="I10" s="69"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="2:19" ht="4.5" customHeight="1">
+      <c r="B10" s="78"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="43"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="53"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="2:18" ht="4.5" customHeight="1">
-      <c r="B11" s="80"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="122">
+        <v>45594</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="72"/>
+      <c r="F11" s="64">
+        <f>J11+M11</f>
+        <v>8000</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="86"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="43">
+        <v>6000</v>
+      </c>
+      <c r="K11" s="23">
+        <v>45594</v>
+      </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="M11" s="157">
+        <v>2000</v>
+      </c>
+      <c r="N11" s="156">
+        <v>45598</v>
+      </c>
+      <c r="O11" s="107" t="s">
+        <v>13</v>
+      </c>
       <c r="P11" s="42"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="143">
-        <v>45594</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="66">
-        <f>J12+M12</f>
-        <v>8000</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="43">
-        <v>6000</v>
-      </c>
-      <c r="K12" s="23">
-        <v>45594</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="53">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="2:19" ht="15" customHeight="1">
+      <c r="B12" s="123"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="75">
+        <f>G9-F11</f>
         <v>2000</v>
       </c>
-      <c r="N12" s="23">
-        <v>45598</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>13</v>
-      </c>
+      <c r="H12" s="75">
+        <v>0</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="50"/>
+      <c r="L12" s="103"/>
+      <c r="N12" s="156"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="2:18" ht="15" customHeight="1">
-      <c r="B13" s="144"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="77">
-        <f>G10-F12</f>
-        <v>2000</v>
-      </c>
-      <c r="H13" s="77">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="2:19" ht="15" customHeight="1">
+      <c r="B13" s="23">
+        <v>45595</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="26">
+        <v>71397</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="121"/>
+      <c r="G13" s="56">
+        <f>G12+10000</f>
+        <v>12000</v>
+      </c>
+      <c r="H13" s="56">
         <v>0</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="43" t="s">
-        <v>15</v>
-      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="105"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:18" ht="15" customHeight="1">
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="23">
-        <v>45595</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="26">
-        <v>71397</v>
-      </c>
-      <c r="E14" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="57">
-        <f>G13+10000</f>
-        <v>12000</v>
-      </c>
-      <c r="H14" s="57">
-        <v>0</v>
-      </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="42"/>
+        <v>45593</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="43">
+        <v>3400</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="157">
+        <f>E14</f>
+        <v>3400</v>
+      </c>
+      <c r="N14" s="156">
+        <v>45598</v>
+      </c>
+      <c r="O14" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="111"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="23">
-        <v>45593</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="43">
-        <v>3400</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="53">
-        <f>E15</f>
-        <v>3400</v>
-      </c>
-      <c r="N15" s="23">
-        <v>45598</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="157" t="s">
-        <v>116</v>
-      </c>
+      <c r="S14" s="42">
+        <f>SUM(J5:J11)+SUM(M7:M14)</f>
+        <v>51400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="5.25" customHeight="1">
+      <c r="B15" s="78"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="2:18" ht="5.25" customHeight="1">
-      <c r="B16" s="80"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="124">
+        <v>45632</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="76">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="87">
+        <v>0</v>
+      </c>
       <c r="I16" s="70"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="23"/>
+      <c r="J16" s="43">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="85">
+        <v>45659</v>
+      </c>
+      <c r="L16" s="85"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="122">
-        <v>45632</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="78">
-        <v>10000</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="89">
+      <c r="B17" s="125"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="65">
+        <f>G13-F16</f>
+        <v>2000</v>
+      </c>
+      <c r="H17" s="65">
         <v>0</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="43">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="87">
-        <v>45659</v>
-      </c>
-      <c r="L17" s="87"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="49"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="123"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="67">
-        <f>G14-F17</f>
-        <v>2000</v>
-      </c>
-      <c r="H18" s="67">
+      <c r="B18" s="84">
+        <v>45659</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="61">
+        <v>73183</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="83">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="77">
         <v>0</v>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="43">
+        <v>6000</v>
+      </c>
+      <c r="K18" s="85">
+        <v>45660</v>
+      </c>
+      <c r="L18" s="105"/>
+      <c r="M18" s="110">
+        <f>F18-J18</f>
+        <v>4000</v>
+      </c>
+      <c r="N18" s="158">
+        <v>45666</v>
+      </c>
+      <c r="O18" s="107"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="86">
-        <v>45659</v>
+      <c r="B19" s="102">
+        <v>45663</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="62">
-        <v>73183</v>
-      </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="85">
+        <v>12</v>
+      </c>
+      <c r="D19" s="57">
+        <v>73400.001000000004</v>
+      </c>
+      <c r="E19" s="43">
         <v>10000</v>
       </c>
-      <c r="G19" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="79">
-        <v>0</v>
-      </c>
-      <c r="I19" s="72"/>
+      <c r="F19" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="43">
-        <v>6000</v>
-      </c>
-      <c r="K19" s="87">
-        <v>45660</v>
-      </c>
-      <c r="L19" s="147"/>
-      <c r="M19" s="153">
-        <f>F19-J19</f>
-        <v>4000</v>
-      </c>
-      <c r="N19" s="154">
-        <v>45666</v>
-      </c>
-      <c r="O19" s="149"/>
+        <v>10000</v>
+      </c>
+      <c r="K19" s="85">
+        <v>45663</v>
+      </c>
+      <c r="L19" s="105"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="107"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="104">
-        <v>45663</v>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="58">
-        <v>73400.001000000004</v>
-      </c>
-      <c r="E20" s="43">
+        <v>11</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="43">
         <v>10000</v>
       </c>
-      <c r="F20" s="124" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="43">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="87">
-        <v>45663</v>
-      </c>
-      <c r="L20" s="147"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="149"/>
+      <c r="G20" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="62">
+        <f>F20-M20</f>
+        <v>8000</v>
+      </c>
+      <c r="I20" s="70"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="110">
+        <f>6000-M18</f>
+        <v>2000</v>
+      </c>
+      <c r="N20" s="158">
+        <v>45666</v>
+      </c>
+      <c r="O20" s="107"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="63">
-        <f>F21-M21</f>
-        <v>8000</v>
-      </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="43"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="153">
-        <f>6000-M19</f>
-        <v>2000</v>
-      </c>
-      <c r="N21" s="154"/>
-      <c r="O21" s="149"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="109"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="47"/>
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
-      <c r="M22" s="150" t="s">
-        <v>110</v>
-      </c>
-      <c r="N22" s="151"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="O22" s="11"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="11"/>
+      <c r="P22" s="42">
+        <v>28000</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="R22" s="11"/>
-      <c r="T22" s="55"/>
+      <c r="S22" s="11"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="26"/>
       <c r="E23" s="44"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="47"/>
       <c r="K23" s="50"/>
       <c r="L23" s="50"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="M23" s="52"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="42">
-        <v>28000</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="P23" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="11"/>
@@ -2070,1108 +2115,1077 @@
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="47"/>
       <c r="K24" s="50"/>
       <c r="L24" s="50"/>
-      <c r="M24" s="53"/>
+      <c r="M24" s="52"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="42" t="s">
-        <v>20</v>
-      </c>
+      <c r="P24" s="42"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="G26" s="54"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="2:20" ht="17.25">
-      <c r="B27" s="152" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="73"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="2:20" ht="17.25">
+      <c r="B26" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="71"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="73"/>
+      <c r="B28" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="145" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="73"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="71"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="G30" s="54"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="73"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="G31" s="54"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="73"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="G32" s="54"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="73"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" spans="7:9">
-      <c r="G33" s="54"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="73"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="71"/>
     </row>
     <row r="34" spans="7:9">
-      <c r="G34" s="54"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="73"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="7:9">
-      <c r="G35" s="54"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="73"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="7:9">
-      <c r="G36" s="54"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="73"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" spans="7:9">
-      <c r="G37" s="54"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="73"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="71"/>
     </row>
     <row r="38" spans="7:9">
-      <c r="G38" s="54"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="73"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="71"/>
     </row>
     <row r="39" spans="7:9">
-      <c r="G39" s="54"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="73"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="71"/>
     </row>
     <row r="40" spans="7:9">
-      <c r="G40" s="54"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="73"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="7:9">
-      <c r="G41" s="54"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="73"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="7:9">
-      <c r="G42" s="54"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="73"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="54"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="73"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="54"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="73"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="54"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="73"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="71"/>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="54"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="73"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="54"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="73"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="71"/>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="54"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="73"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="71"/>
     </row>
     <row r="49" spans="7:9">
-      <c r="G49" s="54"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="73"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="7:9">
-      <c r="G50" s="54"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="73"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" spans="7:9">
-      <c r="G51" s="54"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="73"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" spans="7:9">
-      <c r="G52" s="54"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="73"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="7:9">
-      <c r="G53" s="54"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="73"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="7:9">
-      <c r="G54" s="54"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="73"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="7:9">
-      <c r="G55" s="54"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="73"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="54"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="73"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="7:9">
-      <c r="G57" s="54"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="73"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="7:9">
-      <c r="G58" s="54"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="73"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="7:9">
-      <c r="G59" s="54"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="73"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="7:9">
-      <c r="G60" s="54"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="73"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" spans="7:9">
-      <c r="G61" s="54"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="73"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" spans="7:9">
-      <c r="G62" s="54"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="73"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="63" spans="7:9">
-      <c r="G63" s="54"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="73"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="71"/>
     </row>
     <row r="64" spans="7:9">
-      <c r="G64" s="54"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="73"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="71"/>
     </row>
     <row r="65" spans="7:9">
-      <c r="G65" s="54"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="73"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="71"/>
     </row>
     <row r="66" spans="7:9">
-      <c r="G66" s="54"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="73"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="71"/>
     </row>
     <row r="67" spans="7:9">
-      <c r="G67" s="54"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="73"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="71"/>
     </row>
     <row r="68" spans="7:9">
-      <c r="G68" s="54"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="73"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="71"/>
     </row>
     <row r="69" spans="7:9">
-      <c r="G69" s="54"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="73"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="71"/>
     </row>
     <row r="70" spans="7:9">
-      <c r="G70" s="54"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="73"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="71"/>
     </row>
     <row r="71" spans="7:9">
-      <c r="G71" s="54"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="73"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="71"/>
     </row>
     <row r="72" spans="7:9">
-      <c r="G72" s="54"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="73"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="7:9">
-      <c r="G73" s="54"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="73"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="71"/>
     </row>
     <row r="74" spans="7:9">
-      <c r="G74" s="54"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="73"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="71"/>
     </row>
     <row r="75" spans="7:9">
-      <c r="G75" s="54"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="73"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="71"/>
     </row>
     <row r="76" spans="7:9">
-      <c r="G76" s="54"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="73"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="71"/>
     </row>
     <row r="77" spans="7:9">
-      <c r="G77" s="54"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="73"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="71"/>
     </row>
     <row r="78" spans="7:9">
-      <c r="G78" s="54"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="73"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="71"/>
     </row>
     <row r="79" spans="7:9">
-      <c r="G79" s="54"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="73"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="71"/>
     </row>
     <row r="80" spans="7:9">
-      <c r="G80" s="54"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="73"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="71"/>
     </row>
     <row r="81" spans="7:9">
-      <c r="G81" s="54"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="73"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="71"/>
     </row>
     <row r="82" spans="7:9">
-      <c r="G82" s="54"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="73"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="71"/>
     </row>
     <row r="83" spans="7:9">
-      <c r="G83" s="54"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="73"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="71"/>
     </row>
     <row r="84" spans="7:9">
-      <c r="G84" s="54"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="73"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="71"/>
     </row>
     <row r="85" spans="7:9">
-      <c r="G85" s="54"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="73"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="71"/>
     </row>
     <row r="86" spans="7:9">
-      <c r="G86" s="54"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="73"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="71"/>
     </row>
     <row r="87" spans="7:9">
-      <c r="G87" s="54"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="73"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="71"/>
     </row>
     <row r="88" spans="7:9">
-      <c r="G88" s="54"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="73"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="71"/>
     </row>
     <row r="89" spans="7:9">
-      <c r="G89" s="54"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="73"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="71"/>
     </row>
     <row r="90" spans="7:9">
-      <c r="G90" s="54"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="73"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="71"/>
     </row>
     <row r="91" spans="7:9">
-      <c r="G91" s="54"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="73"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="71"/>
     </row>
     <row r="92" spans="7:9">
-      <c r="G92" s="54"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="73"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="71"/>
     </row>
     <row r="93" spans="7:9">
-      <c r="G93" s="54"/>
-      <c r="H93" s="90"/>
-      <c r="I93" s="73"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="71"/>
     </row>
     <row r="94" spans="7:9">
-      <c r="G94" s="54"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="73"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="71"/>
     </row>
     <row r="95" spans="7:9">
-      <c r="G95" s="54"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="73"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="71"/>
     </row>
     <row r="96" spans="7:9">
-      <c r="G96" s="54"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="73"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="71"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="54"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="73"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="71"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="54"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="73"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="71"/>
     </row>
     <row r="99" spans="7:9">
-      <c r="G99" s="54"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="73"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="71"/>
     </row>
     <row r="100" spans="7:9">
-      <c r="G100" s="54"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="73"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="71"/>
     </row>
     <row r="101" spans="7:9">
-      <c r="G101" s="54"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="73"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="71"/>
     </row>
     <row r="102" spans="7:9">
-      <c r="G102" s="54"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="73"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="88"/>
+      <c r="I102" s="71"/>
     </row>
     <row r="103" spans="7:9">
-      <c r="G103" s="54"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="73"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="88"/>
+      <c r="I103" s="71"/>
     </row>
     <row r="104" spans="7:9">
-      <c r="G104" s="54"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="73"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="71"/>
     </row>
     <row r="105" spans="7:9">
-      <c r="G105" s="54"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="73"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="71"/>
     </row>
     <row r="106" spans="7:9">
-      <c r="G106" s="54"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="73"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="71"/>
     </row>
     <row r="107" spans="7:9">
-      <c r="G107" s="54"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="73"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="88"/>
+      <c r="I107" s="71"/>
     </row>
     <row r="108" spans="7:9">
-      <c r="G108" s="54"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="73"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="71"/>
     </row>
     <row r="109" spans="7:9">
-      <c r="G109" s="54"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="73"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="71"/>
     </row>
     <row r="110" spans="7:9">
-      <c r="G110" s="54"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="73"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="71"/>
     </row>
     <row r="111" spans="7:9">
-      <c r="G111" s="54"/>
-      <c r="H111" s="90"/>
-      <c r="I111" s="73"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="71"/>
     </row>
     <row r="112" spans="7:9">
-      <c r="G112" s="54"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="73"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="71"/>
     </row>
     <row r="113" spans="7:9">
-      <c r="G113" s="54"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="73"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="88"/>
+      <c r="I113" s="71"/>
     </row>
     <row r="114" spans="7:9">
-      <c r="G114" s="54"/>
-      <c r="H114" s="90"/>
-      <c r="I114" s="73"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="71"/>
     </row>
     <row r="115" spans="7:9">
-      <c r="G115" s="54"/>
-      <c r="H115" s="90"/>
-      <c r="I115" s="73"/>
+      <c r="G115" s="53"/>
+      <c r="H115" s="88"/>
+      <c r="I115" s="71"/>
     </row>
     <row r="116" spans="7:9">
-      <c r="G116" s="54"/>
-      <c r="H116" s="90"/>
-      <c r="I116" s="73"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="88"/>
+      <c r="I116" s="71"/>
     </row>
     <row r="117" spans="7:9">
-      <c r="G117" s="54"/>
-      <c r="H117" s="90"/>
-      <c r="I117" s="73"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="88"/>
+      <c r="I117" s="71"/>
     </row>
     <row r="118" spans="7:9">
-      <c r="G118" s="54"/>
-      <c r="H118" s="90"/>
-      <c r="I118" s="73"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="88"/>
+      <c r="I118" s="71"/>
     </row>
     <row r="119" spans="7:9">
-      <c r="G119" s="54"/>
-      <c r="H119" s="90"/>
-      <c r="I119" s="73"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="71"/>
     </row>
     <row r="120" spans="7:9">
-      <c r="G120" s="54"/>
-      <c r="H120" s="90"/>
-      <c r="I120" s="73"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="71"/>
     </row>
     <row r="121" spans="7:9">
-      <c r="G121" s="54"/>
-      <c r="H121" s="90"/>
-      <c r="I121" s="73"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="71"/>
     </row>
     <row r="122" spans="7:9">
-      <c r="G122" s="54"/>
-      <c r="H122" s="90"/>
-      <c r="I122" s="73"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="71"/>
     </row>
     <row r="123" spans="7:9">
-      <c r="G123" s="54"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="73"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="88"/>
+      <c r="I123" s="71"/>
     </row>
     <row r="124" spans="7:9">
-      <c r="G124" s="54"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="73"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="71"/>
     </row>
     <row r="125" spans="7:9">
-      <c r="G125" s="54"/>
-      <c r="H125" s="90"/>
-      <c r="I125" s="73"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="88"/>
+      <c r="I125" s="71"/>
     </row>
     <row r="126" spans="7:9">
-      <c r="G126" s="54"/>
-      <c r="H126" s="90"/>
-      <c r="I126" s="73"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="88"/>
+      <c r="I126" s="71"/>
     </row>
     <row r="127" spans="7:9">
-      <c r="G127" s="54"/>
-      <c r="H127" s="90"/>
-      <c r="I127" s="73"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="88"/>
+      <c r="I127" s="71"/>
     </row>
     <row r="128" spans="7:9">
-      <c r="G128" s="54"/>
-      <c r="H128" s="90"/>
-      <c r="I128" s="73"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="88"/>
+      <c r="I128" s="71"/>
     </row>
     <row r="129" spans="7:9">
-      <c r="G129" s="54"/>
-      <c r="H129" s="90"/>
-      <c r="I129" s="73"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="71"/>
     </row>
     <row r="130" spans="7:9">
-      <c r="G130" s="54"/>
-      <c r="H130" s="90"/>
-      <c r="I130" s="73"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="88"/>
+      <c r="I130" s="71"/>
     </row>
     <row r="131" spans="7:9">
-      <c r="G131" s="54"/>
-      <c r="H131" s="90"/>
-      <c r="I131" s="73"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="88"/>
+      <c r="I131" s="71"/>
     </row>
     <row r="132" spans="7:9">
-      <c r="G132" s="54"/>
-      <c r="H132" s="90"/>
-      <c r="I132" s="73"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="88"/>
+      <c r="I132" s="71"/>
     </row>
     <row r="133" spans="7:9">
-      <c r="G133" s="54"/>
-      <c r="H133" s="90"/>
-      <c r="I133" s="73"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="88"/>
+      <c r="I133" s="71"/>
     </row>
     <row r="134" spans="7:9">
-      <c r="G134" s="54"/>
-      <c r="H134" s="90"/>
-      <c r="I134" s="73"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="88"/>
+      <c r="I134" s="71"/>
     </row>
     <row r="135" spans="7:9">
-      <c r="G135" s="54"/>
-      <c r="H135" s="90"/>
-      <c r="I135" s="73"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="88"/>
+      <c r="I135" s="71"/>
     </row>
     <row r="136" spans="7:9">
-      <c r="G136" s="54"/>
-      <c r="H136" s="90"/>
-      <c r="I136" s="73"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="88"/>
+      <c r="I136" s="71"/>
     </row>
     <row r="137" spans="7:9">
-      <c r="G137" s="54"/>
-      <c r="H137" s="90"/>
-      <c r="I137" s="73"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="88"/>
+      <c r="I137" s="71"/>
     </row>
     <row r="138" spans="7:9">
-      <c r="G138" s="54"/>
-      <c r="H138" s="90"/>
-      <c r="I138" s="73"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="88"/>
+      <c r="I138" s="71"/>
     </row>
     <row r="139" spans="7:9">
-      <c r="G139" s="54"/>
-      <c r="H139" s="90"/>
-      <c r="I139" s="73"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="71"/>
     </row>
     <row r="140" spans="7:9">
-      <c r="G140" s="54"/>
-      <c r="H140" s="90"/>
-      <c r="I140" s="73"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="88"/>
+      <c r="I140" s="71"/>
     </row>
     <row r="141" spans="7:9">
-      <c r="G141" s="54"/>
-      <c r="H141" s="90"/>
-      <c r="I141" s="73"/>
+      <c r="G141" s="53"/>
+      <c r="H141" s="88"/>
+      <c r="I141" s="71"/>
     </row>
     <row r="142" spans="7:9">
-      <c r="G142" s="54"/>
-      <c r="H142" s="90"/>
-      <c r="I142" s="73"/>
+      <c r="G142" s="53"/>
+      <c r="H142" s="88"/>
+      <c r="I142" s="71"/>
     </row>
     <row r="143" spans="7:9">
-      <c r="G143" s="54"/>
-      <c r="H143" s="90"/>
-      <c r="I143" s="73"/>
+      <c r="G143" s="53"/>
+      <c r="H143" s="88"/>
+      <c r="I143" s="71"/>
     </row>
     <row r="144" spans="7:9">
-      <c r="G144" s="54"/>
-      <c r="H144" s="90"/>
-      <c r="I144" s="73"/>
+      <c r="G144" s="53"/>
+      <c r="H144" s="88"/>
+      <c r="I144" s="71"/>
     </row>
     <row r="145" spans="7:9">
-      <c r="G145" s="54"/>
-      <c r="H145" s="90"/>
-      <c r="I145" s="73"/>
+      <c r="G145" s="53"/>
+      <c r="H145" s="88"/>
+      <c r="I145" s="71"/>
     </row>
     <row r="146" spans="7:9">
-      <c r="G146" s="54"/>
-      <c r="H146" s="90"/>
-      <c r="I146" s="73"/>
+      <c r="G146" s="53"/>
+      <c r="H146" s="88"/>
+      <c r="I146" s="71"/>
     </row>
     <row r="147" spans="7:9">
-      <c r="G147" s="54"/>
-      <c r="H147" s="90"/>
-      <c r="I147" s="73"/>
+      <c r="G147" s="53"/>
+      <c r="H147" s="88"/>
+      <c r="I147" s="71"/>
     </row>
     <row r="148" spans="7:9">
-      <c r="G148" s="54"/>
-      <c r="H148" s="90"/>
-      <c r="I148" s="73"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="88"/>
+      <c r="I148" s="71"/>
     </row>
     <row r="149" spans="7:9">
-      <c r="G149" s="54"/>
-      <c r="H149" s="90"/>
-      <c r="I149" s="73"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="88"/>
+      <c r="I149" s="71"/>
     </row>
     <row r="150" spans="7:9">
-      <c r="G150" s="54"/>
-      <c r="H150" s="90"/>
-      <c r="I150" s="73"/>
+      <c r="G150" s="53"/>
+      <c r="H150" s="88"/>
+      <c r="I150" s="71"/>
     </row>
     <row r="151" spans="7:9">
-      <c r="G151" s="54"/>
-      <c r="H151" s="90"/>
-      <c r="I151" s="73"/>
+      <c r="G151" s="53"/>
+      <c r="H151" s="88"/>
+      <c r="I151" s="71"/>
     </row>
     <row r="152" spans="7:9">
-      <c r="G152" s="54"/>
-      <c r="H152" s="90"/>
-      <c r="I152" s="73"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="88"/>
+      <c r="I152" s="71"/>
     </row>
     <row r="153" spans="7:9">
-      <c r="G153" s="54"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="73"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="88"/>
+      <c r="I153" s="71"/>
     </row>
     <row r="154" spans="7:9">
-      <c r="G154" s="54"/>
-      <c r="H154" s="90"/>
-      <c r="I154" s="73"/>
+      <c r="G154" s="53"/>
+      <c r="H154" s="88"/>
+      <c r="I154" s="71"/>
     </row>
     <row r="155" spans="7:9">
-      <c r="G155" s="54"/>
-      <c r="H155" s="90"/>
-      <c r="I155" s="73"/>
+      <c r="G155" s="53"/>
+      <c r="H155" s="88"/>
+      <c r="I155" s="71"/>
     </row>
     <row r="156" spans="7:9">
-      <c r="G156" s="54"/>
-      <c r="H156" s="90"/>
-      <c r="I156" s="73"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="88"/>
+      <c r="I156" s="71"/>
     </row>
     <row r="157" spans="7:9">
-      <c r="G157" s="54"/>
-      <c r="H157" s="90"/>
-      <c r="I157" s="73"/>
+      <c r="G157" s="53"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="71"/>
     </row>
     <row r="158" spans="7:9">
-      <c r="G158" s="54"/>
-      <c r="H158" s="90"/>
-      <c r="I158" s="73"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="71"/>
     </row>
     <row r="159" spans="7:9">
-      <c r="G159" s="54"/>
-      <c r="H159" s="90"/>
-      <c r="I159" s="73"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="88"/>
+      <c r="I159" s="71"/>
     </row>
     <row r="160" spans="7:9">
-      <c r="G160" s="54"/>
-      <c r="H160" s="90"/>
-      <c r="I160" s="73"/>
+      <c r="G160" s="53"/>
+      <c r="H160" s="88"/>
+      <c r="I160" s="71"/>
     </row>
     <row r="161" spans="7:9">
-      <c r="G161" s="54"/>
-      <c r="H161" s="90"/>
-      <c r="I161" s="73"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="88"/>
+      <c r="I161" s="71"/>
     </row>
     <row r="162" spans="7:9">
-      <c r="G162" s="54"/>
-      <c r="H162" s="90"/>
-      <c r="I162" s="73"/>
+      <c r="G162" s="53"/>
+      <c r="H162" s="88"/>
+      <c r="I162" s="71"/>
     </row>
     <row r="163" spans="7:9">
-      <c r="G163" s="54"/>
-      <c r="H163" s="90"/>
-      <c r="I163" s="73"/>
+      <c r="G163" s="53"/>
+      <c r="H163" s="88"/>
+      <c r="I163" s="71"/>
     </row>
     <row r="164" spans="7:9">
-      <c r="G164" s="54"/>
-      <c r="H164" s="90"/>
-      <c r="I164" s="73"/>
+      <c r="G164" s="53"/>
+      <c r="H164" s="88"/>
+      <c r="I164" s="71"/>
     </row>
     <row r="165" spans="7:9">
-      <c r="G165" s="54"/>
-      <c r="H165" s="90"/>
-      <c r="I165" s="73"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="88"/>
+      <c r="I165" s="71"/>
     </row>
     <row r="166" spans="7:9">
-      <c r="G166" s="54"/>
-      <c r="H166" s="90"/>
-      <c r="I166" s="73"/>
+      <c r="G166" s="53"/>
+      <c r="H166" s="88"/>
+      <c r="I166" s="71"/>
     </row>
     <row r="167" spans="7:9">
-      <c r="G167" s="54"/>
-      <c r="H167" s="90"/>
-      <c r="I167" s="73"/>
+      <c r="G167" s="53"/>
+      <c r="H167" s="88"/>
+      <c r="I167" s="71"/>
     </row>
     <row r="168" spans="7:9">
-      <c r="G168" s="54"/>
-      <c r="H168" s="90"/>
-      <c r="I168" s="73"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="88"/>
+      <c r="I168" s="71"/>
     </row>
     <row r="169" spans="7:9">
-      <c r="G169" s="54"/>
-      <c r="H169" s="90"/>
-      <c r="I169" s="73"/>
+      <c r="G169" s="53"/>
+      <c r="H169" s="88"/>
+      <c r="I169" s="71"/>
     </row>
     <row r="170" spans="7:9">
-      <c r="G170" s="54"/>
-      <c r="H170" s="90"/>
-      <c r="I170" s="73"/>
+      <c r="G170" s="53"/>
+      <c r="H170" s="88"/>
+      <c r="I170" s="71"/>
     </row>
     <row r="171" spans="7:9">
-      <c r="G171" s="54"/>
-      <c r="H171" s="90"/>
-      <c r="I171" s="73"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="88"/>
+      <c r="I171" s="71"/>
     </row>
     <row r="172" spans="7:9">
-      <c r="G172" s="54"/>
-      <c r="H172" s="90"/>
-      <c r="I172" s="73"/>
+      <c r="G172" s="53"/>
+      <c r="H172" s="88"/>
+      <c r="I172" s="71"/>
     </row>
     <row r="173" spans="7:9">
-      <c r="G173" s="54"/>
-      <c r="H173" s="90"/>
-      <c r="I173" s="73"/>
+      <c r="G173" s="53"/>
+      <c r="H173" s="88"/>
+      <c r="I173" s="71"/>
     </row>
     <row r="174" spans="7:9">
-      <c r="G174" s="54"/>
-      <c r="H174" s="90"/>
-      <c r="I174" s="73"/>
+      <c r="G174" s="53"/>
+      <c r="H174" s="88"/>
+      <c r="I174" s="71"/>
     </row>
     <row r="175" spans="7:9">
-      <c r="G175" s="54"/>
-      <c r="H175" s="90"/>
-      <c r="I175" s="73"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="88"/>
+      <c r="I175" s="71"/>
     </row>
     <row r="176" spans="7:9">
-      <c r="G176" s="54"/>
-      <c r="H176" s="90"/>
-      <c r="I176" s="73"/>
+      <c r="G176" s="53"/>
+      <c r="H176" s="88"/>
+      <c r="I176" s="71"/>
     </row>
     <row r="177" spans="7:9">
-      <c r="G177" s="54"/>
-      <c r="H177" s="90"/>
-      <c r="I177" s="73"/>
+      <c r="G177" s="53"/>
+      <c r="H177" s="88"/>
+      <c r="I177" s="71"/>
     </row>
     <row r="178" spans="7:9">
-      <c r="G178" s="54"/>
-      <c r="H178" s="90"/>
-      <c r="I178" s="73"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="88"/>
+      <c r="I178" s="71"/>
     </row>
     <row r="179" spans="7:9">
-      <c r="G179" s="54"/>
-      <c r="H179" s="90"/>
-      <c r="I179" s="73"/>
+      <c r="G179" s="53"/>
+      <c r="H179" s="88"/>
+      <c r="I179" s="71"/>
     </row>
     <row r="180" spans="7:9">
-      <c r="G180" s="54"/>
-      <c r="H180" s="90"/>
-      <c r="I180" s="73"/>
+      <c r="G180" s="53"/>
+      <c r="H180" s="88"/>
+      <c r="I180" s="71"/>
     </row>
     <row r="181" spans="7:9">
-      <c r="G181" s="54"/>
-      <c r="H181" s="90"/>
-      <c r="I181" s="73"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="88"/>
+      <c r="I181" s="71"/>
     </row>
     <row r="182" spans="7:9">
-      <c r="G182" s="54"/>
-      <c r="H182" s="90"/>
-      <c r="I182" s="73"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="88"/>
+      <c r="I182" s="71"/>
     </row>
     <row r="183" spans="7:9">
-      <c r="G183" s="54"/>
-      <c r="H183" s="90"/>
-      <c r="I183" s="73"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="88"/>
+      <c r="I183" s="71"/>
     </row>
     <row r="184" spans="7:9">
-      <c r="G184" s="54"/>
-      <c r="H184" s="90"/>
-      <c r="I184" s="73"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="88"/>
+      <c r="I184" s="71"/>
     </row>
     <row r="185" spans="7:9">
-      <c r="G185" s="54"/>
-      <c r="H185" s="90"/>
-      <c r="I185" s="73"/>
+      <c r="G185" s="53"/>
+      <c r="H185" s="88"/>
+      <c r="I185" s="71"/>
     </row>
     <row r="186" spans="7:9">
-      <c r="G186" s="54"/>
-      <c r="H186" s="90"/>
-      <c r="I186" s="73"/>
+      <c r="G186" s="53"/>
+      <c r="H186" s="88"/>
+      <c r="I186" s="71"/>
     </row>
     <row r="187" spans="7:9">
-      <c r="G187" s="54"/>
-      <c r="H187" s="90"/>
-      <c r="I187" s="73"/>
+      <c r="G187" s="53"/>
+      <c r="H187" s="88"/>
+      <c r="I187" s="71"/>
     </row>
     <row r="188" spans="7:9">
-      <c r="G188" s="54"/>
-      <c r="H188" s="90"/>
-      <c r="I188" s="73"/>
+      <c r="G188" s="53"/>
+      <c r="H188" s="88"/>
+      <c r="I188" s="71"/>
     </row>
     <row r="189" spans="7:9">
-      <c r="G189" s="54"/>
-      <c r="H189" s="90"/>
-      <c r="I189" s="73"/>
+      <c r="G189" s="53"/>
+      <c r="H189" s="88"/>
+      <c r="I189" s="71"/>
     </row>
     <row r="190" spans="7:9">
-      <c r="G190" s="54"/>
-      <c r="H190" s="90"/>
-      <c r="I190" s="73"/>
+      <c r="G190" s="53"/>
+      <c r="H190" s="88"/>
+      <c r="I190" s="71"/>
     </row>
     <row r="191" spans="7:9">
-      <c r="G191" s="54"/>
-      <c r="H191" s="90"/>
-      <c r="I191" s="73"/>
+      <c r="G191" s="53"/>
+      <c r="H191" s="88"/>
+      <c r="I191" s="71"/>
     </row>
     <row r="192" spans="7:9">
-      <c r="G192" s="54"/>
-      <c r="H192" s="90"/>
-      <c r="I192" s="73"/>
+      <c r="G192" s="53"/>
+      <c r="H192" s="88"/>
+      <c r="I192" s="71"/>
     </row>
     <row r="193" spans="7:9">
-      <c r="G193" s="54"/>
-      <c r="H193" s="90"/>
-      <c r="I193" s="73"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="88"/>
+      <c r="I193" s="71"/>
     </row>
     <row r="194" spans="7:9">
-      <c r="G194" s="54"/>
-      <c r="H194" s="90"/>
-      <c r="I194" s="73"/>
+      <c r="G194" s="53"/>
+      <c r="H194" s="88"/>
+      <c r="I194" s="71"/>
     </row>
     <row r="195" spans="7:9">
-      <c r="G195" s="54"/>
-      <c r="H195" s="90"/>
-      <c r="I195" s="73"/>
+      <c r="G195" s="53"/>
+      <c r="H195" s="88"/>
+      <c r="I195" s="71"/>
     </row>
     <row r="196" spans="7:9">
-      <c r="G196" s="54"/>
-      <c r="H196" s="90"/>
-      <c r="I196" s="73"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="71"/>
     </row>
     <row r="197" spans="7:9">
-      <c r="G197" s="54"/>
-      <c r="H197" s="90"/>
-      <c r="I197" s="73"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="88"/>
+      <c r="I197" s="71"/>
     </row>
     <row r="198" spans="7:9">
-      <c r="G198" s="54"/>
-      <c r="H198" s="90"/>
-      <c r="I198" s="73"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="88"/>
+      <c r="I198" s="71"/>
     </row>
     <row r="199" spans="7:9">
-      <c r="G199" s="54"/>
-      <c r="H199" s="90"/>
-      <c r="I199" s="73"/>
+      <c r="G199" s="53"/>
+      <c r="H199" s="88"/>
+      <c r="I199" s="71"/>
     </row>
     <row r="200" spans="7:9">
-      <c r="G200" s="54"/>
-      <c r="H200" s="90"/>
-      <c r="I200" s="73"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="88"/>
+      <c r="I200" s="71"/>
     </row>
     <row r="201" spans="7:9">
-      <c r="G201" s="54"/>
-      <c r="H201" s="90"/>
-      <c r="I201" s="73"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="88"/>
+      <c r="I201" s="71"/>
     </row>
     <row r="202" spans="7:9">
-      <c r="G202" s="54"/>
-      <c r="H202" s="90"/>
-      <c r="I202" s="73"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="88"/>
+      <c r="I202" s="71"/>
     </row>
     <row r="203" spans="7:9">
-      <c r="G203" s="54"/>
-      <c r="H203" s="90"/>
-      <c r="I203" s="73"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="88"/>
+      <c r="I203" s="71"/>
     </row>
     <row r="204" spans="7:9">
-      <c r="G204" s="54"/>
-      <c r="H204" s="90"/>
-      <c r="I204" s="73"/>
+      <c r="G204" s="53"/>
+      <c r="H204" s="88"/>
+      <c r="I204" s="71"/>
     </row>
     <row r="205" spans="7:9">
-      <c r="G205" s="54"/>
-      <c r="H205" s="90"/>
-      <c r="I205" s="73"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="88"/>
+      <c r="I205" s="71"/>
     </row>
     <row r="206" spans="7:9">
-      <c r="G206" s="54"/>
-      <c r="H206" s="90"/>
-      <c r="I206" s="73"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="88"/>
+      <c r="I206" s="71"/>
     </row>
     <row r="207" spans="7:9">
-      <c r="G207" s="54"/>
-      <c r="H207" s="90"/>
-      <c r="I207" s="73"/>
+      <c r="G207" s="53"/>
+      <c r="H207" s="88"/>
+      <c r="I207" s="71"/>
     </row>
     <row r="208" spans="7:9">
-      <c r="G208" s="54"/>
-      <c r="H208" s="90"/>
-      <c r="I208" s="73"/>
+      <c r="G208" s="53"/>
+      <c r="H208" s="88"/>
+      <c r="I208" s="71"/>
     </row>
     <row r="209" spans="7:9">
-      <c r="G209" s="54"/>
-      <c r="H209" s="90"/>
-      <c r="I209" s="73"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="88"/>
+      <c r="I209" s="71"/>
     </row>
     <row r="210" spans="7:9">
-      <c r="G210" s="54"/>
-      <c r="H210" s="90"/>
-      <c r="I210" s="73"/>
+      <c r="G210" s="53"/>
+      <c r="H210" s="88"/>
+      <c r="I210" s="71"/>
     </row>
     <row r="211" spans="7:9">
-      <c r="G211" s="54"/>
-      <c r="H211" s="90"/>
-      <c r="I211" s="73"/>
+      <c r="G211" s="53"/>
+      <c r="H211" s="88"/>
+      <c r="I211" s="71"/>
     </row>
     <row r="212" spans="7:9">
-      <c r="G212" s="54"/>
-      <c r="H212" s="90"/>
-      <c r="I212" s="73"/>
+      <c r="G212" s="53"/>
+      <c r="H212" s="88"/>
+      <c r="I212" s="71"/>
     </row>
     <row r="213" spans="7:9">
-      <c r="G213" s="54"/>
-      <c r="H213" s="90"/>
-      <c r="I213" s="73"/>
+      <c r="G213" s="53"/>
+      <c r="H213" s="88"/>
+      <c r="I213" s="71"/>
     </row>
     <row r="214" spans="7:9">
-      <c r="G214" s="54"/>
-      <c r="H214" s="90"/>
-      <c r="I214" s="73"/>
+      <c r="G214" s="53"/>
+      <c r="H214" s="88"/>
+      <c r="I214" s="71"/>
     </row>
     <row r="215" spans="7:9">
-      <c r="G215" s="54"/>
-      <c r="H215" s="90"/>
-      <c r="I215" s="73"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="88"/>
+      <c r="I215" s="71"/>
     </row>
     <row r="216" spans="7:9">
-      <c r="G216" s="54"/>
-      <c r="H216" s="90"/>
-      <c r="I216" s="73"/>
+      <c r="G216" s="53"/>
+      <c r="H216" s="88"/>
+      <c r="I216" s="71"/>
     </row>
     <row r="217" spans="7:9">
-      <c r="G217" s="54"/>
-      <c r="H217" s="90"/>
-      <c r="I217" s="73"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="88"/>
+      <c r="I217" s="71"/>
     </row>
     <row r="218" spans="7:9">
-      <c r="G218" s="54"/>
-      <c r="H218" s="90"/>
-      <c r="I218" s="73"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="88"/>
+      <c r="I218" s="71"/>
     </row>
     <row r="219" spans="7:9">
-      <c r="G219" s="54"/>
-      <c r="H219" s="90"/>
-      <c r="I219" s="73"/>
+      <c r="G219" s="53"/>
+      <c r="H219" s="88"/>
+      <c r="I219" s="71"/>
     </row>
     <row r="220" spans="7:9">
-      <c r="G220" s="54"/>
-      <c r="H220" s="90"/>
-      <c r="I220" s="73"/>
+      <c r="G220" s="53"/>
+      <c r="H220" s="88"/>
+      <c r="I220" s="71"/>
     </row>
     <row r="221" spans="7:9">
-      <c r="G221" s="54"/>
-      <c r="H221" s="90"/>
-      <c r="I221" s="73"/>
+      <c r="G221" s="53"/>
+      <c r="H221" s="88"/>
+      <c r="I221" s="71"/>
     </row>
     <row r="222" spans="7:9">
-      <c r="G222" s="54"/>
-      <c r="H222" s="90"/>
-      <c r="I222" s="73"/>
+      <c r="G222" s="53"/>
+      <c r="H222" s="88"/>
+      <c r="I222" s="71"/>
     </row>
     <row r="223" spans="7:9">
-      <c r="G223" s="54"/>
-      <c r="H223" s="90"/>
-      <c r="I223" s="73"/>
+      <c r="G223" s="53"/>
+      <c r="H223" s="88"/>
+      <c r="I223" s="71"/>
     </row>
     <row r="224" spans="7:9">
-      <c r="G224" s="54"/>
-      <c r="H224" s="90"/>
-      <c r="I224" s="73"/>
+      <c r="G224" s="53"/>
+      <c r="H224" s="88"/>
+      <c r="I224" s="71"/>
     </row>
     <row r="225" spans="7:9">
-      <c r="G225" s="54"/>
-      <c r="H225" s="90"/>
-      <c r="I225" s="73"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="88"/>
+      <c r="I225" s="71"/>
     </row>
     <row r="226" spans="7:9">
-      <c r="G226" s="54"/>
-      <c r="H226" s="90"/>
-      <c r="I226" s="73"/>
+      <c r="G226" s="53"/>
+      <c r="H226" s="88"/>
+      <c r="I226" s="71"/>
     </row>
     <row r="227" spans="7:9">
-      <c r="G227" s="54"/>
-      <c r="H227" s="90"/>
-      <c r="I227" s="73"/>
+      <c r="G227" s="53"/>
+      <c r="H227" s="88"/>
+      <c r="I227" s="71"/>
     </row>
     <row r="228" spans="7:9">
-      <c r="G228" s="54"/>
-      <c r="H228" s="90"/>
-      <c r="I228" s="73"/>
+      <c r="G228" s="53"/>
+      <c r="H228" s="88"/>
+      <c r="I228" s="71"/>
     </row>
     <row r="229" spans="7:9">
-      <c r="G229" s="54"/>
-      <c r="H229" s="90"/>
-      <c r="I229" s="73"/>
+      <c r="G229" s="53"/>
+      <c r="H229" s="88"/>
+      <c r="I229" s="71"/>
     </row>
     <row r="230" spans="7:9">
-      <c r="G230" s="54"/>
-      <c r="H230" s="90"/>
-      <c r="I230" s="73"/>
+      <c r="G230" s="53"/>
+      <c r="H230" s="88"/>
+      <c r="I230" s="71"/>
     </row>
     <row r="231" spans="7:9">
-      <c r="G231" s="54"/>
-      <c r="H231" s="90"/>
-      <c r="I231" s="73"/>
-    </row>
-    <row r="232" spans="7:9">
-      <c r="G232" s="54"/>
-      <c r="H232" s="90"/>
-      <c r="I232" s="73"/>
+      <c r="G231" s="53"/>
+      <c r="H231" s="88"/>
+      <c r="I231" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="J3:K3"/>
@@ -3179,6 +3193,17 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="J2:R2"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3211,26 +3236,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="111"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
@@ -3328,7 +3353,7 @@
       <c r="G6" s="27">
         <v>1820</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="141" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="23">
@@ -3358,7 +3383,7 @@
       <c r="G7" s="27">
         <v>1820</v>
       </c>
-      <c r="H7" s="131"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="23">
         <v>45549</v>
       </c>
@@ -3385,7 +3410,7 @@
       <c r="G8" s="27">
         <v>1820</v>
       </c>
-      <c r="H8" s="131"/>
+      <c r="H8" s="141"/>
       <c r="I8" s="23">
         <v>45567</v>
       </c>
@@ -3412,7 +3437,7 @@
       <c r="G9" s="27">
         <v>1830</v>
       </c>
-      <c r="H9" s="131"/>
+      <c r="H9" s="141"/>
       <c r="I9" s="23">
         <v>45568</v>
       </c>
@@ -3439,7 +3464,7 @@
       <c r="G10" s="27">
         <v>1830</v>
       </c>
-      <c r="H10" s="131"/>
+      <c r="H10" s="141"/>
       <c r="I10" s="23">
         <v>45569</v>
       </c>
@@ -3524,7 +3549,7 @@
       <c r="G13" s="27">
         <v>1840</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="142" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="23">
@@ -3553,7 +3578,7 @@
       <c r="G14" s="27">
         <v>1840</v>
       </c>
-      <c r="H14" s="133"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="23">
         <v>45598</v>
       </c>
@@ -3580,7 +3605,7 @@
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="134"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="23">
         <v>45598</v>
       </c>
@@ -3753,7 +3778,7 @@
         <f>SUM(E5:E13)+E18</f>
         <v>99922.829999999987</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="55" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="20" t="s">
@@ -3834,10 +3859,10 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="96" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="4"/>
@@ -3853,28 +3878,28 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="92" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="135">
+      <c r="E3" s="150">
         <v>520</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="97" t="s">
+      <c r="I3" s="150"/>
+      <c r="J3" s="95" t="s">
         <v>97</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="94" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3893,39 +3918,39 @@
         <v>54</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="I4" s="135"/>
+      <c r="J4" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="95" t="s">
+      <c r="K4" s="135"/>
+      <c r="L4" s="93" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="138"/>
-      <c r="J5" s="109" t="s">
+      <c r="I5" s="152"/>
+      <c r="J5" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="111"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
@@ -3933,24 +3958,24 @@
       <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="113"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="133"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="145" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3966,11 +3991,11 @@
         <v>66</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="142" t="s">
+      <c r="H7" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="100" t="s">
+      <c r="I7" s="135"/>
+      <c r="J7" s="98" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -3979,7 +4004,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="140"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="10" t="s">
         <v>68</v>
       </c>
@@ -3993,10 +4018,10 @@
         <v>65</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="142" t="s">
+      <c r="H8" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="19" t="s">
         <v>71</v>
       </c>
@@ -4006,24 +4031,24 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="147" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="99" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -4032,38 +4057,38 @@
       <c r="K9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="98" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="141"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="111"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="99" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="111"/>
+      <c r="K10" s="133"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10"/>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="97" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4076,7 +4101,7 @@
         <v>83</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="98" t="s">
         <v>105</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -4090,6 +4115,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -4099,13 +4131,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D6AD99-B32C-43DA-AD4B-EDCE662B4CA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD391CD2-5159-4A82-B61C-CBEBCF8FE0C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>ChannelM</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>^max</t>
-  </si>
-  <si>
-    <t>early Jan</t>
   </si>
   <si>
     <t>^ max</t>
@@ -297,9 +294,6 @@
   </si>
   <si>
     <t>!change</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>bal=</t>
@@ -951,6 +945,49 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1002,33 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,6 +1054,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1055,34 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1363,7 +1357,7 @@
   <dimension ref="B1:T231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1383,7 +1377,7 @@
     <col min="13" max="13" width="6.5703125" style="38" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="38" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="2.28515625" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1396,63 +1390,63 @@
     </row>
     <row r="2" spans="2:19">
       <c r="D2" s="41"/>
-      <c r="G2" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="154" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="153" t="s">
+      <c r="G2" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1">
+      <c r="B3" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="117"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="120"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="121" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1">
-      <c r="B3" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="129" t="s">
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="115"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="131"/>
+      <c r="C4" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="155" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="153"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="116"/>
-      <c r="C4" s="59" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>6</v>
@@ -1463,8 +1457,8 @@
       <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
       <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="104" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P4" s="42" t="s">
         <v>4</v>
@@ -1655,10 +1649,10 @@
       <c r="D9" s="26">
         <v>71433</v>
       </c>
-      <c r="E9" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="121"/>
+      <c r="E9" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="136"/>
       <c r="G9" s="51">
         <v>10000</v>
       </c>
@@ -1698,14 +1692,14 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="122">
+      <c r="B11" s="137">
         <v>45594</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="64">
@@ -1713,7 +1707,7 @@
         <v>8000</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="69"/>
@@ -1724,10 +1718,10 @@
         <v>45594</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="157">
+      <c r="M11" s="113">
         <v>2000</v>
       </c>
-      <c r="N11" s="156">
+      <c r="N11" s="112">
         <v>45598</v>
       </c>
       <c r="O11" s="107" t="s">
@@ -1739,12 +1733,12 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1">
-      <c r="B12" s="123"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="45"/>
       <c r="D12" s="26"/>
       <c r="E12" s="72"/>
       <c r="F12" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="75">
         <f>G9-F11</f>
@@ -1759,7 +1753,7 @@
       </c>
       <c r="K12" s="50"/>
       <c r="L12" s="103"/>
-      <c r="N12" s="156"/>
+      <c r="N12" s="112"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -1775,10 +1769,10 @@
       <c r="D13" s="26">
         <v>71397</v>
       </c>
-      <c r="E13" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="121"/>
+      <c r="E13" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="136"/>
       <c r="G13" s="56">
         <f>G12+10000</f>
         <v>12000</v>
@@ -1790,8 +1784,8 @@
       <c r="J13" s="43"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="156"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="112"/>
       <c r="O13" s="107"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="11"/>
@@ -1803,28 +1797,28 @@
         <v>45593</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="43">
         <v>3400</v>
       </c>
-      <c r="F14" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128"/>
+      <c r="F14" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
       <c r="L14" s="101"/>
-      <c r="M14" s="157">
+      <c r="M14" s="113">
         <f>E14</f>
         <v>3400</v>
       </c>
-      <c r="N14" s="156">
+      <c r="N14" s="112">
         <v>45598</v>
       </c>
       <c r="O14" s="107" t="s">
@@ -1859,21 +1853,21 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="124">
+      <c r="B16" s="139">
         <v>45632</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="76">
         <v>10000</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H16" s="87">
         <v>0</v>
@@ -1895,12 +1889,12 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="125"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="11"/>
       <c r="D17" s="61"/>
       <c r="E17" s="63"/>
       <c r="F17" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="65">
         <f>G13-F16</f>
@@ -1936,7 +1930,7 @@
         <v>10000</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="77">
         <v>0</v>
@@ -1953,7 +1947,7 @@
         <f>F18-J18</f>
         <v>4000</v>
       </c>
-      <c r="N18" s="158">
+      <c r="N18" s="114">
         <v>45666</v>
       </c>
       <c r="O18" s="107"/>
@@ -1975,11 +1969,11 @@
       <c r="E19" s="43">
         <v>10000</v>
       </c>
-      <c r="F19" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
+      <c r="F19" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="133"/>
+      <c r="H19" s="134"/>
       <c r="I19" s="70"/>
       <c r="J19" s="43">
         <v>10000</v>
@@ -1989,7 +1983,7 @@
       </c>
       <c r="L19" s="105"/>
       <c r="M19" s="110"/>
-      <c r="N19" s="158"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="107"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="11"/>
@@ -1997,21 +1991,21 @@
       <c r="S19" s="11"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="11" t="s">
-        <v>16</v>
+      <c r="B20" s="102">
+        <v>45664</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="90" t="s">
-        <v>91</v>
+      <c r="D20" s="90">
+        <v>73469</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="43">
         <v>10000</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="62">
         <f>F20-M20</f>
@@ -2025,7 +2019,7 @@
         <f>6000-M18</f>
         <v>2000</v>
       </c>
-      <c r="N20" s="158">
+      <c r="N20" s="114">
         <v>45666</v>
       </c>
       <c r="O20" s="107"/>
@@ -2047,7 +2041,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
       <c r="M21" s="108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N21" s="109"/>
       <c r="O21" s="11"/>
@@ -2073,14 +2067,14 @@
       <c r="L22" s="50"/>
       <c r="M22" s="52"/>
       <c r="N22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="42">
         <v>28000</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2101,7 +2095,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -2133,38 +2127,38 @@
       <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="B26" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
+      <c r="B26" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="88"/>
       <c r="I26" s="71"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="114" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
+      <c r="B27" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="88"/>
       <c r="I27" s="71"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
+      <c r="B28" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="88"/>
       <c r="I28" s="71"/>
     </row>
@@ -3185,14 +3179,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
@@ -3204,6 +3190,14 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3236,34 +3230,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3271,15 +3265,15 @@
         <v>9</v>
       </c>
       <c r="J3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="23">
@@ -3289,14 +3283,14 @@
         <v>10000</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="26">
         <f>E4</f>
         <v>10000</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="23">
         <v>45516</v>
@@ -3309,7 +3303,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="23">
         <v>45541</v>
@@ -3324,22 +3318,22 @@
         <v>1820</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="23">
         <v>45541</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="23">
         <v>45545</v>
@@ -3353,23 +3347,23 @@
       <c r="G6" s="27">
         <v>1820</v>
       </c>
-      <c r="H6" s="141" t="s">
-        <v>30</v>
+      <c r="H6" s="147" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="23">
         <v>45545</v>
       </c>
       <c r="J6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="23">
         <v>45549</v>
@@ -3383,19 +3377,19 @@
       <c r="G7" s="27">
         <v>1820</v>
       </c>
-      <c r="H7" s="141"/>
+      <c r="H7" s="147"/>
       <c r="I7" s="23">
         <v>45549</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="23">
         <v>45567</v>
@@ -3410,19 +3404,19 @@
       <c r="G8" s="27">
         <v>1820</v>
       </c>
-      <c r="H8" s="141"/>
+      <c r="H8" s="147"/>
       <c r="I8" s="23">
         <v>45567</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="23">
         <v>45568</v>
@@ -3437,19 +3431,19 @@
       <c r="G9" s="27">
         <v>1830</v>
       </c>
-      <c r="H9" s="141"/>
+      <c r="H9" s="147"/>
       <c r="I9" s="23">
         <v>45568</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="23">
         <v>45569</v>
@@ -3464,19 +3458,19 @@
       <c r="G10" s="27">
         <v>1830</v>
       </c>
-      <c r="H10" s="141"/>
+      <c r="H10" s="147"/>
       <c r="I10" s="23">
         <v>45569</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="23">
         <v>45573</v>
@@ -3492,20 +3486,20 @@
         <v>1830</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="23">
         <v>45573</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="23">
         <v>45576</v>
@@ -3521,20 +3515,20 @@
         <v>1830</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="23">
         <v>45576</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="23">
         <v>45598</v>
@@ -3549,20 +3543,20 @@
       <c r="G13" s="27">
         <v>1840</v>
       </c>
-      <c r="H13" s="142" t="s">
-        <v>37</v>
+      <c r="H13" s="148" t="s">
+        <v>36</v>
       </c>
       <c r="I13" s="23">
         <v>45598</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23">
@@ -3578,34 +3572,34 @@
       <c r="G14" s="27">
         <v>1840</v>
       </c>
-      <c r="H14" s="143"/>
+      <c r="H14" s="149"/>
       <c r="I14" s="23">
         <v>45598</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="24">
         <v>20000</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="26">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="H15" s="144"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="23">
         <v>45598</v>
       </c>
@@ -3616,7 +3610,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="23">
@@ -3633,19 +3627,19 @@
         <v>1840</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="23">
         <v>45605</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="23">
@@ -3662,20 +3656,20 @@
         <v>1850</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="23">
         <v>45610</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="23">
         <v>45611</v>
@@ -3691,22 +3685,22 @@
         <v>1850</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="23">
         <v>45611</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="23">
         <v>45627</v>
@@ -3722,19 +3716,19 @@
         <v>1840</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="23">
         <v>45627</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="23">
@@ -3751,13 +3745,13 @@
         <v>1850</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="23">
         <v>45648</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="11"/>
     </row>
@@ -3779,32 +3773,32 @@
         <v>99922.829999999987</v>
       </c>
       <c r="F23" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="L23" s="37"/>
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="31">
         <v>180000</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="33">
         <v>45648</v>
@@ -3812,7 +3806,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="33">
         <v>45612</v>
@@ -3860,17 +3854,17 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3879,249 +3873,242 @@
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="C3" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="151">
+        <v>520</v>
+      </c>
+      <c r="F3" s="151"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="150">
-        <v>520</v>
-      </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="150" t="s">
+      <c r="I3" s="151"/>
+      <c r="J3" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="94" t="s">
         <v>51</v>
-      </c>
-      <c r="L3" s="94" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="149" t="s">
+      <c r="I4" s="120"/>
+      <c r="J4" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135" t="s">
+      <c r="K4" s="120"/>
+      <c r="L4" s="93" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="135"/>
-      <c r="L4" s="93" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
       <c r="C5" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="154"/>
+      <c r="J5" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="151" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="152"/>
-      <c r="J5" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="133"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="145" t="s">
+      <c r="C7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="120"/>
+      <c r="J7" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="148" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="135"/>
-      <c r="J7" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="156"/>
+      <c r="C8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="146"/>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="120"/>
+      <c r="J8" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="148" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="157" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="147" t="s">
+      <c r="C9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="135"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30">
+      <c r="B10" s="157"/>
+      <c r="C10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="147"/>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="133"/>
+      <c r="E10" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="118"/>
       <c r="G10" s="18"/>
       <c r="H10" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="131" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="133"/>
+      <c r="K10" s="118"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10"/>
       <c r="C11" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -4131,6 +4118,13 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD391CD2-5159-4A82-B61C-CBEBCF8FE0C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3479EC40-9CEB-4F06-9288-C9BAFF954B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,23 @@
     <sheet name="RMB" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
-  <si>
-    <t>ChannelM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>USD withdrawal</t>
   </si>
@@ -39,9 +47,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>RMB</t>
   </si>
   <si>
@@ -75,24 +80,12 @@
     <t>^ max</t>
   </si>
   <si>
-    <t>mid 2025</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>^Rmb200k</t>
-  </si>
-  <si>
-    <t>withdrawal</t>
-  </si>
-  <si>
     <t>deposit in Sgp</t>
   </si>
   <si>
-    <t>whose ChannelA</t>
-  </si>
-  <si>
     <t>提现</t>
   </si>
   <si>
@@ -103,9 +96,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>unimp</t>
   </si>
   <si>
     <t>no FX</t>
@@ -136,9 +126,6 @@
 柜台</t>
   </si>
   <si>
-    <t xml:space="preserve">TJJ </t>
-  </si>
-  <si>
     <t>late Oct</t>
   </si>
   <si>
@@ -146,9 +133,6 @@
   </si>
   <si>
     <t>total 2024 channelA::TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">til </t>
   </si>
   <si>
     <t>total RMB ex-China</t>
@@ -350,9 +334,6 @@
   </si>
   <si>
     <t>LSQ USD TD</t>
-  </si>
-  <si>
-    <t>^ max=6k</t>
   </si>
   <si>
     <t>存bank</t>
@@ -395,6 +376,9 @@
   </si>
   <si>
     <t>physical carry出境</t>
+  </si>
+  <si>
+    <t>til 9Jan2025</t>
   </si>
 </sst>
 </file>
@@ -944,7 +928,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,41 +935,8 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1039,6 +989,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,28 +1040,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1354,16 +1340,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T231"/>
+  <dimension ref="B1:Q231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="39" customWidth="1"/>
@@ -1377,119 +1363,101 @@
     <col min="13" max="13" width="6.5703125" style="38" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="38" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:16">
       <c r="D1" s="41"/>
       <c r="G1" s="48"/>
       <c r="H1" s="68"/>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:16">
       <c r="D2" s="41"/>
-      <c r="G2" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="115" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1">
-      <c r="B3" s="130" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="116" t="s">
+      <c r="G2" s="145" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1">
+      <c r="B3" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="120"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="100"/>
-      <c r="M3" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="115"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="131"/>
+      <c r="M3" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="134"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="119"/>
       <c r="C4" s="59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="J4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="J4" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="2:19">
+        <v>99</v>
+      </c>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="23">
         <v>45490</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="26">
         <v>72844</v>
@@ -1516,17 +1484,14 @@
       <c r="M5" s="42"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="23">
         <v>45511</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="57">
         <v>72000.001000000004</v>
@@ -1551,17 +1516,14 @@
       <c r="M6" s="42"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="23">
         <v>45512</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="26">
         <v>71992</v>
@@ -1592,22 +1554,19 @@
         <v>45514</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="42">
+        <v>11</v>
+      </c>
+      <c r="P7" s="42">
         <f>SUM(J5:J7)+M7</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15" customHeight="1">
+    <row r="8" spans="2:16" ht="15" customHeight="1">
       <c r="B8" s="23">
         <v>45575</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="26">
         <v>70265</v>
@@ -1634,25 +1593,22 @@
       <c r="M8" s="52"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1">
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" customHeight="1">
       <c r="B9" s="23">
         <v>45593</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="26">
         <v>71433</v>
       </c>
-      <c r="E9" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="136"/>
+      <c r="E9" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="124"/>
       <c r="G9" s="51">
         <v>10000</v>
       </c>
@@ -1666,12 +1622,9 @@
       <c r="M9" s="52"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="2:19" ht="4.5" customHeight="1">
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="2:16" ht="4.5" customHeight="1">
       <c r="B10" s="78"/>
       <c r="C10" s="11"/>
       <c r="D10" s="26"/>
@@ -1686,20 +1639,17 @@
       <c r="M10" s="52"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="137">
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="125">
         <v>45594</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="64">
@@ -1707,7 +1657,7 @@
         <v>8000</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="69"/>
@@ -1718,27 +1668,24 @@
         <v>45594</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="113">
+      <c r="M11" s="112">
         <v>2000</v>
       </c>
-      <c r="N11" s="112">
+      <c r="N11" s="111">
         <v>45598</v>
       </c>
       <c r="O11" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1">
-      <c r="B12" s="138"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" customHeight="1">
+      <c r="B12" s="126"/>
       <c r="C12" s="45"/>
       <c r="D12" s="26"/>
       <c r="E12" s="72"/>
       <c r="F12" s="64" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G12" s="75">
         <f>G9-F11</f>
@@ -1749,30 +1696,27 @@
       </c>
       <c r="I12" s="69"/>
       <c r="J12" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="50"/>
       <c r="L12" s="103"/>
-      <c r="N12" s="112"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1">
+      <c r="N12" s="111"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="2:16" ht="15" customHeight="1">
       <c r="B13" s="23">
         <v>45595</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="26">
         <v>71397</v>
       </c>
-      <c r="E13" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="136"/>
+      <c r="E13" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="124"/>
       <c r="G13" s="56">
         <f>G12+10000</f>
         <v>12000</v>
@@ -1784,55 +1728,49 @@
       <c r="J13" s="43"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="111"/>
       <c r="O13" s="107"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="2:19">
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="23">
         <v>45593</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E14" s="43">
         <v>3400</v>
       </c>
-      <c r="F14" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
+      <c r="F14" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="101"/>
-      <c r="M14" s="113">
+      <c r="M14" s="112">
         <f>E14</f>
         <v>3400</v>
       </c>
-      <c r="N14" s="112">
+      <c r="N14" s="111">
         <v>45598</v>
       </c>
       <c r="O14" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="42">
+        <v>11</v>
+      </c>
+      <c r="P14" s="42">
         <f>SUM(J5:J11)+SUM(M7:M14)</f>
         <v>51400</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="5.25" customHeight="1">
+    <row r="15" spans="2:16" ht="5.25" customHeight="1">
       <c r="B15" s="78"/>
       <c r="C15" s="46"/>
       <c r="D15" s="61"/>
@@ -1847,27 +1785,24 @@
       <c r="M15" s="52"/>
       <c r="N15" s="23"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="139">
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="127">
         <v>45632</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="76">
         <v>10000</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H16" s="87">
         <v>0</v>
@@ -1883,18 +1818,15 @@
       <c r="M16" s="49"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="140"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="128"/>
       <c r="C17" s="11"/>
       <c r="D17" s="61"/>
       <c r="E17" s="63"/>
       <c r="F17" s="64" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G17" s="65">
         <f>G13-F16</f>
@@ -1910,17 +1842,14 @@
       <c r="M17" s="49"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="84">
         <v>45659</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="61">
         <v>73183</v>
@@ -1930,7 +1859,7 @@
         <v>10000</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H18" s="77">
         <v>0</v>
@@ -1947,21 +1876,18 @@
         <f>F18-J18</f>
         <v>4000</v>
       </c>
-      <c r="N18" s="114">
+      <c r="N18" s="113">
         <v>45666</v>
       </c>
       <c r="O18" s="107"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="102">
         <v>45663</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="57">
         <v>73400.001000000004</v>
@@ -1969,11 +1895,11 @@
       <c r="E19" s="43">
         <v>10000</v>
       </c>
-      <c r="F19" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="134"/>
+      <c r="F19" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="121"/>
+      <c r="H19" s="122"/>
       <c r="I19" s="70"/>
       <c r="J19" s="43">
         <v>10000</v>
@@ -1983,19 +1909,19 @@
       </c>
       <c r="L19" s="105"/>
       <c r="M19" s="110"/>
-      <c r="N19" s="114"/>
+      <c r="N19" s="113"/>
       <c r="O19" s="107"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="P19" s="42">
+        <f>P14+SUM(J16:J19)+M18</f>
+        <v>81400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="102">
         <v>45664</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="90">
         <v>73469</v>
@@ -2004,31 +1930,22 @@
       <c r="F20" s="43">
         <v>10000</v>
       </c>
-      <c r="G20" s="77" t="s">
-        <v>89</v>
+      <c r="G20" s="77">
+        <v>12000</v>
       </c>
       <c r="H20" s="62">
-        <f>F20-M20</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="70"/>
       <c r="J20" s="43"/>
       <c r="K20" s="50"/>
       <c r="L20" s="106"/>
-      <c r="M20" s="110">
-        <f>6000-M18</f>
-        <v>2000</v>
-      </c>
-      <c r="N20" s="114">
-        <v>45666</v>
-      </c>
+      <c r="M20" s="110"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="107"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="26"/>
@@ -2040,21 +1957,16 @@
       <c r="J21" s="47"/>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
-      <c r="M21" s="108" t="s">
-        <v>108</v>
-      </c>
+      <c r="M21" s="108"/>
       <c r="N21" s="109"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="54"/>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="54"/>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="44"/>
@@ -2067,19 +1979,12 @@
       <c r="L22" s="50"/>
       <c r="M22" s="52"/>
       <c r="N22" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O22" s="11"/>
-      <c r="P22" s="42">
-        <v>28000</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="26"/>
@@ -2094,14 +1999,9 @@
       <c r="M23" s="52"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="26"/>
@@ -2116,68 +2016,65 @@
       <c r="M24" s="52"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="2:17">
       <c r="G25" s="53"/>
       <c r="H25" s="88"/>
       <c r="I25" s="71"/>
     </row>
-    <row r="26" spans="2:20" ht="17.25">
-      <c r="B26" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
+    <row r="26" spans="2:17" ht="17.25">
+      <c r="B26" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="88"/>
       <c r="I26" s="71"/>
     </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
+    <row r="27" spans="2:17">
+      <c r="B27" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
       <c r="H27" s="88"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
+    <row r="28" spans="2:17">
+      <c r="B28" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="88"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:17">
       <c r="G29" s="53"/>
       <c r="H29" s="88"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:17">
       <c r="G30" s="53"/>
       <c r="H30" s="88"/>
       <c r="I30" s="71"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:17">
       <c r="G31" s="53"/>
       <c r="H31" s="88"/>
       <c r="I31" s="71"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:17">
       <c r="G32" s="53"/>
       <c r="H32" s="88"/>
       <c r="I32" s="71"/>
@@ -3178,7 +3075,14 @@
       <c r="I231" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
@@ -3190,14 +3094,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3206,619 +3102,617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="116" t="s">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="136"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="114"/>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="146" t="s">
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="11"/>
+      <c r="C4" s="23">
+        <v>45514</v>
+      </c>
+      <c r="D4" s="24">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="116" t="s">
+      <c r="F4" s="26">
+        <f>D4</f>
+        <v>10000</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="11" t="s">
+      <c r="H4" s="23">
+        <v>45516</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="C5" s="23">
+        <v>45541</v>
+      </c>
+      <c r="D5">
+        <v>10072.86</v>
+      </c>
+      <c r="E5" s="25">
+        <v>5.4741</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1820</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="H5" s="23">
+        <v>45541</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="J5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="11" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23">
+        <v>45545</v>
+      </c>
+      <c r="D6">
+        <v>10067.77</v>
+      </c>
+      <c r="E6" s="25">
+        <v>5.4713000000000003</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1820</v>
+      </c>
+      <c r="G6" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="23">
+        <v>45545</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="23">
-        <v>45514</v>
-      </c>
-      <c r="E4" s="24">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="26">
-        <f>E4</f>
-        <v>10000</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="23">
-        <v>45516</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="23">
-        <v>45541</v>
-      </c>
-      <c r="E5">
-        <v>10072.86</v>
-      </c>
-      <c r="F5" s="25">
-        <v>5.4741</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="C7" s="23">
+        <v>45549</v>
+      </c>
+      <c r="D7" s="28">
+        <v>9995.7999999999993</v>
+      </c>
+      <c r="E7" s="25">
+        <v>5.4922000000000004</v>
+      </c>
+      <c r="F7" s="27">
         <v>1820</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="23">
-        <v>45541</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="23">
-        <v>45545</v>
-      </c>
-      <c r="E6">
-        <v>10067.77</v>
-      </c>
-      <c r="F6" s="25">
-        <v>5.4713000000000003</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="G7" s="147"/>
+      <c r="H7" s="23">
+        <v>45549</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23">
+        <v>45567</v>
+      </c>
+      <c r="D8" s="28">
+        <v>9971.7800000000007</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" ref="E8:E14" si="0">D8/F8</f>
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="F8" s="27">
         <v>1820</v>
       </c>
-      <c r="H6" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="23">
-        <v>45545</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="23">
-        <v>45549</v>
-      </c>
-      <c r="E7" s="28">
-        <v>9995.7999999999993</v>
-      </c>
-      <c r="F7" s="25">
-        <v>5.4922000000000004</v>
-      </c>
-      <c r="G7" s="27">
-        <v>1820</v>
-      </c>
-      <c r="H7" s="147"/>
-      <c r="I7" s="23">
-        <v>45549</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="G8" s="147"/>
+      <c r="H8" s="23">
         <v>45567</v>
       </c>
-      <c r="E8" s="28">
-        <v>9971.7800000000007</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" ref="F8:F14" si="0">E8/G8</f>
-        <v>5.4790000000000001</v>
-      </c>
-      <c r="G8" s="27">
-        <v>1820</v>
-      </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="23">
-        <v>45567</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="23">
+      <c r="I8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="23">
         <v>45568</v>
       </c>
-      <c r="E9" s="28">
+      <c r="D9" s="28">
         <v>9981.18</v>
       </c>
-      <c r="F9" s="25">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>5.4541967213114759</v>
       </c>
-      <c r="G9" s="27">
+      <c r="F9" s="27">
         <v>1830</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="23">
+      <c r="G9" s="147"/>
+      <c r="H9" s="23">
         <v>45568</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23">
         <v>45569</v>
       </c>
-      <c r="E10" s="28">
+      <c r="D10" s="28">
         <v>9974.42</v>
       </c>
-      <c r="F10" s="25">
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>5.4505027322404374</v>
       </c>
-      <c r="G10" s="27">
+      <c r="F10" s="27">
         <v>1830</v>
       </c>
-      <c r="H10" s="147"/>
-      <c r="I10" s="23">
+      <c r="G10" s="147"/>
+      <c r="H10" s="23">
         <v>45569</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="23">
         <v>45573</v>
       </c>
-      <c r="E11" s="11">
+      <c r="D11" s="11">
         <v>9958.67</v>
       </c>
-      <c r="F11" s="25">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>5.4418961748633876</v>
       </c>
-      <c r="G11" s="27">
+      <c r="F11" s="27">
         <v>1830</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="G11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="23">
         <v>45573</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="23">
         <v>45576</v>
       </c>
-      <c r="E12" s="11">
+      <c r="D12" s="11">
         <v>9954.65</v>
       </c>
-      <c r="F12" s="25">
+      <c r="E12" s="25">
         <f t="shared" si="0"/>
         <v>5.4396994535519125</v>
       </c>
-      <c r="G12" s="27">
+      <c r="F12" s="27">
         <v>1830</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="G12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="23">
         <v>45576</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="23">
         <v>45598</v>
       </c>
-      <c r="E13" s="11">
+      <c r="D13" s="11">
         <v>9954.2199999999993</v>
       </c>
-      <c r="F13" s="25">
+      <c r="E13" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="G13" s="27">
+      <c r="F13" s="27">
         <v>1840</v>
       </c>
-      <c r="H13" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="G13" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23">
         <v>45598</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="23">
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="11"/>
+      <c r="C14" s="23">
         <v>45598</v>
       </c>
-      <c r="E14" s="11">
+      <c r="D14" s="11">
         <v>9954.2199999999993</v>
       </c>
-      <c r="F14" s="25">
+      <c r="E14" s="25">
         <f t="shared" si="0"/>
         <v>5.4099021739130428</v>
       </c>
-      <c r="G14" s="27">
+      <c r="F14" s="27">
         <v>1840</v>
       </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="23">
+      <c r="G14" s="149"/>
+      <c r="H14" s="23">
         <v>45598</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="11"/>
+      <c r="C15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="26">
+        <f>D15</f>
+        <v>20000</v>
+      </c>
+      <c r="G15" s="150"/>
+      <c r="H15" s="23">
+        <v>45598</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="11"/>
+      <c r="C16" s="23">
+        <v>45605</v>
+      </c>
+      <c r="D16" s="11">
+        <v>9991.01</v>
+      </c>
+      <c r="E16" s="25">
+        <f>D16/F16</f>
+        <v>5.4298967391304345</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1840</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="23">
+        <v>45605</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="11"/>
+      <c r="C17" s="23">
+        <v>45610</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9997.9599999999991</v>
+      </c>
+      <c r="E17" s="25">
+        <f>D17/F17</f>
+        <v>5.4043027027027026</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1850</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="23">
+        <v>45610</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="23">
+        <v>45611</v>
+      </c>
+      <c r="D18" s="11">
+        <v>9991.48</v>
+      </c>
+      <c r="E18" s="25">
+        <f>D18/F18</f>
+        <v>5.4007999999999994</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1850</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="23">
+        <v>45611</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="23">
+        <v>45627</v>
+      </c>
+      <c r="D19" s="11">
+        <v>9979.9699999999993</v>
+      </c>
+      <c r="E19" s="25">
+        <f>D19/F19</f>
+        <v>5.4238967391304342</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1840</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="23">
+        <v>45627</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="11"/>
+      <c r="C20" s="23">
+        <v>45648</v>
+      </c>
+      <c r="D20" s="11">
+        <v>9961.69</v>
+      </c>
+      <c r="E20" s="25">
+        <f>D20/F20</f>
+        <v>5.384697297297298</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1850</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="23">
+        <v>45648</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="11"/>
+      <c r="C21" s="23">
+        <v>45666</v>
+      </c>
+      <c r="D21" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="26">
+        <f>D21</f>
+        <v>20000</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="23">
+        <v>45667</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="11"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="D25" s="30">
+        <f>SUM(D5:D13)+D18</f>
+        <v>99922.829999999987</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="24">
-        <v>20000</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="26">
-        <f>E15</f>
-        <v>20000</v>
-      </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="23">
-        <v>45598</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="23">
-        <v>45605</v>
-      </c>
-      <c r="E16" s="11">
-        <v>9991.01</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E16/G16</f>
-        <v>5.4298967391304345</v>
-      </c>
-      <c r="G16" s="27">
-        <v>1840</v>
-      </c>
-      <c r="H16" s="29" t="s">
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="31">
+        <f>SUM(D4:D21)</f>
+        <v>199807.68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="33">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="23">
-        <v>45605</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="23">
-        <v>45610</v>
-      </c>
-      <c r="E17" s="11">
-        <v>9997.9599999999991</v>
-      </c>
-      <c r="F17" s="25">
-        <f>E17/G17</f>
-        <v>5.4043027027027026</v>
-      </c>
-      <c r="G17" s="27">
-        <v>1850</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="23">
-        <v>45610</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="23">
-        <v>45611</v>
-      </c>
-      <c r="E18" s="11">
-        <v>9991.48</v>
-      </c>
-      <c r="F18" s="25">
-        <f>E18/G18</f>
-        <v>5.4007999999999994</v>
-      </c>
-      <c r="G18" s="27">
-        <v>1850</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="23">
-        <v>45611</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="23">
-        <v>45627</v>
-      </c>
-      <c r="E19" s="11">
-        <v>9979.9699999999993</v>
-      </c>
-      <c r="F19" s="25">
-        <f>E19/G19</f>
-        <v>5.4238967391304342</v>
-      </c>
-      <c r="G19" s="27">
-        <v>1840</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="23">
-        <v>45627</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="23">
-        <v>45648</v>
-      </c>
-      <c r="E20" s="11">
-        <v>9961.69</v>
-      </c>
-      <c r="F20" s="25">
-        <f>E20/G20</f>
-        <v>5.384697297297298</v>
-      </c>
-      <c r="G20" s="27">
-        <v>1850</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="23">
-        <v>45648</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="E23" s="30">
-        <f>SUM(E5:E13)+E18</f>
-        <v>99922.829999999987</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="31">
-        <v>180000</v>
-      </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="33">
-        <v>45648</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="33">
+      <c r="E29" s="33">
         <v>45612</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="H13:H15"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G13:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3830,7 +3724,7 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3854,17 +3748,17 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="96" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3873,242 +3767,249 @@
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="C3" s="92" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="151">
+        <v>39</v>
+      </c>
+      <c r="E3" s="156">
         <v>520</v>
       </c>
-      <c r="F3" s="151"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="151" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="151"/>
+      <c r="H3" s="156" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="156"/>
       <c r="J3" s="95" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L3" s="94" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="120"/>
+      <c r="H4" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="139"/>
       <c r="L4" s="93" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="2"/>
       <c r="C5" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="120"/>
+        <v>90</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="139"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="118"/>
+      <c r="H5" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="158"/>
+      <c r="J5" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="137"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="139"/>
+      <c r="F6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="139"/>
+      <c r="J7" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="152"/>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="F8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="139"/>
+      <c r="J8" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="155" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="156"/>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="157" t="s">
-        <v>72</v>
+      <c r="B9" s="153" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="152" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="120"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="139"/>
       <c r="F9" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="98" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I9" s="99" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="157"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="118"/>
+        <v>68</v>
+      </c>
+      <c r="E10" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="137"/>
       <c r="G10" s="18"/>
       <c r="H10" s="99" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="118"/>
+        <v>69</v>
+      </c>
+      <c r="J10" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="137"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10"/>
       <c r="C11" s="97" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="98" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -4118,13 +4019,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3479EC40-9CEB-4F06-9288-C9BAFF954B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E593525-BF2A-4824-B44E-C9568F30FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
   <si>
     <t>USD withdrawal</t>
   </si>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -935,8 +935,41 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -989,42 +1022,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,6 +1040,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,16 +1064,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1342,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -1373,53 +1376,53 @@
     </row>
     <row r="2" spans="2:16">
       <c r="D2" s="41"/>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="134" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="115" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="135" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="66"/>
-      <c r="J3" s="138" t="s">
+      <c r="J3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="139"/>
+      <c r="K3" s="119"/>
       <c r="L3" s="100"/>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="134"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="115"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="119"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="59" t="s">
         <v>77</v>
       </c>
@@ -1432,8 +1435,8 @@
       <c r="F4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
       <c r="J4" s="42" t="s">
         <v>3</v>
       </c>
@@ -1605,10 +1608,10 @@
       <c r="D9" s="26">
         <v>71433</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="124"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="51">
         <v>10000</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="125">
+      <c r="B11" s="136">
         <v>45594</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1680,7 +1683,7 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
-      <c r="B12" s="126"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="45"/>
       <c r="D12" s="26"/>
       <c r="E12" s="72"/>
@@ -1713,10 +1716,10 @@
       <c r="D13" s="26">
         <v>71397</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="124"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="56">
         <f>G12+10000</f>
         <v>12000</v>
@@ -1746,14 +1749,14 @@
       <c r="E14" s="43">
         <v>3400</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
       <c r="L14" s="101"/>
       <c r="M14" s="112">
         <f>E14</f>
@@ -1788,7 +1791,7 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="127">
+      <c r="B16" s="138">
         <v>45632</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1821,7 +1824,7 @@
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="128"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="11"/>
       <c r="D17" s="61"/>
       <c r="E17" s="63"/>
@@ -1895,11 +1898,11 @@
       <c r="E19" s="43">
         <v>10000</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="122"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="133"/>
       <c r="I19" s="70"/>
       <c r="J19" s="43">
         <v>10000</v>
@@ -2024,38 +2027,38 @@
       <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:17" ht="17.25">
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
       <c r="H26" s="88"/>
       <c r="I26" s="71"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="88"/>
       <c r="I27" s="71"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
       <c r="H28" s="88"/>
       <c r="I28" s="71"/>
     </row>
@@ -3076,13 +3079,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
@@ -3094,6 +3090,13 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3102,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3125,15 +3128,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
       <c r="E2" s="21"/>
       <c r="F2" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
     </row>
@@ -3640,70 +3643,109 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="11"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="23">
+        <v>45669</v>
+      </c>
+      <c r="D22" s="11">
+        <v>9957.44</v>
+      </c>
+      <c r="E22" s="25">
+        <f>D22/F22</f>
+        <v>5.3824000000000005</v>
+      </c>
+      <c r="F22" s="27">
+        <v>1850</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="23">
+        <v>45670</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="11"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
     <row r="25" spans="2:11">
-      <c r="D25" s="30">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="D27" s="30">
         <f>SUM(D5:D13)+D18</f>
         <v>99922.829999999987</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E27" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="31">
-        <f>SUM(D4:D21)</f>
-        <v>199807.68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="31">
+        <f>SUM(D4:D25)</f>
+        <v>209765.12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E30" s="33">
         <v>45648</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" t="s">
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E31" s="33">
         <v>45612</v>
       </c>
     </row>
@@ -3772,15 +3814,15 @@
       <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="156">
+      <c r="E3" s="151">
         <v>520</v>
       </c>
-      <c r="F3" s="156"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="156"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="95" t="s">
         <v>86</v>
       </c>
@@ -3806,14 +3848,14 @@
         <v>44</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="139"/>
+      <c r="K4" s="119"/>
       <c r="L4" s="93" t="s">
         <v>47</v>
       </c>
@@ -3826,19 +3868,19 @@
       <c r="D5" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="139"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="157" t="s">
+      <c r="H5" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="158"/>
-      <c r="J5" s="135" t="s">
+      <c r="I5" s="154"/>
+      <c r="J5" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="137"/>
+      <c r="K5" s="145"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12">
@@ -3846,24 +3888,24 @@
       <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="139"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="137"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="155" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3879,10 +3921,10 @@
         <v>56</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="154" t="s">
+      <c r="H7" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="139"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="98" t="s">
         <v>55</v>
       </c>
@@ -3892,7 +3934,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="152"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="10" t="s">
         <v>58</v>
       </c>
@@ -3906,10 +3948,10 @@
         <v>55</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="154" t="s">
+      <c r="H8" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="139"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="19" t="s">
         <v>61</v>
       </c>
@@ -3919,16 +3961,16 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="157" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="139"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="13" t="s">
         <v>50</v>
       </c>
@@ -3950,17 +3992,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="153"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="137"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="18"/>
       <c r="H10" s="99" t="s">
         <v>55</v>
@@ -3968,10 +4010,10 @@
       <c r="I10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="135" t="s">
+      <c r="J10" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="137"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
@@ -4003,13 +4045,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E6"/>
@@ -4019,6 +4054,13 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/msff/xls/ex_Chn.xlsx
+++ b/msff/xls/ex_Chn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E593525-BF2A-4824-B44E-C9568F30FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F0CD7-7B99-41BF-833B-0B19E91A6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="17310" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t>USD withdrawal</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>psbc::gp has 3k+ as of …</t>
-  </si>
-  <si>
-    <t>psbc::tb has below 1k as of ..</t>
   </si>
   <si>
     <t>citizen</t>
@@ -379,6 +376,21 @@
   </si>
   <si>
     <t>til 9Jan2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJJ </t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>whose channelA</t>
+  </si>
+  <si>
+    <t>no channelA</t>
+  </si>
+  <si>
+    <t>psbc::tb has7k as of ..</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -746,7 +758,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -935,42 +946,6 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1022,12 +997,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,31 +1048,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1354,104 +1359,104 @@
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="89" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="88" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="37" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="0.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="37" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="D1" s="41"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="40"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="2:16">
-      <c r="D2" s="41"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="40"/>
+      <c r="G2" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1">
+      <c r="B3" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="134"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="136"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="B3" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="143" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="132"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="117"/>
+      <c r="C4" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="115"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="130"/>
-      <c r="C4" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="J4" s="42" t="s">
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="J4" s="41" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="11"/>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="104" t="s">
-        <v>99</v>
+      <c r="O4" s="103" t="s">
+        <v>98</v>
       </c>
       <c r="P4" s="11"/>
     </row>
@@ -1462,21 +1467,21 @@
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>72844</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="49">
+      <c r="E5" s="25"/>
+      <c r="F5" s="48">
         <v>10000</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <v>0</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <v>0</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="42">
+      <c r="I5" s="66"/>
+      <c r="J5" s="41">
         <f>F5</f>
         <v>10000</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>45509</v>
       </c>
       <c r="L5" s="23"/>
-      <c r="M5" s="42"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1496,19 +1501,19 @@
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <v>72000.001000000004</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>10000</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42">
         <v>0</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="43">
+      <c r="I6" s="67"/>
+      <c r="J6" s="42">
         <f>E6</f>
         <v>10000</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>45511</v>
       </c>
       <c r="L6" s="23"/>
-      <c r="M6" s="42"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1528,29 +1533,29 @@
       <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>71992</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="56">
+      <c r="E7" s="43"/>
+      <c r="F7" s="55">
         <f>J7+M7</f>
         <v>10000</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <v>0</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <v>0</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="43">
+      <c r="I7" s="66"/>
+      <c r="J7" s="42">
         <v>4000</v>
       </c>
       <c r="K7" s="23">
         <v>45512</v>
       </c>
       <c r="L7" s="23"/>
-      <c r="M7" s="42">
+      <c r="M7" s="41">
         <v>6000</v>
       </c>
       <c r="N7" s="23">
@@ -1559,7 +1564,7 @@
       <c r="O7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="41">
         <f>SUM(J5:J7)+M7</f>
         <v>30000</v>
       </c>
@@ -1571,21 +1576,21 @@
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>70265</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43">
+      <c r="E8" s="43"/>
+      <c r="F8" s="42">
         <v>10000</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="50">
         <v>0</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <v>0</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="43">
+      <c r="I8" s="66"/>
+      <c r="J8" s="42">
         <f>F8</f>
         <v>10000</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>45593</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="52"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -1605,105 +1610,105 @@
       <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>71433</v>
       </c>
-      <c r="E9" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="51">
+      <c r="E9" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="50">
         <v>10000</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <v>0</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="43"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="52"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="2:16" ht="4.5" customHeight="1">
-      <c r="B10" s="78"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="43"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="136">
+      <c r="B11" s="123">
         <v>45594</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="64">
+      <c r="D11" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="63">
         <f>J11+M11</f>
         <v>8000</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="43">
+      <c r="G11" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="42">
         <v>6000</v>
       </c>
       <c r="K11" s="23">
         <v>45594</v>
       </c>
       <c r="L11" s="23"/>
-      <c r="M11" s="112">
+      <c r="M11" s="111">
         <v>2000</v>
       </c>
-      <c r="N11" s="111">
+      <c r="N11" s="110">
         <v>45598</v>
       </c>
-      <c r="O11" s="107" t="s">
+      <c r="O11" s="106" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
-      <c r="B12" s="137"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="75">
+      <c r="B12" s="124"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="74">
         <f>G9-F11</f>
         <v>2000</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="74">
         <v>0</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="43" t="s">
+      <c r="I12" s="68"/>
+      <c r="J12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="103"/>
-      <c r="N12" s="111"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="102"/>
+      <c r="N12" s="110"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1">
@@ -1713,274 +1718,274 @@
       <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>71397</v>
       </c>
-      <c r="E13" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="56">
+      <c r="E13" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="122"/>
+      <c r="G13" s="55">
         <f>G12+10000</f>
         <v>12000</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="55">
         <v>0</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="107"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="106"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="23">
         <v>45593</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="43">
+      <c r="C14" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="42">
         <v>3400</v>
       </c>
-      <c r="F14" s="140" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="112">
+      <c r="F14" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="111">
         <f>E14</f>
         <v>3400</v>
       </c>
-      <c r="N14" s="111">
+      <c r="N14" s="110">
         <v>45598</v>
       </c>
-      <c r="O14" s="107" t="s">
+      <c r="O14" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="41">
         <f>SUM(J5:J11)+SUM(M7:M14)</f>
         <v>51400</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="5.25" customHeight="1">
-      <c r="B15" s="78"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="23"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="138">
+      <c r="B16" s="125">
         <v>45632</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="76">
+      <c r="D16" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="75">
         <v>10000</v>
       </c>
-      <c r="G16" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="87">
+      <c r="G16" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="86">
         <v>0</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="43">
+      <c r="I16" s="69"/>
+      <c r="J16" s="42">
         <v>10000</v>
       </c>
-      <c r="K16" s="85">
+      <c r="K16" s="84">
         <v>45659</v>
       </c>
-      <c r="L16" s="85"/>
-      <c r="M16" s="49"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="139"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="65">
+      <c r="D17" s="60"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="64">
         <f>G13-F16</f>
         <v>2000</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="64">
         <v>0</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="49"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>45659</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <v>73183</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="83">
+      <c r="E18" s="62"/>
+      <c r="F18" s="82">
         <v>10000</v>
       </c>
-      <c r="G18" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="77">
+      <c r="G18" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="76">
         <v>0</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="43">
+      <c r="I18" s="69"/>
+      <c r="J18" s="42">
         <v>6000</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K18" s="84">
         <v>45660</v>
       </c>
-      <c r="L18" s="105"/>
-      <c r="M18" s="110">
+      <c r="L18" s="104"/>
+      <c r="M18" s="109">
         <f>F18-J18</f>
         <v>4000</v>
       </c>
-      <c r="N18" s="113">
+      <c r="N18" s="112">
         <v>45666</v>
       </c>
-      <c r="O18" s="107"/>
+      <c r="O18" s="106"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="102">
+      <c r="B19" s="101">
         <v>45663</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="56">
         <v>73400.001000000004</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="42">
         <v>10000</v>
       </c>
-      <c r="F19" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="43">
+      <c r="F19" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="42">
         <v>10000</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="84">
         <v>45663</v>
       </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="42">
+      <c r="L19" s="104"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="41">
         <f>P14+SUM(J16:J19)+M18</f>
         <v>81400</v>
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="102">
+      <c r="B20" s="101">
         <v>45664</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="89">
         <v>73469</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43">
+      <c r="E20" s="43"/>
+      <c r="F20" s="42">
         <v>10000</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="76">
         <v>12000</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="61">
         <v>0</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="107"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="106"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="109"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="108"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="54"/>
+      <c r="Q21" s="53"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="52"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="11" t="s">
         <v>15</v>
       </c>
@@ -1990,16 +1995,16 @@
     <row r="23" spans="2:17">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="52"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -2007,1078 +2012,1085 @@
     <row r="24" spans="2:17">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="52"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="G25" s="53"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="71"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="2:17" ht="17.25">
-      <c r="B26" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="71"/>
+      <c r="B26" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="71"/>
+      <c r="B27" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="70"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="71"/>
+      <c r="B28" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="70"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="G29" s="53"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="71"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="G30" s="53"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="71"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="G31" s="53"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="71"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="70"/>
     </row>
     <row r="32" spans="2:17">
-      <c r="G32" s="53"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="71"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="7:9">
-      <c r="G33" s="53"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="71"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="7:9">
-      <c r="G34" s="53"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="71"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="70"/>
     </row>
     <row r="35" spans="7:9">
-      <c r="G35" s="53"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="71"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="70"/>
     </row>
     <row r="36" spans="7:9">
-      <c r="G36" s="53"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="71"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="70"/>
     </row>
     <row r="37" spans="7:9">
-      <c r="G37" s="53"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="71"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="70"/>
     </row>
     <row r="38" spans="7:9">
-      <c r="G38" s="53"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="71"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="7:9">
-      <c r="G39" s="53"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="71"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="7:9">
-      <c r="G40" s="53"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="71"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="70"/>
     </row>
     <row r="41" spans="7:9">
-      <c r="G41" s="53"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="71"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="7:9">
-      <c r="G42" s="53"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="71"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="7:9">
-      <c r="G43" s="53"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="71"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="70"/>
     </row>
     <row r="44" spans="7:9">
-      <c r="G44" s="53"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="71"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="53"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="71"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="70"/>
     </row>
     <row r="46" spans="7:9">
-      <c r="G46" s="53"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="71"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="70"/>
     </row>
     <row r="47" spans="7:9">
-      <c r="G47" s="53"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="71"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="53"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="71"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="70"/>
     </row>
     <row r="49" spans="7:9">
-      <c r="G49" s="53"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="71"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="70"/>
     </row>
     <row r="50" spans="7:9">
-      <c r="G50" s="53"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="71"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="70"/>
     </row>
     <row r="51" spans="7:9">
-      <c r="G51" s="53"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="71"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="70"/>
     </row>
     <row r="52" spans="7:9">
-      <c r="G52" s="53"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="71"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="7:9">
-      <c r="G53" s="53"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="71"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="7:9">
-      <c r="G54" s="53"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="71"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="7:9">
-      <c r="G55" s="53"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="71"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="53"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="71"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="70"/>
     </row>
     <row r="57" spans="7:9">
-      <c r="G57" s="53"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="71"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="7:9">
-      <c r="G58" s="53"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="71"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="7:9">
-      <c r="G59" s="53"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="71"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="7:9">
-      <c r="G60" s="53"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="71"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="70"/>
     </row>
     <row r="61" spans="7:9">
-      <c r="G61" s="53"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="71"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="70"/>
     </row>
     <row r="62" spans="7:9">
-      <c r="G62" s="53"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="71"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="70"/>
     </row>
     <row r="63" spans="7:9">
-      <c r="G63" s="53"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="71"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="70"/>
     </row>
     <row r="64" spans="7:9">
-      <c r="G64" s="53"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="71"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="70"/>
     </row>
     <row r="65" spans="7:9">
-      <c r="G65" s="53"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="71"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="70"/>
     </row>
     <row r="66" spans="7:9">
-      <c r="G66" s="53"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="71"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="70"/>
     </row>
     <row r="67" spans="7:9">
-      <c r="G67" s="53"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="71"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="70"/>
     </row>
     <row r="68" spans="7:9">
-      <c r="G68" s="53"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="71"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="70"/>
     </row>
     <row r="69" spans="7:9">
-      <c r="G69" s="53"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="71"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="70"/>
     </row>
     <row r="70" spans="7:9">
-      <c r="G70" s="53"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="71"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="70"/>
     </row>
     <row r="71" spans="7:9">
-      <c r="G71" s="53"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="71"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="70"/>
     </row>
     <row r="72" spans="7:9">
-      <c r="G72" s="53"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="71"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="70"/>
     </row>
     <row r="73" spans="7:9">
-      <c r="G73" s="53"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="71"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="70"/>
     </row>
     <row r="74" spans="7:9">
-      <c r="G74" s="53"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="71"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="70"/>
     </row>
     <row r="75" spans="7:9">
-      <c r="G75" s="53"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="71"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="70"/>
     </row>
     <row r="76" spans="7:9">
-      <c r="G76" s="53"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="71"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="70"/>
     </row>
     <row r="77" spans="7:9">
-      <c r="G77" s="53"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="71"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="70"/>
     </row>
     <row r="78" spans="7:9">
-      <c r="G78" s="53"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="71"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="70"/>
     </row>
     <row r="79" spans="7:9">
-      <c r="G79" s="53"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="71"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="70"/>
     </row>
     <row r="80" spans="7:9">
-      <c r="G80" s="53"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="71"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="70"/>
     </row>
     <row r="81" spans="7:9">
-      <c r="G81" s="53"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="71"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="70"/>
     </row>
     <row r="82" spans="7:9">
-      <c r="G82" s="53"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="71"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="70"/>
     </row>
     <row r="83" spans="7:9">
-      <c r="G83" s="53"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="71"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="70"/>
     </row>
     <row r="84" spans="7:9">
-      <c r="G84" s="53"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="71"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="70"/>
     </row>
     <row r="85" spans="7:9">
-      <c r="G85" s="53"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="71"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="70"/>
     </row>
     <row r="86" spans="7:9">
-      <c r="G86" s="53"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="71"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="87"/>
+      <c r="I86" s="70"/>
     </row>
     <row r="87" spans="7:9">
-      <c r="G87" s="53"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="71"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="70"/>
     </row>
     <row r="88" spans="7:9">
-      <c r="G88" s="53"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="71"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="70"/>
     </row>
     <row r="89" spans="7:9">
-      <c r="G89" s="53"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="71"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="70"/>
     </row>
     <row r="90" spans="7:9">
-      <c r="G90" s="53"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="71"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="87"/>
+      <c r="I90" s="70"/>
     </row>
     <row r="91" spans="7:9">
-      <c r="G91" s="53"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="71"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="70"/>
     </row>
     <row r="92" spans="7:9">
-      <c r="G92" s="53"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="71"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="87"/>
+      <c r="I92" s="70"/>
     </row>
     <row r="93" spans="7:9">
-      <c r="G93" s="53"/>
-      <c r="H93" s="88"/>
-      <c r="I93" s="71"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="70"/>
     </row>
     <row r="94" spans="7:9">
-      <c r="G94" s="53"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="71"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="87"/>
+      <c r="I94" s="70"/>
     </row>
     <row r="95" spans="7:9">
-      <c r="G95" s="53"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="71"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="70"/>
     </row>
     <row r="96" spans="7:9">
-      <c r="G96" s="53"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="71"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="87"/>
+      <c r="I96" s="70"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="53"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="71"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="70"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="53"/>
-      <c r="H98" s="88"/>
-      <c r="I98" s="71"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="70"/>
     </row>
     <row r="99" spans="7:9">
-      <c r="G99" s="53"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="71"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="87"/>
+      <c r="I99" s="70"/>
     </row>
     <row r="100" spans="7:9">
-      <c r="G100" s="53"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="71"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="87"/>
+      <c r="I100" s="70"/>
     </row>
     <row r="101" spans="7:9">
-      <c r="G101" s="53"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="71"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="87"/>
+      <c r="I101" s="70"/>
     </row>
     <row r="102" spans="7:9">
-      <c r="G102" s="53"/>
-      <c r="H102" s="88"/>
-      <c r="I102" s="71"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="70"/>
     </row>
     <row r="103" spans="7:9">
-      <c r="G103" s="53"/>
-      <c r="H103" s="88"/>
-      <c r="I103" s="71"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="87"/>
+      <c r="I103" s="70"/>
     </row>
     <row r="104" spans="7:9">
-      <c r="G104" s="53"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="71"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="87"/>
+      <c r="I104" s="70"/>
     </row>
     <row r="105" spans="7:9">
-      <c r="G105" s="53"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="71"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="87"/>
+      <c r="I105" s="70"/>
     </row>
     <row r="106" spans="7:9">
-      <c r="G106" s="53"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="71"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="87"/>
+      <c r="I106" s="70"/>
     </row>
     <row r="107" spans="7:9">
-      <c r="G107" s="53"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="71"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="87"/>
+      <c r="I107" s="70"/>
     </row>
     <row r="108" spans="7:9">
-      <c r="G108" s="53"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="71"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="87"/>
+      <c r="I108" s="70"/>
     </row>
     <row r="109" spans="7:9">
-      <c r="G109" s="53"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="71"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="87"/>
+      <c r="I109" s="70"/>
     </row>
     <row r="110" spans="7:9">
-      <c r="G110" s="53"/>
-      <c r="H110" s="88"/>
-      <c r="I110" s="71"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="87"/>
+      <c r="I110" s="70"/>
     </row>
     <row r="111" spans="7:9">
-      <c r="G111" s="53"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="71"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="87"/>
+      <c r="I111" s="70"/>
     </row>
     <row r="112" spans="7:9">
-      <c r="G112" s="53"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="71"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="87"/>
+      <c r="I112" s="70"/>
     </row>
     <row r="113" spans="7:9">
-      <c r="G113" s="53"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="71"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="87"/>
+      <c r="I113" s="70"/>
     </row>
     <row r="114" spans="7:9">
-      <c r="G114" s="53"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="71"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="87"/>
+      <c r="I114" s="70"/>
     </row>
     <row r="115" spans="7:9">
-      <c r="G115" s="53"/>
-      <c r="H115" s="88"/>
-      <c r="I115" s="71"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="87"/>
+      <c r="I115" s="70"/>
     </row>
     <row r="116" spans="7:9">
-      <c r="G116" s="53"/>
-      <c r="H116" s="88"/>
-      <c r="I116" s="71"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="87"/>
+      <c r="I116" s="70"/>
     </row>
     <row r="117" spans="7:9">
-      <c r="G117" s="53"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="71"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="87"/>
+      <c r="I117" s="70"/>
     </row>
     <row r="118" spans="7:9">
-      <c r="G118" s="53"/>
-      <c r="H118" s="88"/>
-      <c r="I118" s="71"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="87"/>
+      <c r="I118" s="70"/>
     </row>
     <row r="119" spans="7:9">
-      <c r="G119" s="53"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="71"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="87"/>
+      <c r="I119" s="70"/>
     </row>
     <row r="120" spans="7:9">
-      <c r="G120" s="53"/>
-      <c r="H120" s="88"/>
-      <c r="I120" s="71"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="87"/>
+      <c r="I120" s="70"/>
     </row>
     <row r="121" spans="7:9">
-      <c r="G121" s="53"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="71"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="87"/>
+      <c r="I121" s="70"/>
     </row>
     <row r="122" spans="7:9">
-      <c r="G122" s="53"/>
-      <c r="H122" s="88"/>
-      <c r="I122" s="71"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="87"/>
+      <c r="I122" s="70"/>
     </row>
     <row r="123" spans="7:9">
-      <c r="G123" s="53"/>
-      <c r="H123" s="88"/>
-      <c r="I123" s="71"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="87"/>
+      <c r="I123" s="70"/>
     </row>
     <row r="124" spans="7:9">
-      <c r="G124" s="53"/>
-      <c r="H124" s="88"/>
-      <c r="I124" s="71"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="87"/>
+      <c r="I124" s="70"/>
     </row>
     <row r="125" spans="7:9">
-      <c r="G125" s="53"/>
-      <c r="H125" s="88"/>
-      <c r="I125" s="71"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="87"/>
+      <c r="I125" s="70"/>
     </row>
     <row r="126" spans="7:9">
-      <c r="G126" s="53"/>
-      <c r="H126" s="88"/>
-      <c r="I126" s="71"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="87"/>
+      <c r="I126" s="70"/>
     </row>
     <row r="127" spans="7:9">
-      <c r="G127" s="53"/>
-      <c r="H127" s="88"/>
-      <c r="I127" s="71"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="87"/>
+      <c r="I127" s="70"/>
     </row>
     <row r="128" spans="7:9">
-      <c r="G128" s="53"/>
-      <c r="H128" s="88"/>
-      <c r="I128" s="71"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="87"/>
+      <c r="I128" s="70"/>
     </row>
     <row r="129" spans="7:9">
-      <c r="G129" s="53"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="71"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="87"/>
+      <c r="I129" s="70"/>
     </row>
     <row r="130" spans="7:9">
-      <c r="G130" s="53"/>
-      <c r="H130" s="88"/>
-      <c r="I130" s="71"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="87"/>
+      <c r